--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DAC94D-F602-401E-9A07-A94BB3928750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F263D45-8AAE-4F9F-AB83-8422CDDD0B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <sheet name="其他芯片" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">晶体管!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">贴片电阻!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">贴片结构料!$A$1:$J$43</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1495">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2686,10 +2686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DC-DC降压;输入2.5-5.5v;开关频率=1MHz;DFN8_2x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">SY8003ADFC </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3545,10 +3541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAP CER NPO;22pF;+/-5%;10V;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1111101000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5015,10 +5007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAP CER X7R;2.2nF;+/-10%;10V;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RES FILM;120Ω;+/-1%;1/16W;0402</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5577,6 +5565,268 @@
   </si>
   <si>
     <t>RC0402FR-07169KL</t>
+  </si>
+  <si>
+    <t>2082400005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT25QU02GCBB8E12-0SIT</t>
+  </si>
+  <si>
+    <t>QSPI flash;2G bits NOR FLASH;TFBGA-24(6x8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT25QU02GCBB8E12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFBGA-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSPI-FLASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6611600005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPD1135-M048-4F</t>
+  </si>
+  <si>
+    <t>JPD1135-M048-4F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC座子;5mm;9PIN;插头直径7.5mm;12.3x10x11mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpd1135-m048-4f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.3x10x11mm</t>
+  </si>
+  <si>
+    <t>1511300007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJAB25P03</t>
+  </si>
+  <si>
+    <t>MOS管P-FET;VDS:-30V;0.014ohm;-25A;3W;SOT-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-MOS-8PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdfnwb3_3x3_3-8l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模滤波器;Cap=10uF;DC-Res=0.43mΩ;Imax=20A;DC=25V;InsertionLoss=35dB;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNX025H01L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNX025</t>
+  </si>
+  <si>
+    <t>BNX025H01</t>
+  </si>
+  <si>
+    <t>1251000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111103003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>RES FILM;10KΩ;+/-1%;1/10W;0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031100009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>LDO;Fix;1A;3.3VSOT-89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMW(友台半导体)</t>
+  </si>
+  <si>
+    <t>1311107002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC降压;输入2.5-5.5v;开关频率=1MHz;IoutMax = 3A; DFN8_2x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231105002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chilisin(奇力新)</t>
+  </si>
+  <si>
+    <t>EHEI252010A-1R0M-Q8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind2520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311226002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM155R60J226ME11D</t>
+  </si>
+  <si>
+    <t>CAP CER X5R;22μF;+/-20%;6.3V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.3K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0745K3L</t>
+  </si>
+  <si>
+    <t>1111453400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;45.3KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER NPO;22pF;+/-5%;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X7R;2.2nF;+/-10%;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231105003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;1.0uH;+/-20%;DRC=28mΩ;4A;2520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;1.0uH;+/-20%;DRC=80mΩ;1.1A;0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQM21PN1R0MGHL</t>
+  </si>
+  <si>
+    <t>L0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20311000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGM2037-2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGM2037-2.5XUDX6G/TR</t>
+  </si>
+  <si>
+    <t>CAP CER X5R;4.7μF;+/-20%;6.3V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM035R60J475ME15D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311475002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111490901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;49.9Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-0749R9L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111499001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;499Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-07499RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111102002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;1KΩ;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-071KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111240001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;240Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-07240RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5651,22 +5901,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -5949,11 +6195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5964,7 +6210,7 @@
     <col min="4" max="4" width="31.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -5989,7 +6235,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -6004,7 +6250,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -6012,7 +6258,7 @@
       <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -6038,7 +6284,7 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -6082,7 +6328,7 @@
         <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -6090,7 +6336,7 @@
       <c r="F5" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -6099,7 +6345,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -6108,15 +6354,15 @@
         <v>270</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G6" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -6142,7 +6388,7 @@
       <c r="F7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -6151,24 +6397,24 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -6194,7 +6440,7 @@
       <c r="F9" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>91</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -6203,24 +6449,24 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>448</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -6229,24 +6475,24 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>448</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G11" t="s">
         <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -6255,24 +6501,24 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>448</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>450</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="G12" t="s">
         <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -6298,7 +6544,7 @@
       <c r="F13" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>91</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -6307,7 +6553,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -6316,15 +6562,15 @@
         <v>284</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G14" t="s">
         <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -6333,25 +6579,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>292</v>
+        <v>1489</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>290</v>
+        <v>1490</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>91</v>
+        <v>1491</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>341</v>
@@ -6359,7 +6605,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -6368,16 +6614,16 @@
         <v>291</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>373</v>
+        <v>290</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>334</v>
+        <v>288</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>341</v>
@@ -6385,7 +6631,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>837</v>
+        <v>371</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -6394,16 +6640,16 @@
         <v>291</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1119</v>
+        <v>373</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>91</v>
+        <v>372</v>
+      </c>
+      <c r="G17" t="s">
+        <v>334</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>341</v>
@@ -6411,25 +6657,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>178</v>
+        <v>836</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>177</v>
+        <v>1117</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>19</v>
+        <v>837</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>341</v>
@@ -6437,25 +6683,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>422</v>
+        <v>1450</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>423</v>
+        <v>1452</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>334</v>
+        <v>1451</v>
+      </c>
+      <c r="G19" t="s">
+        <v>785</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>341</v>
@@ -6463,7 +6709,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1225</v>
+        <v>178</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -6472,15 +6718,15 @@
         <v>277</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1226</v>
+        <v>177</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -6489,24 +6735,24 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>717</v>
+        <v>422</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>716</v>
+        <v>277</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>715</v>
+        <v>423</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G21" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G21" t="s">
         <v>334</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -6515,25 +6761,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>974</v>
+        <v>1223</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>716</v>
+        <v>277</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>973</v>
+        <v>1224</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>786</v>
+        <v>1225</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>341</v>
@@ -6541,25 +6787,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1349</v>
+        <v>716</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1348</v>
+        <v>715</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1350</v>
+        <v>714</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>713</v>
+      </c>
+      <c r="G23" t="s">
+        <v>334</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>341</v>
@@ -6567,25 +6813,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>729</v>
+        <v>972</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>731</v>
+        <v>971</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>19</v>
+        <v>970</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>341</v>
@@ -6593,50 +6839,50 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>478</v>
+        <v>1346</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>477</v>
+        <v>1345</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>474</v>
+        <v>1347</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>334</v>
+        <v>1348</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1283</v>
+        <v>728</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>375</v>
+        <v>729</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1282</v>
+        <v>730</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G26" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -6645,50 +6891,50 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="G27" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G27" t="s">
         <v>334</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>1366</v>
+        <v>1280</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1367</v>
+        <v>1279</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G28" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -6697,25 +6943,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1112</v>
+        <v>429</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1111</v>
+        <v>433</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1113</v>
+        <v>430</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>19</v>
+        <v>431</v>
+      </c>
+      <c r="G29" t="s">
+        <v>334</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>341</v>
@@ -6723,24 +6969,24 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1222</v>
+        <v>1363</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1221</v>
+        <v>433</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1223</v>
+        <v>1364</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G30" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -6749,25 +6995,25 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>783</v>
+        <v>1110</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>782</v>
+        <v>1109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>803</v>
+        <v>1111</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>784</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>786</v>
+        <v>1112</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>341</v>
@@ -6775,25 +7021,25 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>963</v>
+        <v>1220</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>964</v>
+        <v>1219</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>965</v>
+        <v>1221</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>91</v>
+        <v>1222</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>341</v>
@@ -6801,25 +7047,25 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1176</v>
+        <v>782</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1175</v>
+        <v>781</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1182</v>
+        <v>802</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>12</v>
+        <v>783</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>91</v>
+        <v>784</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>341</v>
@@ -6827,24 +7073,24 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1341</v>
+        <v>961</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1339</v>
+        <v>962</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1340</v>
+        <v>963</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G34" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="G34" t="s">
         <v>91</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -6853,24 +7099,24 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1426</v>
+        <v>1174</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1425</v>
+        <v>1173</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1427</v>
+        <v>1180</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G35" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G35" t="s">
         <v>91</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -6879,25 +7125,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>413</v>
+        <v>1338</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>409</v>
+        <v>1336</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>411</v>
+        <v>1337</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>334</v>
+        <v>1339</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>341</v>
@@ -6905,24 +7151,24 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>295</v>
+        <v>1423</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>293</v>
+        <v>1422</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>364</v>
+        <v>1424</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G37" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G37" t="s">
         <v>91</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -6931,24 +7177,24 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>648</v>
+        <v>413</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>647</v>
+        <v>409</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>646</v>
+        <v>411</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G38" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G38" t="s">
         <v>334</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -6957,24 +7203,24 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>648</v>
+        <v>295</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>647</v>
+        <v>293</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1106</v>
+        <v>364</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G39" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" t="s">
         <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -6983,25 +7229,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1371</v>
+        <v>648</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1370</v>
+        <v>647</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1372</v>
+        <v>646</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>19</v>
+        <v>645</v>
+      </c>
+      <c r="G40" t="s">
+        <v>334</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>341</v>
@@ -7009,25 +7255,25 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>359</v>
+        <v>648</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>358</v>
+        <v>647</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>361</v>
+        <v>1104</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>19</v>
+        <v>1105</v>
+      </c>
+      <c r="G41" t="s">
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>341</v>
@@ -7035,25 +7281,25 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>363</v>
+        <v>1368</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>358</v>
+        <v>1367</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>362</v>
+        <v>1369</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>334</v>
+        <v>1366</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>341</v>
@@ -7061,24 +7307,24 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>907</v>
+        <v>359</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>908</v>
+        <v>361</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="G43" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
         <v>19</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -7087,24 +7333,24 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G44" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>334</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -7113,24 +7359,24 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1039</v>
+        <v>905</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>649</v>
+        <v>355</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1038</v>
+        <v>906</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G45" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="G45" t="s">
         <v>19</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -7139,25 +7385,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>278</v>
+        <v>417</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>91</v>
+        <v>418</v>
+      </c>
+      <c r="G46" t="s">
+        <v>334</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>341</v>
@@ -7165,25 +7411,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1321</v>
+        <v>1037</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1319</v>
+        <v>649</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1320</v>
+        <v>1036</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>91</v>
+        <v>1035</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>341</v>
@@ -7191,25 +7437,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1179</v>
+        <v>1492</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1178</v>
+        <v>649</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1180</v>
+        <v>1493</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>91</v>
+        <v>1494</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>341</v>
@@ -7217,25 +7463,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>485</v>
+        <v>181</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>484</v>
+        <v>278</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>804</v>
+        <v>180</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>19</v>
+        <v>179</v>
+      </c>
+      <c r="G49" t="s">
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>341</v>
@@ -7243,25 +7489,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>968</v>
+        <v>1318</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>969</v>
+        <v>1316</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>970</v>
+        <v>1317</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>19</v>
+        <v>1315</v>
+      </c>
+      <c r="G50" t="s">
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>341</v>
@@ -7269,25 +7515,25 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1411</v>
+        <v>1177</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1412</v>
+        <v>1176</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1413</v>
+        <v>1178</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>19</v>
+        <v>1179</v>
+      </c>
+      <c r="G51" t="s">
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>341</v>
@@ -7295,24 +7541,24 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>796</v>
+        <v>485</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>794</v>
+        <v>484</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>784</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="G52" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G52" t="s">
         <v>19</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -7321,24 +7567,24 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>130</v>
+        <v>966</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>273</v>
+        <v>967</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>839</v>
+        <v>968</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G53" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="G53" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -7347,25 +7593,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>703</v>
+        <v>1408</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>273</v>
+        <v>1409</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>840</v>
+        <v>1410</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>334</v>
+        <v>1411</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>341</v>
@@ -7373,24 +7619,24 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1088</v>
+        <v>795</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1089</v>
+        <v>793</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1185</v>
+        <v>794</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>12</v>
+        <v>783</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G55" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="G55" t="s">
         <v>19</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -7399,24 +7645,24 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1184</v>
+        <v>130</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1183</v>
+        <v>273</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1186</v>
+        <v>838</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G56" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="G56" t="s">
         <v>19</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -7425,25 +7671,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1065</v>
+        <v>702</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1061</v>
+        <v>273</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1062</v>
+        <v>839</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>19</v>
+        <v>703</v>
+      </c>
+      <c r="G57" t="s">
+        <v>334</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>341</v>
@@ -7451,25 +7697,25 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>412</v>
+        <v>1086</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>408</v>
+        <v>1087</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>410</v>
+        <v>1183</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>334</v>
+        <v>1088</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>341</v>
@@ -7477,25 +7723,25 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>475</v>
+        <v>1182</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>473</v>
+        <v>1181</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>474</v>
+        <v>1184</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>334</v>
+        <v>1185</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>341</v>
@@ -7503,24 +7749,24 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>487</v>
+        <v>1063</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>473</v>
+        <v>1059</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>489</v>
+        <v>1060</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="G60" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G60" t="s">
         <v>19</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -7529,24 +7775,24 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G61" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G61" t="s">
         <v>334</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -7555,25 +7801,25 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1099</v>
+        <v>475</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1100</v>
+        <v>473</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1101</v>
+        <v>474</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>19</v>
+        <v>472</v>
+      </c>
+      <c r="G62" t="s">
+        <v>334</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>341</v>
@@ -7581,24 +7827,24 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>164</v>
+        <v>487</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>133</v>
+        <v>489</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G63" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G63" t="s">
         <v>19</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -7607,25 +7853,25 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>19</v>
+        <v>436</v>
+      </c>
+      <c r="G64" t="s">
+        <v>334</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>341</v>
@@ -7633,25 +7879,25 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>370</v>
+        <v>1097</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>366</v>
+        <v>1098</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>367</v>
+        <v>1099</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>334</v>
+        <v>1100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>341</v>
@@ -7659,24 +7905,24 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1108</v>
+        <v>1468</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>366</v>
+        <v>1466</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1109</v>
+        <v>1469</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G66" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G66" t="s">
         <v>19</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -7685,24 +7931,24 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" t="s">
         <v>19</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -7711,24 +7957,24 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>158</v>
+        <v>369</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>276</v>
+        <v>366</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>157</v>
+        <v>374</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G68" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G68" t="s">
         <v>19</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -7737,24 +7983,24 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>455</v>
+        <v>370</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>276</v>
+        <v>366</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>456</v>
+        <v>367</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G69" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>334</v>
       </c>
       <c r="I69" s="1" t="s">
@@ -7763,24 +8009,24 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1041</v>
+        <v>1106</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1040</v>
+        <v>366</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1055</v>
+        <v>1107</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G70" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G70" t="s">
         <v>19</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -7789,24 +8035,24 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1053</v>
+        <v>154</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1052</v>
+        <v>275</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1054</v>
+        <v>155</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G71" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G71" t="s">
         <v>19</v>
       </c>
       <c r="I71" s="1" t="s">
@@ -7815,25 +8061,25 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>954</v>
+        <v>158</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>955</v>
+        <v>276</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>956</v>
+        <v>157</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>334</v>
+        <v>156</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>341</v>
@@ -7841,25 +8087,25 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1314</v>
+        <v>455</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1315</v>
+        <v>276</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1317</v>
+        <v>456</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>19</v>
+        <v>457</v>
+      </c>
+      <c r="G73" t="s">
+        <v>334</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>341</v>
@@ -7867,24 +8113,24 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1172</v>
+        <v>1039</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1171</v>
+        <v>1038</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1174</v>
+        <v>1053</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G74" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G74" t="s">
         <v>19</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -7893,24 +8139,24 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>685</v>
+        <v>1483</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>684</v>
+        <v>1038</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>683</v>
+        <v>1484</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="G75" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G75" t="s">
         <v>334</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -7919,25 +8165,25 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>693</v>
+        <v>1051</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>692</v>
+        <v>1050</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>691</v>
+        <v>1052</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>334</v>
+        <v>1049</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>341</v>
@@ -7945,25 +8191,25 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>611</v>
+        <v>1486</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>612</v>
+        <v>1050</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>613</v>
+        <v>1487</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>19</v>
+        <v>1488</v>
+      </c>
+      <c r="G77" t="s">
+        <v>334</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>341</v>
@@ -7971,24 +8217,24 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>404</v>
+        <v>952</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>403</v>
+        <v>953</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>406</v>
+        <v>954</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G78" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="G78" t="s">
         <v>334</v>
       </c>
       <c r="I78" s="1" t="s">
@@ -7997,25 +8243,25 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>333</v>
+        <v>1311</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>332</v>
+        <v>1312</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>331</v>
+        <v>1314</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>330</v>
+        <v>1313</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>334</v>
+        <v>19</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>341</v>
@@ -8023,24 +8269,24 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>340</v>
+        <v>1170</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>332</v>
+        <v>1169</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>339</v>
+        <v>1172</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G80" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G80" t="s">
         <v>19</v>
       </c>
       <c r="I80" s="1" t="s">
@@ -8049,25 +8295,25 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1168</v>
+        <v>684</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1167</v>
+        <v>683</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1170</v>
+        <v>682</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>19</v>
+        <v>681</v>
+      </c>
+      <c r="G81" t="s">
+        <v>334</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>341</v>
@@ -8075,25 +8321,25 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>1091</v>
+        <v>692</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1092</v>
+        <v>691</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1093</v>
+        <v>690</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>19</v>
+        <v>701</v>
+      </c>
+      <c r="G82" t="s">
+        <v>334</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>341</v>
@@ -8101,24 +8347,24 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>1299</v>
+        <v>611</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1298</v>
+        <v>612</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1300</v>
+        <v>613</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G83" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="G83" t="s">
         <v>19</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -8127,25 +8373,25 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>1115</v>
+        <v>404</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1116</v>
+        <v>403</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1117</v>
+        <v>406</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>19</v>
+        <v>405</v>
+      </c>
+      <c r="G84" t="s">
+        <v>334</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>341</v>
@@ -8153,25 +8399,25 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>835</v>
+        <v>333</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>834</v>
+        <v>332</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>836</v>
+        <v>331</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>19</v>
+        <v>330</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>341</v>
@@ -8179,24 +8425,24 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>1331</v>
+        <v>340</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1330</v>
+        <v>332</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1332</v>
+        <v>339</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="G86" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G86" t="s">
         <v>19</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -8205,24 +8451,24 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>627</v>
+        <v>1166</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>626</v>
+        <v>1165</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>625</v>
+        <v>1168</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G87" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G87" t="s">
         <v>19</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -8231,24 +8477,24 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>1418</v>
+        <v>1089</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1417</v>
+        <v>1090</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1419</v>
+        <v>1091</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G88" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G88" t="s">
         <v>19</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -8257,24 +8503,24 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>1296</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>272</v>
+        <v>1295</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>133</v>
+        <v>1297</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G89" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G89" t="s">
         <v>19</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -8283,25 +8529,25 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>696</v>
+        <v>1113</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>695</v>
+        <v>1114</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>694</v>
+        <v>1115</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>334</v>
+        <v>1116</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>341</v>
@@ -8309,24 +8555,24 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>1064</v>
+        <v>834</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1066</v>
+        <v>833</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1067</v>
+        <v>835</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G91" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="G91" t="s">
         <v>19</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -8335,25 +8581,25 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>402</v>
+        <v>1328</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>401</v>
+        <v>1327</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>407</v>
+        <v>1329</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>334</v>
+        <v>1330</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>341</v>
@@ -8361,27 +8607,183 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>698</v>
+        <v>625</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G96" t="s">
+        <v>334</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G98" t="s">
+        <v>334</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="E99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G99" t="s">
         <v>334</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8399,10 +8801,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8411,7 +8813,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
@@ -8479,583 +8881,635 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G3" t="s">
+        <v>688</v>
+      </c>
+      <c r="I3" t="s">
         <v>689</v>
-      </c>
-      <c r="I3" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G4" t="s">
+        <v>688</v>
+      </c>
+      <c r="I4" t="s">
         <v>689</v>
-      </c>
-      <c r="I4" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G5" t="s">
+        <v>688</v>
+      </c>
+      <c r="I5" t="s">
         <v>689</v>
-      </c>
-      <c r="I5" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" t="s">
+        <v>787</v>
+      </c>
+      <c r="D6" t="s">
         <v>788</v>
-      </c>
-      <c r="D6" t="s">
-        <v>789</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G6" t="s">
+        <v>688</v>
+      </c>
+      <c r="I6" t="s">
         <v>689</v>
-      </c>
-      <c r="I6" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D7" t="s">
         <v>874</v>
-      </c>
-      <c r="D7" t="s">
-        <v>875</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G7" t="s">
+        <v>688</v>
+      </c>
+      <c r="I7" t="s">
         <v>689</v>
-      </c>
-      <c r="I7" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="C8" t="s">
+        <v>982</v>
+      </c>
+      <c r="D8" t="s">
+        <v>983</v>
+      </c>
+      <c r="E8" t="s">
         <v>984</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>982</v>
+      </c>
+      <c r="G8" t="s">
         <v>985</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>986</v>
-      </c>
-      <c r="F8" t="s">
-        <v>984</v>
-      </c>
-      <c r="G8" t="s">
-        <v>987</v>
-      </c>
-      <c r="I8" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
       <c r="C9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D9" t="s">
         <v>1047</v>
       </c>
-      <c r="D9" t="s">
-        <v>1049</v>
-      </c>
       <c r="E9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F9" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G9" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I9" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D10" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E10" t="s">
         <v>306</v>
       </c>
       <c r="F10" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G10" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I10" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>1477</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>1478</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>1058</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>306</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>1479</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>396</v>
+        <v>1453</v>
       </c>
       <c r="B12" t="s">
-        <v>392</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>674</v>
+        <v>1454</v>
       </c>
       <c r="D12" t="s">
-        <v>517</v>
+        <v>1455</v>
       </c>
       <c r="E12" t="s">
-        <v>393</v>
+        <v>1456</v>
       </c>
       <c r="F12" t="s">
-        <v>674</v>
+        <v>1454</v>
       </c>
       <c r="G12" t="s">
-        <v>394</v>
+        <v>985</v>
       </c>
       <c r="I12" t="s">
-        <v>395</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>425</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>426</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>679</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>518</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>546</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>427</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>428</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="D14" t="s">
-        <v>443</v>
+        <v>517</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="F14" t="s">
-        <v>515</v>
+        <v>674</v>
       </c>
       <c r="G14" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="I14" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="D15" t="s">
-        <v>467</v>
+        <v>678</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>518</v>
       </c>
       <c r="F15" t="s">
-        <v>468</v>
+        <v>546</v>
       </c>
       <c r="G15" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="I15" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>841</v>
+        <v>447</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>843</v>
+        <v>516</v>
       </c>
       <c r="D16" t="s">
-        <v>846</v>
+        <v>443</v>
       </c>
       <c r="E16" t="s">
-        <v>845</v>
+        <v>444</v>
       </c>
       <c r="F16" t="s">
-        <v>844</v>
+        <v>515</v>
       </c>
       <c r="G16" t="s">
-        <v>842</v>
+        <v>446</v>
       </c>
       <c r="I16" t="s">
-        <v>843</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>676</v>
+        <v>466</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>681</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
-        <v>677</v>
+        <v>467</v>
       </c>
       <c r="E17" t="s">
-        <v>518</v>
+        <v>306</v>
       </c>
       <c r="F17" t="s">
-        <v>678</v>
+        <v>468</v>
       </c>
       <c r="G17" t="s">
-        <v>680</v>
+        <v>469</v>
       </c>
       <c r="I17" t="s">
-        <v>675</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>806</v>
+        <v>840</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>805</v>
+        <v>842</v>
       </c>
       <c r="D18" t="s">
-        <v>807</v>
+        <v>845</v>
       </c>
       <c r="E18" t="s">
-        <v>518</v>
+        <v>844</v>
       </c>
       <c r="F18" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="G18" t="s">
-        <v>808</v>
+        <v>841</v>
       </c>
       <c r="I18" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>841</v>
+        <v>676</v>
       </c>
       <c r="B19" t="s">
         <v>392</v>
       </c>
       <c r="C19" t="s">
-        <v>1083</v>
+        <v>680</v>
       </c>
       <c r="D19" t="s">
-        <v>1084</v>
+        <v>1458</v>
       </c>
       <c r="E19" t="s">
-        <v>1073</v>
+        <v>518</v>
       </c>
       <c r="F19" t="s">
-        <v>1087</v>
+        <v>677</v>
       </c>
       <c r="G19" t="s">
-        <v>1086</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1085</v>
+        <v>679</v>
       </c>
       <c r="I19" t="s">
-        <v>1087</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1212</v>
+        <v>805</v>
       </c>
       <c r="B20" t="s">
         <v>392</v>
       </c>
       <c r="C20" t="s">
-        <v>1213</v>
+        <v>804</v>
       </c>
       <c r="D20" t="s">
-        <v>1214</v>
+        <v>806</v>
       </c>
       <c r="E20" t="s">
         <v>518</v>
       </c>
       <c r="F20" t="s">
-        <v>1215</v>
+        <v>808</v>
       </c>
       <c r="G20" t="s">
-        <v>1216</v>
+        <v>807</v>
       </c>
       <c r="I20" t="s">
-        <v>1213</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1352</v>
+        <v>840</v>
       </c>
       <c r="B21" t="s">
         <v>392</v>
       </c>
       <c r="C21" t="s">
-        <v>1353</v>
+        <v>1081</v>
       </c>
       <c r="D21" t="s">
-        <v>1356</v>
+        <v>1082</v>
       </c>
       <c r="E21" t="s">
-        <v>518</v>
+        <v>1071</v>
       </c>
       <c r="F21" t="s">
-        <v>1355</v>
+        <v>1085</v>
       </c>
       <c r="G21" t="s">
-        <v>1357</v>
+        <v>1084</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1083</v>
       </c>
       <c r="I21" t="s">
-        <v>1354</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1408</v>
+        <v>1210</v>
       </c>
       <c r="B22" t="s">
         <v>392</v>
       </c>
       <c r="C22" t="s">
-        <v>1407</v>
+        <v>1211</v>
       </c>
       <c r="D22" t="s">
-        <v>1409</v>
+        <v>1212</v>
       </c>
       <c r="E22" t="s">
-        <v>1073</v>
+        <v>518</v>
       </c>
       <c r="F22" t="s">
-        <v>1406</v>
+        <v>1213</v>
       </c>
       <c r="G22" t="s">
-        <v>1410</v>
+        <v>1214</v>
       </c>
       <c r="I22" t="s">
-        <v>1406</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>728</v>
+        <v>1349</v>
       </c>
       <c r="B23" t="s">
-        <v>723</v>
+        <v>392</v>
       </c>
       <c r="C23" t="s">
-        <v>724</v>
+        <v>1350</v>
       </c>
       <c r="D23" t="s">
-        <v>726</v>
+        <v>1353</v>
       </c>
       <c r="E23" t="s">
         <v>518</v>
       </c>
       <c r="F23" t="s">
-        <v>725</v>
+        <v>1352</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>1354</v>
       </c>
       <c r="I23" t="s">
-        <v>727</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>728</v>
+        <v>1405</v>
       </c>
       <c r="B24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B25" t="s">
+        <v>722</v>
+      </c>
+      <c r="C25" t="s">
         <v>723</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
+        <v>725</v>
+      </c>
+      <c r="E25" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" t="s">
+        <v>724</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B26" t="s">
+        <v>722</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E26" t="s">
+        <v>850</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I26" t="s">
         <v>1335</v>
       </c>
-      <c r="D24" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E24" t="s">
-        <v>851</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1337</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1338</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J24" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
-      <sortCondition ref="A1:A24"/>
+  <autoFilter ref="A1:J26" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J26">
+      <sortCondition ref="A1:A26"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9199,7 +9653,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B3" t="s">
         <v>377</v>
@@ -9208,13 +9662,13 @@
         <v>345</v>
       </c>
       <c r="D3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E3" t="s">
         <v>711</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>712</v>
-      </c>
-      <c r="F3" t="s">
-        <v>713</v>
       </c>
       <c r="G3" t="s">
         <v>347</v>
@@ -9257,25 +9711,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B5" t="s">
         <v>377</v>
       </c>
       <c r="C5" t="s">
+        <v>888</v>
+      </c>
+      <c r="D5" t="s">
         <v>889</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>890</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>891</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>892</v>
-      </c>
-      <c r="G5" t="s">
-        <v>893</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -9286,57 +9740,57 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B6" t="s">
         <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D6" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E6" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F6" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H6" t="s">
         <v>1242</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>1244</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E7" t="s">
         <v>1236</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>1238</v>
       </c>
-      <c r="F7" t="s">
-        <v>1240</v>
-      </c>
       <c r="G7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H7" t="s">
         <v>1243</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1245</v>
       </c>
       <c r="I7" t="s">
         <v>383</v>
@@ -9344,28 +9798,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B8" t="s">
         <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D8" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E8" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G8" t="s">
         <v>1241</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>1243</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1245</v>
       </c>
       <c r="I8" t="s">
         <v>383</v>
@@ -9373,28 +9827,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B9" t="s">
         <v>377</v>
       </c>
       <c r="C9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F9" t="s">
         <v>1343</v>
       </c>
-      <c r="D9" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1346</v>
-      </c>
       <c r="G9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H9" t="s">
         <v>1243</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1245</v>
       </c>
       <c r="I9" t="s">
         <v>348</v>
@@ -9409,10 +9863,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC4AD67-C776-4093-88E2-79BBC414D956}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9571,22 +10025,22 @@
         <v>437</v>
       </c>
       <c r="C6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E6" t="s">
+        <v>850</v>
+      </c>
+      <c r="F6" t="s">
         <v>1358</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E6" t="s">
-        <v>851</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1361</v>
-      </c>
       <c r="G6" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="I6" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -9695,28 +10149,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B11" t="s">
         <v>597</v>
       </c>
       <c r="C11" t="s">
+        <v>847</v>
+      </c>
+      <c r="D11" t="s">
         <v>848</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>850</v>
+      </c>
+      <c r="F11" t="s">
+        <v>851</v>
+      </c>
+      <c r="G11" t="s">
         <v>849</v>
       </c>
-      <c r="E11" t="s">
-        <v>851</v>
-      </c>
-      <c r="F11" t="s">
-        <v>852</v>
-      </c>
-      <c r="G11" t="s">
-        <v>850</v>
-      </c>
       <c r="I11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -9730,7 +10184,7 @@
         <v>659</v>
       </c>
       <c r="D12" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E12" t="s">
         <v>660</v>
@@ -9747,288 +10201,314 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B13" t="s">
         <v>385</v>
       </c>
       <c r="C13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D13" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E13" t="s">
+        <v>993</v>
+      </c>
+      <c r="F13" t="s">
         <v>995</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>997</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>999</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B14" t="s">
         <v>385</v>
       </c>
       <c r="C14" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I14" t="s">
         <v>1014</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B15" t="s">
         <v>385</v>
       </c>
       <c r="C15" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E15" t="s">
         <v>1018</v>
       </c>
-      <c r="D15" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1020</v>
-      </c>
       <c r="F15" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G15" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I15" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>733</v>
+        <v>1426</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>385</v>
       </c>
       <c r="C16" t="s">
-        <v>734</v>
+        <v>1430</v>
       </c>
       <c r="D16" t="s">
-        <v>566</v>
+        <v>1428</v>
       </c>
       <c r="E16" t="s">
-        <v>735</v>
+        <v>1429</v>
       </c>
       <c r="F16" t="s">
-        <v>734</v>
+        <v>1427</v>
       </c>
       <c r="G16" t="s">
-        <v>739</v>
+        <v>1431</v>
       </c>
       <c r="I16" t="s">
-        <v>734</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B17" t="s">
         <v>458</v>
       </c>
       <c r="C17" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D17" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E17" t="s">
+        <v>734</v>
+      </c>
+      <c r="F17" t="s">
+        <v>733</v>
+      </c>
+      <c r="G17" t="s">
         <v>738</v>
       </c>
-      <c r="F17" t="s">
-        <v>737</v>
-      </c>
-      <c r="G17" t="s">
-        <v>568</v>
-      </c>
       <c r="I17" t="s">
-        <v>568</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B18" t="s">
         <v>458</v>
       </c>
       <c r="C18" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D18" t="s">
-        <v>742</v>
+        <v>569</v>
       </c>
       <c r="E18" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F18" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G18" t="s">
-        <v>741</v>
+        <v>568</v>
       </c>
       <c r="I18" t="s">
-        <v>741</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B19" t="s">
         <v>458</v>
       </c>
       <c r="C19" t="s">
-        <v>744</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>746</v>
+        <v>740</v>
+      </c>
+      <c r="D19" t="s">
+        <v>741</v>
       </c>
       <c r="E19" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="I19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>921</v>
+        <v>744</v>
       </c>
       <c r="B20" t="s">
         <v>458</v>
       </c>
       <c r="C20" t="s">
-        <v>922</v>
-      </c>
-      <c r="D20" t="s">
-        <v>923</v>
+        <v>743</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>745</v>
       </c>
       <c r="E20" t="s">
-        <v>924</v>
+        <v>746</v>
       </c>
       <c r="F20" t="s">
-        <v>922</v>
+        <v>743</v>
       </c>
       <c r="G20" t="s">
-        <v>922</v>
+        <v>743</v>
       </c>
       <c r="I20" t="s">
-        <v>922</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
       <c r="B21" t="s">
-        <v>938</v>
+        <v>458</v>
       </c>
       <c r="C21" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="D21" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
       <c r="E21" t="s">
-        <v>851</v>
+        <v>922</v>
       </c>
       <c r="F21" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="G21" t="s">
-        <v>945</v>
+        <v>920</v>
       </c>
       <c r="I21" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B22" t="s">
+        <v>936</v>
+      </c>
+      <c r="C22" t="s">
+        <v>938</v>
+      </c>
+      <c r="D22" t="s">
         <v>939</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>850</v>
+      </c>
+      <c r="F22" t="s">
+        <v>941</v>
+      </c>
+      <c r="G22" t="s">
+        <v>943</v>
+      </c>
+      <c r="I22" t="s">
         <v>938</v>
-      </c>
-      <c r="C22" t="s">
-        <v>942</v>
-      </c>
-      <c r="D22" t="s">
-        <v>971</v>
-      </c>
-      <c r="E22" t="s">
-        <v>851</v>
-      </c>
-      <c r="F22" t="s">
-        <v>944</v>
-      </c>
-      <c r="G22" t="s">
-        <v>945</v>
-      </c>
-      <c r="I22" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B23" t="s">
+        <v>936</v>
+      </c>
+      <c r="C23" t="s">
+        <v>940</v>
+      </c>
+      <c r="D23" t="s">
+        <v>969</v>
+      </c>
+      <c r="E23" t="s">
+        <v>850</v>
+      </c>
+      <c r="F23" t="s">
+        <v>942</v>
+      </c>
+      <c r="G23" t="s">
+        <v>943</v>
+      </c>
+      <c r="I23" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E24" t="s">
         <v>1292</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F24" t="s">
         <v>1291</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G24" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I24" t="s">
         <v>1294</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1297</v>
       </c>
     </row>
   </sheetData>
@@ -10040,11 +10520,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB78C2-2208-4DF0-8ABB-0CE48BD26296}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10054,7 +10534,7 @@
     <col min="4" max="4" width="36.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
@@ -10079,7 +10559,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -10100,7 +10580,7 @@
         <v>90</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
@@ -10126,7 +10606,7 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
@@ -10152,7 +10632,7 @@
       <c r="F4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
@@ -10178,7 +10658,7 @@
       <c r="F5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>71</v>
       </c>
       <c r="I5" t="s">
@@ -10187,25 +10667,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>1482</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>1480</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>1481</v>
+      </c>
+      <c r="G6" t="s">
+        <v>327</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -10213,25 +10693,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>545</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>554</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>120</v>
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -10239,25 +10719,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>545</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
+      <c r="F8" t="s">
+        <v>554</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -10265,25 +10745,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>989</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>990</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>991</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>992</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>120</v>
+        <v>159</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
@@ -10291,25 +10771,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>168</v>
+        <v>987</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>988</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>989</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>990</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -10317,24 +10797,24 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="I11" t="s">
@@ -10343,24 +10823,24 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="I12" t="s">
@@ -10369,7 +10849,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>658</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -10378,16 +10858,16 @@
         <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>657</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>656</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>327</v>
+        <v>172</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -10404,16 +10884,16 @@
         <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>1313</v>
+        <v>657</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>1312</v>
+        <v>656</v>
+      </c>
+      <c r="G14" t="s">
+        <v>327</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
@@ -10421,25 +10901,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>195</v>
+        <v>658</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>1310</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>18</v>
+        <v>1308</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1309</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
@@ -10456,16 +10936,16 @@
         <v>280</v>
       </c>
       <c r="D16" t="s">
-        <v>981</v>
+        <v>194</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>982</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>120</v>
+        <v>193</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
@@ -10473,25 +10953,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>979</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
+        <v>980</v>
+      </c>
+      <c r="G17" t="s">
+        <v>120</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
@@ -10499,24 +10979,24 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="I18" t="s">
@@ -10525,7 +11005,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>817</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -10534,16 +11014,16 @@
         <v>279</v>
       </c>
       <c r="D19" t="s">
-        <v>818</v>
+        <v>205</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>816</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>71</v>
+        <v>204</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
@@ -10551,25 +11031,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1290</v>
+        <v>816</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>1289</v>
+        <v>279</v>
       </c>
       <c r="D20" t="s">
-        <v>1288</v>
+        <v>817</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>18</v>
+        <v>815</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -10577,25 +11057,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>329</v>
+        <v>1287</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>1286</v>
       </c>
       <c r="D21" t="s">
-        <v>328</v>
+        <v>1285</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>326</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>327</v>
+        <v>1284</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
@@ -10603,25 +11083,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1274</v>
+        <v>329</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>1273</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>1276</v>
+        <v>328</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>18</v>
+        <v>326</v>
+      </c>
+      <c r="G22" t="s">
+        <v>327</v>
       </c>
       <c r="I22" t="s">
         <v>20</v>
@@ -10629,24 +11109,24 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>351</v>
+        <v>1272</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>350</v>
+        <v>1271</v>
       </c>
       <c r="D23" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>1277</v>
-      </c>
-      <c r="G23" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G23" t="s">
         <v>18</v>
       </c>
       <c r="I23" t="s">
@@ -10655,25 +11135,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>421</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="D24" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>327</v>
+        <v>1275</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -10681,7 +11161,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>894</v>
+        <v>421</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -10690,16 +11170,16 @@
         <v>420</v>
       </c>
       <c r="D25" t="s">
-        <v>896</v>
+        <v>1278</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>895</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>18</v>
+        <v>1277</v>
+      </c>
+      <c r="G25" t="s">
+        <v>327</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -10707,24 +11187,24 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1103</v>
+        <v>893</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>1104</v>
+        <v>420</v>
       </c>
       <c r="D26" t="s">
-        <v>1281</v>
+        <v>1470</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G26" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="G26" t="s">
         <v>18</v>
       </c>
       <c r="I26" t="s">
@@ -10733,24 +11213,24 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1142</v>
+        <v>1101</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>1143</v>
+        <v>1102</v>
       </c>
       <c r="D27" t="s">
-        <v>1145</v>
+        <v>1471</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G27" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G27" t="s">
         <v>18</v>
       </c>
       <c r="I27" t="s">
@@ -10759,24 +11239,24 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1415</v>
+        <v>1140</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D28" t="s">
         <v>1143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1416</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G28" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G28" t="s">
         <v>18</v>
       </c>
       <c r="I28" t="s">
@@ -10785,25 +11265,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1129</v>
+        <v>1412</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>282</v>
+        <v>1141</v>
       </c>
       <c r="D29" t="s">
-        <v>1130</v>
+        <v>1413</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>71</v>
+        <v>1142</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
@@ -10811,24 +11291,24 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>553</v>
+        <v>1127</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>552</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
-        <v>556</v>
+        <v>1128</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>555</v>
-      </c>
-      <c r="G30" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G30" t="s">
         <v>71</v>
       </c>
       <c r="I30" t="s">
@@ -10837,24 +11317,24 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>1463</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>791</v>
+        <v>282</v>
       </c>
       <c r="D31" t="s">
-        <v>792</v>
+        <v>1465</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="F31" t="s">
-        <v>790</v>
-      </c>
-      <c r="G31" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G31" t="s">
         <v>18</v>
       </c>
       <c r="I31" t="s">
@@ -10863,147 +11343,207 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>822</v>
+        <v>553</v>
       </c>
       <c r="B32" t="s">
-        <v>819</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>823</v>
+        <v>552</v>
       </c>
       <c r="D32" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E32" t="s">
-        <v>821</v>
+        <v>556</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>820</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>826</v>
+        <v>555</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
       </c>
       <c r="I32" t="s">
-        <v>825</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1132</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>1124</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>823</v>
+        <v>790</v>
       </c>
       <c r="D33" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1134</v>
+        <v>791</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>1135</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1126</v>
+        <v>789</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>825</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1163</v>
+        <v>821</v>
       </c>
       <c r="B34" t="s">
-        <v>1124</v>
+        <v>818</v>
       </c>
       <c r="C34" t="s">
-        <v>1162</v>
+        <v>822</v>
       </c>
       <c r="D34" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1165</v>
+        <v>1119</v>
+      </c>
+      <c r="E34" t="s">
+        <v>820</v>
       </c>
       <c r="F34" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>1128</v>
+        <v>819</v>
+      </c>
+      <c r="G34" t="s">
+        <v>823</v>
       </c>
       <c r="H34" t="s">
-        <v>1126</v>
+        <v>825</v>
       </c>
       <c r="I34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1158</v>
+        <v>1130</v>
       </c>
       <c r="B35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>822</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H35" t="s">
         <v>1124</v>
       </c>
-      <c r="C35" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1126</v>
-      </c>
       <c r="I35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B36" t="s">
         <v>1122</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H37" t="s">
         <v>1124</v>
       </c>
-      <c r="C36" t="s">
+      <c r="I37" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B39" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F39" t="s">
         <v>1123</v>
       </c>
-      <c r="E36" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G39" t="s">
         <v>1126</v>
       </c>
-      <c r="I36" t="s">
-        <v>825</v>
+      <c r="H39" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I39" t="s">
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -11018,7 +11558,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11176,228 +11716,228 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
+        <v>876</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" t="s">
+        <v>879</v>
+      </c>
+      <c r="F6" t="s">
+        <v>880</v>
+      </c>
+      <c r="G6" t="s">
+        <v>881</v>
+      </c>
+      <c r="H6" t="s">
         <v>878</v>
       </c>
-      <c r="E6" t="s">
-        <v>880</v>
-      </c>
-      <c r="F6" t="s">
-        <v>881</v>
-      </c>
-      <c r="G6" t="s">
-        <v>882</v>
-      </c>
-      <c r="H6" t="s">
-        <v>879</v>
-      </c>
       <c r="I6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C7" t="s">
         <v>1021</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E7" t="s">
         <v>1022</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I7" t="s">
         <v>1023</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C8" t="s">
         <v>1030</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E8" t="s">
         <v>1022</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G8" t="s">
         <v>1032</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>1033</v>
       </c>
-      <c r="E8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>1034</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C9" t="s">
         <v>1078</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I9" t="s">
         <v>1077</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E10" t="s">
         <v>1207</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G10" t="s">
         <v>1208</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>1209</v>
       </c>
-      <c r="F10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1211</v>
-      </c>
       <c r="I10" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F11" t="s">
         <v>1249</v>
       </c>
-      <c r="B11" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>1250</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>1251</v>
       </c>
-      <c r="G11" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1253</v>
-      </c>
       <c r="I11" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B12" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C12" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D12" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G12" t="s">
         <v>1255</v>
       </c>
-      <c r="E12" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I12" t="s">
         <v>1256</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1257</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F13" t="s">
         <v>1262</v>
       </c>
-      <c r="B13" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1264</v>
-      </c>
       <c r="G13" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="I13" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
   </sheetData>
@@ -11522,8 +12062,8 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11575,7 +12115,7 @@
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C2" t="s">
@@ -11604,7 +12144,7 @@
       <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C3" t="s">
@@ -11633,10 +12173,10 @@
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D4" t="s">
@@ -11645,7 +12185,7 @@
       <c r="E4" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>94</v>
       </c>
       <c r="G4" t="s">
@@ -11662,10 +12202,10 @@
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>818000157</v>
       </c>
       <c r="D5" t="s">
@@ -11674,10 +12214,10 @@
       <c r="E5" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>818000157</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>818000157</v>
       </c>
       <c r="H5" t="s">
@@ -11691,7 +12231,7 @@
       <c r="A6" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
@@ -11720,7 +12260,7 @@
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="s">
@@ -11749,7 +12289,7 @@
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
@@ -11778,7 +12318,7 @@
       <c r="A9" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
@@ -11807,7 +12347,7 @@
       <c r="A10" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
@@ -11836,7 +12376,7 @@
       <c r="A11" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
@@ -11865,7 +12405,7 @@
       <c r="A12" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
@@ -11892,86 +12432,86 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>706</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>707</v>
-      </c>
-      <c r="D13" t="s">
-        <v>708</v>
       </c>
       <c r="E13" t="s">
         <v>534</v>
       </c>
       <c r="F13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H13" t="s">
+        <v>708</v>
+      </c>
+      <c r="I13" t="s">
         <v>709</v>
-      </c>
-      <c r="I13" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D14" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14" t="s">
+        <v>924</v>
+      </c>
+      <c r="G14" t="s">
+        <v>925</v>
+      </c>
+      <c r="H14" t="s">
         <v>926</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>927</v>
-      </c>
-      <c r="H14" t="s">
-        <v>928</v>
-      </c>
-      <c r="I14" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="B15" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
+        <v>929</v>
+      </c>
+      <c r="D15" t="s">
         <v>931</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>932</v>
+      </c>
+      <c r="F15" t="s">
+        <v>929</v>
+      </c>
+      <c r="G15" t="s">
         <v>933</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>934</v>
-      </c>
-      <c r="F15" t="s">
-        <v>931</v>
-      </c>
-      <c r="G15" t="s">
-        <v>935</v>
-      </c>
-      <c r="H15" t="s">
-        <v>936</v>
       </c>
       <c r="I15" t="s">
         <v>586</v>
@@ -11981,7 +12521,7 @@
       <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C16" t="s">
@@ -12010,7 +12550,7 @@
       <c r="A17" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C17" t="s">
@@ -12039,7 +12579,7 @@
       <c r="A18" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C18" t="s">
@@ -12068,7 +12608,7 @@
       <c r="A19" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C19" t="s">
@@ -12097,7 +12637,7 @@
       <c r="A20" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C20" t="s">
@@ -12126,7 +12666,7 @@
       <c r="A21" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C21" t="s">
@@ -12155,7 +12695,7 @@
       <c r="A22" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C22" t="s">
@@ -12184,7 +12724,7 @@
       <c r="A23" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C23" t="s">
@@ -12213,7 +12753,7 @@
       <c r="A24" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C24" t="s">
@@ -12240,28 +12780,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
         <v>797</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>798</v>
-      </c>
-      <c r="D25" t="s">
-        <v>799</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G25" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H25" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I25" t="s">
         <v>235</v>
@@ -12269,118 +12809,118 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
         <v>901</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>903</v>
-      </c>
       <c r="D26" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E26" t="s">
         <v>35</v>
       </c>
       <c r="F26" t="s">
+        <v>901</v>
+      </c>
+      <c r="G26" t="s">
         <v>903</v>
-      </c>
-      <c r="G26" t="s">
-        <v>905</v>
       </c>
       <c r="H26" t="s">
         <v>234</v>
       </c>
       <c r="I26" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
         <v>909</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>911</v>
-      </c>
       <c r="D27" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E27" t="s">
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G27" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H27" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I27" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
         <v>975</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E28" t="s">
+        <v>976</v>
+      </c>
+      <c r="F28" t="s">
+        <v>975</v>
+      </c>
+      <c r="G28" t="s">
+        <v>974</v>
+      </c>
+      <c r="H28" t="s">
+        <v>978</v>
+      </c>
+      <c r="I28" t="s">
         <v>977</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E28" t="s">
-        <v>978</v>
-      </c>
-      <c r="F28" t="s">
-        <v>977</v>
-      </c>
-      <c r="G28" t="s">
-        <v>976</v>
-      </c>
-      <c r="H28" t="s">
-        <v>980</v>
-      </c>
-      <c r="I28" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
         <v>1007</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1009</v>
-      </c>
       <c r="D29" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E29" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F29" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H29" t="s">
         <v>1008</v>
       </c>
-      <c r="G29" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1010</v>
-      </c>
       <c r="I29" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -12532,7 +13072,7 @@
       <c r="A35" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C35" t="s">
@@ -12561,7 +13101,7 @@
       <c r="A36" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C36" t="s">
@@ -12590,7 +13130,7 @@
       <c r="A37" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C37" t="s">
@@ -12617,28 +13157,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" t="s">
         <v>864</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>865</v>
-      </c>
-      <c r="D38" t="s">
-        <v>866</v>
       </c>
       <c r="E38" t="s">
         <v>246</v>
       </c>
       <c r="F38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I38" t="s">
         <v>506</v>
@@ -12646,28 +13186,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" t="s">
         <v>868</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>869</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>870</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>868</v>
+      </c>
+      <c r="G39" t="s">
+        <v>868</v>
+      </c>
+      <c r="H39" t="s">
         <v>871</v>
-      </c>
-      <c r="F39" t="s">
-        <v>869</v>
-      </c>
-      <c r="G39" t="s">
-        <v>869</v>
-      </c>
-      <c r="H39" t="s">
-        <v>872</v>
       </c>
       <c r="I39" t="s">
         <v>506</v>
@@ -12764,7 +13304,7 @@
       <c r="A43" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C43" t="s">
@@ -12791,147 +13331,147 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" t="s">
         <v>883</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>884</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>885</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>883</v>
+      </c>
+      <c r="G44" t="s">
+        <v>883</v>
+      </c>
+      <c r="H44" t="s">
         <v>886</v>
       </c>
-      <c r="F44" t="s">
-        <v>884</v>
-      </c>
-      <c r="G44" t="s">
-        <v>884</v>
-      </c>
-      <c r="H44" t="s">
-        <v>887</v>
-      </c>
       <c r="I44" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
         <v>1324</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1327</v>
-      </c>
       <c r="D45" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E45" t="s">
+        <v>946</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I45" t="s">
         <v>1326</v>
-      </c>
-      <c r="E45" t="s">
-        <v>948</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1328</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B46" t="s">
+        <v>951</v>
+      </c>
+      <c r="C46" t="s">
+        <v>949</v>
+      </c>
+      <c r="D46" t="s">
+        <v>947</v>
+      </c>
+      <c r="E46" t="s">
         <v>946</v>
       </c>
-      <c r="B46" t="s">
-        <v>953</v>
-      </c>
-      <c r="C46" t="s">
-        <v>951</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
+        <v>945</v>
+      </c>
+      <c r="G46" t="s">
+        <v>950</v>
+      </c>
+      <c r="H46" t="s">
+        <v>948</v>
+      </c>
+      <c r="I46" t="s">
         <v>949</v>
-      </c>
-      <c r="E46" t="s">
-        <v>948</v>
-      </c>
-      <c r="F46" t="s">
-        <v>947</v>
-      </c>
-      <c r="G46" t="s">
-        <v>952</v>
-      </c>
-      <c r="H46" t="s">
-        <v>950</v>
-      </c>
-      <c r="I46" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D47" t="s">
         <v>1266</v>
       </c>
-      <c r="B47" t="s">
+      <c r="E47" t="s">
         <v>1265</v>
       </c>
-      <c r="C47" t="s">
+      <c r="F47" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G47" t="s">
         <v>1269</v>
       </c>
-      <c r="D47" t="s">
+      <c r="H47" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I47" t="s">
         <v>1268</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1271</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>1389</v>
+        <v>1387</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1386</v>
       </c>
       <c r="C48" s="2">
         <v>1704320001</v>
       </c>
       <c r="D48" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="E48" t="s">
         <v>47</v>
       </c>
       <c r="F48" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G48" t="s">
         <v>1391</v>
       </c>
-      <c r="G48" t="s">
-        <v>1394</v>
-      </c>
       <c r="H48" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I48" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
   </sheetData>
@@ -12951,7 +13491,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="A1:I6"/>
+      <selection activeCell="J7" sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13059,90 +13599,122 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B4" t="s">
         <v>259</v>
       </c>
+      <c r="C4" t="s">
+        <v>811</v>
+      </c>
       <c r="D4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E4" t="s">
         <v>810</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>811</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>812</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>813</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>814</v>
-      </c>
-      <c r="I4" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B5" t="s">
         <v>265</v>
       </c>
       <c r="C5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E5" t="s">
         <v>222</v>
       </c>
       <c r="F5" t="s">
+        <v>915</v>
+      </c>
+      <c r="G5" t="s">
+        <v>915</v>
+      </c>
+      <c r="H5" t="s">
         <v>917</v>
       </c>
-      <c r="G5" t="s">
-        <v>917</v>
-      </c>
-      <c r="H5" t="s">
-        <v>919</v>
-      </c>
       <c r="I5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E6" t="s">
         <v>1303</v>
       </c>
-      <c r="B6" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H6" t="s">
         <v>1305</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>1306</v>
       </c>
-      <c r="F6" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1309</v>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E7" t="s">
+        <v>810</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="12"/>
+      <c r="F11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13153,10 +13725,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC079E-4192-4042-9084-101DC20DC760}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:I13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13164,9 +13736,9 @@
     <col min="1" max="1" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.25" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
@@ -13248,7 +13820,7 @@
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="G3" t="s">
         <v>398</v>
@@ -13268,16 +13840,16 @@
         <v>397</v>
       </c>
       <c r="D4" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E4" t="s">
         <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="G4" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="I4" t="s">
         <v>76</v>
@@ -13311,7 +13883,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>78</v>
@@ -13320,16 +13892,16 @@
         <v>471</v>
       </c>
       <c r="D6" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E6" t="s">
         <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G6" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I6" t="s">
         <v>76</v>
@@ -13337,25 +13909,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>617</v>
+        <v>1459</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>471</v>
       </c>
       <c r="D7" t="s">
-        <v>618</v>
+        <v>1473</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>1460</v>
       </c>
       <c r="F7" t="s">
-        <v>615</v>
+        <v>1461</v>
       </c>
       <c r="G7" t="s">
-        <v>616</v>
+        <v>1462</v>
       </c>
       <c r="I7" t="s">
         <v>76</v>
@@ -13363,25 +13935,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>673</v>
+        <v>1472</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>672</v>
+        <v>471</v>
       </c>
       <c r="D8" t="s">
-        <v>671</v>
+        <v>1474</v>
       </c>
       <c r="E8" t="s">
-        <v>651</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>670</v>
+        <v>1475</v>
       </c>
       <c r="G8" t="s">
-        <v>398</v>
+        <v>1476</v>
       </c>
       <c r="I8" t="s">
         <v>76</v>
@@ -13389,25 +13961,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1217</v>
+        <v>617</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>672</v>
+        <v>397</v>
       </c>
       <c r="D9" t="s">
-        <v>1218</v>
+        <v>618</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>1219</v>
+        <v>615</v>
       </c>
       <c r="G9" t="s">
-        <v>1220</v>
+        <v>616</v>
       </c>
       <c r="I9" t="s">
         <v>76</v>
@@ -13415,25 +13987,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>827</v>
+        <v>673</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>828</v>
+        <v>672</v>
       </c>
       <c r="D10" t="s">
-        <v>829</v>
+        <v>671</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="F10" t="s">
-        <v>831</v>
+        <v>670</v>
       </c>
       <c r="G10" t="s">
-        <v>830</v>
+        <v>398</v>
       </c>
       <c r="I10" t="s">
         <v>76</v>
@@ -13441,25 +14013,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1138</v>
+        <v>1215</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>1136</v>
+        <v>672</v>
       </c>
       <c r="D11" t="s">
-        <v>1137</v>
+        <v>1216</v>
       </c>
       <c r="E11" t="s">
-        <v>1139</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>1140</v>
+        <v>1217</v>
       </c>
       <c r="G11" t="s">
-        <v>1141</v>
+        <v>1218</v>
       </c>
       <c r="I11" t="s">
         <v>76</v>
@@ -13467,25 +14039,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1154</v>
+        <v>826</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>1155</v>
+        <v>827</v>
       </c>
       <c r="D12" t="s">
-        <v>1156</v>
+        <v>828</v>
       </c>
       <c r="E12" t="s">
-        <v>1139</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>1157</v>
+        <v>830</v>
       </c>
       <c r="G12" t="s">
-        <v>1141</v>
+        <v>829</v>
       </c>
       <c r="I12" t="s">
         <v>76</v>
@@ -13493,28 +14065,106 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
       <c r="D13" t="s">
-        <v>1152</v>
+        <v>1135</v>
       </c>
       <c r="E13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G13" t="s">
         <v>1139</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1141</v>
       </c>
       <c r="I13" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1448</v>
       </c>
     </row>
   </sheetData>
@@ -13632,7 +14282,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>191</v>
@@ -13641,16 +14291,16 @@
         <v>355</v>
       </c>
       <c r="D4" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E4" t="s">
         <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="G4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I4" t="s">
         <v>354</v>
@@ -13658,7 +14308,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>191</v>
@@ -13666,17 +14316,17 @@
       <c r="C5" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>1198</v>
+      <c r="D5" t="s">
+        <v>1196</v>
       </c>
       <c r="E5" t="s">
         <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I5" t="s">
         <v>354</v>
@@ -13710,7 +14360,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>191</v>
@@ -13719,16 +14369,16 @@
         <v>375</v>
       </c>
       <c r="D7" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E7" t="s">
         <v>189</v>
       </c>
       <c r="F7" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I7" t="s">
         <v>354</v>
@@ -13736,7 +14386,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>191</v>
@@ -13745,16 +14395,16 @@
         <v>375</v>
       </c>
       <c r="D8" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E8" t="s">
         <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I8" t="s">
         <v>354</v>
@@ -13788,22 +14438,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C10" t="s">
+        <v>956</v>
+      </c>
+      <c r="D10" t="s">
         <v>958</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>959</v>
+      </c>
+      <c r="F10" t="s">
         <v>960</v>
-      </c>
-      <c r="E10" t="s">
-        <v>961</v>
-      </c>
-      <c r="F10" t="s">
-        <v>962</v>
       </c>
       <c r="G10" t="s">
         <v>129</v>
@@ -13814,25 +14464,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F11" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I11" t="s">
         <v>354</v>
@@ -13846,19 +14496,19 @@
         <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>1199</v>
+        <v>1193</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1197</v>
       </c>
       <c r="E12" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F12" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G12" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I12" t="s">
         <v>354</v>
@@ -13873,11 +14523,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28B83C-EC15-4DE5-B23D-95C2173BD368}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13978,28 +14628,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D4" t="s">
         <v>770</v>
       </c>
-      <c r="C4" t="s">
-        <v>775</v>
-      </c>
-      <c r="D4" t="s">
-        <v>771</v>
-      </c>
       <c r="E4" t="s">
+        <v>773</v>
+      </c>
+      <c r="F4" t="s">
         <v>774</v>
       </c>
-      <c r="F4" t="s">
-        <v>775</v>
-      </c>
       <c r="G4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -14033,7 +14683,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B6" t="s">
         <v>536</v>
@@ -14059,51 +14709,51 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C7" t="s">
+        <v>750</v>
+      </c>
+      <c r="D7" t="s">
         <v>751</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>746</v>
+      </c>
+      <c r="F7" t="s">
+        <v>750</v>
+      </c>
+      <c r="G7" t="s">
         <v>752</v>
       </c>
-      <c r="E7" t="s">
-        <v>747</v>
-      </c>
-      <c r="F7" t="s">
-        <v>751</v>
-      </c>
-      <c r="G7" t="s">
-        <v>753</v>
-      </c>
       <c r="I7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C8" t="s">
+        <v>753</v>
+      </c>
+      <c r="D8" t="s">
         <v>754</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>746</v>
+      </c>
+      <c r="F8" t="s">
+        <v>753</v>
+      </c>
+      <c r="G8" t="s">
         <v>755</v>
-      </c>
-      <c r="E8" t="s">
-        <v>747</v>
-      </c>
-      <c r="F8" t="s">
-        <v>754</v>
-      </c>
-      <c r="G8" t="s">
-        <v>756</v>
       </c>
       <c r="I8" t="s">
         <v>536</v>
@@ -14111,25 +14761,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C9" t="s">
         <v>758</v>
       </c>
-      <c r="B9" t="s">
-        <v>748</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>759</v>
       </c>
-      <c r="D9" t="s">
-        <v>760</v>
-      </c>
       <c r="E9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I9" t="s">
         <v>536</v>
@@ -14137,25 +14787,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C10" t="s">
         <v>762</v>
       </c>
-      <c r="B10" t="s">
-        <v>748</v>
-      </c>
-      <c r="C10" t="s">
-        <v>763</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>761</v>
+      <c r="D10" s="6" t="s">
+        <v>760</v>
       </c>
       <c r="E10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I10" t="s">
         <v>536</v>
@@ -14163,51 +14813,51 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B11" t="s">
         <v>536</v>
       </c>
       <c r="C11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E11" t="s">
         <v>1374</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I11" t="s">
         <v>1375</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B12" t="s">
         <v>536</v>
       </c>
       <c r="C12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D12" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E12" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="F12" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="G12" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I12" t="s">
         <v>536</v>
@@ -14215,25 +14865,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B13" t="s">
         <v>536</v>
       </c>
       <c r="C13" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D13" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="E13" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="F13" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I13" t="s">
         <v>536</v>
@@ -14241,25 +14891,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B14" t="s">
         <v>536</v>
       </c>
       <c r="C14" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D14" t="s">
+        <v>754</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F14" t="s">
         <v>1402</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>755</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1405</v>
-      </c>
-      <c r="G14" t="s">
-        <v>756</v>
       </c>
       <c r="I14" t="s">
         <v>536</v>
@@ -14296,7 +14946,7 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C16" t="s">
         <v>126</v>
@@ -14314,59 +14964,59 @@
         <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B17" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D17" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E17" t="s">
         <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G17" t="s">
         <v>123</v>
       </c>
       <c r="I17" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B18" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C18" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D18" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="G18" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I18" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -14449,25 +15099,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B22" t="s">
         <v>214</v>
       </c>
       <c r="C22" t="s">
+        <v>777</v>
+      </c>
+      <c r="D22" t="s">
         <v>778</v>
-      </c>
-      <c r="D22" t="s">
-        <v>779</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I22" t="s">
         <v>609</v>
@@ -14475,25 +15125,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B23" t="s">
         <v>214</v>
       </c>
       <c r="C23" t="s">
+        <v>853</v>
+      </c>
+      <c r="D23" t="s">
         <v>854</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>773</v>
+      </c>
+      <c r="F23" t="s">
+        <v>853</v>
+      </c>
+      <c r="G23" t="s">
         <v>855</v>
-      </c>
-      <c r="E23" t="s">
-        <v>774</v>
-      </c>
-      <c r="F23" t="s">
-        <v>854</v>
-      </c>
-      <c r="G23" t="s">
-        <v>856</v>
       </c>
       <c r="I23" t="s">
         <v>609</v>
@@ -14501,54 +15151,80 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B24" t="s">
         <v>214</v>
       </c>
       <c r="C24" t="s">
+        <v>857</v>
+      </c>
+      <c r="D24" t="s">
         <v>858</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>859</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>857</v>
+      </c>
+      <c r="G24" t="s">
         <v>860</v>
       </c>
-      <c r="F24" t="s">
-        <v>858</v>
-      </c>
-      <c r="G24" t="s">
-        <v>861</v>
-      </c>
       <c r="I24" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E25" t="s">
+        <v>773</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E26" t="s">
         <v>1071</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F26" t="s">
         <v>1070</v>
       </c>
-      <c r="C25" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G26" t="s">
         <v>1073</v>
       </c>
-      <c r="F25" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1072</v>
+      <c r="I26" t="s">
+        <v>1070</v>
       </c>
     </row>
   </sheetData>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\SPB_Data\Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE73FC4-20FF-430C-A0C6-A2745197ABE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50060497-AEED-477C-8F45-8FFAFBD5D322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="1592">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6184,6 +6184,21 @@
   <si>
     <t>RC0603FR-070RL</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1411100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSS34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖特基二极管;VR=40V;VF=0.55V;IF=3A;SOD123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORN(伯恩半导体)</t>
   </si>
 </sst>
 </file>
@@ -6554,9 +6569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15463,18 +15478,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28B83C-EC15-4DE5-B23D-95C2173BD368}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101.875" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
@@ -15568,181 +15583,181 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>119</v>
+        <v>1588</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>1589</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>1590</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>1591</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>1589</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>775</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>769</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>774</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>770</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>773</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>774</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>772</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>769</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>538</v>
+        <v>775</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>769</v>
       </c>
       <c r="C6" t="s">
-        <v>539</v>
+        <v>774</v>
       </c>
       <c r="D6" t="s">
-        <v>543</v>
+        <v>770</v>
       </c>
       <c r="E6" t="s">
-        <v>540</v>
+        <v>773</v>
       </c>
       <c r="F6" t="s">
-        <v>541</v>
+        <v>774</v>
       </c>
       <c r="G6" t="s">
-        <v>542</v>
-      </c>
-      <c r="H6" t="s">
-        <v>544</v>
+        <v>772</v>
       </c>
       <c r="I6" t="s">
-        <v>537</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>749</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s">
         <v>536</v>
       </c>
       <c r="C7" t="s">
-        <v>619</v>
+        <v>539</v>
       </c>
       <c r="D7" t="s">
-        <v>623</v>
+        <v>543</v>
       </c>
       <c r="E7" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="F7" t="s">
-        <v>621</v>
+        <v>541</v>
       </c>
       <c r="G7" t="s">
-        <v>619</v>
+        <v>542</v>
+      </c>
+      <c r="H7" t="s">
+        <v>544</v>
       </c>
       <c r="I7" t="s">
-        <v>620</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B8" t="s">
-        <v>747</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
-        <v>750</v>
+        <v>619</v>
       </c>
       <c r="D8" t="s">
-        <v>751</v>
+        <v>623</v>
       </c>
       <c r="E8" t="s">
-        <v>746</v>
+        <v>622</v>
       </c>
       <c r="F8" t="s">
-        <v>750</v>
+        <v>621</v>
       </c>
       <c r="G8" t="s">
-        <v>752</v>
+        <v>619</v>
       </c>
       <c r="I8" t="s">
-        <v>752</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B9" t="s">
         <v>747</v>
       </c>
       <c r="C9" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E9" t="s">
         <v>746</v>
       </c>
       <c r="F9" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G9" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I9" t="s">
-        <v>536</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B10" t="s">
         <v>747</v>
       </c>
       <c r="C10" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D10" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E10" t="s">
         <v>746</v>
       </c>
       <c r="F10" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G10" t="s">
         <v>755</v>
@@ -15753,22 +15768,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B11" t="s">
         <v>747</v>
       </c>
       <c r="C11" t="s">
-        <v>762</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
+      </c>
+      <c r="D11" t="s">
+        <v>759</v>
       </c>
       <c r="E11" t="s">
         <v>746</v>
       </c>
       <c r="F11" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G11" t="s">
         <v>755</v>
@@ -15779,74 +15794,74 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1368</v>
+        <v>761</v>
       </c>
       <c r="B12" t="s">
+        <v>747</v>
+      </c>
+      <c r="C12" t="s">
+        <v>762</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="E12" t="s">
+        <v>746</v>
+      </c>
+      <c r="F12" t="s">
+        <v>762</v>
+      </c>
+      <c r="G12" t="s">
+        <v>755</v>
+      </c>
+      <c r="I12" t="s">
         <v>536</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1371</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1374</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1390</v>
+        <v>1368</v>
       </c>
       <c r="B13" t="s">
         <v>536</v>
       </c>
       <c r="C13" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1394</v>
+        <v>1369</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1370</v>
       </c>
       <c r="E13" t="s">
         <v>1372</v>
       </c>
       <c r="F13" t="s">
-        <v>1398</v>
+        <v>1371</v>
       </c>
       <c r="G13" t="s">
-        <v>755</v>
+        <v>1374</v>
       </c>
       <c r="I13" t="s">
-        <v>536</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B14" t="s">
         <v>536</v>
       </c>
       <c r="C14" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D14" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E14" t="s">
         <v>1372</v>
       </c>
       <c r="F14" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G14" t="s">
         <v>755</v>
@@ -15857,22 +15872,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="B15" t="s">
         <v>536</v>
       </c>
       <c r="C15" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D15" t="s">
-        <v>754</v>
+        <v>1395</v>
       </c>
       <c r="E15" t="s">
         <v>1372</v>
       </c>
       <c r="F15" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G15" t="s">
         <v>755</v>
@@ -15883,100 +15898,100 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1527</v>
+        <v>1396</v>
       </c>
       <c r="B16" t="s">
         <v>536</v>
       </c>
       <c r="C16" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1370</v>
+        <v>1397</v>
+      </c>
+      <c r="D16" t="s">
+        <v>754</v>
       </c>
       <c r="E16" t="s">
         <v>1372</v>
       </c>
       <c r="F16" t="s">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="G16" t="s">
-        <v>1525</v>
+        <v>755</v>
       </c>
       <c r="I16" t="s">
-        <v>1526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>108</v>
+        <v>1527</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>536</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" t="s">
-        <v>124</v>
+        <v>1524</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1370</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>1372</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>1523</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>1525</v>
       </c>
       <c r="I17" t="s">
-        <v>111</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>1280</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
-        <v>1281</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1379</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
         <v>1280</v>
       </c>
       <c r="C19" t="s">
-        <v>861</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>1377</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>862</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
         <v>123</v>
@@ -15987,129 +16002,129 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B20" t="s">
         <v>1280</v>
       </c>
       <c r="C20" t="s">
-        <v>1376</v>
+        <v>861</v>
       </c>
       <c r="D20" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>1375</v>
+        <v>862</v>
       </c>
       <c r="G20" t="s">
-        <v>1381</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>1382</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>213</v>
+        <v>1380</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>1280</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>1376</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>1378</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>1375</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>1381</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>606</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>604</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s">
         <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>605</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E23" t="s">
         <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>608</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I23" t="s">
-        <v>609</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>776</v>
+        <v>604</v>
       </c>
       <c r="B24" t="s">
         <v>214</v>
       </c>
       <c r="C24" t="s">
-        <v>777</v>
+        <v>605</v>
       </c>
       <c r="D24" t="s">
-        <v>778</v>
+        <v>607</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>779</v>
+        <v>608</v>
       </c>
       <c r="G24" t="s">
-        <v>771</v>
+        <v>211</v>
       </c>
       <c r="I24" t="s">
         <v>609</v>
@@ -16117,25 +16132,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>852</v>
+        <v>776</v>
       </c>
       <c r="B25" t="s">
         <v>214</v>
       </c>
       <c r="C25" t="s">
-        <v>853</v>
+        <v>777</v>
       </c>
       <c r="D25" t="s">
-        <v>854</v>
+        <v>778</v>
       </c>
       <c r="E25" t="s">
-        <v>773</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>853</v>
+        <v>779</v>
       </c>
       <c r="G25" t="s">
-        <v>855</v>
+        <v>771</v>
       </c>
       <c r="I25" t="s">
         <v>609</v>
@@ -16143,79 +16158,105 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B26" t="s">
         <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D26" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E26" t="s">
-        <v>859</v>
+        <v>773</v>
       </c>
       <c r="F26" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G26" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="I26" t="s">
-        <v>857</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1437</v>
+        <v>856</v>
       </c>
       <c r="B27" t="s">
         <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>1438</v>
+        <v>857</v>
       </c>
       <c r="D27" t="s">
-        <v>1439</v>
+        <v>858</v>
       </c>
       <c r="E27" t="s">
-        <v>773</v>
+        <v>859</v>
       </c>
       <c r="F27" t="s">
-        <v>1438</v>
+        <v>857</v>
       </c>
       <c r="G27" t="s">
-        <v>1441</v>
+        <v>860</v>
       </c>
       <c r="I27" t="s">
-        <v>1440</v>
+        <v>857</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E28" t="s">
+        <v>773</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>1067</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>1071</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>1073</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>1070</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>1069</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>1072</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>1069</v>
       </c>
     </row>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\SPB_Data\Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50060497-AEED-477C-8F45-8FFAFBD5D322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281734DF-9ECD-4AC7-BF20-8B99CD1915E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="1592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="1599">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6199,6 +6199,34 @@
   </si>
   <si>
     <t>BORN(伯恩半导体)</t>
+  </si>
+  <si>
+    <t>WIFI模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wi-Fi and Bluetooth  module;802.11a/b/g/n/ac/ax 2x2 MIMO 1200Mbps;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP6275PR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md50_wifi-ap6275p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP6275P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12797,10 +12825,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F61549-8124-4EE7-A218-E5BC471FD40D}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12808,7 +12836,7 @@
     <col min="1" max="1" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
@@ -12922,6 +12950,32 @@
       </c>
       <c r="I4" t="s">
         <v>1532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1598</v>
       </c>
     </row>
   </sheetData>
@@ -15480,9 +15534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28B83C-EC15-4DE5-B23D-95C2173BD368}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C3239-69AB-4EFA-A064-4D662A187F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58D5151-C10B-4440-BAED-CCA8E17AA0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">晶体管!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">其他芯片!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">贴片电容!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">贴片电阻!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">贴片结构料!$A$1:$J$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">振荡晶体!$A$1:$J$1</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1683">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5615,10 +5616,6 @@
     <t>UMW(友台半导体)</t>
   </si>
   <si>
-    <t>1311107002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DC-DC降压;输入2.5-5.5v;开关频率=1MHz;IoutMax = 3A; DFN8_2x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5915,9 +5912,6 @@
     <t>CPU:3568;RAM:4GB;ROM32GB</t>
   </si>
   <si>
-    <t>t-firefly</t>
-  </si>
-  <si>
     <t>as0b821-s78b-3h-3568-b</t>
   </si>
   <si>
@@ -6195,13 +6189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1311226003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0603MRX5R6BB226</t>
-  </si>
-  <si>
     <t>CC0402CRNPO9BN100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6489,6 +6476,86 @@
   </si>
   <si>
     <t>2083000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS0B826-S78B-7H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfn-16-4x4-ep2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快充协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031600000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW2303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智融科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type-C 口/Type-A 口快充协议芯片;PD、QC、FCP、高低压SCP、AFC、SFCP、PE;QFN16-4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTC电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1112103000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25°C 时欧姆阻值:10k,1%,B:1%,B25/50：3380K,B25/85：3434K,B25/100：3455K,0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCP18XH103F03RB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1206FRF470R005L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;0.005Ω;+/-1%;1W;0805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6858,11 +6925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6870,8 +6937,8 @@
     <col min="1" max="1" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
@@ -7034,7 +7101,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -7043,13 +7110,13 @@
         <v>269</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>781</v>
@@ -7060,7 +7127,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -7086,7 +7153,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -7112,48 +7179,48 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>128</v>
+        <v>1680</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>445</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>446</v>
+        <v>1681</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>451</v>
+        <v>1682</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>447</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
+        <v>1677</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1678</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>449</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>450</v>
+        <v>128</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>445</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1134</v>
+        <v>446</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1135</v>
+        <v>451</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>715</v>
+        <v>447</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1137</v>
+        <v>448</v>
       </c>
       <c r="G11" t="s">
         <v>91</v>
@@ -7164,59 +7231,59 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1136</v>
+        <v>450</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>445</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1193</v>
+        <v>1134</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1192</v>
+        <v>1135</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>715</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1191</v>
+        <v>1137</v>
       </c>
       <c r="G12" t="s">
         <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>339</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>891</v>
+        <v>1136</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>445</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>892</v>
+        <v>1193</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>894</v>
+        <v>1192</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>447</v>
+        <v>715</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>893</v>
+        <v>1191</v>
       </c>
       <c r="G13" t="s">
         <v>91</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>449</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1512</v>
+        <v>891</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>445</v>
@@ -7225,16 +7292,16 @@
         <v>892</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1513</v>
+        <v>894</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>447</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>332</v>
+        <v>893</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>449</v>
@@ -7242,33 +7309,33 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>286</v>
+        <v>1511</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>445</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>283</v>
+        <v>892</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>288</v>
+        <v>1512</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>447</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" t="s">
-        <v>91</v>
+        <v>1513</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>339</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1034</v>
+        <v>286</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -7277,13 +7344,13 @@
         <v>283</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1035</v>
+        <v>288</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1036</v>
+        <v>285</v>
       </c>
       <c r="G16" t="s">
         <v>91</v>
@@ -7294,7 +7361,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1471</v>
+        <v>1034</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -7303,16 +7370,16 @@
         <v>283</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1472</v>
+        <v>1035</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1473</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>332</v>
+        <v>1036</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>339</v>
@@ -7320,25 +7387,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>291</v>
+        <v>1470</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>289</v>
+        <v>1471</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G18" t="s">
-        <v>91</v>
+        <v>1472</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>339</v>
@@ -7346,7 +7413,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -7355,16 +7422,16 @@
         <v>290</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="G19" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>339</v>
@@ -7372,7 +7439,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>832</v>
+        <v>369</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -7381,16 +7448,16 @@
         <v>290</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1109</v>
+        <v>371</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>833</v>
+        <v>370</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>339</v>
@@ -7398,7 +7465,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1433</v>
+        <v>832</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -7407,16 +7474,16 @@
         <v>290</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1435</v>
+        <v>1109</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1434</v>
+        <v>833</v>
       </c>
       <c r="G21" t="s">
-        <v>781</v>
+        <v>91</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>339</v>
@@ -7424,25 +7491,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>177</v>
+        <v>1433</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>1435</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>175</v>
+        <v>1434</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>781</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>339</v>
@@ -7450,7 +7517,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>420</v>
+        <v>177</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -7459,16 +7526,16 @@
         <v>276</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>421</v>
+        <v>176</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>422</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>339</v>
@@ -7476,7 +7543,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1213</v>
+        <v>420</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -7485,16 +7552,16 @@
         <v>276</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1214</v>
+        <v>421</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1215</v>
+        <v>422</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>339</v>
@@ -7502,25 +7569,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>713</v>
+        <v>1213</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>712</v>
+        <v>276</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>711</v>
+        <v>1214</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>710</v>
+        <v>1215</v>
       </c>
       <c r="G25" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>339</v>
@@ -7528,7 +7595,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>966</v>
+        <v>713</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
@@ -7537,16 +7604,16 @@
         <v>712</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>965</v>
+        <v>711</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>781</v>
+        <v>710</v>
+      </c>
+      <c r="G26" t="s">
+        <v>332</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>339</v>
@@ -7554,25 +7621,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1330</v>
+        <v>966</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1329</v>
+        <v>712</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1331</v>
+        <v>965</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1332</v>
+        <v>964</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>19</v>
+        <v>781</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>339</v>
@@ -7580,24 +7647,24 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>724</v>
+        <v>1330</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>725</v>
+        <v>1329</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>726</v>
+        <v>1331</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="G28" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -7606,77 +7673,77 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>475</v>
+        <v>724</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>474</v>
+        <v>725</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>471</v>
+        <v>726</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>473</v>
+        <v>727</v>
       </c>
       <c r="G29" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1266</v>
+        <v>475</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>373</v>
+        <v>474</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1265</v>
+        <v>471</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>1267</v>
+      <c r="F30" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>427</v>
+        <v>1266</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>428</v>
+        <v>1265</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>429</v>
+      <c r="F31" s="7" t="s">
+        <v>1267</v>
       </c>
       <c r="G31" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>339</v>
@@ -7684,7 +7751,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1347</v>
+        <v>427</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
@@ -7693,16 +7760,16 @@
         <v>431</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1348</v>
+        <v>428</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1349</v>
+        <v>429</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>339</v>
@@ -7710,22 +7777,22 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1102</v>
+        <v>1347</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1101</v>
+        <v>431</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1103</v>
+        <v>1348</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1104</v>
+        <v>1349</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -7736,22 +7803,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1210</v>
+        <v>1102</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1209</v>
+        <v>1101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1211</v>
+        <v>1103</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1212</v>
+        <v>1104</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
@@ -7762,25 +7829,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>778</v>
+        <v>1210</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>777</v>
+        <v>1209</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>798</v>
+        <v>1211</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>779</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>781</v>
+        <v>1212</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>339</v>
@@ -7788,25 +7855,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>955</v>
+        <v>778</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>956</v>
+        <v>777</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>957</v>
+        <v>798</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="G36" t="s">
-        <v>91</v>
+        <v>780</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>781</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>339</v>
@@ -7814,7 +7881,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1485</v>
+        <v>955</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
@@ -7823,13 +7890,13 @@
         <v>956</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1483</v>
+        <v>957</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1484</v>
+        <v>958</v>
       </c>
       <c r="G37" t="s">
         <v>91</v>
@@ -7840,22 +7907,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1634</v>
+        <v>1484</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1633</v>
+        <v>956</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1635</v>
+        <v>1482</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1636</v>
+        <v>1483</v>
       </c>
       <c r="G38" t="s">
         <v>91</v>
@@ -7866,22 +7933,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1164</v>
+        <v>1630</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1163</v>
+        <v>1629</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1170</v>
+        <v>1631</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1165</v>
+        <v>1632</v>
       </c>
       <c r="G39" t="s">
         <v>91</v>
@@ -7892,22 +7959,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1322</v>
+        <v>1164</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1320</v>
+        <v>1163</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1321</v>
+        <v>1170</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1323</v>
+        <v>1165</v>
       </c>
       <c r="G40" t="s">
         <v>91</v>
@@ -7918,22 +7985,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1407</v>
+        <v>1322</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1406</v>
+        <v>1320</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1408</v>
+        <v>1321</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1409</v>
+        <v>1323</v>
       </c>
       <c r="G41" t="s">
         <v>91</v>
@@ -7944,25 +8011,25 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>411</v>
+        <v>1407</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>407</v>
+        <v>1406</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>409</v>
+        <v>1408</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>413</v>
+        <v>1409</v>
       </c>
       <c r="G42" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>339</v>
@@ -7970,25 +8037,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1610</v>
+        <v>411</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1609</v>
+        <v>407</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1611</v>
+        <v>409</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>1613</v>
+        <v>413</v>
+      </c>
+      <c r="G43" t="s">
+        <v>332</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>339</v>
@@ -7996,25 +8063,25 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>294</v>
+        <v>1606</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>292</v>
+        <v>1605</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>362</v>
+        <v>1607</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G44" t="s">
-        <v>91</v>
+        <v>1608</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1609</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>339</v>
@@ -8022,25 +8089,25 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>645</v>
+        <v>294</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>644</v>
+        <v>292</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>643</v>
+        <v>362</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>642</v>
+        <v>293</v>
       </c>
       <c r="G45" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>339</v>
@@ -8048,7 +8115,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1660</v>
+        <v>645</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
@@ -8057,16 +8124,16 @@
         <v>644</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1096</v>
+        <v>643</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1097</v>
+        <v>642</v>
       </c>
       <c r="G46" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>339</v>
@@ -8074,25 +8141,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1352</v>
+        <v>1656</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1351</v>
+        <v>644</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1353</v>
+        <v>1096</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1350</v>
+        <v>1097</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>339</v>
@@ -8100,22 +8167,22 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>357</v>
+        <v>1352</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>356</v>
+        <v>1351</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>359</v>
+        <v>1353</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>355</v>
+        <v>1350</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -8126,7 +8193,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
@@ -8135,16 +8202,16 @@
         <v>356</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>332</v>
+        <v>355</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>339</v>
@@ -8152,25 +8219,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>901</v>
+        <v>361</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>902</v>
+        <v>360</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
+        <v>358</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>339</v>
@@ -8178,25 +8245,25 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>414</v>
+        <v>901</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>417</v>
+        <v>902</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>416</v>
+        <v>900</v>
       </c>
       <c r="G51" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>339</v>
@@ -8204,25 +8271,25 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1030</v>
+        <v>414</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>646</v>
+        <v>415</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1029</v>
+        <v>417</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1028</v>
+        <v>416</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>339</v>
@@ -8230,7 +8297,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1474</v>
+        <v>1030</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
@@ -8239,16 +8306,16 @@
         <v>646</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1475</v>
+        <v>1029</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1476</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>332</v>
+        <v>1028</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>339</v>
@@ -8256,25 +8323,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>180</v>
+        <v>1473</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>277</v>
+        <v>646</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>179</v>
+        <v>1474</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G54" t="s">
-        <v>91</v>
+        <v>1475</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>339</v>
@@ -8282,22 +8349,22 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1302</v>
+        <v>180</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1300</v>
+        <v>277</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1301</v>
+        <v>179</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1299</v>
+        <v>178</v>
       </c>
       <c r="G55" t="s">
         <v>91</v>
@@ -8308,22 +8375,22 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1167</v>
+        <v>1302</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1166</v>
+        <v>1300</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1168</v>
+        <v>1301</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1169</v>
+        <v>1299</v>
       </c>
       <c r="G56" t="s">
         <v>91</v>
@@ -8334,25 +8401,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>482</v>
+        <v>1167</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>481</v>
+        <v>1166</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>799</v>
+        <v>1168</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>483</v>
+        <v>1169</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>339</v>
@@ -8360,22 +8427,22 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1545</v>
+        <v>482</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1542</v>
+        <v>481</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1543</v>
+        <v>799</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1544</v>
+        <v>483</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
@@ -8386,22 +8453,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>960</v>
+        <v>1543</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>961</v>
+        <v>1540</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>962</v>
+        <v>1541</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>959</v>
+        <v>1542</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -8412,22 +8479,22 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1392</v>
+        <v>960</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1393</v>
+        <v>961</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1394</v>
+        <v>962</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1395</v>
+        <v>959</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
@@ -8438,22 +8505,22 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>791</v>
+        <v>1392</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>789</v>
+        <v>1393</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>790</v>
+        <v>1394</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>779</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>788</v>
+        <v>1395</v>
       </c>
       <c r="G61" t="s">
         <v>19</v>
@@ -8464,25 +8531,25 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1534</v>
+        <v>791</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1533</v>
+        <v>789</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1535</v>
+        <v>790</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1532</v>
+        <v>788</v>
       </c>
       <c r="G62" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>339</v>
@@ -8490,25 +8557,25 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>1532</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>272</v>
+        <v>1531</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>834</v>
+        <v>1533</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>701</v>
+        <v>1530</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>339</v>
@@ -8516,7 +8583,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>699</v>
+        <v>130</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
@@ -8525,16 +8592,16 @@
         <v>272</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G64" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>339</v>
@@ -8542,25 +8609,25 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1078</v>
+        <v>699</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1079</v>
+        <v>272</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1173</v>
+        <v>835</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1080</v>
+        <v>700</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>339</v>
@@ -8568,22 +8635,22 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1539</v>
+        <v>1078</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1538</v>
+        <v>1079</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1540</v>
+        <v>1173</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1541</v>
+        <v>1080</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
@@ -8594,22 +8661,22 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1172</v>
+        <v>1537</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1171</v>
+        <v>1536</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1174</v>
+        <v>1538</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1175</v>
+        <v>1539</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -8620,22 +8687,22 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1056</v>
+        <v>1172</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1052</v>
+        <v>1171</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1053</v>
+        <v>1174</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1054</v>
+        <v>1175</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
@@ -8646,22 +8713,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>1555</v>
+        <v>1056</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1554</v>
+        <v>1052</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1556</v>
+        <v>1053</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1557</v>
+        <v>1054</v>
       </c>
       <c r="G69" t="s">
         <v>19</v>
@@ -8672,25 +8739,25 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>410</v>
+        <v>1553</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>406</v>
+        <v>1552</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>408</v>
+        <v>1554</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>412</v>
+        <v>1555</v>
       </c>
       <c r="G70" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>339</v>
@@ -8698,22 +8765,22 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>471</v>
+        <v>408</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="G71" t="s">
         <v>332</v>
@@ -8724,7 +8791,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
@@ -8733,16 +8800,16 @@
         <v>470</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>339</v>
@@ -8750,25 +8817,25 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="G73" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>339</v>
@@ -8776,25 +8843,25 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1089</v>
+        <v>430</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1090</v>
+        <v>432</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1091</v>
+        <v>433</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1092</v>
+        <v>434</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>339</v>
@@ -8802,22 +8869,22 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1451</v>
+        <v>1089</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1449</v>
+        <v>1090</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1452</v>
+        <v>1091</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1450</v>
+        <v>1092</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -8828,22 +8895,22 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>163</v>
+        <v>1450</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>273</v>
+        <v>1448</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>133</v>
+        <v>1451</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>162</v>
+        <v>1449</v>
       </c>
       <c r="G76" t="s">
         <v>19</v>
@@ -8854,22 +8921,22 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>363</v>
+        <v>162</v>
       </c>
       <c r="G77" t="s">
         <v>19</v>
@@ -8880,7 +8947,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
@@ -8889,16 +8956,16 @@
         <v>364</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>332</v>
+        <v>363</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>339</v>
@@ -8906,7 +8973,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1098</v>
+        <v>368</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
@@ -8915,16 +8982,16 @@
         <v>364</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1099</v>
+        <v>365</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
+        <v>366</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>339</v>
@@ -8932,22 +8999,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>1098</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>154</v>
+        <v>1099</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>152</v>
+        <v>1100</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -8958,22 +9025,22 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
@@ -8984,7 +9051,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>452</v>
+        <v>157</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
@@ -8993,16 +9060,16 @@
         <v>275</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>453</v>
+        <v>156</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
       <c r="G82" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>339</v>
@@ -9010,25 +9077,25 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>1032</v>
+        <v>452</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1031</v>
+        <v>275</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1046</v>
+        <v>453</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1033</v>
+        <v>454</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>339</v>
@@ -9036,7 +9103,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>1465</v>
+        <v>1032</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
@@ -9045,16 +9112,16 @@
         <v>1031</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1466</v>
+        <v>1046</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1467</v>
+        <v>1033</v>
       </c>
       <c r="G84" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>339</v>
@@ -9062,25 +9129,25 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>1044</v>
+        <v>1464</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1045</v>
+        <v>1465</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1042</v>
+        <v>1466</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>339</v>
@@ -9088,7 +9155,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>1468</v>
+        <v>1044</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
@@ -9097,16 +9164,16 @@
         <v>1043</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1469</v>
+        <v>1045</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1470</v>
+        <v>1042</v>
       </c>
       <c r="G86" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>339</v>
@@ -9114,22 +9181,22 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>946</v>
+        <v>1467</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>947</v>
+        <v>1043</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>948</v>
+        <v>1468</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>949</v>
+        <v>1469</v>
       </c>
       <c r="G87" t="s">
         <v>332</v>
@@ -9140,25 +9207,25 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>1296</v>
+        <v>946</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1297</v>
+        <v>947</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1298</v>
+        <v>948</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>19</v>
+        <v>949</v>
+      </c>
+      <c r="G88" t="s">
+        <v>332</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>339</v>
@@ -9166,24 +9233,24 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>1160</v>
+        <v>1296</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1159</v>
+        <v>1297</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1162</v>
+        <v>1298</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G89" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -9192,22 +9259,22 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>1598</v>
+        <v>1160</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1599</v>
+        <v>1159</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1600</v>
+        <v>1162</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1601</v>
+        <v>1161</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
@@ -9218,22 +9285,22 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>1487</v>
+        <v>1594</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1486</v>
+        <v>1595</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1488</v>
+        <v>1596</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1489</v>
+        <v>1597</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -9244,25 +9311,25 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>681</v>
+        <v>1486</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>680</v>
+        <v>1485</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>679</v>
+        <v>1487</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>678</v>
+        <v>1488</v>
       </c>
       <c r="G92" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>339</v>
@@ -9270,22 +9337,22 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="G93" t="s">
         <v>332</v>
@@ -9296,25 +9363,25 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>610</v>
+        <v>687</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>339</v>
@@ -9322,25 +9389,25 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>402</v>
+        <v>608</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>401</v>
+        <v>609</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>404</v>
+        <v>610</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>403</v>
+        <v>611</v>
       </c>
       <c r="G95" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>339</v>
@@ -9348,24 +9415,24 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G96" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G96" t="s">
         <v>332</v>
       </c>
       <c r="I96" s="1" t="s">
@@ -9374,7 +9441,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
@@ -9383,16 +9450,16 @@
         <v>330</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
+        <v>328</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>339</v>
@@ -9400,22 +9467,22 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1156</v>
+        <v>338</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1155</v>
+        <v>330</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1158</v>
+        <v>337</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1157</v>
+        <v>1084</v>
       </c>
       <c r="G98" t="s">
         <v>19</v>
@@ -9426,22 +9493,22 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1081</v>
+        <v>1156</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1082</v>
+        <v>1155</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1083</v>
+        <v>1158</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1085</v>
+        <v>1157</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -9452,22 +9519,22 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>1281</v>
+        <v>1081</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1280</v>
+        <v>1082</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1282</v>
+        <v>1083</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1283</v>
+        <v>1085</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
@@ -9478,22 +9545,22 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>1105</v>
+        <v>1281</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1106</v>
+        <v>1280</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1107</v>
+        <v>1282</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1108</v>
+        <v>1283</v>
       </c>
       <c r="G101" t="s">
         <v>19</v>
@@ -9504,22 +9571,22 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>830</v>
+        <v>1105</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>829</v>
+        <v>1106</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>831</v>
+        <v>1107</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>828</v>
+        <v>1108</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -9530,22 +9597,22 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>1312</v>
+        <v>830</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1311</v>
+        <v>829</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1313</v>
+        <v>831</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1314</v>
+        <v>828</v>
       </c>
       <c r="G103" t="s">
         <v>19</v>
@@ -9556,22 +9623,22 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>624</v>
+        <v>1312</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>623</v>
+        <v>1311</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>622</v>
+        <v>1313</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>621</v>
+        <v>1314</v>
       </c>
       <c r="G104" t="s">
         <v>19</v>
@@ -9582,22 +9649,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1399</v>
+        <v>624</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1398</v>
+        <v>623</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1400</v>
+        <v>622</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1401</v>
+        <v>621</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
@@ -9608,22 +9675,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>1399</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>271</v>
+        <v>1398</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>133</v>
+        <v>1400</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>131</v>
+        <v>1401</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -9634,22 +9701,22 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1551</v>
+        <v>134</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1550</v>
+        <v>271</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1552</v>
+        <v>133</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1553</v>
+        <v>131</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -9660,25 +9727,25 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>692</v>
+        <v>1549</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>691</v>
+        <v>1548</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>690</v>
+        <v>1550</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>697</v>
+        <v>1551</v>
       </c>
       <c r="G108" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>339</v>
@@ -9686,25 +9753,25 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>1055</v>
+        <v>692</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1057</v>
+        <v>691</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1058</v>
+        <v>690</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1059</v>
+        <v>697</v>
       </c>
       <c r="G109" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>339</v>
@@ -9712,25 +9779,25 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>400</v>
+        <v>1055</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>399</v>
+        <v>1057</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>405</v>
+        <v>1058</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>403</v>
+        <v>1059</v>
       </c>
       <c r="G110" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>339</v>
@@ -9738,28 +9805,80 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>696</v>
+        <v>400</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>695</v>
+        <v>399</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>694</v>
+        <v>405</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>693</v>
+        <v>403</v>
       </c>
       <c r="G111" t="s">
         <v>332</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G112" t="s">
+        <v>332</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>1676</v>
       </c>
     </row>
   </sheetData>
@@ -9776,10 +9895,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9787,7 +9906,7 @@
     <col min="1" max="1" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.875" customWidth="1"/>
     <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
@@ -10090,13 +10209,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D12" t="s">
         <v>1051</v>
@@ -10105,7 +10224,7 @@
         <v>304</v>
       </c>
       <c r="F12" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G12" t="s">
         <v>1060</v>
@@ -10255,7 +10374,7 @@
         <v>677</v>
       </c>
       <c r="D18" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E18" t="s">
         <v>515</v>
@@ -10345,7 +10464,7 @@
         <v>1076</v>
       </c>
       <c r="H21" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="I21" t="s">
         <v>1077</v>
@@ -10405,7 +10524,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="B24" t="s">
         <v>390</v>
@@ -10431,28 +10550,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E25" t="s">
         <v>1624</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>1625</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
         <v>1626</v>
       </c>
-      <c r="D25" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1629</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1630</v>
-      </c>
       <c r="I25" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -10475,7 +10594,7 @@
         <v>720</v>
       </c>
       <c r="G26" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="I26" t="s">
         <v>722</v>
@@ -10483,7 +10602,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="B27" t="s">
         <v>718</v>
@@ -10505,6 +10624,32 @@
       </c>
       <c r="I27" t="s">
         <v>1319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1667</v>
       </c>
     </row>
   </sheetData>
@@ -10678,28 +10823,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="B6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I6" t="s">
         <v>1617</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1619</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1618</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1621</v>
       </c>
     </row>
   </sheetData>
@@ -10821,22 +10966,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D4" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="E4" t="s">
         <v>342</v>
       </c>
       <c r="F4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G4" t="s">
         <v>1227</v>
@@ -10937,7 +11082,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="B8" t="s">
         <v>375</v>
@@ -10952,7 +11097,7 @@
         <v>1225</v>
       </c>
       <c r="F8" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="G8" t="s">
         <v>1227</v>
@@ -10966,7 +11111,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B9" t="s">
         <v>375</v>
@@ -10975,13 +11120,13 @@
         <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E9" t="s">
         <v>1225</v>
       </c>
       <c r="F9" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="G9" t="s">
         <v>1227</v>
@@ -11010,7 +11155,7 @@
         <v>1225</v>
       </c>
       <c r="F10" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="G10" t="s">
         <v>1227</v>
@@ -11024,13 +11169,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B11" t="s">
         <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D11" t="s">
         <v>1223</v>
@@ -11039,7 +11184,7 @@
         <v>1225</v>
       </c>
       <c r="F11" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="G11" t="s">
         <v>1227</v>
@@ -11053,22 +11198,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B12" t="s">
         <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D12" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E12" t="s">
         <v>1225</v>
       </c>
       <c r="F12" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="G12" t="s">
         <v>1226</v>
@@ -11097,7 +11242,7 @@
         <v>1225</v>
       </c>
       <c r="F13" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="G13" t="s">
         <v>1227</v>
@@ -11120,13 +11265,13 @@
         <v>1216</v>
       </c>
       <c r="D14" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E14" t="s">
         <v>1225</v>
       </c>
       <c r="F14" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="G14" t="s">
         <v>1226</v>
@@ -11140,22 +11285,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B15" t="s">
         <v>376</v>
       </c>
       <c r="C15" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D15" t="s">
         <v>1561</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1563</v>
       </c>
       <c r="E15" t="s">
         <v>1225</v>
       </c>
       <c r="F15" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="G15" t="s">
         <v>1226</v>
@@ -11183,7 +11328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC4AD67-C776-4093-88E2-79BBC414D956}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -11372,7 +11517,7 @@
         <v>1010</v>
       </c>
       <c r="D7" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E7" t="s">
         <v>1011</v>
@@ -11415,22 +11560,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B9" t="s">
         <v>383</v>
       </c>
       <c r="C9" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D9" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E9" t="s">
         <v>1413</v>
       </c>
       <c r="F9" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="G9" t="s">
         <v>1019</v>
@@ -11441,22 +11586,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B10" t="s">
         <v>383</v>
       </c>
       <c r="C10" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D10" t="s">
         <v>1528</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1530</v>
       </c>
       <c r="E10" t="s">
         <v>1413</v>
       </c>
       <c r="F10" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="G10" t="s">
         <v>1019</v>
@@ -11519,7 +11664,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B13" t="s">
         <v>303</v>
@@ -11545,7 +11690,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="B14" t="s">
         <v>435</v>
@@ -11571,7 +11716,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B15" t="s">
         <v>435</v>
@@ -11597,7 +11742,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="B16" t="s">
         <v>931</v>
@@ -11623,7 +11768,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="B17" t="s">
         <v>931</v>
@@ -11857,7 +12002,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="B26" t="s">
         <v>1274</v>
@@ -11895,11 +12040,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB78C2-2208-4DF0-8ABB-0CE48BD26296}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="1" sqref="A3:XFD3 A38:XFD38"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11948,13 +12093,24 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1655</v>
+      </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
@@ -11964,7 +12120,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -11973,13 +12129,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>1588</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>1587</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -11990,22 +12146,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1658</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>786</v>
       </c>
       <c r="D4" t="s">
-        <v>1592</v>
+        <v>787</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>1591</v>
+        <v>785</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -12016,22 +12172,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -12042,25 +12198,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>655</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
+        <v>654</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>653</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -12068,25 +12224,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1464</v>
+        <v>655</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>1462</v>
+        <v>1295</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>1463</v>
+        <v>1293</v>
       </c>
       <c r="G7" t="s">
-        <v>325</v>
+        <v>1294</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -12094,22 +12250,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>1273</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>1272</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>1271</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>1270</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -12120,25 +12276,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>542</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>551</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
@@ -12146,25 +12302,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>158</v>
+      <c r="F10" t="s">
+        <v>324</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -12172,25 +12328,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>981</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>982</v>
+        <v>279</v>
       </c>
       <c r="D11" t="s">
-        <v>983</v>
+        <v>193</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>985</v>
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>192</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -12198,25 +12354,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>167</v>
+        <v>1494</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>973</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>974</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
@@ -12224,22 +12380,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="D13" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="G13" t="s">
         <v>325</v>
@@ -12250,22 +12406,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -12276,22 +12432,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1614</v>
+        <v>812</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D15" t="s">
-        <v>1616</v>
+        <v>813</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>1615</v>
+        <v>811</v>
       </c>
       <c r="G15" t="s">
         <v>71</v>
@@ -12302,77 +12458,83 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>174</v>
+        <v>817</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>814</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>818</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>1111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>816</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>815</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>819</v>
+      </c>
+      <c r="H16" t="s">
+        <v>821</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>655</v>
+        <v>1122</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>818</v>
       </c>
       <c r="D17" t="s">
-        <v>654</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>1123</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1124</v>
       </c>
       <c r="F17" t="s">
-        <v>653</v>
+        <v>1125</v>
       </c>
       <c r="G17" t="s">
-        <v>325</v>
+        <v>1118</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1116</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>655</v>
+        <v>1258</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>1257</v>
       </c>
       <c r="D18" t="s">
-        <v>1295</v>
+        <v>1260</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>1293</v>
+        <v>1259</v>
       </c>
       <c r="G18" t="s">
-        <v>1294</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
@@ -12380,22 +12542,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>1262</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>1261</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -12406,25 +12568,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1495</v>
+        <v>419</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>418</v>
       </c>
       <c r="D20" t="s">
-        <v>973</v>
+        <v>1264</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>974</v>
+        <v>1263</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -12432,25 +12594,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1496</v>
+        <v>889</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>418</v>
       </c>
       <c r="D21" t="s">
-        <v>1498</v>
+        <v>1452</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>1497</v>
+        <v>890</v>
       </c>
       <c r="G21" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
@@ -12484,22 +12646,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>205</v>
+        <v>1093</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>1094</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>1453</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>1095</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
@@ -12510,25 +12672,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>812</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>813</v>
+        <v>165</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>811</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -12536,25 +12698,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1273</v>
+        <v>1498</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>1272</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>1271</v>
+        <v>1499</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>1270</v>
+        <v>1500</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -12562,25 +12724,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>327</v>
+        <v>1132</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>1133</v>
       </c>
       <c r="D26" t="s">
-        <v>326</v>
+        <v>1600</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>324</v>
+        <v>1599</v>
       </c>
       <c r="G26" t="s">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
@@ -12588,22 +12750,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1258</v>
+        <v>1396</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>1257</v>
+        <v>1133</v>
       </c>
       <c r="D27" t="s">
-        <v>1260</v>
+        <v>1397</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>1259</v>
+        <v>1598</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -12614,22 +12776,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>349</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="D28" t="s">
-        <v>1262</v>
+        <v>169</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>1261</v>
+        <v>168</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
@@ -12640,25 +12802,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>419</v>
+        <v>1610</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>418</v>
+        <v>280</v>
       </c>
       <c r="D29" t="s">
-        <v>1264</v>
+        <v>1612</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>1263</v>
+        <v>1611</v>
       </c>
       <c r="G29" t="s">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
@@ -12666,25 +12828,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>889</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="D30" t="s">
-        <v>1453</v>
+        <v>542</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>890</v>
+        <v>551</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
@@ -12692,25 +12854,25 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1093</v>
+        <v>1119</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>1094</v>
+        <v>281</v>
       </c>
       <c r="D31" t="s">
-        <v>1454</v>
+        <v>1120</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>1095</v>
+        <v>1121</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s">
         <v>20</v>
@@ -12718,25 +12880,25 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1132</v>
+        <v>1445</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>1133</v>
+        <v>281</v>
       </c>
       <c r="D32" t="s">
-        <v>1604</v>
+        <v>1447</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F32" t="s">
-        <v>1603</v>
+        <v>1446</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
         <v>20</v>
@@ -12744,51 +12906,54 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1396</v>
+        <v>1151</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C33" t="s">
-        <v>1133</v>
+        <v>1150</v>
       </c>
       <c r="D33" t="s">
-        <v>1397</v>
+        <v>1152</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>12</v>
+        <v>1153</v>
       </c>
       <c r="F33" t="s">
-        <v>1602</v>
+        <v>1154</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>1118</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1116</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1119</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>1120</v>
+        <v>159</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F34" t="s">
-        <v>1121</v>
+      <c r="F34" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
@@ -12796,22 +12961,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1589</v>
+        <v>981</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>281</v>
+        <v>982</v>
       </c>
       <c r="D35" t="s">
-        <v>542</v>
+        <v>983</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1590</v>
+        <v>984</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>985</v>
       </c>
       <c r="G35" t="s">
         <v>120</v>
@@ -12822,51 +12987,54 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1446</v>
+        <v>1146</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>1147</v>
       </c>
       <c r="D36" t="s">
-        <v>1448</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>188</v>
+        <v>1148</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1117</v>
       </c>
       <c r="F36" t="s">
-        <v>1447</v>
+        <v>1149</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>1118</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1116</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>550</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>549</v>
+        <v>282</v>
       </c>
       <c r="D37" t="s">
-        <v>553</v>
+        <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>552</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
@@ -12874,25 +13042,25 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>786</v>
+        <v>282</v>
       </c>
       <c r="D38" t="s">
-        <v>787</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>785</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
@@ -12900,158 +13068,106 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>817</v>
+        <v>1463</v>
       </c>
       <c r="B39" t="s">
-        <v>814</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E39" t="s">
-        <v>816</v>
+        <v>1461</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>815</v>
+        <v>1462</v>
       </c>
       <c r="G39" t="s">
-        <v>819</v>
-      </c>
-      <c r="H39" t="s">
-        <v>821</v>
+        <v>325</v>
       </c>
       <c r="I39" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1122</v>
+        <v>550</v>
       </c>
       <c r="B40" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>818</v>
+        <v>549</v>
       </c>
       <c r="D40" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1124</v>
+        <v>553</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>1125</v>
+        <v>552</v>
       </c>
       <c r="G40" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1116</v>
+        <v>71</v>
       </c>
       <c r="I40" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1440</v>
+        <v>1112</v>
       </c>
       <c r="B41" t="s">
         <v>1114</v>
       </c>
+      <c r="C41" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I41" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>1151</v>
-      </c>
       <c r="B42" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1154</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="G42" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1116</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I43" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I44" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{22CB78C2-2208-4DF0-8ABB-0CE48BD26296}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J44">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13447,28 +13563,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B14" t="s">
         <v>1068</v>
       </c>
       <c r="C14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D14" t="s">
         <v>1478</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>1479</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>1480</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1481</v>
       </c>
       <c r="G14" t="s">
         <v>1236</v>
       </c>
       <c r="I14" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
   </sheetData>
@@ -13483,7 +13599,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13492,8 +13608,8 @@
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
@@ -13583,54 +13699,54 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C4" t="s">
         <v>1515</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1516</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>806</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G4" t="s">
         <v>1517</v>
       </c>
-      <c r="E4" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F4">
-        <v>3568</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1519</v>
-      </c>
       <c r="I4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E5" t="s">
         <v>1575</v>
       </c>
-      <c r="B5" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>1576</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>1577</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>1578</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1580</v>
       </c>
     </row>
   </sheetData>
@@ -15297,31 +15413,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="B8" t="s">
         <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="D8" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="E8" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="F8" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="G8" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="H8" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="I8" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -15468,7 +15584,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>78</v>
@@ -15477,13 +15593,13 @@
         <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="G5" t="s">
         <v>1345</v>
@@ -15494,7 +15610,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>78</v>
@@ -15503,13 +15619,13 @@
         <v>395</v>
       </c>
       <c r="D6" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="E6" t="s">
         <v>953</v>
       </c>
       <c r="F6" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="G6" t="s">
         <v>1345</v>
@@ -15572,7 +15688,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>78</v>
@@ -15581,16 +15697,16 @@
         <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F9" t="s">
         <v>1443</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>1444</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1445</v>
       </c>
       <c r="I9" t="s">
         <v>76</v>
@@ -15598,7 +15714,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>78</v>
@@ -15607,16 +15723,16 @@
         <v>468</v>
       </c>
       <c r="D10" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
       </c>
       <c r="F10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G10" t="s">
         <v>1458</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1459</v>
       </c>
       <c r="I10" t="s">
         <v>76</v>
@@ -15624,7 +15740,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>78</v>
@@ -15659,16 +15775,16 @@
         <v>1143</v>
       </c>
       <c r="D12" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E12" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F12" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="G12" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I12" t="s">
         <v>76</v>
@@ -15754,25 +15870,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D16" t="s">
         <v>1546</v>
       </c>
-      <c r="D16" t="s">
-        <v>1548</v>
-      </c>
       <c r="E16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F16" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="G16" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I16" t="s">
         <v>76</v>
@@ -15806,7 +15922,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>78</v>
@@ -15815,16 +15931,16 @@
         <v>1126</v>
       </c>
       <c r="D18" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E18" t="s">
         <v>1491</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>1492</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>1493</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1494</v>
       </c>
       <c r="I18" t="s">
         <v>76</v>
@@ -16346,25 +16462,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I3" t="s">
         <v>89</v>
@@ -16372,22 +16488,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E4" t="s">
         <v>1571</v>
       </c>
-      <c r="D4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1573</v>
-      </c>
       <c r="F4" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="G4" t="s">
         <v>85</v>
@@ -16424,22 +16540,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D6" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E6" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="F6" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="G6" t="s">
         <v>85</v>
@@ -16739,13 +16855,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B18" t="s">
         <v>533</v>
       </c>
       <c r="C18" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1356</v>
@@ -16754,13 +16870,13 @@
         <v>1358</v>
       </c>
       <c r="F18" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G18" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I18" t="s">
         <v>1509</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -16927,10 +17043,10 @@
         <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D25" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="E25" t="s">
         <v>769</v>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58D5151-C10B-4440-BAED-CCA8E17AA0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF06FDA-55A0-43C9-95C1-E928B2003516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="其他芯片" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">晶体管!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">其他芯片!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">贴片电容!$A$1:$J$1</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="1689">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6557,6 +6557,29 @@
   <si>
     <t>RES FILM;0.005Ω;+/-1%;1W;0805</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDC升降压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031200013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL9405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDC升降压;输入3.6-32V;开关频率=150KHz-1200KHz;QFN-48 6x6mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfn-48-pl9405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWLICON(宝砾微)</t>
   </si>
 </sst>
 </file>
@@ -6927,7 +6950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
@@ -9895,16 +9918,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.875" customWidth="1"/>
     <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
@@ -10576,86 +10599,112 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>723</v>
+        <v>1684</v>
       </c>
       <c r="B26" t="s">
-        <v>718</v>
+        <v>1683</v>
       </c>
       <c r="C26" t="s">
-        <v>719</v>
+        <v>1685</v>
       </c>
       <c r="D26" t="s">
-        <v>721</v>
+        <v>1686</v>
       </c>
       <c r="E26" t="s">
-        <v>515</v>
+        <v>1688</v>
       </c>
       <c r="F26" t="s">
-        <v>720</v>
+        <v>1685</v>
       </c>
       <c r="G26" t="s">
-        <v>1604</v>
+        <v>1687</v>
       </c>
       <c r="I26" t="s">
-        <v>722</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1641</v>
+        <v>723</v>
       </c>
       <c r="B27" t="s">
         <v>718</v>
       </c>
       <c r="C27" t="s">
-        <v>1316</v>
+        <v>719</v>
       </c>
       <c r="D27" t="s">
-        <v>1317</v>
+        <v>721</v>
       </c>
       <c r="E27" t="s">
-        <v>846</v>
+        <v>515</v>
       </c>
       <c r="F27" t="s">
-        <v>1315</v>
+        <v>720</v>
       </c>
       <c r="G27" t="s">
-        <v>1318</v>
+        <v>1604</v>
       </c>
       <c r="I27" t="s">
-        <v>1319</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B28" t="s">
+        <v>718</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E28" t="s">
+        <v>846</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>1665</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>1667</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>1669</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>1668</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>1667</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>1664</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>1667</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J27" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
-      <sortCondition ref="A1:A27"/>
+  <autoFilter ref="A1:J28" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
+      <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF06FDA-55A0-43C9-95C1-E928B2003516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBD4FC7-85C2-4144-9638-D52262EBD6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="1724">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4960,480 +4960,1714 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ESD二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402KRX7R9BB103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X7R;10nF;+/-10%;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10nF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311103000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网口变压器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2425S</t>
+  </si>
+  <si>
+    <t>G2425S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳磁联达电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 BASE-T MAGNETICS MODULES; 16.6*9*2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GigabitTransformer-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111750000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;75Ω;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0775RL</t>
+  </si>
+  <si>
+    <t>网口母座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6611600004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-RJ45R08P-C000</t>
+  </si>
+  <si>
+    <t>RJ45R08P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ckmtw(灿科盟)</t>
+  </si>
+  <si>
+    <t>网口母座;安装方式:弯插;屏蔽:有;LED:有;工作温度范围:0℃~+70℃;16.26*15.75*13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.26*15.75*13.1</t>
+  </si>
+  <si>
+    <t>RJ45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rj45-90s</t>
+  </si>
+  <si>
+    <t>CC1812KKX7REBB102</t>
+  </si>
+  <si>
+    <t>C1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X7R;1nF;+/-10%;3KV;1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111511000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;510Ω;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-072K49L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.49K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;2.49KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111249200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB3320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfn32-5x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3015180002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPEC-304-ACP16</t>
+  </si>
+  <si>
+    <t>USB-C连接器;16pin;pitch 0.5mm;8.94*7.35mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPEC-304-ACP16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.94*7.35mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPEC-16PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.06k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111806300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;8.06KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-078K06L</t>
+  </si>
+  <si>
+    <t>TPS25200DRVR</t>
+  </si>
+  <si>
+    <t>TPS25200DRVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Voltage = 2.5-6.5V;Imax = 2.5A;RDS(ON) = 60mΩ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wson6-2x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS25200DRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;150KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111154000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-07150KL</t>
+  </si>
+  <si>
+    <t>24Mhz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014024000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPSON(爱普生)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q22FA12800489</t>
+  </si>
+  <si>
+    <t>Crystal;24MHZ;12pF;+/-10PPM;2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111105002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;1MΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-071ML</t>
+  </si>
+  <si>
+    <t>2031200009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY8871B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY8871</t>
+  </si>
+  <si>
+    <t>SY8871BDFC</t>
+  </si>
+  <si>
+    <t>DC-DC降压;输入2.4-6v;开关频率=1MHz;IoutMax = 1A; QFN-8 2mm x 2mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfn8-2x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXS0108E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-Bit Bi-directional, Level-Shifting, Voltage Translator for Open-Drain and Push-Pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VQFN20-4_5x3_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXS0108ERGY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;2.2uH;+/-20%;DRC=120mΩ;1.A;2.5*2.0.*1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN201610H2R2MT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQM2HPN2R2MJ0L</t>
+  </si>
+  <si>
+    <t>1111124001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;120KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-07120KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-07210KL</t>
+  </si>
+  <si>
+    <t>210K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111214000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;210KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1411400006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRM-3638T</t>
+  </si>
+  <si>
+    <t>工作电压:2.7V~5.5V;工作电流:450uA;接收距离:6m;中心频率:38kHz;接收角度:±35°@垂直；±35°@水平;工作温度:-20~+80;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRM-3638T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVERLIGHT(亿光)</t>
+  </si>
+  <si>
+    <t>IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irm_3638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESD73034D-10/TR</t>
+  </si>
+  <si>
+    <t>ESD73034D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVS二极管;Vrwm=±5V;Vbr=5.1;Cj=9pF;DFN1006-2L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVS二极管;Vrwm=±3.3V;Vbr=9-12V;Cj=0.2pF;DFN2510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1511100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1511100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfn2510-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSFP母座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3015900002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170432-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSFP连接器:38pin;pitch 0.8mm; 18.2*12.45mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.2*12.45mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170432-002</t>
+  </si>
+  <si>
+    <t>1411400007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1411400008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-Led</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-Led</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色LED;0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色LED;0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1411400009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G-Led</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-217/BHC-ZL1M2RY/3T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-217/R6C-AL1M2VY/3T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-217/GHC-YR1S2/3T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS6605A</t>
+  </si>
+  <si>
+    <t>IS6605A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031200010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC降压;输入4-16v;开关频率=600k-1MHz;QFN-14 2mm x 3mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN-14-2x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;3.3Ω;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-073R3L</t>
+  </si>
+  <si>
+    <t>1311224001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X5R;220nF;+/-10%;25V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111822000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;8.2KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-078K2L</t>
+  </si>
+  <si>
+    <t>1231105001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MWSA0402S-1R0MT</t>
+  </si>
+  <si>
+    <t>IND POWER Coil;1.0uH;+/-20%;DRC=27mΩ;6A;4*4.2*2mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>169K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111169300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;169KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-07169KL</t>
+  </si>
+  <si>
+    <t>2082400005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT25QU02GCBB8E12-0SIT</t>
+  </si>
+  <si>
+    <t>QSPI flash;2G bits NOR FLASH;TFBGA-24(6x8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT25QU02GCBB8E12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFBGA-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSPI-FLASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6611600005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPD1135-M048-4F</t>
+  </si>
+  <si>
+    <t>JPD1135-M048-4F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC座子;5mm;9PIN;插头直径7.5mm;12.3x10x11mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpd1135-m048-4f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.3x10x11mm</t>
+  </si>
+  <si>
+    <t>1511300007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJAB25P03</t>
+  </si>
+  <si>
+    <t>P-MOS-8PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdfnwb3_3x3_3-8l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模滤波器;Cap=10uF;DC-Res=0.43mΩ;Imax=20A;DC=25V;InsertionLoss=35dB;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNX025H01L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNX025</t>
+  </si>
+  <si>
+    <t>BNX025H01</t>
+  </si>
+  <si>
+    <t>1251000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111103003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>RES FILM;10KΩ;+/-1%;1/10W;0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031100009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>LDO;Fix;1A;3.3VSOT-89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMW(友台半导体)</t>
+  </si>
+  <si>
+    <t>DC-DC降压;输入2.5-5.5v;开关频率=1MHz;IoutMax = 3A; DFN8_2x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231105002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chilisin(奇力新)</t>
+  </si>
+  <si>
+    <t>EHEI252010A-1R0M-Q8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind2520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311226002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM155R60J226ME11D</t>
+  </si>
+  <si>
+    <t>CAP CER X5R;22μF;+/-20%;6.3V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.3K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0745K3L</t>
+  </si>
+  <si>
+    <t>1111453400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;45.3KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER NPO;22pF;+/-5%;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X7R;2.2nF;+/-10%;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231105003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;1.0uH;+/-20%;DRC=28mΩ;4A;2520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;1.0uH;+/-20%;DRC=80mΩ;1.1A;0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQM21PN1R0MGHL</t>
+  </si>
+  <si>
+    <t>L0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGM2037-2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGM2037-2.5XUDX6G/TR</t>
+  </si>
+  <si>
+    <t>CAP CER X5R;4.7μF;+/-20%;6.3V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM035R60J475ME15D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311475002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111490901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;49.9Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-0749R9L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111499001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;499Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-07499RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111102002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;1KΩ;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-071KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111240001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;240Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-07240RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2051000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PXE1410C</t>
+  </si>
+  <si>
+    <t>VR13 and VR12.5 Multi-rail / Multiphase Digital Controllers;PMBus system interface;QFN-40(5mm x5mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infineon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PXE1410CDM</t>
+  </si>
+  <si>
+    <t>PXE1410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;1.5KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-071K5L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111152001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.36K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111536100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;5.36KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-075K36L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231154001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;0.15uH;+/-20%;DRC=0.5mΩ;45A;11.5*10*3.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjiang(长江微电)</t>
+  </si>
+  <si>
+    <t>FXL1040-R15-M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind1040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311105001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311105002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0201KRX5R5BB105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X5R;1μF;+/-10%;6.3V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311223001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X5R;22nF;+/-10%;10V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0201KRX5R6BB223</t>
+  </si>
+  <si>
+    <t>肖特基二极管;VR=40V;VF=0.50V;IF=1.5A;FBP1608-2L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSB5524D-2/TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSB5524D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1411100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBP1608-2L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRM-V538M3/TR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRM-V538M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irm-v5xxm3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1411400010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111101001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;100Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-07100RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3568模块</t>
+  </si>
+  <si>
+    <t>CORE_3568_MXM</t>
+  </si>
+  <si>
+    <t>CPU:3568;RAM:4GB;ROM32GB</t>
+  </si>
+  <si>
+    <t>as0b821-s78b-3h-3568-b</t>
+  </si>
+  <si>
+    <t>7001100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2041025002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal;25MHZ;18pF;+/-30PPM;2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM-DDR4 16Gb 3200Mb/s 1.2V 并口 96-FBGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT40A512M16LY-075E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT40A512M16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2082400006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2082400007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT40A1GM16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM-DDR4 8Gb 2666Mb/s 1.2V 并口 96-FBGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM-DDR4 16Gb 2666Mb/s 1.2V 并口 96-FBGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT40A1G16KNR-075E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-0739RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111390000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;39Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;0.22uH;+/-20%;DRC=0.9mΩ;35A;11.5*10*3.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXL1040-R22-M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111394000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;3.9KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-073K9L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.74K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;2.74KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-072K74L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111274200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8uH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231804000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;0.22uH;+/-20%;DRC=2.6mΩ;23A;11.5*10*3.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXL1040-R80-M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111825100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;8.25KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-078K25L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.12K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111412100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;4.12KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-074K12L</t>
+  </si>
+  <si>
+    <t>100Mhz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014148500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>148.5Mhz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分TCXO,133.33MHZ;10pF;+/-0.5PPM;7050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分TCXO,148.5MHZ;10pF;+/-0.5PPM;7050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分TCXO,100MHZ;10pF;+/-0.5PPM;7050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50Mhz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;0Ω;+/-1%;1/16W;0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-070RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1411100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSS34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖特基二极管;VR=40V;VF=0.55V;IF=3A;SOD123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORN(伯恩半导体)</t>
+  </si>
+  <si>
+    <t>WIFI模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wi-Fi and Bluetooth  module;802.11a/b/g/n/ac/ax 2x2 MIMO 1200Mbps;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP6275PR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md50_wifi-ap6275p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP6275P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2041037400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.4Mhz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal;37.4MHZ;9pF;+/-10PPM;2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q22FA12800078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231225002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231224003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;2.2uH;+/-20%;DRC=80mΩ;1.A;2.05*2.0.*1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN252010U2R2MT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402CRNPO9BN100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER NP0/C0G;10pF;+/-0.25pF;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1411100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZT52C3V3</t>
+  </si>
+  <si>
+    <t>稳压二极管;Vz=3.3V;Vr=1V;SOD123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ(江苏长电/长晶)</t>
+  </si>
+  <si>
+    <t>BZT52C3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111513000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;5.1KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-075K1L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402KRX5R8BB224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0805KKX7R9BB224</t>
+  </si>
+  <si>
+    <t>CAP CER X7R;220nF;+/-10%;50V;0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-07510RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJAB25P03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOS管P-FET;VDS:-30V;0.014ohm;-25A;3W;PDFNWB-8(3x3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111200001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;2Ω;+/-%;1/2W;1210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC1210FR-072RL</t>
+  </si>
+  <si>
+    <t>R1210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311225001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0805KKX7R9BB225</t>
+  </si>
+  <si>
+    <t>CAP CER X5R;2.2μF;+/-10%;50V;0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mSMD300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾陆海</t>
+  </si>
+  <si>
+    <t>R1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自恢复保险丝;Vmax 8V; Imax 100A; Ihold 3A; Itrip 5A; Maximun Time To Tirp Current 8A,Time 4Sec;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1611100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031200012</t>
+  </si>
+  <si>
+    <t>DCDC降压</t>
+  </si>
+  <si>
+    <t>BL8028</t>
+  </si>
+  <si>
+    <t>DC-DC降压;输入2.6-5.5v;开关频率=2MHz;DFN2x2-6</t>
+  </si>
+  <si>
+    <t>上海贝岭</t>
+  </si>
+  <si>
+    <t>BL8028CKCTR</t>
+  </si>
+  <si>
+    <t>DFN2x2-6</t>
+  </si>
+  <si>
+    <t>2031100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031200011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.82K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111182000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;1.82KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-071K82L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231224004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;2.2uH;+/-20%;DRC=110mΩ;1.5A;2.05*2.0.*1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQM2HPN2R2MGHL</t>
+  </si>
+  <si>
+    <t>6611600006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-044A-20A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC座子;内径2mm;外径5.9mm;10.1*7.2*11.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国韩荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1*7.2*11.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031400001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014024001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ825.0000W20GBDXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ824.0000W12GBDXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ825.0000C3GABDXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ850.0000C3GABDXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ8125.0000C3GABDXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC8100.0000L3GABDXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC8133.3300L3GABDXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC8148.5000L3GABDXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111000200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111202001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2082600000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2082700000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2082700001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2082800000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2082800001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2083000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS0B826-S78B-7H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfn-16-4x4-ep2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快充协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031600000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW2303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智融科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type-C 口/Type-A 口快充协议芯片;PD、QC、FCP、高低压SCP、AFC、SFCP、PE;QFN16-4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTC电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1112103000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25°C 时欧姆阻值:10k,1%,B:1%,B25/50：3380K,B25/85：3434K,B25/100：3455K,0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCP18XH103F03RB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1206FRF470R005L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;0.005Ω;+/-1%;1W;0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDC升降压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031200013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL9405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDC升降压;输入3.6-32V;开关频率=150KHz-1200KHz;QFN-48 6x6mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfn-48-pl9405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWLICON(宝砾微)</t>
+  </si>
+  <si>
+    <t>1111000050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;12KΩ;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;12KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111123001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0712KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RC0402FR-07120RL</t>
-  </si>
-  <si>
-    <t>ESD二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0402KRX7R9BB103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER X7R;10nF;+/-10%;50V;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10nF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311103000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网口变压器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2425S</t>
-  </si>
-  <si>
-    <t>G2425S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳磁联达电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000 BASE-T MAGNETICS MODULES; 16.6*9*2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GigabitTransformer-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111750000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;75Ω;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-0775RL</t>
-  </si>
-  <si>
-    <t>网口母座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6611600004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-RJ45R08P-C000</t>
-  </si>
-  <si>
-    <t>RJ45R08P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ckmtw(灿科盟)</t>
-  </si>
-  <si>
-    <t>网口母座;安装方式:弯插;屏蔽:有;LED:有;工作温度范围:0℃~+70℃;16.26*15.75*13.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.26*15.75*13.1</t>
-  </si>
-  <si>
-    <t>RJ45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rj45-90s</t>
-  </si>
-  <si>
-    <t>CC1812KKX7REBB102</t>
-  </si>
-  <si>
-    <t>C1812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER X7R;1nF;+/-10%;3KV;1812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111511000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;510Ω;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-072K49L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.49K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;2.49KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111249200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB3320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qfn32-5x5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3015180002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPEC-304-ACP16</t>
-  </si>
-  <si>
-    <t>USB-C连接器;16pin;pitch 0.5mm;8.94*7.35mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPEC-304-ACP16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.94*7.35mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPEC-16PIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.06k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111806300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;8.06KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-078K06L</t>
-  </si>
-  <si>
-    <t>TPS25200DRVR</t>
-  </si>
-  <si>
-    <t>TPS25200DRVR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input Voltage = 2.5-6.5V;Imax = 2.5A;RDS(ON) = 60mΩ;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wson6-2x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS25200DRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;150KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111154000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-07150KL</t>
-  </si>
-  <si>
-    <t>24Mhz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014024000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPSON(爱普生)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q22FA12800489</t>
-  </si>
-  <si>
-    <t>Crystal;24MHZ;12pF;+/-10PPM;2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111105002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;1MΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-071ML</t>
-  </si>
-  <si>
-    <t>2031200009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY8871B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY8871</t>
-  </si>
-  <si>
-    <t>SY8871BDFC</t>
-  </si>
-  <si>
-    <t>DC-DC降压;输入2.4-6v;开关频率=1MHz;IoutMax = 1A; QFN-8 2mm x 2mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfn8-2x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXS0108E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-Bit Bi-directional, Level-Shifting, Voltage Translator for Open-Drain and Push-Pull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VQFN20-4_5x3_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXS0108ERGY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IND POWER Coil;2.2uH;+/-20%;DRC=120mΩ;1.A;2.5*2.0.*1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WPN201610H2R2MT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQM2HPN2R2MJ0L</t>
-  </si>
-  <si>
-    <t>1111124001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;120KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-07120KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-07210KL</t>
-  </si>
-  <si>
-    <t>210K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111214000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;210KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1411400006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRM-3638T</t>
-  </si>
-  <si>
-    <t>工作电压:2.7V~5.5V;工作电流:450uA;接收距离:6m;中心频率:38kHz;接收角度:±35°@垂直；±35°@水平;工作温度:-20~+80;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRM-3638T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVERLIGHT(亿光)</t>
-  </si>
-  <si>
-    <t>IR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>irm_3638</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESD73034D-10/TR</t>
-  </si>
-  <si>
-    <t>ESD73034D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TVS二极管;Vrwm=±5V;Vbr=5.1;Cj=9pF;DFN1006-2L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TVS二极管;Vrwm=±3.3V;Vbr=9-12V;Cj=0.2pF;DFN2510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1511100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1511100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfn2510-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESD10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSFP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSFP母座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3015900002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170432-0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSFP连接器:38pin;pitch 0.8mm; 18.2*12.45mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.2*12.45mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170432-002</t>
-  </si>
-  <si>
-    <t>1411400007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1411400008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-Led</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-Led</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色LED;0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色LED;0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1411400009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G-Led</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-217/BHC-ZL1M2RY/3T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-217/R6C-AL1M2VY/3T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-217/GHC-YR1S2/3T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS6605A</t>
-  </si>
-  <si>
-    <t>IS6605A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2031200010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC-DC降压;输入4-16v;开关频率=600k-1MHz;QFN-14 2mm x 3mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QFN-14-2x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111683000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0768KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111224000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;220KΩ;+/-5%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402JR-07220KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111514000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;51KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0751KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111203000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;20KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0720KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5441,1145 +6675,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.3R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;3.3Ω;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-073R3L</t>
-  </si>
-  <si>
-    <t>1311224001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER X5R;220nF;+/-10%;25V;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.2K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111822000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;8.2KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-078K2L</t>
-  </si>
-  <si>
-    <t>1231105001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ind0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MWSA0402S-1R0MT</t>
-  </si>
-  <si>
-    <t>IND POWER Coil;1.0uH;+/-20%;DRC=27mΩ;6A;4*4.2*2mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>169K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111169300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;169KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-07169KL</t>
-  </si>
-  <si>
-    <t>2082400005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT25QU02GCBB8E12-0SIT</t>
-  </si>
-  <si>
-    <t>QSPI flash;2G bits NOR FLASH;TFBGA-24(6x8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Micron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT25QU02GCBB8E12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFBGA-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSPI-FLASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6611600005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JPD1135-M048-4F</t>
-  </si>
-  <si>
-    <t>JPD1135-M048-4F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC座子;5mm;9PIN;插头直径7.5mm;12.3x10x11mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jpd1135-m048-4f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.3x10x11mm</t>
-  </si>
-  <si>
-    <t>1511300007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJAB25P03</t>
-  </si>
-  <si>
-    <t>P-MOS-8PIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdfnwb3_3x3_3-8l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共模电感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共模滤波器;Cap=10uF;DC-Res=0.43mΩ;Imax=20A;DC=25V;InsertionLoss=35dB;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNX025H01L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNX025</t>
-  </si>
-  <si>
-    <t>BNX025H01</t>
-  </si>
-  <si>
-    <t>1251000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111103003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-0710KL</t>
-  </si>
-  <si>
-    <t>RES FILM;10KΩ;+/-1%;1/10W;0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2031100009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>LDO;Fix;1A;3.3VSOT-89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UMW(友台半导体)</t>
-  </si>
-  <si>
-    <t>DC-DC降压;输入2.5-5.5v;开关频率=1MHz;IoutMax = 3A; DFN8_2x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1231105002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chilisin(奇力新)</t>
-  </si>
-  <si>
-    <t>EHEI252010A-1R0M-Q8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ind2520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311226002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRM155R60J226ME11D</t>
-  </si>
-  <si>
-    <t>CAP CER X5R;22μF;+/-20%;6.3V;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45.3K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-0745K3L</t>
-  </si>
-  <si>
-    <t>1111453400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;45.3KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER NPO;22pF;+/-5%;50V;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER X7R;2.2nF;+/-10%;50V;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1231105003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IND POWER Coil;1.0uH;+/-20%;DRC=28mΩ;4A;2520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IND POWER Coil;1.0uH;+/-20%;DRC=80mΩ;1.1A;0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQM21PN1R0MGHL</t>
-  </si>
-  <si>
-    <t>L0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGM2037-2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGM2037-2.5XUDX6G/TR</t>
-  </si>
-  <si>
-    <t>CAP CER X5R;4.7μF;+/-20%;6.3V;0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRM035R60J475ME15D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311475002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111490901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;49.9Ω;+/-1%;1/20W;0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0201FR-0749R9L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111499001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;499Ω;+/-1%;1/20W;0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0201FR-07499RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111102002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;1KΩ;+/-1%;1/20W;0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0201FR-071KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111240001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;240Ω;+/-1%;1/20W;0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0201FR-07240RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2051000011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PXE1410C</t>
-  </si>
-  <si>
-    <t>VR13 and VR12.5 Multi-rail / Multiphase Digital Controllers;PMBus system interface;QFN-40(5mm x5mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infineon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PXE1410CDM</t>
-  </si>
-  <si>
-    <t>PXE1410</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;1.5KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-071K5L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111152001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.36K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111536100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;5.36KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-075K36L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1231154001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IND POWER Coil;0.15uH;+/-20%;DRC=0.5mΩ;45A;11.5*10*3.8mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjiang(长江微电)</t>
-  </si>
-  <si>
-    <t>FXL1040-R15-M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ind1040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311105001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311105002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0201KRX5R5BB105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER X5R;1μF;+/-10%;6.3V;0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311223001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER X5R;22nF;+/-10%;10V;0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0201KRX5R6BB223</t>
-  </si>
-  <si>
-    <t>肖特基二极管;VR=40V;VF=0.50V;IF=1.5A;FBP1608-2L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSB5524D-2/TR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSB5524D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1411100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FBP1608-2L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRM-V538M3/TR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRM-V538M3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>irm-v5xxm3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1411400010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111101001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;100Ω;+/-1%;1/20W;0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0201FR-07100RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3568模块</t>
-  </si>
-  <si>
-    <t>CORE_3568_MXM</t>
-  </si>
-  <si>
-    <t>CPU:3568;RAM:4GB;ROM32GB</t>
-  </si>
-  <si>
-    <t>as0b821-s78b-3h-3568-b</t>
-  </si>
-  <si>
-    <t>7001100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2041025002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crystal;25MHZ;18pF;+/-30PPM;2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM-DDR4 16Gb 3200Mb/s 1.2V 并口 96-FBGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT40A512M16LY-075E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT40A512M16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2082400006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2082400007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT40A1GM16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM-DDR4 8Gb 2666Mb/s 1.2V 并口 96-FBGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDRAM-DDR4 16Gb 2666Mb/s 1.2V 并口 96-FBGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT40A1G16KNR-075E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0201FR-0739RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111390000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;39Ω;+/-1%;1/20W;0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IND POWER Coil;0.22uH;+/-20%;DRC=0.9mΩ;35A;11.5*10*3.8mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FXL1040-R22-M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.9K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111394000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;3.9KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-073K9L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.74K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;2.74KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-072K74L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111274200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8uH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1231804000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IND POWER Coil;0.22uH;+/-20%;DRC=2.6mΩ;23A;11.5*10*3.8mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FXL1040-R80-M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.25K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111825100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;8.25KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-078K25L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.12K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111412100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;4.12KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-074K12L</t>
-  </si>
-  <si>
-    <t>100Mhz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014148500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>148.5Mhz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差分TCXO,133.33MHZ;10pF;+/-0.5PPM;7050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差分TCXO,148.5MHZ;10pF;+/-0.5PPM;7050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差分TCXO,100MHZ;10pF;+/-0.5PPM;7050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014500000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50Mhz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;0Ω;+/-1%;1/16W;0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-070RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1411100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSS34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖特基二极管;VR=40V;VF=0.55V;IF=3A;SOD123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BORN(伯恩半导体)</t>
-  </si>
-  <si>
-    <t>WIFI模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7001100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wi-Fi and Bluetooth  module;802.11a/b/g/n/ac/ax 2x2 MIMO 1200Mbps;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP6275PR3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>md50_wifi-ap6275p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP6275P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2041037400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.4Mhz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crystal;37.4MHZ;9pF;+/-10PPM;2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q22FA12800078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1231225002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1231224003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IND POWER Coil;2.2uH;+/-20%;DRC=80mΩ;1.A;2.05*2.0.*1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WPN252010U2R2MT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0402CRNPO9BN100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP CER NP0/C0G;10pF;+/-0.25pF;50V;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1411100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BZT52C3V3</t>
-  </si>
-  <si>
-    <t>稳压二极管;Vz=3.3V;Vr=1V;SOD123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ(江苏长电/长晶)</t>
-  </si>
-  <si>
-    <t>BZT52C3V3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111513000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;5.1KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-075K1L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0402KRX5R8BB224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0805KKX7R9BB224</t>
-  </si>
-  <si>
-    <t>CAP CER X7R;220nF;+/-10%;50V;0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-07510RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJAB25P03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOS管P-FET;VDS:-30V;0.014ohm;-25A;3W;PDFNWB-8(3x3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111200001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;2Ω;+/-%;1/2W;1210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC1210FR-072RL</t>
-  </si>
-  <si>
-    <t>R1210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311225001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0805KKX7R9BB225</t>
-  </si>
-  <si>
-    <t>CAP CER X5R;2.2μF;+/-10%;50V;0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mSMD300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台湾陆海</t>
-  </si>
-  <si>
-    <t>R1812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自恢复保险丝;Vmax 8V; Imax 100A; Ihold 3A; Itrip 5A; Maximun Time To Tirp Current 8A,Time 4Sec;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1611100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2031200012</t>
-  </si>
-  <si>
-    <t>DCDC降压</t>
-  </si>
-  <si>
-    <t>BL8028</t>
-  </si>
-  <si>
-    <t>DC-DC降压;输入2.6-5.5v;开关频率=2MHz;DFN2x2-6</t>
-  </si>
-  <si>
-    <t>上海贝岭</t>
-  </si>
-  <si>
-    <t>BL8028CKCTR</t>
-  </si>
-  <si>
-    <t>DFN2x2-6</t>
-  </si>
-  <si>
-    <t>2031100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2031200011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.82K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111182000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;1.82KΩ;+/-1%;1/16W;0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-071K82L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1231224004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IND POWER Coil;2.2uH;+/-20%;DRC=110mΩ;1.5A;2.05*2.0.*1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQM2HPN2R2MGHL</t>
-  </si>
-  <si>
-    <t>6611600006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC-044A-20A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC座子;内径2mm;外径5.9mm;10.1*7.2*11.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩国韩荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1*7.2*11.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2031400001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014024001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZ825.0000W20GBDXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZ824.0000W12GBDXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZ825.0000C3GABDXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZ850.0000C3GABDXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZ8125.0000C3GABDXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC8100.0000L3GABDXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC8133.3300L3GABDXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC8148.5000L3GABDXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4x5mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111000100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111000200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111202001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2082600000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2082700000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2082700001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2082800000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2082800001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2083000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS0B826-S78B-7H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qfn-16-4x4-ep2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快充协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2031600000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW2303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智融科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type-C 口/Type-A 口快充协议芯片;PD、QC、FCP、高低压SCP、AFC、SFCP、PE;QFN16-4x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTC电阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1112103000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25°C 时欧姆阻值:10k,1%,B:1%,B25/50：3380K,B25/85：3434K,B25/100：3455K,0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCP18XH103F03RB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA1206FRF470R005L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.005R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES FILM;0.005Ω;+/-1%;1W;0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCDC升降压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2031200013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL9405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCDC升降压;输入3.6-32V;开关频率=150KHz-1200KHz;QFN-48 6x6mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qfn-48-pl9405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POWLICON(宝砾微)</t>
+    <t>1111033000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;30KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0730KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1511300008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AON7544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-MOS-8PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOS管N-FET;VDS=30V;5mohm;30A;23W;DFN-8(3x3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231335001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MWSA0503S-3R3MT</t>
+  </si>
+  <si>
+    <t>ind0503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;3.3uH;+/-20%;DRC=38mΩ;5.5A;5.2*5.4*2.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6589,7 +6729,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6617,13 +6757,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF444444"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6654,7 +6787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6667,7 +6800,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6948,11 +7080,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7124,7 +7256,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -7133,13 +7265,13 @@
         <v>269</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>781</v>
@@ -7150,7 +7282,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -7176,7 +7308,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -7202,28 +7334,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>1677</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -7332,7 +7464,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>445</v>
@@ -7341,13 +7473,13 @@
         <v>892</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>447</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>332</v>
@@ -7410,7 +7542,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -7419,13 +7551,13 @@
         <v>283</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>332</v>
@@ -7514,7 +7646,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -7523,13 +7655,13 @@
         <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G22" t="s">
         <v>781</v>
@@ -7670,22 +7802,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>19</v>
@@ -7731,7 +7863,7 @@
         <v>474</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>471</v>
+        <v>1688</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -7746,53 +7878,53 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1266</v>
+        <v>1690</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>373</v>
+        <v>1687</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1265</v>
+        <v>1689</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
+      <c r="F31" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1692</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>339</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>427</v>
+        <v>1266</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>428</v>
+        <v>1265</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>429</v>
+        <v>1694</v>
       </c>
       <c r="G32" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>339</v>
@@ -7800,7 +7932,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1347</v>
+        <v>427</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
@@ -7809,16 +7941,16 @@
         <v>431</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1348</v>
+        <v>428</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1349</v>
+        <v>429</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>339</v>
@@ -7826,22 +7958,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1102</v>
+        <v>1346</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1101</v>
+        <v>431</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1103</v>
+        <v>1347</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1104</v>
+        <v>1348</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
@@ -7852,22 +7984,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1210</v>
+        <v>1102</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1209</v>
+        <v>1101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1211</v>
+        <v>1103</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1212</v>
+        <v>1104</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -7878,25 +8010,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>778</v>
+        <v>1210</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>777</v>
+        <v>1209</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>798</v>
+        <v>1211</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>779</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>781</v>
+        <v>1212</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>339</v>
@@ -7904,25 +8036,25 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>955</v>
+        <v>778</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>956</v>
+        <v>777</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>957</v>
+        <v>798</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="G37" t="s">
-        <v>91</v>
+        <v>780</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>781</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>339</v>
@@ -7930,7 +8062,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1484</v>
+        <v>955</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -7939,13 +8071,13 @@
         <v>956</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1482</v>
+        <v>957</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1483</v>
+        <v>958</v>
       </c>
       <c r="G38" t="s">
         <v>91</v>
@@ -7956,22 +8088,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1630</v>
+        <v>1482</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1629</v>
+        <v>956</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1631</v>
+        <v>1480</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1632</v>
+        <v>1481</v>
       </c>
       <c r="G39" t="s">
         <v>91</v>
@@ -7982,22 +8114,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1164</v>
+        <v>1628</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1163</v>
+        <v>1627</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1170</v>
+        <v>1629</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1165</v>
+        <v>1630</v>
       </c>
       <c r="G40" t="s">
         <v>91</v>
@@ -8008,22 +8140,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1322</v>
+        <v>1164</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1320</v>
+        <v>1163</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1321</v>
+        <v>1170</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1323</v>
+        <v>1165</v>
       </c>
       <c r="G41" t="s">
         <v>91</v>
@@ -8034,22 +8166,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1407</v>
+        <v>1321</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1406</v>
+        <v>1319</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1408</v>
+        <v>1320</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1409</v>
+        <v>1322</v>
       </c>
       <c r="G42" t="s">
         <v>91</v>
@@ -8060,25 +8192,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>411</v>
+        <v>1405</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>407</v>
+        <v>1404</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>409</v>
+        <v>1406</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>413</v>
+        <v>1407</v>
       </c>
       <c r="G43" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>339</v>
@@ -8086,25 +8218,25 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1606</v>
+        <v>411</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1605</v>
+        <v>407</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1607</v>
+        <v>409</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>1609</v>
+        <v>413</v>
+      </c>
+      <c r="G44" t="s">
+        <v>332</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>339</v>
@@ -8112,25 +8244,25 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>294</v>
+        <v>1604</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>292</v>
+        <v>1603</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>362</v>
+        <v>1605</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G45" t="s">
-        <v>91</v>
+        <v>1606</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1607</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>339</v>
@@ -8138,25 +8270,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>645</v>
+        <v>294</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>644</v>
+        <v>292</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>643</v>
+        <v>362</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>642</v>
+        <v>293</v>
       </c>
       <c r="G46" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>339</v>
@@ -8164,7 +8296,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1656</v>
+        <v>645</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
@@ -8173,16 +8305,16 @@
         <v>644</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1096</v>
+        <v>643</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1097</v>
+        <v>642</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>339</v>
@@ -8190,25 +8322,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1352</v>
+        <v>1654</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1351</v>
+        <v>644</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1353</v>
+        <v>1096</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1350</v>
+        <v>1097</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>339</v>
@@ -8216,25 +8348,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>357</v>
+        <v>1706</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>356</v>
+        <v>1707</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>359</v>
+        <v>1708</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>355</v>
+        <v>1709</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>339</v>
@@ -8242,25 +8374,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>361</v>
+        <v>1351</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>356</v>
+        <v>1350</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>360</v>
+        <v>1352</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>332</v>
+        <v>1349</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>339</v>
@@ -8268,22 +8400,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>901</v>
+        <v>357</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>902</v>
+        <v>359</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>900</v>
+        <v>355</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -8294,24 +8426,24 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G52" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>332</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -8320,22 +8452,22 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1030</v>
+        <v>901</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>646</v>
+        <v>353</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1029</v>
+        <v>902</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1028</v>
+        <v>900</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
@@ -8346,25 +8478,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1473</v>
+        <v>1698</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>646</v>
+        <v>1699</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1474</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>332</v>
+        <v>1701</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>339</v>
@@ -8372,25 +8504,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>179</v>
+        <v>417</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>178</v>
+        <v>416</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>339</v>
@@ -8398,25 +8530,25 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1302</v>
+        <v>1030</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1300</v>
+        <v>646</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1301</v>
+        <v>1029</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1299</v>
+        <v>1028</v>
       </c>
       <c r="G56" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>339</v>
@@ -8424,25 +8556,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1167</v>
+        <v>1471</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1166</v>
+        <v>646</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1168</v>
+        <v>1472</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G57" t="s">
-        <v>91</v>
+        <v>1473</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>339</v>
@@ -8450,25 +8582,25 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>482</v>
+        <v>180</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>481</v>
+        <v>277</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>799</v>
+        <v>179</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>483</v>
+        <v>178</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>339</v>
@@ -8476,25 +8608,25 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1543</v>
+        <v>1301</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1540</v>
+        <v>1299</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1541</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1542</v>
+        <v>1298</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>339</v>
@@ -8502,25 +8634,25 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>960</v>
+        <v>1167</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>961</v>
+        <v>1166</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>962</v>
+        <v>1168</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>959</v>
+        <v>1169</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>339</v>
@@ -8528,22 +8660,22 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>1392</v>
+        <v>482</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1393</v>
+        <v>481</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1394</v>
+        <v>799</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1395</v>
+        <v>483</v>
       </c>
       <c r="G61" t="s">
         <v>19</v>
@@ -8554,22 +8686,22 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>791</v>
+        <v>1541</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>789</v>
+        <v>1538</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>790</v>
+        <v>1539</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>779</v>
+        <v>12</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>788</v>
+        <v>1540</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
@@ -8580,25 +8712,25 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>1532</v>
+        <v>960</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1531</v>
+        <v>961</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1533</v>
+        <v>962</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1530</v>
+        <v>959</v>
       </c>
       <c r="G63" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>339</v>
@@ -8606,22 +8738,22 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>1711</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>272</v>
+        <v>1710</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>834</v>
+        <v>1713</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>701</v>
+        <v>1714</v>
       </c>
       <c r="G64" t="s">
         <v>19</v>
@@ -8632,25 +8764,25 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>699</v>
+        <v>1712</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>272</v>
+        <v>1391</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>835</v>
+        <v>1392</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>700</v>
+        <v>1393</v>
       </c>
       <c r="G65" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>339</v>
@@ -8658,22 +8790,22 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1078</v>
+        <v>791</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1079</v>
+        <v>789</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1173</v>
+        <v>790</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1080</v>
+        <v>788</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
@@ -8684,25 +8816,25 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1537</v>
+        <v>1530</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1539</v>
+        <v>1528</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>339</v>
@@ -8710,22 +8842,22 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1172</v>
+        <v>130</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1171</v>
+        <v>272</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1174</v>
+        <v>834</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1175</v>
+        <v>701</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
@@ -8736,25 +8868,25 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>1056</v>
+        <v>699</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1052</v>
+        <v>272</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1053</v>
+        <v>835</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1054</v>
+        <v>700</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>339</v>
@@ -8762,22 +8894,22 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1553</v>
+        <v>1078</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1552</v>
+        <v>1079</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1554</v>
+        <v>1173</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1555</v>
+        <v>1080</v>
       </c>
       <c r="G70" t="s">
         <v>19</v>
@@ -8788,25 +8920,25 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>410</v>
+        <v>1535</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>406</v>
+        <v>1534</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>408</v>
+        <v>1536</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>412</v>
+        <v>1537</v>
       </c>
       <c r="G71" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>339</v>
@@ -8814,25 +8946,25 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>472</v>
+        <v>1172</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>470</v>
+        <v>1171</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>471</v>
+        <v>1174</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>469</v>
+        <v>1175</v>
       </c>
       <c r="G72" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>339</v>
@@ -8840,22 +8972,22 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>484</v>
+        <v>1056</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>470</v>
+        <v>1052</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>486</v>
+        <v>1053</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>485</v>
+        <v>1054</v>
       </c>
       <c r="G73" t="s">
         <v>19</v>
@@ -8866,25 +8998,25 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>430</v>
+        <v>1551</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>432</v>
+        <v>1550</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>433</v>
+        <v>1552</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>434</v>
+        <v>1553</v>
       </c>
       <c r="G74" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>339</v>
@@ -8892,25 +9024,25 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1089</v>
+        <v>410</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1090</v>
+        <v>406</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1091</v>
+        <v>408</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1092</v>
+        <v>412</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>339</v>
@@ -8918,25 +9050,25 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1450</v>
+        <v>472</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1448</v>
+        <v>470</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1451</v>
+        <v>471</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1449</v>
+        <v>469</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>339</v>
@@ -8944,22 +9076,22 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>163</v>
+        <v>484</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>273</v>
+        <v>470</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>133</v>
+        <v>486</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>162</v>
+        <v>485</v>
       </c>
       <c r="G77" t="s">
         <v>19</v>
@@ -8970,25 +9102,25 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>339</v>
@@ -8996,25 +9128,25 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>368</v>
+        <v>1089</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>364</v>
+        <v>1090</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>365</v>
+        <v>1091</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>332</v>
+        <v>1092</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>339</v>
@@ -9022,22 +9154,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>1098</v>
+        <v>1448</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>364</v>
+        <v>1446</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1099</v>
+        <v>1449</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1100</v>
+        <v>1447</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -9048,22 +9180,22 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
@@ -9074,22 +9206,22 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>157</v>
+        <v>367</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>156</v>
+        <v>372</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>155</v>
+        <v>363</v>
       </c>
       <c r="G82" t="s">
         <v>19</v>
@@ -9100,24 +9232,24 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>452</v>
+        <v>368</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>453</v>
+        <v>365</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G83" t="s">
+        <v>366</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>332</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -9126,22 +9258,22 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>1032</v>
+        <v>1098</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1031</v>
+        <v>364</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1046</v>
+        <v>1099</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1033</v>
+        <v>1100</v>
       </c>
       <c r="G84" t="s">
         <v>19</v>
@@ -9152,25 +9284,25 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>1464</v>
+        <v>153</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1031</v>
+        <v>274</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1465</v>
+        <v>154</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1466</v>
+        <v>152</v>
       </c>
       <c r="G85" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>339</v>
@@ -9178,22 +9310,22 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>1044</v>
+        <v>157</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1043</v>
+        <v>275</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1045</v>
+        <v>156</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1042</v>
+        <v>155</v>
       </c>
       <c r="G86" t="s">
         <v>19</v>
@@ -9204,22 +9336,22 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>1467</v>
+        <v>452</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1043</v>
+        <v>275</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1468</v>
+        <v>453</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1469</v>
+        <v>454</v>
       </c>
       <c r="G87" t="s">
         <v>332</v>
@@ -9230,25 +9362,25 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>946</v>
+        <v>1032</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>947</v>
+        <v>1031</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>948</v>
+        <v>1046</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>949</v>
+        <v>1033</v>
       </c>
       <c r="G88" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>339</v>
@@ -9256,25 +9388,25 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>1296</v>
+        <v>1462</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1297</v>
+        <v>1031</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1298</v>
+        <v>1463</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>19</v>
+        <v>1464</v>
+      </c>
+      <c r="G89" t="s">
+        <v>332</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>339</v>
@@ -9282,22 +9414,22 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>1160</v>
+        <v>1044</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1159</v>
+        <v>1043</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1162</v>
+        <v>1045</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1161</v>
+        <v>1042</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
@@ -9308,25 +9440,25 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>1594</v>
+        <v>1465</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1595</v>
+        <v>1043</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1596</v>
+        <v>1466</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1597</v>
+        <v>1467</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>339</v>
@@ -9334,25 +9466,25 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>1486</v>
+        <v>946</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1485</v>
+        <v>947</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1487</v>
+        <v>948</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1488</v>
+        <v>949</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>339</v>
@@ -9360,25 +9492,25 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>681</v>
+        <v>1295</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>680</v>
+        <v>1296</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>679</v>
+        <v>1297</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G93" t="s">
-        <v>332</v>
+        <v>1599</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>339</v>
@@ -9386,25 +9518,25 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>689</v>
+        <v>1160</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>688</v>
+        <v>1159</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>687</v>
+        <v>1162</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>698</v>
+        <v>1161</v>
       </c>
       <c r="G94" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>339</v>
@@ -9412,22 +9544,22 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>608</v>
+        <v>1592</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>609</v>
+        <v>1593</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>610</v>
+        <v>1594</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>611</v>
+        <v>1595</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -9438,25 +9570,25 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>402</v>
+        <v>1702</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>401</v>
+        <v>1703</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>404</v>
+        <v>1704</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>403</v>
+        <v>1705</v>
       </c>
       <c r="G96" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>339</v>
@@ -9464,25 +9596,25 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>331</v>
+        <v>1484</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>330</v>
+        <v>1483</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>329</v>
+        <v>1485</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>332</v>
+        <v>1486</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>339</v>
@@ -9490,25 +9622,25 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>338</v>
+        <v>681</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>337</v>
+        <v>679</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1084</v>
+        <v>678</v>
       </c>
       <c r="G98" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>339</v>
@@ -9516,25 +9648,25 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1156</v>
+        <v>689</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1155</v>
+        <v>688</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1158</v>
+        <v>687</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1157</v>
+        <v>698</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>339</v>
@@ -9542,22 +9674,22 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>1081</v>
+        <v>608</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1082</v>
+        <v>609</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1083</v>
+        <v>610</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1085</v>
+        <v>611</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
@@ -9568,25 +9700,25 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>1281</v>
+        <v>402</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1280</v>
+        <v>401</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1282</v>
+        <v>404</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1283</v>
+        <v>403</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>339</v>
@@ -9594,25 +9726,25 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>1105</v>
+        <v>331</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1106</v>
+        <v>330</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1107</v>
+        <v>329</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
+        <v>328</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>339</v>
@@ -9620,22 +9752,22 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>830</v>
+        <v>338</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>829</v>
+        <v>330</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>831</v>
+        <v>337</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>828</v>
+        <v>1084</v>
       </c>
       <c r="G103" t="s">
         <v>19</v>
@@ -9646,22 +9778,22 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1312</v>
+        <v>1156</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1311</v>
+        <v>1155</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1313</v>
+        <v>1158</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1314</v>
+        <v>1157</v>
       </c>
       <c r="G104" t="s">
         <v>19</v>
@@ -9672,22 +9804,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>624</v>
+        <v>1081</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>623</v>
+        <v>1082</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>622</v>
+        <v>1083</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>621</v>
+        <v>1085</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
@@ -9698,22 +9830,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1399</v>
+        <v>1696</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1398</v>
+        <v>1695</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1400</v>
+        <v>1083</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1401</v>
+        <v>1697</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -9724,22 +9856,22 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>1280</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>271</v>
+        <v>1279</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>133</v>
+        <v>1281</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>131</v>
+        <v>1282</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -9750,22 +9882,22 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>1549</v>
+        <v>1105</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1548</v>
+        <v>1106</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1550</v>
+        <v>1107</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1551</v>
+        <v>1108</v>
       </c>
       <c r="G108" t="s">
         <v>19</v>
@@ -9776,25 +9908,25 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>692</v>
+        <v>830</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>691</v>
+        <v>829</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>697</v>
+        <v>828</v>
       </c>
       <c r="G109" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>339</v>
@@ -9802,22 +9934,22 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>1055</v>
+        <v>1311</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1057</v>
+        <v>1310</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1058</v>
+        <v>1312</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1059</v>
+        <v>1313</v>
       </c>
       <c r="G110" t="s">
         <v>19</v>
@@ -9828,25 +9960,25 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>400</v>
+        <v>624</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>399</v>
+        <v>623</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>405</v>
+        <v>622</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>403</v>
+        <v>621</v>
       </c>
       <c r="G111" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>339</v>
@@ -9854,25 +9986,25 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>696</v>
+        <v>1397</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>695</v>
+        <v>1396</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>694</v>
+        <v>1398</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>693</v>
+        <v>1399</v>
       </c>
       <c r="G112" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>339</v>
@@ -9880,28 +10012,184 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G115" t="s">
+        <v>332</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G117" t="s">
+        <v>332</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G118" t="s">
+        <v>332</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F113" s="1" t="s">
+      <c r="I119" s="1" t="s">
         <v>1674</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>1676</v>
       </c>
     </row>
   </sheetData>
@@ -9920,7 +10208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -10206,22 +10494,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
       </c>
       <c r="C11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E11" t="s">
         <v>1437</v>
       </c>
-      <c r="D11" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1439</v>
-      </c>
       <c r="F11" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G11" t="s">
         <v>979</v>
@@ -10232,13 +10520,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D12" t="s">
         <v>1051</v>
@@ -10247,7 +10535,7 @@
         <v>304</v>
       </c>
       <c r="F12" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G12" t="s">
         <v>1060</v>
@@ -10397,7 +10685,7 @@
         <v>677</v>
       </c>
       <c r="D18" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E18" t="s">
         <v>515</v>
@@ -10487,7 +10775,7 @@
         <v>1076</v>
       </c>
       <c r="H21" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="I21" t="s">
         <v>1077</v>
@@ -10495,7 +10783,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B22" t="s">
         <v>390</v>
@@ -10521,106 +10809,106 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B23" t="s">
         <v>390</v>
       </c>
       <c r="C23" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D23" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E23" t="s">
         <v>515</v>
       </c>
       <c r="F23" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G23" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I23" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B24" t="s">
         <v>390</v>
       </c>
       <c r="C24" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E24" t="s">
         <v>1064</v>
       </c>
       <c r="F24" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G24" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I24" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C25" t="s">
         <v>1620</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>1621</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>1622</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>1623</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>1624</v>
       </c>
-      <c r="F25" t="s">
-        <v>1625</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1626</v>
-      </c>
       <c r="I25" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G26" t="s">
         <v>1684</v>
       </c>
-      <c r="B26" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1687</v>
-      </c>
       <c r="I26" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -10643,7 +10931,7 @@
         <v>720</v>
       </c>
       <c r="G27" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="I27" t="s">
         <v>722</v>
@@ -10651,54 +10939,54 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B28" t="s">
         <v>718</v>
       </c>
       <c r="C28" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D28" t="s">
         <v>1316</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1317</v>
       </c>
       <c r="E28" t="s">
         <v>846</v>
       </c>
       <c r="F28" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I28" t="s">
         <v>1318</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E29" t="s">
         <v>1666</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
         <v>1665</v>
       </c>
-      <c r="C29" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1668</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1667</v>
-      </c>
       <c r="G29" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="I29" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
   </sheetData>
@@ -10797,7 +11085,7 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C3" t="s">
         <v>126</v>
@@ -10815,21 +11103,21 @@
         <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C4" t="s">
         <v>857</v>
       </c>
       <c r="D4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -10841,59 +11129,59 @@
         <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I5" t="s">
         <v>1367</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E6" t="s">
         <v>1613</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G6" t="s">
         <v>1614</v>
       </c>
-      <c r="D6" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>1615</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1614</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1617</v>
       </c>
     </row>
   </sheetData>
@@ -10957,22 +11245,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B2" t="s">
         <v>375</v>
       </c>
       <c r="C2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F2" t="s">
         <v>1326</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1327</v>
       </c>
       <c r="G2" t="s">
         <v>1227</v>
@@ -11015,22 +11303,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D4" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="E4" t="s">
         <v>342</v>
       </c>
       <c r="F4" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G4" t="s">
         <v>1227</v>
@@ -11131,22 +11419,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="B8" t="s">
         <v>375</v>
       </c>
       <c r="C8" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D8" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E8" t="s">
         <v>1225</v>
       </c>
       <c r="F8" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="G8" t="s">
         <v>1227</v>
@@ -11160,7 +11448,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B9" t="s">
         <v>375</v>
@@ -11169,13 +11457,13 @@
         <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E9" t="s">
         <v>1225</v>
       </c>
       <c r="F9" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="G9" t="s">
         <v>1227</v>
@@ -11204,7 +11492,7 @@
         <v>1225</v>
       </c>
       <c r="F10" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="G10" t="s">
         <v>1227</v>
@@ -11218,13 +11506,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B11" t="s">
         <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D11" t="s">
         <v>1223</v>
@@ -11233,7 +11521,7 @@
         <v>1225</v>
       </c>
       <c r="F11" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="G11" t="s">
         <v>1227</v>
@@ -11247,22 +11535,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B12" t="s">
         <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D12" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E12" t="s">
         <v>1225</v>
       </c>
       <c r="F12" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="G12" t="s">
         <v>1226</v>
@@ -11291,7 +11579,7 @@
         <v>1225</v>
       </c>
       <c r="F13" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="G13" t="s">
         <v>1227</v>
@@ -11314,13 +11602,13 @@
         <v>1216</v>
       </c>
       <c r="D14" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E14" t="s">
         <v>1225</v>
       </c>
       <c r="F14" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="G14" t="s">
         <v>1226</v>
@@ -11334,22 +11622,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B15" t="s">
         <v>376</v>
       </c>
       <c r="C15" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D15" t="s">
         <v>1559</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1561</v>
       </c>
       <c r="E15" t="s">
         <v>1225</v>
       </c>
       <c r="F15" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="G15" t="s">
         <v>1226</v>
@@ -11566,7 +11854,7 @@
         <v>1010</v>
       </c>
       <c r="D7" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E7" t="s">
         <v>1011</v>
@@ -11583,48 +11871,48 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B8" t="s">
         <v>383</v>
       </c>
       <c r="C8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I8" t="s">
         <v>1414</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1415</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B9" t="s">
         <v>383</v>
       </c>
       <c r="C9" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D9" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E9" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F9" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="G9" t="s">
         <v>1019</v>
@@ -11635,22 +11923,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B10" t="s">
         <v>383</v>
       </c>
       <c r="C10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D10" t="s">
         <v>1526</v>
       </c>
-      <c r="D10" t="s">
-        <v>1528</v>
-      </c>
       <c r="E10" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F10" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="G10" t="s">
         <v>1019</v>
@@ -11713,7 +12001,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B13" t="s">
         <v>303</v>
@@ -11739,7 +12027,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B14" t="s">
         <v>435</v>
@@ -11765,33 +12053,33 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B15" t="s">
         <v>435</v>
       </c>
       <c r="C15" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1339</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1340</v>
       </c>
       <c r="E15" t="s">
         <v>846</v>
       </c>
       <c r="F15" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G15" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I15" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B16" t="s">
         <v>931</v>
@@ -11817,7 +12105,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B17" t="s">
         <v>931</v>
@@ -12051,28 +12339,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B26" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G26" t="s">
         <v>1274</v>
       </c>
-      <c r="C26" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="I26" t="s">
         <v>1278</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1276</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1275</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1279</v>
       </c>
     </row>
   </sheetData>
@@ -12143,7 +12431,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -12169,7 +12457,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -12178,13 +12466,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -12282,16 +12570,16 @@
         <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G7" t="s">
         <v>1293</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1294</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -12299,22 +12587,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -12403,7 +12691,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -12429,7 +12717,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -12438,13 +12726,13 @@
         <v>279</v>
       </c>
       <c r="D13" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="G13" t="s">
         <v>325</v>
@@ -12652,7 +12940,7 @@
         <v>418</v>
       </c>
       <c r="D21" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -12704,7 +12992,7 @@
         <v>1094</v>
       </c>
       <c r="D23" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -12747,7 +13035,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -12756,13 +13044,13 @@
         <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="G25" t="s">
         <v>325</v>
@@ -12782,13 +13070,13 @@
         <v>1133</v>
       </c>
       <c r="D26" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="G26" t="s">
         <v>71</v>
@@ -12799,7 +13087,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -12808,13 +13096,13 @@
         <v>1133</v>
       </c>
       <c r="D27" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -12851,7 +13139,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -12860,13 +13148,13 @@
         <v>280</v>
       </c>
       <c r="D29" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="G29" t="s">
         <v>71</v>
@@ -12929,7 +13217,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -12938,13 +13226,13 @@
         <v>281</v>
       </c>
       <c r="D32" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F32" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -13117,7 +13405,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -13126,13 +13414,13 @@
         <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G39" t="s">
         <v>325</v>
@@ -13604,36 +13892,36 @@
         <v>1248</v>
       </c>
       <c r="G13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B14" t="s">
         <v>1068</v>
       </c>
       <c r="C14" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E14" t="s">
         <v>1477</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>1478</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1480</v>
       </c>
       <c r="G14" t="s">
         <v>1236</v>
       </c>
       <c r="I14" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
   </sheetData>
@@ -13748,54 +14036,54 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D4" t="s">
         <v>1514</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1516</v>
       </c>
       <c r="E4" t="s">
         <v>806</v>
       </c>
       <c r="F4" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="G4" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="I4" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E5" t="s">
         <v>1573</v>
       </c>
-      <c r="B5" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>1574</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>1575</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>1576</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1577</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1578</v>
       </c>
     </row>
   </sheetData>
@@ -15108,31 +15396,31 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D45" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E45" t="s">
         <v>940</v>
       </c>
       <c r="F45" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G45" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H45" t="s">
         <v>1308</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>1309</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -15195,31 +15483,31 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C48" s="2">
         <v>1704320001</v>
       </c>
       <c r="D48" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E48" t="s">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G48" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H48" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I48" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
   </sheetData>
@@ -15404,93 +15692,93 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F6" t="s">
         <v>1285</v>
       </c>
-      <c r="B6" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="G6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H6" t="s">
         <v>1289</v>
       </c>
-      <c r="E6" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>1290</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B7" t="s">
         <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D7" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E7" t="s">
         <v>806</v>
       </c>
       <c r="F7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G7" t="s">
         <v>1419</v>
       </c>
-      <c r="G7" t="s">
-        <v>1421</v>
-      </c>
       <c r="H7" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I7" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B8" t="s">
         <v>258</v>
       </c>
       <c r="C8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E8" t="s">
         <v>1637</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H8" t="s">
         <v>1638</v>
       </c>
-      <c r="E8" t="s">
-        <v>1639</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1637</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1637</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1640</v>
-      </c>
       <c r="I8" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15501,10 +15789,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC079E-4192-4042-9084-101DC20DC760}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15596,7 +15884,7 @@
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G3" t="s">
         <v>396</v>
@@ -15616,16 +15904,16 @@
         <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I4" t="s">
         <v>76</v>
@@ -15633,7 +15921,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>78</v>
@@ -15642,16 +15930,16 @@
         <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="G5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I5" t="s">
         <v>76</v>
@@ -15659,7 +15947,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>78</v>
@@ -15668,16 +15956,16 @@
         <v>395</v>
       </c>
       <c r="D6" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="E6" t="s">
         <v>953</v>
       </c>
       <c r="F6" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="G6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I6" t="s">
         <v>76</v>
@@ -15711,7 +15999,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>78</v>
@@ -15720,16 +16008,16 @@
         <v>468</v>
       </c>
       <c r="D8" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="G8" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I8" t="s">
         <v>76</v>
@@ -15737,7 +16025,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>78</v>
@@ -15746,16 +16034,16 @@
         <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G9" t="s">
         <v>1442</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1443</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1444</v>
       </c>
       <c r="I9" t="s">
         <v>76</v>
@@ -15763,7 +16051,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>78</v>
@@ -15772,16 +16060,16 @@
         <v>468</v>
       </c>
       <c r="D10" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G10" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="I10" t="s">
         <v>76</v>
@@ -15789,7 +16077,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>78</v>
@@ -15824,16 +16112,16 @@
         <v>1143</v>
       </c>
       <c r="D12" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E12" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G12" t="s">
         <v>1491</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1493</v>
       </c>
       <c r="I12" t="s">
         <v>76</v>
@@ -15919,25 +16207,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1545</v>
+        <v>1720</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>1544</v>
+        <v>823</v>
       </c>
       <c r="D16" t="s">
-        <v>1546</v>
+        <v>1723</v>
       </c>
       <c r="E16" t="s">
-        <v>1491</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>1547</v>
+        <v>1721</v>
       </c>
       <c r="G16" t="s">
-        <v>1493</v>
+        <v>1722</v>
       </c>
       <c r="I16" t="s">
         <v>76</v>
@@ -15945,25 +16233,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1128</v>
+        <v>1543</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>1126</v>
+        <v>1542</v>
       </c>
       <c r="D17" t="s">
-        <v>1127</v>
+        <v>1544</v>
       </c>
       <c r="E17" t="s">
-        <v>1129</v>
+        <v>1489</v>
       </c>
       <c r="F17" t="s">
-        <v>1130</v>
+        <v>1545</v>
       </c>
       <c r="G17" t="s">
-        <v>1131</v>
+        <v>1491</v>
       </c>
       <c r="I17" t="s">
         <v>76</v>
@@ -15971,7 +16259,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1489</v>
+        <v>1128</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>78</v>
@@ -15980,16 +16268,16 @@
         <v>1126</v>
       </c>
       <c r="D18" t="s">
-        <v>1490</v>
+        <v>1127</v>
       </c>
       <c r="E18" t="s">
-        <v>1491</v>
+        <v>1129</v>
       </c>
       <c r="F18" t="s">
-        <v>1492</v>
+        <v>1130</v>
       </c>
       <c r="G18" t="s">
-        <v>1493</v>
+        <v>1131</v>
       </c>
       <c r="I18" t="s">
         <v>76</v>
@@ -15997,25 +16285,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1142</v>
+        <v>1487</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>1143</v>
+        <v>1126</v>
       </c>
       <c r="D19" t="s">
-        <v>1144</v>
+        <v>1488</v>
       </c>
       <c r="E19" t="s">
-        <v>1129</v>
+        <v>1489</v>
       </c>
       <c r="F19" t="s">
-        <v>1145</v>
+        <v>1490</v>
       </c>
       <c r="G19" t="s">
-        <v>1131</v>
+        <v>1491</v>
       </c>
       <c r="I19" t="s">
         <v>76</v>
@@ -16023,22 +16311,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="D20" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="E20" t="s">
         <v>1129</v>
       </c>
       <c r="F20" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="G20" t="s">
         <v>1131</v>
@@ -16049,32 +16337,58 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1432</v>
+        <v>1139</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C22" t="s">
         <v>1427</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I22" t="s">
         <v>1429</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1429</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1430</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16432,11 +16746,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28B83C-EC15-4DE5-B23D-95C2173BD368}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16511,25 +16825,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="D3" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="G3" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="I3" t="s">
         <v>89</v>
@@ -16537,22 +16851,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E4" t="s">
         <v>1569</v>
       </c>
-      <c r="D4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1571</v>
-      </c>
       <c r="F4" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="G4" t="s">
         <v>85</v>
@@ -16589,22 +16903,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
       </c>
       <c r="C6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E6" t="s">
         <v>1590</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>1591</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1593</v>
       </c>
       <c r="G6" t="s">
         <v>85</v>
@@ -16800,48 +17114,48 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B14" t="s">
         <v>533</v>
       </c>
       <c r="C14" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F14" t="s">
         <v>1356</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I14" t="s">
         <v>1358</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1357</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B15" t="s">
         <v>533</v>
       </c>
       <c r="C15" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D15" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E15" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F15" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G15" t="s">
         <v>751</v>
@@ -16852,22 +17166,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B16" t="s">
         <v>533</v>
       </c>
       <c r="C16" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D16" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E16" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F16" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G16" t="s">
         <v>751</v>
@@ -16878,22 +17192,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B17" t="s">
         <v>533</v>
       </c>
       <c r="C17" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D17" t="s">
         <v>750</v>
       </c>
       <c r="E17" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F17" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G17" t="s">
         <v>751</v>
@@ -16904,28 +17218,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B18" t="s">
         <v>533</v>
       </c>
       <c r="C18" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I18" t="s">
         <v>1507</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1506</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1508</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -16956,77 +17270,77 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>216</v>
+        <v>1715</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>1716</v>
       </c>
       <c r="D20" t="s">
-        <v>603</v>
+        <v>1719</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>1717</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>1716</v>
       </c>
       <c r="G20" t="s">
-        <v>217</v>
+        <v>1424</v>
       </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>601</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
         <v>213</v>
       </c>
       <c r="C21" t="s">
-        <v>602</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>605</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="I21" t="s">
-        <v>606</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>772</v>
+        <v>601</v>
       </c>
       <c r="B22" t="s">
         <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>773</v>
+        <v>602</v>
       </c>
       <c r="D22" t="s">
-        <v>774</v>
+        <v>604</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>775</v>
+        <v>605</v>
       </c>
       <c r="G22" t="s">
-        <v>767</v>
+        <v>210</v>
       </c>
       <c r="I22" t="s">
         <v>606</v>
@@ -17034,25 +17348,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>848</v>
+        <v>772</v>
       </c>
       <c r="B23" t="s">
         <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>849</v>
+        <v>773</v>
       </c>
       <c r="D23" t="s">
-        <v>850</v>
+        <v>774</v>
       </c>
       <c r="E23" t="s">
-        <v>769</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>849</v>
+        <v>775</v>
       </c>
       <c r="G23" t="s">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="I23" t="s">
         <v>606</v>
@@ -17060,79 +17374,105 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B24" t="s">
         <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D24" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E24" t="s">
-        <v>855</v>
+        <v>769</v>
       </c>
       <c r="F24" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="G24" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="I24" t="s">
-        <v>853</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1423</v>
+        <v>852</v>
       </c>
       <c r="B25" t="s">
         <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>1602</v>
+        <v>853</v>
       </c>
       <c r="D25" t="s">
-        <v>1603</v>
+        <v>854</v>
       </c>
       <c r="E25" t="s">
-        <v>769</v>
+        <v>855</v>
       </c>
       <c r="F25" t="s">
-        <v>1424</v>
+        <v>853</v>
       </c>
       <c r="G25" t="s">
-        <v>1426</v>
+        <v>856</v>
       </c>
       <c r="I25" t="s">
-        <v>1425</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E26" t="s">
+        <v>769</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>1061</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>1065</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>1067</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>1064</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>1063</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>1066</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>1063</v>
       </c>
     </row>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBD4FC7-85C2-4144-9638-D52262EBD6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610F69C9-AE57-4A1A-BFB1-D8B7724D7E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="其他芯片" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">晶体管!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">其他芯片!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">贴片电容!$A$1:$J$1</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1755">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6719,6 +6719,128 @@
   </si>
   <si>
     <t>IND POWER Coil;3.3uH;+/-20%;DRC=38mΩ;5.5A;5.2*5.4*2.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111665200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.5K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;66.5KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0766K5L</t>
+  </si>
+  <si>
+    <t>39R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;39Ω;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111390001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0739RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CXDQ3BFAM-IJ-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM-DDR4 8Gb 3200Mb/s 1.2V 并口 96-FBGA(7.5x13mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CXMT(长鑫存储)</t>
+  </si>
+  <si>
+    <t>1511300009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英飞凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDA21472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2051000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT7986A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2051000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2051000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaTek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT7986A_BGA_37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT7976G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT7662E-20121128_51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT7662E-20121128_52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT7976A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT7976GN is an IEEE WiFi 6 MIMO RF chip which contains 2.4 GHz WI-Fi transceiver front-ends in a DRQFN package;DRQFN144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT7976AN is an IEEE WiFi 6 MIMO RF chip which contains 5 GHz WI-Fi transceiver front-ends in a DRQFN package;DRQFN144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quad-core ARM® Cortex-A53;Two HSGMII(2.5Gbps) interfaces;Lead in 4x4+4x4 WIFI6E integration;HW QoS;HW NAT;VFBGA57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFBGA57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQFN144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6729,7 +6851,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6766,6 +6888,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4E4E4E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6787,7 +6915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6800,6 +6928,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7080,11 +7209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8816,25 +8945,25 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1530</v>
+        <v>1730</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1529</v>
+        <v>1728</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1531</v>
+        <v>1729</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1528</v>
+        <v>1731</v>
       </c>
       <c r="G67" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>339</v>
@@ -8842,25 +8971,25 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>1530</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>272</v>
+        <v>1529</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>834</v>
+        <v>1531</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>701</v>
+        <v>1528</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>339</v>
@@ -8868,7 +8997,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>699</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
@@ -8877,16 +9006,16 @@
         <v>272</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G69" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>339</v>
@@ -8894,25 +9023,25 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1078</v>
+        <v>699</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1079</v>
+        <v>272</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1173</v>
+        <v>835</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1080</v>
+        <v>700</v>
       </c>
       <c r="G70" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>339</v>
@@ -8920,22 +9049,22 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1535</v>
+        <v>1078</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1534</v>
+        <v>1079</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1536</v>
+        <v>1173</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1537</v>
+        <v>1080</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -8946,22 +9075,22 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1172</v>
+        <v>1535</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1171</v>
+        <v>1534</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1174</v>
+        <v>1536</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1175</v>
+        <v>1537</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
@@ -8972,22 +9101,22 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1056</v>
+        <v>1172</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1052</v>
+        <v>1171</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1053</v>
+        <v>1174</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1054</v>
+        <v>1175</v>
       </c>
       <c r="G73" t="s">
         <v>19</v>
@@ -8998,22 +9127,22 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1551</v>
+        <v>1056</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1550</v>
+        <v>1052</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1552</v>
+        <v>1053</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1553</v>
+        <v>1054</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
@@ -9024,25 +9153,25 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>410</v>
+        <v>1551</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>406</v>
+        <v>1550</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>408</v>
+        <v>1552</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>412</v>
+        <v>1553</v>
       </c>
       <c r="G75" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>339</v>
@@ -9050,22 +9179,22 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>471</v>
+        <v>408</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="G76" t="s">
         <v>332</v>
@@ -9076,7 +9205,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
@@ -9085,16 +9214,16 @@
         <v>470</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>339</v>
@@ -9102,25 +9231,25 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="G78" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>339</v>
@@ -9128,25 +9257,25 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1089</v>
+        <v>430</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1090</v>
+        <v>432</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1091</v>
+        <v>433</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1092</v>
+        <v>434</v>
       </c>
       <c r="G79" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>339</v>
@@ -9154,22 +9283,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>1448</v>
+        <v>1089</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1446</v>
+        <v>1090</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1449</v>
+        <v>1091</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1447</v>
+        <v>1092</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -9180,22 +9309,22 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>163</v>
+        <v>1448</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>273</v>
+        <v>1446</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>133</v>
+        <v>1449</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>162</v>
+        <v>1447</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
@@ -9206,22 +9335,22 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>363</v>
+        <v>162</v>
       </c>
       <c r="G82" t="s">
         <v>19</v>
@@ -9232,7 +9361,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
@@ -9241,16 +9370,16 @@
         <v>364</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>332</v>
+        <v>363</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>339</v>
@@ -9258,7 +9387,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>1098</v>
+        <v>368</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
@@ -9267,16 +9396,16 @@
         <v>364</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1099</v>
+        <v>365</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
+        <v>366</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>339</v>
@@ -9284,22 +9413,22 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>153</v>
+        <v>1098</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>154</v>
+        <v>1099</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>152</v>
+        <v>1100</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
@@ -9310,22 +9439,22 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G86" t="s">
         <v>19</v>
@@ -9336,7 +9465,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>452</v>
+        <v>157</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
@@ -9345,16 +9474,16 @@
         <v>275</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>453</v>
+        <v>156</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
       <c r="G87" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>339</v>
@@ -9362,25 +9491,25 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>1032</v>
+        <v>452</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1031</v>
+        <v>275</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1046</v>
+        <v>453</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1033</v>
+        <v>454</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>339</v>
@@ -9388,7 +9517,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>1462</v>
+        <v>1032</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
@@ -9397,16 +9526,16 @@
         <v>1031</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1463</v>
+        <v>1046</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1464</v>
+        <v>1033</v>
       </c>
       <c r="G89" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>339</v>
@@ -9414,25 +9543,25 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>1044</v>
+        <v>1462</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1045</v>
+        <v>1463</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1042</v>
+        <v>1464</v>
       </c>
       <c r="G90" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>339</v>
@@ -9440,7 +9569,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>1465</v>
+        <v>1044</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
@@ -9449,16 +9578,16 @@
         <v>1043</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1466</v>
+        <v>1045</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1467</v>
+        <v>1042</v>
       </c>
       <c r="G91" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>339</v>
@@ -9466,22 +9595,22 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>946</v>
+        <v>1465</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>947</v>
+        <v>1043</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>948</v>
+        <v>1466</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>949</v>
+        <v>1467</v>
       </c>
       <c r="G92" t="s">
         <v>332</v>
@@ -9492,25 +9621,25 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>1295</v>
+        <v>946</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1296</v>
+        <v>947</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1297</v>
+        <v>948</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>19</v>
+        <v>949</v>
+      </c>
+      <c r="G93" t="s">
+        <v>332</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>339</v>
@@ -9518,24 +9647,24 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>1160</v>
+        <v>1295</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1159</v>
+        <v>1296</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1162</v>
+        <v>1297</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G94" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I94" s="1" t="s">
@@ -9544,22 +9673,22 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>1592</v>
+        <v>1160</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1593</v>
+        <v>1159</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1594</v>
+        <v>1162</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1595</v>
+        <v>1161</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -9570,22 +9699,22 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>1702</v>
+        <v>1592</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1703</v>
+        <v>1593</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1704</v>
+        <v>1594</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1705</v>
+        <v>1595</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
@@ -9596,22 +9725,22 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>1484</v>
+        <v>1702</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1483</v>
+        <v>1703</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1485</v>
+        <v>1704</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1486</v>
+        <v>1705</v>
       </c>
       <c r="G97" t="s">
         <v>19</v>
@@ -9622,25 +9751,25 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>681</v>
+        <v>1484</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>680</v>
+        <v>1483</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>679</v>
+        <v>1485</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>678</v>
+        <v>1486</v>
       </c>
       <c r="G98" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>339</v>
@@ -9648,22 +9777,22 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="G99" t="s">
         <v>332</v>
@@ -9674,25 +9803,25 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>610</v>
+        <v>687</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>339</v>
@@ -9700,25 +9829,25 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>402</v>
+        <v>608</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>401</v>
+        <v>609</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>404</v>
+        <v>610</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>403</v>
+        <v>611</v>
       </c>
       <c r="G101" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>339</v>
@@ -9726,24 +9855,24 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G102" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G102" t="s">
         <v>332</v>
       </c>
       <c r="I102" s="1" t="s">
@@ -9752,7 +9881,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -9761,16 +9890,16 @@
         <v>330</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
+        <v>328</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>339</v>
@@ -9778,22 +9907,22 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1156</v>
+        <v>338</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1155</v>
+        <v>330</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1158</v>
+        <v>337</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1157</v>
+        <v>1084</v>
       </c>
       <c r="G104" t="s">
         <v>19</v>
@@ -9804,22 +9933,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1081</v>
+        <v>1156</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1082</v>
+        <v>1155</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1083</v>
+        <v>1158</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1085</v>
+        <v>1157</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
@@ -9830,22 +9959,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1696</v>
+        <v>1724</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1695</v>
+        <v>1725</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1083</v>
+        <v>1726</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1697</v>
+        <v>1727</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -9856,22 +9985,22 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1280</v>
+        <v>1081</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1279</v>
+        <v>1082</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1281</v>
+        <v>1083</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1282</v>
+        <v>1085</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -9882,22 +10011,22 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>1105</v>
+        <v>1696</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1106</v>
+        <v>1695</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1107</v>
+        <v>1083</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1108</v>
+        <v>1697</v>
       </c>
       <c r="G108" t="s">
         <v>19</v>
@@ -9908,22 +10037,22 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>830</v>
+        <v>1280</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>829</v>
+        <v>1279</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>831</v>
+        <v>1281</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>828</v>
+        <v>1282</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -9934,22 +10063,22 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>1311</v>
+        <v>1105</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1310</v>
+        <v>1106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1312</v>
+        <v>1107</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1313</v>
+        <v>1108</v>
       </c>
       <c r="G110" t="s">
         <v>19</v>
@@ -9960,22 +10089,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>624</v>
+        <v>830</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>623</v>
+        <v>829</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>622</v>
+        <v>831</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>621</v>
+        <v>828</v>
       </c>
       <c r="G111" t="s">
         <v>19</v>
@@ -9986,22 +10115,22 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>1397</v>
+        <v>1311</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1396</v>
+        <v>1310</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1398</v>
+        <v>1312</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1399</v>
+        <v>1313</v>
       </c>
       <c r="G112" t="s">
         <v>19</v>
@@ -10012,22 +10141,22 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>624</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>271</v>
+        <v>623</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>133</v>
+        <v>622</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>131</v>
+        <v>621</v>
       </c>
       <c r="G113" t="s">
         <v>19</v>
@@ -10038,22 +10167,22 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>1547</v>
+        <v>1397</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1546</v>
+        <v>1396</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1548</v>
+        <v>1398</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1549</v>
+        <v>1399</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -10064,25 +10193,25 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>692</v>
+        <v>134</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>691</v>
+        <v>271</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>690</v>
+        <v>133</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>697</v>
+        <v>131</v>
       </c>
       <c r="G115" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>339</v>
@@ -10090,22 +10219,22 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>1055</v>
+        <v>1547</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1057</v>
+        <v>1546</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1058</v>
+        <v>1548</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1059</v>
+        <v>1549</v>
       </c>
       <c r="G116" t="s">
         <v>19</v>
@@ -10116,22 +10245,22 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>400</v>
+        <v>692</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>399</v>
+        <v>691</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>405</v>
+        <v>690</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>403</v>
+        <v>697</v>
       </c>
       <c r="G117" t="s">
         <v>332</v>
@@ -10142,25 +10271,25 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>696</v>
+        <v>1055</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>695</v>
+        <v>1057</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>694</v>
+        <v>1058</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>693</v>
+        <v>1059</v>
       </c>
       <c r="G118" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>339</v>
@@ -10168,27 +10297,79 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G119" t="s">
+        <v>332</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G120" t="s">
+        <v>332</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="I121" s="1" t="s">
         <v>1674</v>
       </c>
     </row>
@@ -10208,8 +10389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10515,7 +10696,7 @@
         <v>979</v>
       </c>
       <c r="I11" t="s">
-        <v>980</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -10990,7 +11171,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J28" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
+  <autoFilter ref="A1:J29" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
       <sortCondition ref="A1:A28"/>
     </sortState>
@@ -11663,10 +11844,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC4AD67-C776-4093-88E2-79BBC414D956}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11949,417 +12130,443 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>595</v>
+        <v>1523</v>
       </c>
       <c r="B11" t="s">
-        <v>594</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
-        <v>596</v>
+        <v>1732</v>
       </c>
       <c r="D11" t="s">
-        <v>597</v>
-      </c>
-      <c r="E11" t="s">
-        <v>600</v>
+        <v>1733</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1734</v>
       </c>
       <c r="F11" t="s">
-        <v>599</v>
+        <v>1732</v>
       </c>
       <c r="G11" t="s">
-        <v>598</v>
+        <v>1019</v>
       </c>
       <c r="I11" t="s">
-        <v>596</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>842</v>
+        <v>595</v>
       </c>
       <c r="B12" t="s">
         <v>594</v>
       </c>
       <c r="C12" t="s">
-        <v>843</v>
+        <v>596</v>
       </c>
       <c r="D12" t="s">
-        <v>844</v>
+        <v>597</v>
       </c>
       <c r="E12" t="s">
-        <v>846</v>
+        <v>600</v>
       </c>
       <c r="F12" t="s">
-        <v>847</v>
+        <v>599</v>
       </c>
       <c r="G12" t="s">
-        <v>845</v>
+        <v>598</v>
       </c>
       <c r="I12" t="s">
-        <v>843</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1655</v>
+        <v>842</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>594</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>843</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>844</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>846</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>847</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>845</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B14" t="s">
-        <v>435</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
-        <v>436</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>438</v>
+        <v>301</v>
       </c>
       <c r="E14" t="s">
         <v>304</v>
       </c>
       <c r="F14" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
       <c r="G14" t="s">
-        <v>439</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>436</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B15" t="s">
         <v>435</v>
       </c>
       <c r="C15" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1339</v>
+        <v>436</v>
+      </c>
+      <c r="D15" t="s">
+        <v>438</v>
       </c>
       <c r="E15" t="s">
-        <v>846</v>
+        <v>304</v>
       </c>
       <c r="F15" t="s">
-        <v>1341</v>
+        <v>437</v>
       </c>
       <c r="G15" t="s">
-        <v>1340</v>
+        <v>439</v>
       </c>
       <c r="I15" t="s">
-        <v>1338</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B16" t="s">
-        <v>931</v>
+        <v>435</v>
       </c>
       <c r="C16" t="s">
-        <v>932</v>
-      </c>
-      <c r="D16" t="s">
-        <v>933</v>
+        <v>1338</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1339</v>
       </c>
       <c r="E16" t="s">
         <v>846</v>
       </c>
       <c r="F16" t="s">
-        <v>935</v>
+        <v>1341</v>
       </c>
       <c r="G16" t="s">
-        <v>937</v>
+        <v>1340</v>
       </c>
       <c r="I16" t="s">
-        <v>932</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B17" t="s">
         <v>931</v>
       </c>
       <c r="C17" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D17" t="s">
-        <v>963</v>
+        <v>933</v>
       </c>
       <c r="E17" t="s">
         <v>846</v>
       </c>
       <c r="F17" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G17" t="s">
         <v>937</v>
       </c>
       <c r="I17" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>459</v>
+        <v>1659</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>931</v>
       </c>
       <c r="C18" t="s">
-        <v>458</v>
+        <v>934</v>
       </c>
       <c r="D18" t="s">
-        <v>456</v>
+        <v>963</v>
       </c>
       <c r="E18" t="s">
-        <v>457</v>
+        <v>846</v>
       </c>
       <c r="F18" t="s">
-        <v>458</v>
+        <v>936</v>
       </c>
       <c r="G18" t="s">
-        <v>460</v>
+        <v>937</v>
       </c>
       <c r="I18" t="s">
-        <v>458</v>
+        <v>934</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>564</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
         <v>455</v>
       </c>
       <c r="C19" t="s">
-        <v>561</v>
+        <v>458</v>
       </c>
       <c r="D19" t="s">
-        <v>563</v>
+        <v>456</v>
       </c>
       <c r="E19" t="s">
-        <v>562</v>
+        <v>457</v>
       </c>
       <c r="F19" t="s">
-        <v>561</v>
+        <v>458</v>
       </c>
       <c r="G19" t="s">
-        <v>560</v>
+        <v>460</v>
       </c>
       <c r="I19" t="s">
-        <v>561</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B20" t="s">
         <v>455</v>
       </c>
       <c r="C20" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D20" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E20" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F20" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G20" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I20" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>728</v>
+        <v>568</v>
       </c>
       <c r="B21" t="s">
         <v>455</v>
       </c>
       <c r="C21" t="s">
-        <v>729</v>
+        <v>565</v>
       </c>
       <c r="D21" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E21" t="s">
-        <v>730</v>
+        <v>567</v>
       </c>
       <c r="F21" t="s">
-        <v>729</v>
+        <v>565</v>
       </c>
       <c r="G21" t="s">
-        <v>734</v>
+        <v>565</v>
       </c>
       <c r="I21" t="s">
-        <v>729</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B22" t="s">
         <v>455</v>
       </c>
       <c r="C22" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D22" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E22" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F22" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G22" t="s">
-        <v>565</v>
+        <v>734</v>
       </c>
       <c r="I22" t="s">
-        <v>565</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B23" t="s">
         <v>455</v>
       </c>
       <c r="C23" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D23" t="s">
-        <v>737</v>
+        <v>566</v>
       </c>
       <c r="E23" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F23" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G23" t="s">
-        <v>736</v>
+        <v>565</v>
       </c>
       <c r="I23" t="s">
-        <v>736</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B24" t="s">
         <v>455</v>
       </c>
       <c r="C24" t="s">
-        <v>739</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>741</v>
+        <v>736</v>
+      </c>
+      <c r="D24" t="s">
+        <v>737</v>
       </c>
       <c r="E24" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F24" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G24" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="I24" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>915</v>
+        <v>740</v>
       </c>
       <c r="B25" t="s">
         <v>455</v>
       </c>
       <c r="C25" t="s">
-        <v>916</v>
-      </c>
-      <c r="D25" t="s">
-        <v>917</v>
+        <v>739</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>741</v>
       </c>
       <c r="E25" t="s">
-        <v>918</v>
+        <v>742</v>
       </c>
       <c r="F25" t="s">
-        <v>916</v>
+        <v>739</v>
       </c>
       <c r="G25" t="s">
-        <v>916</v>
+        <v>739</v>
       </c>
       <c r="I25" t="s">
-        <v>916</v>
+        <v>739</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C26" t="s">
+        <v>916</v>
+      </c>
+      <c r="D26" t="s">
+        <v>917</v>
+      </c>
+      <c r="E26" t="s">
+        <v>918</v>
+      </c>
+      <c r="F26" t="s">
+        <v>916</v>
+      </c>
+      <c r="G26" t="s">
+        <v>916</v>
+      </c>
+      <c r="I26" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>1273</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>1275</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>1277</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>1276</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>1275</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>1274</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -13513,10 +13720,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C302E28E-61B5-45F2-9EED-9E658F066E8B}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13529,7 +13736,7 @@
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13922,6 +14129,84 @@
       </c>
       <c r="I14" t="s">
         <v>1479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1747</v>
       </c>
     </row>
   </sheetData>
@@ -15791,7 +16076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC079E-4192-4042-9084-101DC20DC760}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -16746,11 +17031,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28B83C-EC15-4DE5-B23D-95C2173BD368}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16825,51 +17110,51 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1502</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>1501</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>1499</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>1500</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>1503</v>
+        <v>115</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1566</v>
+        <v>1502</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>1567</v>
+        <v>1501</v>
       </c>
       <c r="D4" t="s">
-        <v>1568</v>
+        <v>1499</v>
       </c>
       <c r="E4" t="s">
-        <v>1569</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>1567</v>
+        <v>1500</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>1503</v>
       </c>
       <c r="I4" t="s">
         <v>89</v>
@@ -16877,28 +17162,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>1566</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>1567</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>1568</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>1569</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>1567</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -17270,77 +17555,77 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1715</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>1716</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>1719</v>
+        <v>603</v>
       </c>
       <c r="E20" t="s">
-        <v>1717</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>1716</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>1424</v>
+        <v>217</v>
       </c>
       <c r="I20" t="s">
-        <v>1718</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>216</v>
+        <v>601</v>
       </c>
       <c r="B21" t="s">
         <v>213</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>602</v>
       </c>
       <c r="D21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>605</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I21" t="s">
-        <v>218</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>601</v>
+        <v>772</v>
       </c>
       <c r="B22" t="s">
         <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>602</v>
+        <v>773</v>
       </c>
       <c r="D22" t="s">
-        <v>604</v>
+        <v>774</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>605</v>
+        <v>775</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>767</v>
       </c>
       <c r="I22" t="s">
         <v>606</v>
@@ -17348,25 +17633,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>772</v>
+        <v>848</v>
       </c>
       <c r="B23" t="s">
         <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>773</v>
+        <v>849</v>
       </c>
       <c r="D23" t="s">
-        <v>774</v>
+        <v>850</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>769</v>
       </c>
       <c r="F23" t="s">
-        <v>775</v>
+        <v>849</v>
       </c>
       <c r="G23" t="s">
-        <v>767</v>
+        <v>851</v>
       </c>
       <c r="I23" t="s">
         <v>606</v>
@@ -17374,54 +17659,54 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B24" t="s">
         <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D24" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E24" t="s">
-        <v>769</v>
+        <v>855</v>
       </c>
       <c r="F24" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="G24" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="I24" t="s">
-        <v>606</v>
+        <v>853</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>852</v>
+        <v>1062</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>1061</v>
       </c>
       <c r="C25" t="s">
-        <v>853</v>
+        <v>1065</v>
       </c>
       <c r="D25" t="s">
-        <v>854</v>
+        <v>1067</v>
       </c>
       <c r="E25" t="s">
-        <v>855</v>
+        <v>1064</v>
       </c>
       <c r="F25" t="s">
-        <v>853</v>
+        <v>1063</v>
       </c>
       <c r="G25" t="s">
-        <v>856</v>
+        <v>1066</v>
       </c>
       <c r="I25" t="s">
-        <v>853</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -17452,33 +17737,59 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1062</v>
+        <v>1715</v>
       </c>
       <c r="B27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B28" t="s">
         <v>1061</v>
       </c>
-      <c r="C27" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D28" t="s">
         <v>1067</v>
       </c>
-      <c r="E27" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E28" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G28" t="s">
         <v>1066</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" t="s">
         <v>1063</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{8F28B83C-EC15-4DE5-B23D-95C2173BD368}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610F69C9-AE57-4A1A-BFB1-D8B7724D7E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF53FBC0-F0AD-4436-B2C3-F0581BEE4B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="其他芯片" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">晶体管!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">其他芯片!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">贴片电容!$A$1:$J$1</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1761">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6842,6 +6842,24 @@
   <si>
     <t>AMS1117</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031100011</t>
+  </si>
+  <si>
+    <t>LDO</t>
+  </si>
+  <si>
+    <t>RT9059GSP</t>
+  </si>
+  <si>
+    <t>LDO;ADJ;3A;sop-8_ep</t>
+  </si>
+  <si>
+    <t>RICHTEK(立锜)</t>
+  </si>
+  <si>
+    <t>sop-8_ep</t>
   </si>
 </sst>
 </file>
@@ -10387,10 +10405,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10727,453 +10745,479 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>1755</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>1756</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>1757</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>1758</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>1759</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>1757</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>1760</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>394</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>671</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>391</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>671</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>393</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>390</v>
       </c>
       <c r="C15" t="s">
-        <v>424</v>
+        <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>675</v>
+        <v>514</v>
       </c>
       <c r="E15" t="s">
-        <v>515</v>
+        <v>391</v>
       </c>
       <c r="F15" t="s">
-        <v>543</v>
+        <v>671</v>
       </c>
       <c r="G15" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="I15" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>513</v>
+        <v>424</v>
       </c>
       <c r="D16" t="s">
-        <v>440</v>
+        <v>675</v>
       </c>
       <c r="E16" t="s">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="F16" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="G16" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="I16" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="D17" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>441</v>
       </c>
       <c r="F17" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
       <c r="G17" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="I17" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>673</v>
+        <v>463</v>
       </c>
       <c r="B18" t="s">
-        <v>390</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>677</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>1438</v>
+        <v>464</v>
       </c>
       <c r="E18" t="s">
-        <v>515</v>
+        <v>304</v>
       </c>
       <c r="F18" t="s">
-        <v>674</v>
+        <v>465</v>
       </c>
       <c r="G18" t="s">
-        <v>676</v>
+        <v>466</v>
       </c>
       <c r="I18" t="s">
-        <v>672</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>801</v>
+        <v>673</v>
       </c>
       <c r="B19" t="s">
         <v>390</v>
       </c>
       <c r="C19" t="s">
-        <v>800</v>
+        <v>677</v>
       </c>
       <c r="D19" t="s">
-        <v>802</v>
+        <v>1438</v>
       </c>
       <c r="E19" t="s">
         <v>515</v>
       </c>
       <c r="F19" t="s">
-        <v>804</v>
+        <v>674</v>
       </c>
       <c r="G19" t="s">
-        <v>803</v>
+        <v>676</v>
       </c>
       <c r="I19" t="s">
-        <v>827</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>390</v>
       </c>
       <c r="C20" t="s">
-        <v>838</v>
+        <v>800</v>
       </c>
       <c r="D20" t="s">
-        <v>841</v>
+        <v>802</v>
       </c>
       <c r="E20" t="s">
-        <v>840</v>
+        <v>515</v>
       </c>
       <c r="F20" t="s">
-        <v>839</v>
+        <v>804</v>
       </c>
       <c r="G20" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="I20" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1200</v>
+        <v>836</v>
       </c>
       <c r="B21" t="s">
-        <v>390</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>1074</v>
+        <v>838</v>
       </c>
       <c r="D21" t="s">
-        <v>1075</v>
+        <v>841</v>
       </c>
       <c r="E21" t="s">
-        <v>1064</v>
+        <v>840</v>
       </c>
       <c r="F21" t="s">
-        <v>1077</v>
+        <v>839</v>
       </c>
       <c r="G21" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1649</v>
+        <v>837</v>
       </c>
       <c r="I21" t="s">
-        <v>1077</v>
+        <v>838</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1332</v>
+        <v>1200</v>
       </c>
       <c r="B22" t="s">
         <v>390</v>
       </c>
       <c r="C22" t="s">
-        <v>1201</v>
+        <v>1074</v>
       </c>
       <c r="D22" t="s">
-        <v>1202</v>
+        <v>1075</v>
       </c>
       <c r="E22" t="s">
-        <v>515</v>
+        <v>1064</v>
       </c>
       <c r="F22" t="s">
-        <v>1203</v>
+        <v>1077</v>
       </c>
       <c r="G22" t="s">
-        <v>1204</v>
+        <v>1076</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1649</v>
       </c>
       <c r="I22" t="s">
-        <v>1201</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1388</v>
+        <v>1332</v>
       </c>
       <c r="B23" t="s">
         <v>390</v>
       </c>
       <c r="C23" t="s">
-        <v>1333</v>
+        <v>1201</v>
       </c>
       <c r="D23" t="s">
-        <v>1336</v>
+        <v>1202</v>
       </c>
       <c r="E23" t="s">
         <v>515</v>
       </c>
       <c r="F23" t="s">
-        <v>1335</v>
+        <v>1203</v>
       </c>
       <c r="G23" t="s">
-        <v>1337</v>
+        <v>1204</v>
       </c>
       <c r="I23" t="s">
-        <v>1334</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1626</v>
+        <v>1388</v>
       </c>
       <c r="B24" t="s">
         <v>390</v>
       </c>
       <c r="C24" t="s">
-        <v>1387</v>
+        <v>1333</v>
       </c>
       <c r="D24" t="s">
-        <v>1389</v>
+        <v>1336</v>
       </c>
       <c r="E24" t="s">
-        <v>1064</v>
+        <v>515</v>
       </c>
       <c r="F24" t="s">
-        <v>1386</v>
+        <v>1335</v>
       </c>
       <c r="G24" t="s">
-        <v>1390</v>
+        <v>1337</v>
       </c>
       <c r="I24" t="s">
-        <v>1386</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="B25" t="s">
-        <v>1619</v>
+        <v>390</v>
       </c>
       <c r="C25" t="s">
-        <v>1620</v>
+        <v>1387</v>
       </c>
       <c r="D25" t="s">
-        <v>1621</v>
+        <v>1389</v>
       </c>
       <c r="E25" t="s">
-        <v>1622</v>
+        <v>1064</v>
       </c>
       <c r="F25" t="s">
-        <v>1623</v>
+        <v>1386</v>
       </c>
       <c r="G25" t="s">
-        <v>1624</v>
+        <v>1390</v>
       </c>
       <c r="I25" t="s">
-        <v>1620</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1681</v>
+        <v>1618</v>
       </c>
       <c r="B26" t="s">
-        <v>1680</v>
+        <v>1619</v>
       </c>
       <c r="C26" t="s">
-        <v>1682</v>
+        <v>1620</v>
       </c>
       <c r="D26" t="s">
-        <v>1683</v>
+        <v>1621</v>
       </c>
       <c r="E26" t="s">
-        <v>1685</v>
+        <v>1622</v>
       </c>
       <c r="F26" t="s">
-        <v>1682</v>
+        <v>1623</v>
       </c>
       <c r="G26" t="s">
-        <v>1684</v>
+        <v>1624</v>
       </c>
       <c r="I26" t="s">
-        <v>1682</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>723</v>
+        <v>1681</v>
       </c>
       <c r="B27" t="s">
-        <v>718</v>
+        <v>1680</v>
       </c>
       <c r="C27" t="s">
-        <v>719</v>
+        <v>1682</v>
       </c>
       <c r="D27" t="s">
-        <v>721</v>
+        <v>1683</v>
       </c>
       <c r="E27" t="s">
-        <v>515</v>
+        <v>1685</v>
       </c>
       <c r="F27" t="s">
-        <v>720</v>
+        <v>1682</v>
       </c>
       <c r="G27" t="s">
-        <v>1602</v>
+        <v>1684</v>
       </c>
       <c r="I27" t="s">
-        <v>722</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1639</v>
+        <v>723</v>
       </c>
       <c r="B28" t="s">
         <v>718</v>
       </c>
       <c r="C28" t="s">
-        <v>1315</v>
+        <v>719</v>
       </c>
       <c r="D28" t="s">
-        <v>1316</v>
+        <v>721</v>
       </c>
       <c r="E28" t="s">
-        <v>846</v>
+        <v>515</v>
       </c>
       <c r="F28" t="s">
-        <v>1314</v>
+        <v>720</v>
       </c>
       <c r="G28" t="s">
-        <v>1317</v>
+        <v>1602</v>
       </c>
       <c r="I28" t="s">
-        <v>1318</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B29" t="s">
+        <v>718</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E29" t="s">
+        <v>846</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>1663</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>1665</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>1667</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>1666</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>1665</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>1662</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>1665</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J29" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
-      <sortCondition ref="A1:A28"/>
+  <autoFilter ref="A1:J30" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J29">
+      <sortCondition ref="A1:A29"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF53FBC0-F0AD-4436-B2C3-F0581BEE4B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB995D0-42FC-488D-B34D-529670E4A157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="1765">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6836,10 +6836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQFN144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AMS1117</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6860,6 +6856,25 @@
   </si>
   <si>
     <t>sop-8_ep</t>
+  </si>
+  <si>
+    <t>DRQFN144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER C0G;1pF;+/-0.25pF;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM1555C1H1R0CA01D</t>
   </si>
 </sst>
 </file>
@@ -10407,7 +10422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -10714,7 +10729,7 @@
         <v>979</v>
       </c>
       <c r="I11" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -10745,28 +10760,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B13" t="s">
         <v>1755</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1756</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1757</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1758</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G13" t="s">
         <v>1759</v>
       </c>
-      <c r="F13" t="s">
-        <v>1757</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1760</v>
-      </c>
       <c r="I13" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -12628,11 +12643,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB78C2-2208-4DF0-8ABB-0CE48BD26296}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12682,22 +12697,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1653</v>
+        <v>1761</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>1762</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>1763</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>1764</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -12708,7 +12723,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -12717,13 +12732,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>1586</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>1585</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -12734,22 +12749,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>1652</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>786</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>787</v>
+        <v>1586</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>785</v>
+        <v>1585</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -12760,22 +12775,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>786</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>787</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>785</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -12786,7 +12801,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>655</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -12795,16 +12810,16 @@
         <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>654</v>
+        <v>172</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>653</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -12821,16 +12836,16 @@
         <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>1294</v>
+        <v>654</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>1292</v>
+        <v>653</v>
       </c>
       <c r="G7" t="s">
-        <v>1293</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -12838,25 +12853,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1272</v>
+        <v>655</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>1271</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>1270</v>
+        <v>1294</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>1293</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -12864,22 +12879,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>1272</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>1271</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>1270</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>1269</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -12890,7 +12905,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -12899,16 +12914,16 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -12916,25 +12931,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>192</v>
+        <v>324</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -12942,7 +12957,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1492</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -12951,16 +12966,16 @@
         <v>279</v>
       </c>
       <c r="D12" t="s">
-        <v>973</v>
+        <v>193</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>974</v>
+        <v>192</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
@@ -12968,7 +12983,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -12977,16 +12992,16 @@
         <v>279</v>
       </c>
       <c r="D13" t="s">
-        <v>1495</v>
+        <v>973</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>1494</v>
+        <v>974</v>
       </c>
       <c r="G13" t="s">
-        <v>325</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -12994,25 +13009,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>205</v>
+        <v>1493</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>1495</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>1494</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
@@ -13020,7 +13035,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>812</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -13029,16 +13044,16 @@
         <v>278</v>
       </c>
       <c r="D15" t="s">
-        <v>813</v>
+        <v>204</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>811</v>
+        <v>203</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
@@ -13046,57 +13061,54 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B16" t="s">
-        <v>814</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>818</v>
+        <v>278</v>
       </c>
       <c r="D16" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E16" t="s">
-        <v>816</v>
+        <v>813</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G16" t="s">
-        <v>819</v>
-      </c>
-      <c r="H16" t="s">
-        <v>821</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1122</v>
+        <v>817</v>
       </c>
       <c r="B17" t="s">
-        <v>1114</v>
+        <v>814</v>
       </c>
       <c r="C17" t="s">
         <v>818</v>
       </c>
       <c r="D17" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="E17" t="s">
-        <v>1124</v>
+        <v>816</v>
       </c>
       <c r="F17" t="s">
-        <v>1125</v>
+        <v>815</v>
       </c>
       <c r="G17" t="s">
-        <v>1118</v>
+        <v>819</v>
       </c>
       <c r="H17" t="s">
-        <v>1116</v>
+        <v>821</v>
       </c>
       <c r="I17" t="s">
         <v>820</v>
@@ -13104,48 +13116,51 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1258</v>
+        <v>1122</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C18" t="s">
-        <v>1257</v>
+        <v>818</v>
       </c>
       <c r="D18" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>1123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1124</v>
       </c>
       <c r="F18" t="s">
-        <v>1259</v>
+        <v>1125</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>1118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1116</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>349</v>
+        <v>1258</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>1257</v>
       </c>
       <c r="D19" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -13156,25 +13171,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>419</v>
+        <v>349</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="D20" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="G20" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -13182,7 +13197,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>889</v>
+        <v>419</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -13191,16 +13206,16 @@
         <v>418</v>
       </c>
       <c r="D21" t="s">
-        <v>1450</v>
+        <v>1264</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>890</v>
+        <v>1263</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
@@ -13208,22 +13223,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>197</v>
+        <v>889</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>418</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>1450</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>890</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -13234,22 +13249,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1093</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>1094</v>
+        <v>198</v>
       </c>
       <c r="D23" t="s">
-        <v>1451</v>
+        <v>196</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>1095</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
@@ -13260,22 +13275,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>167</v>
+        <v>1093</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>1094</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>1451</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>1095</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
@@ -13286,7 +13301,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1496</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -13295,16 +13310,16 @@
         <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>1497</v>
+        <v>165</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>1498</v>
+        <v>164</v>
       </c>
       <c r="G25" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -13312,25 +13327,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1132</v>
+        <v>1496</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>1133</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>1598</v>
+        <v>1497</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>1597</v>
+        <v>1498</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
@@ -13338,7 +13353,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1394</v>
+        <v>1132</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -13347,16 +13362,16 @@
         <v>1133</v>
       </c>
       <c r="D27" t="s">
-        <v>1395</v>
+        <v>1598</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
@@ -13364,22 +13379,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>170</v>
+        <v>1394</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>280</v>
+        <v>1133</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>1395</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>1596</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
@@ -13390,7 +13405,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1608</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -13399,16 +13414,16 @@
         <v>280</v>
       </c>
       <c r="D29" t="s">
-        <v>1610</v>
+        <v>169</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>1609</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
@@ -13416,25 +13431,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>121</v>
+        <v>1608</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" t="s">
-        <v>542</v>
+        <v>1610</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>551</v>
+        <v>1609</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
@@ -13442,7 +13457,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1119</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -13451,16 +13466,16 @@
         <v>281</v>
       </c>
       <c r="D31" t="s">
-        <v>1120</v>
+        <v>542</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>1121</v>
+        <v>551</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="I31" t="s">
         <v>20</v>
@@ -13468,7 +13483,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1443</v>
+        <v>1119</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -13477,16 +13492,16 @@
         <v>281</v>
       </c>
       <c r="D32" t="s">
-        <v>1445</v>
+        <v>1120</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>1444</v>
+        <v>1121</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s">
         <v>20</v>
@@ -13494,80 +13509,80 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1151</v>
+        <v>1443</v>
       </c>
       <c r="B33" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>1150</v>
+        <v>281</v>
       </c>
       <c r="D33" t="s">
-        <v>1152</v>
+        <v>1445</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1153</v>
+        <v>188</v>
       </c>
       <c r="F33" t="s">
-        <v>1154</v>
+        <v>1444</v>
       </c>
       <c r="G33" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1116</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>161</v>
+        <v>1151</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>1150</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>1152</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>158</v>
+        <v>1153</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1154</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>1118</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1116</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>981</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>982</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>983</v>
+        <v>159</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>984</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>985</v>
+        <v>158</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
         <v>20</v>
@@ -13575,62 +13590,62 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1146</v>
+        <v>981</v>
       </c>
       <c r="B36" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>1147</v>
+        <v>982</v>
       </c>
       <c r="D36" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1149</v>
+        <v>983</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>985</v>
       </c>
       <c r="G36" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1116</v>
+        <v>120</v>
       </c>
       <c r="I36" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>1146</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C37" t="s">
-        <v>282</v>
+        <v>1147</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
+        <v>1148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1117</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>1149</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>1118</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1116</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -13639,16 +13654,16 @@
         <v>282</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
@@ -13656,7 +13671,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1461</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -13665,16 +13680,16 @@
         <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>188</v>
+        <v>68</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>1460</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
@@ -13682,25 +13697,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>550</v>
+        <v>1461</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>549</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>553</v>
+        <v>1459</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>552</v>
+        <v>1460</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -13708,45 +13723,71 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>549</v>
+      </c>
+      <c r="D41" t="s">
+        <v>553</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>552</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>1114</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>1110</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>1113</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>1117</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>1115</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>1118</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>1116</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>17</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="G42" t="s">
+      <c r="E43" s="1"/>
+      <c r="G43" t="s">
         <v>18</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13766,8 +13807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C302E28E-61B5-45F2-9EED-9E658F066E8B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14221,7 +14262,7 @@
         <v>1745</v>
       </c>
       <c r="G16" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
       <c r="I16" t="s">
         <v>1746</v>
@@ -14247,7 +14288,7 @@
         <v>1748</v>
       </c>
       <c r="G17" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
       <c r="I17" t="s">
         <v>1747</v>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB995D0-42FC-488D-B34D-529670E4A157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2731B9-E598-436C-A1A7-47BB3B79AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -6832,10 +6832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VFBGA57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AMS1117</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6875,6 +6871,10 @@
   </si>
   <si>
     <t>GRM1555C1H1R0CA01D</t>
+  </si>
+  <si>
+    <t>VFBGA570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10729,7 +10729,7 @@
         <v>979</v>
       </c>
       <c r="I11" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -10760,28 +10760,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B13" t="s">
         <v>1754</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1755</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1756</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1757</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G13" t="s">
         <v>1758</v>
       </c>
-      <c r="F13" t="s">
-        <v>1756</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1759</v>
-      </c>
       <c r="I13" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -12645,7 +12645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB78C2-2208-4DF0-8ABB-0CE48BD26296}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
@@ -12697,22 +12697,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D2" t="s">
         <v>1762</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1763</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -13807,8 +13807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C302E28E-61B5-45F2-9EED-9E658F066E8B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14236,7 +14236,7 @@
         <v>1739</v>
       </c>
       <c r="G15" t="s">
-        <v>1752</v>
+        <v>1764</v>
       </c>
       <c r="I15" t="s">
         <v>1744</v>
@@ -14262,7 +14262,7 @@
         <v>1745</v>
       </c>
       <c r="G16" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I16" t="s">
         <v>1746</v>
@@ -14288,7 +14288,7 @@
         <v>1748</v>
       </c>
       <c r="G17" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I17" t="s">
         <v>1747</v>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2731B9-E598-436C-A1A7-47BB3B79AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD982AE-651B-4976-9D75-98F5945034E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">贴片电容!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">贴片电阻!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">贴片结构料!$A$1:$J$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">振荡晶体!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">振荡晶体!$A$1:$J$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="1769">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4778,22 +4778,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2014133330</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014125000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2041008000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2014025002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TCXO,125MHZ;10pF;+/-0.5PPM;2016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5177,10 +5165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2014024000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EPSON(爱普生)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6063,14 +6047,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2014100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014148500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>148.5Mhz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6087,10 +6063,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2014500000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50Mhz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6388,10 +6360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2014024001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TZ825.0000W20GBDXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6875,6 +6843,53 @@
   <si>
     <t>VFBGA570</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2041024001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2041024000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2041500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2041100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2041125000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2041133330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2041148500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2041040000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40MHZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal;40MHZ;15pF;+/-10PPM;2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXC(晶技)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8Y40000002</t>
   </si>
 </sst>
 </file>
@@ -7418,7 +7433,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -7427,13 +7442,13 @@
         <v>269</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>781</v>
@@ -7444,7 +7459,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -7470,7 +7485,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -7496,28 +7511,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -7626,7 +7641,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>445</v>
@@ -7635,13 +7650,13 @@
         <v>892</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>447</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>332</v>
@@ -7704,7 +7719,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -7713,13 +7728,13 @@
         <v>283</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>332</v>
@@ -7808,7 +7823,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -7817,13 +7832,13 @@
         <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G22" t="s">
         <v>781</v>
@@ -7964,22 +7979,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>19</v>
@@ -8025,7 +8040,7 @@
         <v>474</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -8042,33 +8057,33 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
@@ -8077,13 +8092,13 @@
         <v>373</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -8120,7 +8135,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
@@ -8129,13 +8144,13 @@
         <v>431</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
@@ -8250,7 +8265,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
@@ -8259,13 +8274,13 @@
         <v>956</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="G39" t="s">
         <v>91</v>
@@ -8276,22 +8291,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="G40" t="s">
         <v>91</v>
@@ -8328,22 +8343,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="G42" t="s">
         <v>91</v>
@@ -8354,22 +8369,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="G43" t="s">
         <v>91</v>
@@ -8406,25 +8421,25 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>339</v>
@@ -8484,7 +8499,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
@@ -8510,22 +8525,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="G49" t="s">
         <v>91</v>
@@ -8536,22 +8551,22 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
@@ -8640,22 +8655,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
@@ -8718,7 +8733,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
@@ -8727,13 +8742,13 @@
         <v>646</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>332</v>
@@ -8770,22 +8785,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="G59" t="s">
         <v>91</v>
@@ -8848,22 +8863,22 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
@@ -8900,22 +8915,22 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="G64" t="s">
         <v>19</v>
@@ -8926,22 +8941,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
@@ -8978,22 +8993,22 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -9004,22 +9019,22 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="G68" t="s">
         <v>332</v>
@@ -9108,22 +9123,22 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
@@ -9186,22 +9201,22 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -9342,22 +9357,22 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
@@ -9576,7 +9591,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
@@ -9585,13 +9600,13 @@
         <v>1031</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="G90" t="s">
         <v>332</v>
@@ -9628,7 +9643,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
@@ -9637,13 +9652,13 @@
         <v>1043</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="G92" t="s">
         <v>332</v>
@@ -9680,22 +9695,22 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>19</v>
@@ -9732,22 +9747,22 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
@@ -9758,22 +9773,22 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="G97" t="s">
         <v>19</v>
@@ -9784,22 +9799,22 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="G98" t="s">
         <v>19</v>
@@ -9992,22 +10007,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -10044,13 +10059,13 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>1083</v>
@@ -10059,7 +10074,7 @@
         <v>12</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="G108" t="s">
         <v>19</v>
@@ -10070,22 +10085,22 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -10148,22 +10163,22 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="G112" t="s">
         <v>19</v>
@@ -10200,22 +10215,22 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -10252,22 +10267,22 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="G116" t="s">
         <v>19</v>
@@ -10382,28 +10397,28 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
@@ -10708,39 +10723,39 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D11" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="E11" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="F11" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="G11" t="s">
         <v>979</v>
       </c>
       <c r="I11" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D12" t="s">
         <v>1051</v>
@@ -10749,7 +10764,7 @@
         <v>304</v>
       </c>
       <c r="F12" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="G12" t="s">
         <v>1060</v>
@@ -10760,28 +10775,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="B13" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="C13" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="D13" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="E13" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="F13" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="G13" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="I13" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -10925,7 +10940,7 @@
         <v>677</v>
       </c>
       <c r="D19" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="E19" t="s">
         <v>515</v>
@@ -11015,7 +11030,7 @@
         <v>1076</v>
       </c>
       <c r="H22" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="I22" t="s">
         <v>1077</v>
@@ -11023,7 +11038,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="B23" t="s">
         <v>390</v>
@@ -11049,106 +11064,106 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B24" t="s">
         <v>390</v>
       </c>
       <c r="C24" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="D24" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E24" t="s">
         <v>515</v>
       </c>
       <c r="F24" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="G24" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="I24" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="B25" t="s">
         <v>390</v>
       </c>
       <c r="C25" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="D25" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="E25" t="s">
         <v>1064</v>
       </c>
       <c r="F25" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G25" t="s">
         <v>1386</v>
       </c>
-      <c r="G25" t="s">
-        <v>1390</v>
-      </c>
       <c r="I25" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="B26" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="C26" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="D26" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="E26" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="F26" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="G26" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="I26" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="B27" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="C27" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="D27" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="E27" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="F27" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="G27" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="I27" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -11171,7 +11186,7 @@
         <v>720</v>
       </c>
       <c r="G28" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="I28" t="s">
         <v>722</v>
@@ -11179,54 +11194,54 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="B29" t="s">
         <v>718</v>
       </c>
       <c r="C29" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D29" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="E29" t="s">
         <v>846</v>
       </c>
       <c r="F29" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G29" t="s">
         <v>1314</v>
       </c>
-      <c r="G29" t="s">
-        <v>1317</v>
-      </c>
       <c r="I29" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="B30" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="C30" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="E30" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="F30" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="G30" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="I30" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
     </row>
   </sheetData>
@@ -11325,7 +11340,7 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C3" t="s">
         <v>126</v>
@@ -11343,21 +11358,21 @@
         <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="B4" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C4" t="s">
         <v>857</v>
       </c>
       <c r="D4" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -11369,59 +11384,59 @@
         <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C5" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="D5" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="G5" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="I5" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="B6" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="C6" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="D6" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="E6" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="F6" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="G6" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="I6" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
     </row>
   </sheetData>
@@ -11432,10 +11447,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15246D15-200D-4616-89B7-7BD049663799}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11485,28 +11500,28 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1324</v>
+        <v>1758</v>
       </c>
       <c r="B2" t="s">
         <v>375</v>
       </c>
       <c r="C2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D2" t="s">
         <v>1323</v>
       </c>
-      <c r="D2" t="s">
-        <v>1327</v>
-      </c>
       <c r="E2" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="F2" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="G2" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="H2" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I2" t="s">
         <v>346</v>
@@ -11543,28 +11558,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="D4" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="E4" t="s">
         <v>342</v>
       </c>
       <c r="F4" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="G4" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="H4" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I4" t="s">
         <v>346</v>
@@ -11630,7 +11645,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B7" t="s">
         <v>375</v>
@@ -11659,28 +11674,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1640</v>
+        <v>1757</v>
       </c>
       <c r="B8" t="s">
         <v>375</v>
       </c>
       <c r="C8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D8" t="s">
         <v>1323</v>
       </c>
-      <c r="D8" t="s">
-        <v>1327</v>
-      </c>
       <c r="E8" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F8" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="G8" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="H8" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I8" t="s">
         <v>346</v>
@@ -11688,7 +11703,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="B9" t="s">
         <v>375</v>
@@ -11697,19 +11712,19 @@
         <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="E9" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F9" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="G9" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="H9" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I9" t="s">
         <v>346</v>
@@ -11717,57 +11732,57 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1222</v>
+        <v>1764</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C10" t="s">
-        <v>1218</v>
+        <v>1765</v>
       </c>
       <c r="D10" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G10" t="s">
         <v>1224</v>
       </c>
-      <c r="E10" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1643</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1227</v>
-      </c>
       <c r="H10" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I10" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1561</v>
+        <v>1513</v>
       </c>
       <c r="B11" t="s">
         <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>1562</v>
+        <v>1218</v>
       </c>
       <c r="D11" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E11" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F11" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="G11" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="H11" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I11" t="s">
         <v>381</v>
@@ -11775,123 +11790,152 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1555</v>
+        <v>1759</v>
       </c>
       <c r="B12" t="s">
         <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D12" t="s">
-        <v>1560</v>
+        <v>1220</v>
       </c>
       <c r="E12" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F12" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="G12" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H12" t="s">
         <v>1226</v>
       </c>
-      <c r="H12" t="s">
-        <v>1228</v>
-      </c>
       <c r="I12" t="s">
-        <v>1230</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1220</v>
+        <v>1760</v>
       </c>
       <c r="B13" t="s">
         <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>1217</v>
+        <v>1550</v>
       </c>
       <c r="D13" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G13" t="s">
         <v>1223</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>1225</v>
       </c>
-      <c r="F13" t="s">
-        <v>1645</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>1227</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1229</v>
-      </c>
-      <c r="I13" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1219</v>
+        <v>1761</v>
       </c>
       <c r="B14" t="s">
         <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D14" t="s">
-        <v>1558</v>
+        <v>1220</v>
       </c>
       <c r="E14" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F14" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="G14" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H14" t="s">
         <v>1226</v>
       </c>
-      <c r="H14" t="s">
-        <v>1228</v>
-      </c>
       <c r="I14" t="s">
-        <v>1230</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1556</v>
+        <v>1762</v>
       </c>
       <c r="B15" t="s">
         <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>1557</v>
+        <v>1216</v>
       </c>
       <c r="D15" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="E15" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H15" t="s">
         <v>1225</v>
       </c>
-      <c r="F15" t="s">
-        <v>1648</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1226</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1228</v>
-      </c>
       <c r="I15" t="s">
-        <v>1230</v>
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{15246D15-200D-4616-89B7-7BD049663799}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J15">
+  <autoFilter ref="A1:J16" xr:uid="{15246D15-200D-4616-89B7-7BD049663799}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
       <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
@@ -12094,7 +12138,7 @@
         <v>1010</v>
       </c>
       <c r="D7" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="E7" t="s">
         <v>1011</v>
@@ -12111,48 +12155,48 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B8" t="s">
         <v>383</v>
       </c>
       <c r="C8" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D8" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I8" t="s">
         <v>1410</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1413</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="B9" t="s">
         <v>383</v>
       </c>
       <c r="C9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D9" t="s">
         <v>1521</v>
       </c>
-      <c r="D9" t="s">
-        <v>1525</v>
-      </c>
       <c r="E9" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="F9" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="G9" t="s">
         <v>1019</v>
@@ -12163,22 +12207,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B10" t="s">
         <v>383</v>
       </c>
       <c r="C10" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="D10" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="E10" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="F10" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="G10" t="s">
         <v>1019</v>
@@ -12189,22 +12233,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B11" t="s">
         <v>383</v>
       </c>
       <c r="C11" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="D11" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="F11" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="G11" t="s">
         <v>1019</v>
@@ -12267,7 +12311,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="B14" t="s">
         <v>303</v>
@@ -12293,7 +12337,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="B15" t="s">
         <v>435</v>
@@ -12319,33 +12363,33 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="B16" t="s">
         <v>435</v>
       </c>
       <c r="C16" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E16" t="s">
         <v>846</v>
       </c>
       <c r="F16" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="G16" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="I16" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="B17" t="s">
         <v>931</v>
@@ -12371,7 +12415,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="B18" t="s">
         <v>931</v>
@@ -12605,28 +12649,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="B27" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E27" t="s">
         <v>1273</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I27" t="s">
         <v>1275</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1278</v>
       </c>
     </row>
   </sheetData>
@@ -12643,11 +12687,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB78C2-2208-4DF0-8ABB-0CE48BD26296}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12697,22 +12741,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="D2" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -12723,7 +12767,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -12749,7 +12793,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -12758,13 +12802,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -12862,16 +12906,16 @@
         <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="G8" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -12879,22 +12923,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D9" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -12983,7 +13027,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -13009,7 +13053,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -13018,13 +13062,13 @@
         <v>279</v>
       </c>
       <c r="D14" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="G14" t="s">
         <v>325</v>
@@ -13145,22 +13189,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D19" t="s">
         <v>1257</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1260</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -13180,13 +13224,13 @@
         <v>348</v>
       </c>
       <c r="D20" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -13206,13 +13250,13 @@
         <v>418</v>
       </c>
       <c r="D21" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="G21" t="s">
         <v>325</v>
@@ -13232,7 +13276,7 @@
         <v>418</v>
       </c>
       <c r="D22" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -13284,7 +13328,7 @@
         <v>1094</v>
       </c>
       <c r="D24" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -13327,7 +13371,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -13336,13 +13380,13 @@
         <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="G26" t="s">
         <v>325</v>
@@ -13362,13 +13406,13 @@
         <v>1133</v>
       </c>
       <c r="D27" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="G27" t="s">
         <v>71</v>
@@ -13379,7 +13423,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -13388,13 +13432,13 @@
         <v>1133</v>
       </c>
       <c r="D28" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
@@ -13431,7 +13475,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -13440,13 +13484,13 @@
         <v>280</v>
       </c>
       <c r="D30" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
@@ -13509,7 +13553,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -13518,13 +13562,13 @@
         <v>281</v>
       </c>
       <c r="D33" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F33" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
@@ -13697,7 +13741,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -13706,13 +13750,13 @@
         <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="G40" t="s">
         <v>325</v>
@@ -13788,6 +13832,20 @@
         <v>18</v>
       </c>
       <c r="I43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
+        <v>325</v>
+      </c>
+      <c r="I44" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13807,7 +13865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C302E28E-61B5-45F2-9EED-9E658F066E8B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -14108,190 +14166,190 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G11" t="s">
         <v>1233</v>
       </c>
-      <c r="B11" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>1234</v>
       </c>
-      <c r="F11" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1237</v>
-      </c>
       <c r="I11" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B12" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E12" t="s">
         <v>1231</v>
       </c>
-      <c r="C12" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1234</v>
-      </c>
       <c r="F12" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="G12" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="H12" t="s">
         <v>1199</v>
       </c>
       <c r="I12" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B13" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C13" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F13" t="s">
         <v>1245</v>
       </c>
-      <c r="D13" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1248</v>
-      </c>
       <c r="G13" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I13" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B14" t="s">
         <v>1068</v>
       </c>
       <c r="C14" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I14" t="s">
         <v>1475</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="D15" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="E15" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="F15" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="G15" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="I15" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>1741</v>
       </c>
-      <c r="B16" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1749</v>
-      </c>
       <c r="E16" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="F16" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="G16" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="I16" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>1742</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F17" t="s">
         <v>1740</v>
       </c>
-      <c r="C17" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1743</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1748</v>
-      </c>
       <c r="G17" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="I17" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
     </row>
   </sheetData>
@@ -14406,54 +14464,54 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="B4" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C4" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="D4" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="E4" t="s">
         <v>806</v>
       </c>
       <c r="F4" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="G4" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="I4" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="B5" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="C5" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="D5" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="E5" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="F5" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="G5" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="I5" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
     </row>
   </sheetData>
@@ -15766,31 +15824,31 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D45" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="E45" t="s">
         <v>940</v>
       </c>
       <c r="F45" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H45" t="s">
         <v>1305</v>
       </c>
-      <c r="G45" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1308</v>
-      </c>
       <c r="I45" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -15824,60 +15882,60 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C47" t="s">
         <v>1250</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>1249</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H47" t="s">
         <v>1253</v>
       </c>
-      <c r="D47" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="I47" t="s">
         <v>1251</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C48" s="2">
         <v>1704320001</v>
       </c>
       <c r="D48" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="E48" t="s">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="G48" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="H48" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="I48" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
   </sheetData>
@@ -16062,89 +16120,89 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E6" t="s">
         <v>1284</v>
       </c>
-      <c r="B6" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H6" t="s">
         <v>1286</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>1287</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="B7" t="s">
         <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D7" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="E7" t="s">
         <v>806</v>
       </c>
       <c r="F7" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="G7" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="H7" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="I7" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="B8" t="s">
         <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="D8" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E8" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="F8" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="G8" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="H8" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="I8" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -16162,7 +16220,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16254,7 +16312,7 @@
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G3" t="s">
         <v>396</v>
@@ -16274,16 +16332,16 @@
         <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="G4" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I4" t="s">
         <v>76</v>
@@ -16291,7 +16349,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>78</v>
@@ -16300,16 +16358,16 @@
         <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="G5" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I5" t="s">
         <v>76</v>
@@ -16317,7 +16375,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>78</v>
@@ -16326,16 +16384,16 @@
         <v>395</v>
       </c>
       <c r="D6" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="E6" t="s">
         <v>953</v>
       </c>
       <c r="F6" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="G6" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I6" t="s">
         <v>76</v>
@@ -16369,7 +16427,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>78</v>
@@ -16378,16 +16436,16 @@
         <v>468</v>
       </c>
       <c r="D8" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="G8" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="I8" t="s">
         <v>76</v>
@@ -16395,7 +16453,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>78</v>
@@ -16404,16 +16462,16 @@
         <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="E9" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="F9" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G9" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="I9" t="s">
         <v>76</v>
@@ -16421,7 +16479,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>78</v>
@@ -16430,16 +16488,16 @@
         <v>468</v>
       </c>
       <c r="D10" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G10" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="I10" t="s">
         <v>76</v>
@@ -16447,7 +16505,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>78</v>
@@ -16482,16 +16540,16 @@
         <v>1143</v>
       </c>
       <c r="D12" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="E12" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="F12" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="G12" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="I12" t="s">
         <v>76</v>
@@ -16577,7 +16635,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>78</v>
@@ -16586,16 +16644,16 @@
         <v>823</v>
       </c>
       <c r="D16" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="E16" t="s">
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="G16" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="I16" t="s">
         <v>76</v>
@@ -16603,25 +16661,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D17" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="E17" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="F17" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="G17" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="I17" t="s">
         <v>76</v>
@@ -16655,7 +16713,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>78</v>
@@ -16664,16 +16722,16 @@
         <v>1126</v>
       </c>
       <c r="D19" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="E19" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="F19" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="G19" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="I19" t="s">
         <v>76</v>
@@ -16733,28 +16791,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="C22" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="E22" t="s">
         <v>188</v>
       </c>
       <c r="F22" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G22" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="I22" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -17221,25 +17279,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D4" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="G4" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="I4" t="s">
         <v>89</v>
@@ -17247,22 +17305,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="D5" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="E5" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="F5" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="G5" t="s">
         <v>85</v>
@@ -17273,22 +17331,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="D6" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="E6" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="F6" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="G6" t="s">
         <v>85</v>
@@ -17484,48 +17542,48 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="B14" t="s">
         <v>533</v>
       </c>
       <c r="C14" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I14" t="s">
         <v>1354</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1359</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="B15" t="s">
         <v>533</v>
       </c>
       <c r="C15" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D15" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F15" t="s">
         <v>1379</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1383</v>
       </c>
       <c r="G15" t="s">
         <v>751</v>
@@ -17536,22 +17594,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B16" t="s">
         <v>533</v>
       </c>
       <c r="C16" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="D16" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F16" t="s">
         <v>1380</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1384</v>
       </c>
       <c r="G16" t="s">
         <v>751</v>
@@ -17562,22 +17620,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="B17" t="s">
         <v>533</v>
       </c>
       <c r="C17" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="D17" t="s">
         <v>750</v>
       </c>
       <c r="E17" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="F17" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="G17" t="s">
         <v>751</v>
@@ -17588,28 +17646,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B18" t="s">
         <v>533</v>
       </c>
       <c r="C18" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="E18" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="F18" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="G18" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="I18" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -17796,74 +17854,74 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="B26" t="s">
         <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="D26" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="E26" t="s">
         <v>769</v>
       </c>
       <c r="F26" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="G26" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I26" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="B27" t="s">
         <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="D27" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="E27" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="F27" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="G27" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I27" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="B28" t="s">
         <v>1061</v>
       </c>
       <c r="C28" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="D28" t="s">
         <v>1067</v>
       </c>
       <c r="E28" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="F28" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="G28" t="s">
         <v>1066</v>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD982AE-651B-4976-9D75-98F5945034E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D7274-8F03-4764-8C9C-FD1438232498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="1775">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6890,6 +6890,29 @@
   </si>
   <si>
     <t>8Y40000002</t>
+  </si>
+  <si>
+    <t>2082400008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2082400009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KLM8G1GETF -B041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64Gb MLC x 1; 8GB; 14nm; 5.1; 11.5 x 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMMC_153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bga153_13rx11r5</t>
   </si>
 </sst>
 </file>
@@ -7260,7 +7283,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
@@ -11449,7 +11472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15246D15-200D-4616-89B7-7BD049663799}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -11947,10 +11970,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC4AD67-C776-4093-88E2-79BBC414D956}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12233,7 +12256,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1519</v>
+        <v>1769</v>
       </c>
       <c r="B11" t="s">
         <v>383</v>
@@ -12259,417 +12282,443 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>595</v>
+        <v>1770</v>
       </c>
       <c r="B12" t="s">
-        <v>594</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
-        <v>596</v>
+        <v>1771</v>
       </c>
       <c r="D12" t="s">
-        <v>597</v>
+        <v>1772</v>
       </c>
       <c r="E12" t="s">
-        <v>600</v>
+        <v>1011</v>
       </c>
       <c r="F12" t="s">
-        <v>599</v>
+        <v>1771</v>
       </c>
       <c r="G12" t="s">
-        <v>598</v>
+        <v>1774</v>
       </c>
       <c r="I12" t="s">
-        <v>596</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>842</v>
+        <v>595</v>
       </c>
       <c r="B13" t="s">
         <v>594</v>
       </c>
       <c r="C13" t="s">
-        <v>843</v>
+        <v>596</v>
       </c>
       <c r="D13" t="s">
-        <v>844</v>
+        <v>597</v>
       </c>
       <c r="E13" t="s">
-        <v>846</v>
+        <v>600</v>
       </c>
       <c r="F13" t="s">
-        <v>847</v>
+        <v>599</v>
       </c>
       <c r="G13" t="s">
-        <v>845</v>
+        <v>598</v>
       </c>
       <c r="I13" t="s">
-        <v>843</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1647</v>
+        <v>842</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>594</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>843</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>844</v>
       </c>
       <c r="E14" t="s">
-        <v>304</v>
+        <v>846</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
+        <v>847</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>845</v>
       </c>
       <c r="I14" t="s">
-        <v>299</v>
+        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B15" t="s">
-        <v>435</v>
+        <v>303</v>
       </c>
       <c r="C15" t="s">
-        <v>436</v>
+        <v>302</v>
       </c>
       <c r="D15" t="s">
-        <v>438</v>
+        <v>301</v>
       </c>
       <c r="E15" t="s">
         <v>304</v>
       </c>
       <c r="F15" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
       <c r="G15" t="s">
-        <v>439</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>436</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B16" t="s">
         <v>435</v>
       </c>
       <c r="C16" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1335</v>
+        <v>436</v>
+      </c>
+      <c r="D16" t="s">
+        <v>438</v>
       </c>
       <c r="E16" t="s">
-        <v>846</v>
+        <v>304</v>
       </c>
       <c r="F16" t="s">
-        <v>1337</v>
+        <v>437</v>
       </c>
       <c r="G16" t="s">
-        <v>1336</v>
+        <v>439</v>
       </c>
       <c r="I16" t="s">
-        <v>1334</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B17" t="s">
-        <v>931</v>
+        <v>435</v>
       </c>
       <c r="C17" t="s">
-        <v>932</v>
-      </c>
-      <c r="D17" t="s">
-        <v>933</v>
+        <v>1334</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1335</v>
       </c>
       <c r="E17" t="s">
         <v>846</v>
       </c>
       <c r="F17" t="s">
-        <v>935</v>
+        <v>1337</v>
       </c>
       <c r="G17" t="s">
-        <v>937</v>
+        <v>1336</v>
       </c>
       <c r="I17" t="s">
-        <v>932</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B18" t="s">
         <v>931</v>
       </c>
       <c r="C18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D18" t="s">
-        <v>963</v>
+        <v>933</v>
       </c>
       <c r="E18" t="s">
         <v>846</v>
       </c>
       <c r="F18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G18" t="s">
         <v>937</v>
       </c>
       <c r="I18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>459</v>
+        <v>1651</v>
       </c>
       <c r="B19" t="s">
-        <v>455</v>
+        <v>931</v>
       </c>
       <c r="C19" t="s">
-        <v>458</v>
+        <v>934</v>
       </c>
       <c r="D19" t="s">
-        <v>456</v>
+        <v>963</v>
       </c>
       <c r="E19" t="s">
-        <v>457</v>
+        <v>846</v>
       </c>
       <c r="F19" t="s">
-        <v>458</v>
+        <v>936</v>
       </c>
       <c r="G19" t="s">
-        <v>460</v>
+        <v>937</v>
       </c>
       <c r="I19" t="s">
-        <v>458</v>
+        <v>934</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>564</v>
+        <v>459</v>
       </c>
       <c r="B20" t="s">
         <v>455</v>
       </c>
       <c r="C20" t="s">
-        <v>561</v>
+        <v>458</v>
       </c>
       <c r="D20" t="s">
-        <v>563</v>
+        <v>456</v>
       </c>
       <c r="E20" t="s">
-        <v>562</v>
+        <v>457</v>
       </c>
       <c r="F20" t="s">
-        <v>561</v>
+        <v>458</v>
       </c>
       <c r="G20" t="s">
-        <v>560</v>
+        <v>460</v>
       </c>
       <c r="I20" t="s">
-        <v>561</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B21" t="s">
         <v>455</v>
       </c>
       <c r="C21" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E21" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F21" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G21" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I21" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>728</v>
+        <v>568</v>
       </c>
       <c r="B22" t="s">
         <v>455</v>
       </c>
       <c r="C22" t="s">
-        <v>729</v>
+        <v>565</v>
       </c>
       <c r="D22" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E22" t="s">
-        <v>730</v>
+        <v>567</v>
       </c>
       <c r="F22" t="s">
-        <v>729</v>
+        <v>565</v>
       </c>
       <c r="G22" t="s">
-        <v>734</v>
+        <v>565</v>
       </c>
       <c r="I22" t="s">
-        <v>729</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B23" t="s">
         <v>455</v>
       </c>
       <c r="C23" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D23" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E23" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F23" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G23" t="s">
-        <v>565</v>
+        <v>734</v>
       </c>
       <c r="I23" t="s">
-        <v>565</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B24" t="s">
         <v>455</v>
       </c>
       <c r="C24" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D24" t="s">
-        <v>737</v>
+        <v>566</v>
       </c>
       <c r="E24" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F24" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G24" t="s">
-        <v>736</v>
+        <v>565</v>
       </c>
       <c r="I24" t="s">
-        <v>736</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B25" t="s">
         <v>455</v>
       </c>
       <c r="C25" t="s">
-        <v>739</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>741</v>
+        <v>736</v>
+      </c>
+      <c r="D25" t="s">
+        <v>737</v>
       </c>
       <c r="E25" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F25" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G25" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="I25" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>915</v>
+        <v>740</v>
       </c>
       <c r="B26" t="s">
         <v>455</v>
       </c>
       <c r="C26" t="s">
-        <v>916</v>
-      </c>
-      <c r="D26" t="s">
-        <v>917</v>
+        <v>739</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>741</v>
       </c>
       <c r="E26" t="s">
-        <v>918</v>
+        <v>742</v>
       </c>
       <c r="F26" t="s">
-        <v>916</v>
+        <v>739</v>
       </c>
       <c r="G26" t="s">
-        <v>916</v>
+        <v>739</v>
       </c>
       <c r="I26" t="s">
-        <v>916</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B27" t="s">
+        <v>455</v>
+      </c>
+      <c r="C27" t="s">
+        <v>916</v>
+      </c>
+      <c r="D27" t="s">
+        <v>917</v>
+      </c>
+      <c r="E27" t="s">
+        <v>918</v>
+      </c>
+      <c r="F27" t="s">
+        <v>916</v>
+      </c>
+      <c r="G27" t="s">
+        <v>916</v>
+      </c>
+      <c r="I27" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>1270</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>1272</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>1274</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>1273</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>1272</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>1271</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" t="s">
         <v>1275</v>
       </c>
     </row>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D7274-8F03-4764-8C9C-FD1438232498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FE18D9-7E6B-48A1-864D-45C6FF515CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="1801">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6913,6 +6913,106 @@
   </si>
   <si>
     <t>bga153_13rx11r5</t>
+  </si>
+  <si>
+    <t>射频功放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2083100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2083100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPF4206B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qorvo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfn16_3x3_FEM</t>
+  </si>
+  <si>
+    <t>qfn16_3x3_FEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKY85337-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKY85755-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPF4526</t>
+  </si>
+  <si>
+    <t>QPF4526TR13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPF4206BTR13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QPF4206BTR13; 33 dB Tx Gain; 1.9 dB Noise Figure; 14.5 dB Rx Gain &amp; 8 dB Bypass Loss; 25 dB 2.4 GHz Rejection on Rx Path </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2412 – 2484 MHz; 33 dB Tx Gain; 2.1 dB Noise Figure; 15 dB Rx Gain &amp; 6 dB Bypass Loss; 25 dB 5 GHz Rejection on Rx Path; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x3mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC耦合器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2083200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2083200001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0605-19D2455AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0605-18V6140AM</t>
+  </si>
+  <si>
+    <t>DPLX-DP2012-E2455BA-ACX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couplers_4p_smd_cp0605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACX(璟德)</t>
+  </si>
+  <si>
+    <t>(2400 ~ 2500 Insertion Loss: 0.2 max.@-40~85℃ 0.25 max.@105℃)(4900 ~ 5950 Insertion Loss: 0.5 max.@-40~85℃ 0.55 max.@105℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0605-18V6140AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5150 ~ 6140 &amp; 6140 ~ 7125 Insertion Loss: 0.5 max.(25°C) 0.9 max.(-40 to 100°C))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11970,10 +12070,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC4AD67-C776-4093-88E2-79BBC414D956}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11981,11 +12081,11 @@
     <col min="1" max="1" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.5" customWidth="1"/>
+    <col min="4" max="4" width="118" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -12720,6 +12820,116 @@
       </c>
       <c r="I28" t="s">
         <v>1275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1793</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1795</v>
       </c>
     </row>
   </sheetData>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FE18D9-7E6B-48A1-864D-45C6FF515CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A67BFA-F628-4378-A98F-41077D7C1322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="其他芯片" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">晶体管!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">其他芯片!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">贴片电容!$A$1:$J$1</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="1801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="1923">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7013,6 +7013,480 @@
   <si>
     <t>(5150 ~ 6140 &amp; 6140 ~ 7125 Insertion Loss: 0.5 max.(25°C) 0.9 max.(-40 to 100°C))</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2083300000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTC6608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RichWave(立积)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTC6608OSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency Range : 0.03 - 6.0 GHz; Low Control Voltage : 1.6 ~ 3.6V; Low Insertion Loss; High lsolation; High P1dB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfn6_rtc6608osp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高频电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQP03TN2N7B02D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7nH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;2.7nH;+/-0.1nH;DRC=200mΩ;500mA;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQP03TN2N0B02D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231027000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231020000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;2.0nH;+/-0.1nH;DRC=150mΩ;600mA;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM0335C1H2R4BA01D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM0335C1H2R3WA01D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311023000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311024000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER C0G;2.3pF;+/-0.05pF;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER C0G;2.4pF;+/-0.1pF;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM0335C1HR30BA01D</t>
+  </si>
+  <si>
+    <t>0.3pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311003000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM0335C1H100JA01D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER C0G;10pF;+/-5%;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111680000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;68Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-0768RL</t>
+  </si>
+  <si>
+    <t>GRM0335C1H1R0BA01D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER C0G;1pF;+/-0.1pF;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF母座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF-SLOT-3PIN</t>
+  </si>
+  <si>
+    <t>RF射频同轴连接器;2*2mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPEX-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XUNPU(讯普)</t>
+  </si>
+  <si>
+    <t>ipxe-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQP03TN10NH02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10nH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;10nH;+/-2%;DRC=700mΩ;250mA;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311013000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311018000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM0335C1H1R8BA01D</t>
+  </si>
+  <si>
+    <t>GRM0335C1H1R3BA01D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER C0G;1.3pF;+/-0.1pF;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER C0G;1.8pF;+/-0.1pF;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER C0G;.0.3pF;+/-0.1pF;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111113000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;113Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-07113RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311022000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM0335C1H2R2BA01D</t>
+  </si>
+  <si>
+    <t>CAP CER C0G;2.2pF;+/-0.1pF;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111112000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;1.1KΩ;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-071K1L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111223000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;22KΩ;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-0722KL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311101001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER NP0;100pF;+/-5%;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0201JRNPO9BN101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311056000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER C0G;5.6pF;+/-0.5pF;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM0335C1E5R6DA01D</t>
+  </si>
+  <si>
+    <t>1.2nH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;1.2nH;+/-0.1nH;DRC=750mΩ;100mA;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQP03TN1N2B02D</t>
+  </si>
+  <si>
+    <t>1231012000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311105003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X5R;1μF;+/-20%;10V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0201MRX5R6BB105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTC7608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2083300001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQP03TN1N5B02D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5nH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231015000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;1.5nH;+/-0.1nH;DRC=600mΩ;150mA;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM0335C1HR20BA01D</t>
+  </si>
+  <si>
+    <t>1311002000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER C0G;.0.2pF;+/-0.1pF;50V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3nH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQP03TN1N3B02D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231013000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.5R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111715000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;71.5Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-0771R5L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;137Ω;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-07137L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111137000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0201FR-073K3L</t>
+  </si>
+  <si>
+    <t>1111332000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;3.3KΩ;+/-1%;1/20W;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031100012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL2836D25-4/TR</t>
+  </si>
+  <si>
+    <t>LDO;2.5V;300mA;DFN1x1-4L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031100013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL2836D09-4/TR</t>
+  </si>
+  <si>
+    <t>LDO;0.9V;300mA;DFN1x1-4L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031100014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL2817DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL2817DA12-8/TR</t>
+  </si>
+  <si>
+    <t>LDO;1.2V;500mA;DFN1x1-4L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFN1612-8L</t>
   </si>
 </sst>
 </file>
@@ -7380,11 +7854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7868,25 +8342,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>291</v>
+        <v>1866</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>290</v>
+        <v>1865</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>289</v>
+        <v>1867</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" t="s">
-        <v>91</v>
+        <v>1868</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>339</v>
@@ -7894,7 +8368,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -7903,16 +8377,16 @@
         <v>290</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="G20" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>339</v>
@@ -7920,7 +8394,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>832</v>
+        <v>369</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -7929,16 +8403,16 @@
         <v>290</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1109</v>
+        <v>371</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>833</v>
+        <v>370</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>339</v>
@@ -7946,7 +8420,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1427</v>
+        <v>832</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -7955,16 +8429,16 @@
         <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1429</v>
+        <v>1109</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1428</v>
+        <v>833</v>
       </c>
       <c r="G22" t="s">
-        <v>781</v>
+        <v>91</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>339</v>
@@ -7972,25 +8446,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>177</v>
+        <v>1427</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>176</v>
+        <v>1429</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>175</v>
+        <v>1428</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>781</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>339</v>
@@ -7998,7 +8472,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>420</v>
+        <v>177</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -8007,16 +8481,16 @@
         <v>276</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>421</v>
+        <v>176</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>422</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>339</v>
@@ -8024,7 +8498,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1213</v>
+        <v>420</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -8033,16 +8507,16 @@
         <v>276</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1214</v>
+        <v>421</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1215</v>
+        <v>422</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>339</v>
@@ -8050,25 +8524,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>713</v>
+        <v>1213</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>712</v>
+        <v>276</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>711</v>
+        <v>1214</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>710</v>
+        <v>1215</v>
       </c>
       <c r="G26" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>339</v>
@@ -8076,7 +8550,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>966</v>
+        <v>713</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
@@ -8085,16 +8559,16 @@
         <v>712</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>965</v>
+        <v>711</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>781</v>
+        <v>710</v>
+      </c>
+      <c r="G27" t="s">
+        <v>332</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>339</v>
@@ -8102,25 +8576,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1325</v>
+        <v>966</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1324</v>
+        <v>712</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1326</v>
+        <v>965</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1327</v>
+        <v>964</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>781</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>339</v>
@@ -8128,24 +8602,24 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>724</v>
+        <v>1325</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>725</v>
+        <v>1324</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>726</v>
+        <v>1326</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="G29" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -8154,24 +8628,24 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>475</v>
+        <v>1858</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>474</v>
+        <v>1857</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1680</v>
+        <v>1859</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G30" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>332</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -8180,51 +8654,51 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1682</v>
+        <v>724</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1679</v>
+        <v>725</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1681</v>
+        <v>726</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>1684</v>
+        <v>727</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1685</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1263</v>
+        <v>475</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>373</v>
+        <v>474</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1262</v>
+        <v>1680</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1686</v>
+        <v>473</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>339</v>
@@ -8232,48 +8706,48 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>427</v>
+        <v>1682</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>431</v>
+        <v>1679</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>428</v>
+        <v>1681</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G33" t="s">
-        <v>332</v>
+        <v>1683</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1684</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>339</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1342</v>
+        <v>1263</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1343</v>
+        <v>1262</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1344</v>
+        <v>1686</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
@@ -8284,25 +8758,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1102</v>
+        <v>427</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1101</v>
+        <v>431</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1103</v>
+        <v>428</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1104</v>
+        <v>429</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>339</v>
@@ -8310,22 +8784,22 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1210</v>
+        <v>1342</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1209</v>
+        <v>431</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1211</v>
+        <v>1343</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1212</v>
+        <v>1344</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
@@ -8336,25 +8810,25 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>778</v>
+        <v>1907</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>777</v>
+        <v>1904</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>798</v>
+        <v>1905</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>779</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>781</v>
+        <v>1906</v>
+      </c>
+      <c r="G37" t="s">
+        <v>332</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>339</v>
@@ -8362,25 +8836,25 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>955</v>
+        <v>1102</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>956</v>
+        <v>1101</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>957</v>
+        <v>1103</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>958</v>
+        <v>1104</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>339</v>
@@ -8388,25 +8862,25 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1478</v>
+        <v>1210</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>956</v>
+        <v>1209</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1476</v>
+        <v>1211</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1477</v>
+        <v>1212</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>339</v>
@@ -8414,25 +8888,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1621</v>
+        <v>778</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1620</v>
+        <v>777</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1622</v>
+        <v>798</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G40" t="s">
-        <v>91</v>
+        <v>780</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>781</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>339</v>
@@ -8440,22 +8914,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1164</v>
+        <v>955</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1163</v>
+        <v>956</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1170</v>
+        <v>957</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1165</v>
+        <v>958</v>
       </c>
       <c r="G41" t="s">
         <v>91</v>
@@ -8466,22 +8940,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1318</v>
+        <v>1478</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1316</v>
+        <v>956</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1317</v>
+        <v>1476</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1319</v>
+        <v>1477</v>
       </c>
       <c r="G42" t="s">
         <v>91</v>
@@ -8492,22 +8966,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1401</v>
+        <v>1621</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1400</v>
+        <v>1620</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1402</v>
+        <v>1622</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1403</v>
+        <v>1623</v>
       </c>
       <c r="G43" t="s">
         <v>91</v>
@@ -8518,25 +8992,25 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>411</v>
+        <v>1164</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>407</v>
+        <v>1163</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>409</v>
+        <v>1170</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>413</v>
+        <v>1165</v>
       </c>
       <c r="G44" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>339</v>
@@ -8544,25 +9018,25 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1597</v>
+        <v>1318</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1596</v>
+        <v>1316</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1598</v>
+        <v>1317</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>1600</v>
+        <v>1319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>339</v>
@@ -8570,22 +9044,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>294</v>
+        <v>1401</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>292</v>
+        <v>1400</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>362</v>
+        <v>1402</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>293</v>
+        <v>1403</v>
       </c>
       <c r="G46" t="s">
         <v>91</v>
@@ -8596,22 +9070,22 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>645</v>
+        <v>411</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>644</v>
+        <v>407</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>643</v>
+        <v>409</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>642</v>
+        <v>413</v>
       </c>
       <c r="G47" t="s">
         <v>332</v>
@@ -8622,25 +9096,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1646</v>
+        <v>1597</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>644</v>
+        <v>1596</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1096</v>
+        <v>1598</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G48" t="s">
-        <v>91</v>
+        <v>1599</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1600</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>339</v>
@@ -8648,22 +9122,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1698</v>
+        <v>294</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1699</v>
+        <v>292</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1700</v>
+        <v>362</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1701</v>
+        <v>293</v>
       </c>
       <c r="G49" t="s">
         <v>91</v>
@@ -8674,25 +9148,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1347</v>
+        <v>645</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1346</v>
+        <v>644</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1348</v>
+        <v>643</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1345</v>
+        <v>642</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>339</v>
@@ -8700,25 +9174,25 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>357</v>
+        <v>1646</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>356</v>
+        <v>644</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>359</v>
+        <v>1096</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>355</v>
+        <v>1097</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>339</v>
@@ -8726,25 +9200,25 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>361</v>
+        <v>1698</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>356</v>
+        <v>1699</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>360</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>332</v>
+        <v>1701</v>
+      </c>
+      <c r="G52" t="s">
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>339</v>
@@ -8752,25 +9226,25 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>901</v>
+        <v>1869</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>353</v>
+        <v>1870</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>902</v>
+        <v>1871</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>900</v>
+        <v>1872</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>339</v>
@@ -8778,22 +9252,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1690</v>
+        <v>1347</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1691</v>
+        <v>1346</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1692</v>
+        <v>1348</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1693</v>
+        <v>1345</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
@@ -8804,25 +9278,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="G55" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>339</v>
@@ -8830,25 +9304,25 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1030</v>
+        <v>361</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>646</v>
+        <v>356</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1029</v>
+        <v>360</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
+        <v>358</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>339</v>
@@ -8856,25 +9330,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1467</v>
+        <v>901</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>646</v>
+        <v>353</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1468</v>
+        <v>902</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>332</v>
+        <v>900</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>339</v>
@@ -8882,25 +9356,25 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>180</v>
+        <v>1690</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>277</v>
+        <v>1691</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>179</v>
+        <v>1692</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>178</v>
+        <v>1693</v>
       </c>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>339</v>
@@ -8908,25 +9382,25 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1298</v>
+        <v>414</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1296</v>
+        <v>415</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1297</v>
+        <v>417</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1295</v>
+        <v>416</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>339</v>
@@ -8934,25 +9408,25 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1167</v>
+        <v>1030</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1166</v>
+        <v>646</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1168</v>
+        <v>1029</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1169</v>
+        <v>1028</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>339</v>
@@ -8960,25 +9434,25 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>482</v>
+        <v>1467</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>481</v>
+        <v>646</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>799</v>
+        <v>1468</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
+        <v>1469</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>339</v>
@@ -8986,25 +9460,25 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1537</v>
+        <v>180</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1534</v>
+        <v>277</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1535</v>
+        <v>179</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1536</v>
+        <v>178</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>339</v>
@@ -9012,25 +9486,25 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>960</v>
+        <v>1298</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>961</v>
+        <v>1296</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>962</v>
+        <v>1297</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>959</v>
+        <v>1295</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>339</v>
@@ -9038,25 +9512,25 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>1703</v>
+        <v>1167</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1702</v>
+        <v>1166</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1705</v>
+        <v>1168</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1706</v>
+        <v>1169</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>339</v>
@@ -9064,22 +9538,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1704</v>
+        <v>482</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1387</v>
+        <v>481</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1388</v>
+        <v>799</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1389</v>
+        <v>483</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
@@ -9090,22 +9564,22 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>791</v>
+        <v>1537</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>789</v>
+        <v>1534</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>790</v>
+        <v>1535</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>779</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>788</v>
+        <v>1536</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
@@ -9116,22 +9590,22 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1722</v>
+        <v>960</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1720</v>
+        <v>961</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1721</v>
+        <v>962</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1723</v>
+        <v>959</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -9142,25 +9616,25 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1526</v>
+        <v>1703</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1525</v>
+        <v>1702</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1527</v>
+        <v>1705</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1524</v>
+        <v>1706</v>
       </c>
       <c r="G68" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>339</v>
@@ -9168,22 +9642,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>1704</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>272</v>
+        <v>1387</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>834</v>
+        <v>1388</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>701</v>
+        <v>1389</v>
       </c>
       <c r="G69" t="s">
         <v>19</v>
@@ -9194,25 +9668,25 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>699</v>
+        <v>791</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>272</v>
+        <v>789</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="G70" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>339</v>
@@ -9220,25 +9694,25 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1078</v>
+        <v>1910</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1079</v>
+        <v>1908</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1173</v>
+        <v>1911</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
+        <v>1909</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>339</v>
@@ -9246,22 +9720,22 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1531</v>
+        <v>1722</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1530</v>
+        <v>1720</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1532</v>
+        <v>1721</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1533</v>
+        <v>1723</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
@@ -9272,25 +9746,25 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1172</v>
+        <v>1526</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1171</v>
+        <v>1525</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1174</v>
+        <v>1527</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1175</v>
+        <v>1524</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>339</v>
@@ -9298,22 +9772,22 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1056</v>
+        <v>130</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1052</v>
+        <v>272</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1053</v>
+        <v>834</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1054</v>
+        <v>701</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
@@ -9324,25 +9798,25 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1547</v>
+        <v>699</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1546</v>
+        <v>272</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1548</v>
+        <v>835</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1549</v>
+        <v>700</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>339</v>
@@ -9350,25 +9824,25 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>410</v>
+        <v>1078</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>406</v>
+        <v>1079</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>408</v>
+        <v>1173</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>412</v>
+        <v>1080</v>
       </c>
       <c r="G76" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>339</v>
@@ -9376,25 +9850,25 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>472</v>
+        <v>1531</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>470</v>
+        <v>1530</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>471</v>
+        <v>1532</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>469</v>
+        <v>1533</v>
       </c>
       <c r="G77" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>339</v>
@@ -9402,22 +9876,22 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>484</v>
+        <v>1172</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>470</v>
+        <v>1171</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>486</v>
+        <v>1174</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>485</v>
+        <v>1175</v>
       </c>
       <c r="G78" t="s">
         <v>19</v>
@@ -9428,25 +9902,25 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>430</v>
+        <v>1056</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>432</v>
+        <v>1052</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>433</v>
+        <v>1053</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>434</v>
+        <v>1054</v>
       </c>
       <c r="G79" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>339</v>
@@ -9454,22 +9928,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>1089</v>
+        <v>1547</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1090</v>
+        <v>1546</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1091</v>
+        <v>1548</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1092</v>
+        <v>1549</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -9480,25 +9954,25 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1444</v>
+        <v>410</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1442</v>
+        <v>406</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1445</v>
+        <v>408</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1443</v>
+        <v>412</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>339</v>
@@ -9506,25 +9980,25 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>163</v>
+        <v>472</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>273</v>
+        <v>470</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>133</v>
+        <v>471</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>162</v>
+        <v>469</v>
       </c>
       <c r="G82" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>339</v>
@@ -9532,22 +10006,22 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>367</v>
+        <v>484</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>364</v>
+        <v>470</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>363</v>
+        <v>485</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -9558,24 +10032,24 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>365</v>
+        <v>433</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G84" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G84" t="s">
         <v>332</v>
       </c>
       <c r="I84" s="1" t="s">
@@ -9584,22 +10058,22 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>364</v>
+        <v>1090</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
@@ -9610,22 +10084,22 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>153</v>
+        <v>1444</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>274</v>
+        <v>1442</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>154</v>
+        <v>1445</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>152</v>
+        <v>1443</v>
       </c>
       <c r="G86" t="s">
         <v>19</v>
@@ -9636,22 +10110,22 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -9662,25 +10136,25 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>452</v>
+        <v>367</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>454</v>
+        <v>363</v>
       </c>
       <c r="G88" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>339</v>
@@ -9688,25 +10162,25 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>1032</v>
+        <v>368</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1031</v>
+        <v>364</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1046</v>
+        <v>365</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
+        <v>366</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>339</v>
@@ -9714,25 +10188,25 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>1458</v>
+        <v>1098</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1031</v>
+        <v>364</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1459</v>
+        <v>1099</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1460</v>
+        <v>1100</v>
       </c>
       <c r="G90" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>339</v>
@@ -9740,22 +10214,22 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>1044</v>
+        <v>153</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1043</v>
+        <v>274</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1045</v>
+        <v>154</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1042</v>
+        <v>152</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -9766,25 +10240,25 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>1461</v>
+        <v>157</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1043</v>
+        <v>275</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1462</v>
+        <v>156</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1463</v>
+        <v>155</v>
       </c>
       <c r="G92" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>339</v>
@@ -9792,22 +10266,22 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>946</v>
+        <v>452</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>947</v>
+        <v>275</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>948</v>
+        <v>453</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>949</v>
+        <v>454</v>
       </c>
       <c r="G93" t="s">
         <v>332</v>
@@ -9818,24 +10292,24 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>1292</v>
+        <v>1032</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1293</v>
+        <v>1031</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1294</v>
+        <v>1046</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="G94" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G94" t="s">
         <v>19</v>
       </c>
       <c r="I94" s="1" t="s">
@@ -9844,25 +10318,25 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>1160</v>
+        <v>1458</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1159</v>
+        <v>1031</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1162</v>
+        <v>1459</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1161</v>
+        <v>1460</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>339</v>
@@ -9870,22 +10344,22 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>1585</v>
+        <v>1044</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1586</v>
+        <v>1043</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1587</v>
+        <v>1045</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1588</v>
+        <v>1042</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
@@ -9896,25 +10370,25 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>1694</v>
+        <v>1461</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1695</v>
+        <v>1043</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1696</v>
+        <v>1462</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1697</v>
+        <v>1463</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>339</v>
@@ -9922,25 +10396,25 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1480</v>
+        <v>946</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1479</v>
+        <v>947</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1481</v>
+        <v>948</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1482</v>
+        <v>949</v>
       </c>
       <c r="G98" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>339</v>
@@ -9948,25 +10422,25 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>681</v>
+        <v>1292</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>680</v>
+        <v>1293</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>679</v>
+        <v>1294</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G99" t="s">
-        <v>332</v>
+        <v>1592</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>339</v>
@@ -9974,25 +10448,25 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>689</v>
+        <v>1160</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>688</v>
+        <v>1159</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>687</v>
+        <v>1162</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>698</v>
+        <v>1161</v>
       </c>
       <c r="G100" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>339</v>
@@ -10000,22 +10474,22 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>608</v>
+        <v>1585</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>609</v>
+        <v>1586</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>610</v>
+        <v>1587</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>611</v>
+        <v>1588</v>
       </c>
       <c r="G101" t="s">
         <v>19</v>
@@ -10026,25 +10500,25 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>402</v>
+        <v>1694</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>401</v>
+        <v>1695</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>404</v>
+        <v>1696</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>403</v>
+        <v>1697</v>
       </c>
       <c r="G102" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>339</v>
@@ -10052,25 +10526,25 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>331</v>
+        <v>1480</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>330</v>
+        <v>1479</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>329</v>
+        <v>1481</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>332</v>
+        <v>1482</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>339</v>
@@ -10078,25 +10552,25 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>338</v>
+        <v>681</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>337</v>
+        <v>679</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1084</v>
+        <v>678</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>339</v>
@@ -10104,25 +10578,25 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1156</v>
+        <v>689</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1155</v>
+        <v>688</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1158</v>
+        <v>687</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1157</v>
+        <v>698</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>339</v>
@@ -10130,22 +10604,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1716</v>
+        <v>608</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1717</v>
+        <v>609</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1718</v>
+        <v>610</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1719</v>
+        <v>611</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -10156,25 +10630,25 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1081</v>
+        <v>402</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1082</v>
+        <v>401</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1083</v>
+        <v>404</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1085</v>
+        <v>403</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>339</v>
@@ -10182,25 +10656,25 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>1688</v>
+        <v>331</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1687</v>
+        <v>330</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1083</v>
+        <v>329</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
+        <v>328</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>339</v>
@@ -10208,22 +10682,22 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>1277</v>
+        <v>338</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1276</v>
+        <v>330</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1278</v>
+        <v>337</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1279</v>
+        <v>1084</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -10234,22 +10708,22 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>1105</v>
+        <v>1156</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1106</v>
+        <v>1155</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1107</v>
+        <v>1158</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1108</v>
+        <v>1157</v>
       </c>
       <c r="G110" t="s">
         <v>19</v>
@@ -10260,22 +10734,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>830</v>
+        <v>1716</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>829</v>
+        <v>1717</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>831</v>
+        <v>1718</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>828</v>
+        <v>1719</v>
       </c>
       <c r="G111" t="s">
         <v>19</v>
@@ -10286,25 +10760,25 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>1308</v>
+        <v>1832</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1307</v>
+        <v>1831</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1309</v>
+        <v>1833</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
+        <v>1834</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>339</v>
@@ -10312,22 +10786,22 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>624</v>
+        <v>1081</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>623</v>
+        <v>1082</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>622</v>
+        <v>1083</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>621</v>
+        <v>1085</v>
       </c>
       <c r="G113" t="s">
         <v>19</v>
@@ -10338,22 +10812,22 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>1393</v>
+        <v>1688</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1392</v>
+        <v>1687</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1394</v>
+        <v>1083</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1395</v>
+        <v>1689</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -10364,25 +10838,25 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>1901</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>271</v>
+        <v>1900</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>133</v>
+        <v>1902</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
+        <v>1903</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>339</v>
@@ -10390,22 +10864,22 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>1543</v>
+        <v>1277</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1542</v>
+        <v>1276</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1544</v>
+        <v>1278</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1545</v>
+        <v>1279</v>
       </c>
       <c r="G116" t="s">
         <v>19</v>
@@ -10416,25 +10890,25 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>692</v>
+        <v>1105</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>691</v>
+        <v>1106</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>690</v>
+        <v>1107</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>697</v>
+        <v>1108</v>
       </c>
       <c r="G117" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>339</v>
@@ -10442,22 +10916,22 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1055</v>
+        <v>830</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1057</v>
+        <v>829</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1058</v>
+        <v>831</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1059</v>
+        <v>828</v>
       </c>
       <c r="G118" t="s">
         <v>19</v>
@@ -10468,25 +10942,25 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>400</v>
+        <v>1308</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>399</v>
+        <v>1307</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>405</v>
+        <v>1309</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>403</v>
+        <v>1310</v>
       </c>
       <c r="G119" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>339</v>
@@ -10494,25 +10968,25 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>696</v>
+        <v>624</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>695</v>
+        <v>623</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>694</v>
+        <v>622</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>693</v>
+        <v>621</v>
       </c>
       <c r="G120" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>339</v>
@@ -10520,27 +10994,209 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G122" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G124" t="s">
+        <v>332</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G126" t="s">
+        <v>332</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G127" t="s">
+        <v>332</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -10558,10 +11214,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10924,453 +11580,531 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>1912</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>1746</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>1913</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>1914</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>1913</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>685</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>394</v>
+        <v>1915</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>1746</v>
       </c>
       <c r="C15" t="s">
-        <v>671</v>
+        <v>1916</v>
       </c>
       <c r="D15" t="s">
-        <v>514</v>
+        <v>1917</v>
       </c>
       <c r="E15" t="s">
-        <v>391</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>671</v>
+        <v>1916</v>
       </c>
       <c r="G15" t="s">
-        <v>392</v>
+        <v>685</v>
       </c>
       <c r="I15" t="s">
-        <v>393</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>423</v>
+        <v>1918</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>1746</v>
       </c>
       <c r="C16" t="s">
-        <v>424</v>
+        <v>1920</v>
       </c>
       <c r="D16" t="s">
-        <v>675</v>
+        <v>1921</v>
       </c>
       <c r="E16" t="s">
-        <v>515</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>543</v>
+        <v>1920</v>
       </c>
       <c r="G16" t="s">
-        <v>425</v>
+        <v>1922</v>
       </c>
       <c r="I16" t="s">
-        <v>426</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>444</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>513</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>440</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>441</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>512</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>443</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>390</v>
       </c>
       <c r="C18" t="s">
-        <v>462</v>
+        <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="E18" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="F18" t="s">
-        <v>465</v>
+        <v>671</v>
       </c>
       <c r="G18" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="I18" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="B19" t="s">
-        <v>390</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>677</v>
+        <v>424</v>
       </c>
       <c r="D19" t="s">
-        <v>1434</v>
+        <v>675</v>
       </c>
       <c r="E19" t="s">
         <v>515</v>
       </c>
       <c r="F19" t="s">
-        <v>674</v>
+        <v>543</v>
       </c>
       <c r="G19" t="s">
-        <v>676</v>
+        <v>425</v>
       </c>
       <c r="I19" t="s">
-        <v>672</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>801</v>
+        <v>444</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>800</v>
+        <v>513</v>
       </c>
       <c r="D20" t="s">
-        <v>802</v>
+        <v>440</v>
       </c>
       <c r="E20" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="F20" t="s">
-        <v>804</v>
+        <v>512</v>
       </c>
       <c r="G20" t="s">
-        <v>803</v>
+        <v>443</v>
       </c>
       <c r="I20" t="s">
-        <v>827</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>836</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>838</v>
+        <v>462</v>
       </c>
       <c r="D21" t="s">
-        <v>841</v>
+        <v>464</v>
       </c>
       <c r="E21" t="s">
-        <v>840</v>
+        <v>304</v>
       </c>
       <c r="F21" t="s">
-        <v>839</v>
+        <v>465</v>
       </c>
       <c r="G21" t="s">
-        <v>837</v>
+        <v>466</v>
       </c>
       <c r="I21" t="s">
-        <v>838</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1200</v>
+        <v>673</v>
       </c>
       <c r="B22" t="s">
         <v>390</v>
       </c>
       <c r="C22" t="s">
-        <v>1074</v>
+        <v>677</v>
       </c>
       <c r="D22" t="s">
-        <v>1075</v>
+        <v>1434</v>
       </c>
       <c r="E22" t="s">
-        <v>1064</v>
+        <v>515</v>
       </c>
       <c r="F22" t="s">
-        <v>1077</v>
+        <v>674</v>
       </c>
       <c r="G22" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1641</v>
+        <v>676</v>
       </c>
       <c r="I22" t="s">
-        <v>1077</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1328</v>
+        <v>801</v>
       </c>
       <c r="B23" t="s">
         <v>390</v>
       </c>
       <c r="C23" t="s">
-        <v>1201</v>
+        <v>800</v>
       </c>
       <c r="D23" t="s">
-        <v>1202</v>
+        <v>802</v>
       </c>
       <c r="E23" t="s">
         <v>515</v>
       </c>
       <c r="F23" t="s">
-        <v>1203</v>
+        <v>804</v>
       </c>
       <c r="G23" t="s">
-        <v>1204</v>
+        <v>803</v>
       </c>
       <c r="I23" t="s">
-        <v>1201</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1384</v>
+        <v>836</v>
       </c>
       <c r="B24" t="s">
-        <v>390</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>1329</v>
+        <v>838</v>
       </c>
       <c r="D24" t="s">
-        <v>1332</v>
+        <v>841</v>
       </c>
       <c r="E24" t="s">
-        <v>515</v>
+        <v>840</v>
       </c>
       <c r="F24" t="s">
-        <v>1331</v>
+        <v>839</v>
       </c>
       <c r="G24" t="s">
-        <v>1333</v>
+        <v>837</v>
       </c>
       <c r="I24" t="s">
-        <v>1330</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1619</v>
+        <v>1200</v>
       </c>
       <c r="B25" t="s">
         <v>390</v>
       </c>
       <c r="C25" t="s">
-        <v>1383</v>
+        <v>1074</v>
       </c>
       <c r="D25" t="s">
-        <v>1385</v>
+        <v>1075</v>
       </c>
       <c r="E25" t="s">
         <v>1064</v>
       </c>
       <c r="F25" t="s">
-        <v>1382</v>
+        <v>1077</v>
       </c>
       <c r="G25" t="s">
-        <v>1386</v>
+        <v>1076</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1641</v>
       </c>
       <c r="I25" t="s">
-        <v>1382</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1611</v>
+        <v>1328</v>
       </c>
       <c r="B26" t="s">
-        <v>1612</v>
+        <v>390</v>
       </c>
       <c r="C26" t="s">
-        <v>1613</v>
+        <v>1201</v>
       </c>
       <c r="D26" t="s">
-        <v>1614</v>
+        <v>1202</v>
       </c>
       <c r="E26" t="s">
-        <v>1615</v>
+        <v>515</v>
       </c>
       <c r="F26" t="s">
-        <v>1616</v>
+        <v>1203</v>
       </c>
       <c r="G26" t="s">
-        <v>1617</v>
+        <v>1204</v>
       </c>
       <c r="I26" t="s">
-        <v>1613</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1673</v>
+        <v>1384</v>
       </c>
       <c r="B27" t="s">
-        <v>1672</v>
+        <v>390</v>
       </c>
       <c r="C27" t="s">
-        <v>1674</v>
+        <v>1329</v>
       </c>
       <c r="D27" t="s">
-        <v>1675</v>
+        <v>1332</v>
       </c>
       <c r="E27" t="s">
-        <v>1677</v>
+        <v>515</v>
       </c>
       <c r="F27" t="s">
-        <v>1674</v>
+        <v>1331</v>
       </c>
       <c r="G27" t="s">
-        <v>1676</v>
+        <v>1333</v>
       </c>
       <c r="I27" t="s">
-        <v>1674</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>723</v>
+        <v>1619</v>
       </c>
       <c r="B28" t="s">
-        <v>718</v>
+        <v>390</v>
       </c>
       <c r="C28" t="s">
-        <v>719</v>
+        <v>1383</v>
       </c>
       <c r="D28" t="s">
-        <v>721</v>
+        <v>1385</v>
       </c>
       <c r="E28" t="s">
-        <v>515</v>
+        <v>1064</v>
       </c>
       <c r="F28" t="s">
-        <v>720</v>
+        <v>1382</v>
       </c>
       <c r="G28" t="s">
-        <v>1595</v>
+        <v>1386</v>
       </c>
       <c r="I28" t="s">
-        <v>722</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1632</v>
+        <v>1611</v>
       </c>
       <c r="B29" t="s">
-        <v>718</v>
+        <v>1612</v>
       </c>
       <c r="C29" t="s">
-        <v>1312</v>
+        <v>1613</v>
       </c>
       <c r="D29" t="s">
-        <v>1313</v>
+        <v>1614</v>
       </c>
       <c r="E29" t="s">
-        <v>846</v>
+        <v>1615</v>
       </c>
       <c r="F29" t="s">
-        <v>1311</v>
+        <v>1616</v>
       </c>
       <c r="G29" t="s">
-        <v>1314</v>
+        <v>1617</v>
       </c>
       <c r="I29" t="s">
-        <v>1315</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B31" t="s">
+        <v>718</v>
+      </c>
+      <c r="C31" t="s">
+        <v>719</v>
+      </c>
+      <c r="D31" t="s">
+        <v>721</v>
+      </c>
+      <c r="E31" t="s">
+        <v>515</v>
+      </c>
+      <c r="F31" t="s">
+        <v>720</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I31" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B32" t="s">
+        <v>718</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E32" t="s">
+        <v>846</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>1655</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>1657</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>1659</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E33" t="s">
         <v>1658</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F33" t="s">
         <v>1657</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G33" t="s">
         <v>1654</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I33" t="s">
         <v>1657</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J30" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J29">
-      <sortCondition ref="A1:A29"/>
+  <autoFilter ref="A1:J33" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J32">
+      <sortCondition ref="A1:A32"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12070,10 +12804,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC4AD67-C776-4093-88E2-79BBC414D956}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12932,6 +13666,55 @@
         <v>1795</v>
       </c>
     </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1805</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{9CC4AD67-C776-4093-88E2-79BBC414D956}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J26">
@@ -12946,11 +13729,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB78C2-2208-4DF0-8ABB-0CE48BD26296}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12959,7 +13742,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
@@ -13000,25 +13783,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1752</v>
+        <v>1894</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>1753</v>
+        <v>1895</v>
       </c>
       <c r="D2" t="s">
-        <v>1754</v>
+        <v>1896</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>1755</v>
+        <v>1893</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -13026,25 +13809,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1645</v>
+        <v>1827</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>1826</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>1856</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>1825</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -13052,22 +13835,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1644</v>
+        <v>1752</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>1753</v>
       </c>
       <c r="D4" t="s">
-        <v>1579</v>
+        <v>1754</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>1578</v>
+        <v>1755</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -13078,25 +13861,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>1836</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>786</v>
+        <v>1753</v>
       </c>
       <c r="D5" t="s">
-        <v>787</v>
+        <v>1837</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>785</v>
+        <v>1835</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
@@ -13104,25 +13887,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>1850</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>1848</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>1854</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>1853</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -13130,22 +13913,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>655</v>
+        <v>1851</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>1849</v>
       </c>
       <c r="D7" t="s">
-        <v>654</v>
+        <v>1855</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>653</v>
+        <v>1852</v>
       </c>
       <c r="G7" t="s">
         <v>325</v>
@@ -13156,25 +13939,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>655</v>
+        <v>1821</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>1817</v>
       </c>
       <c r="D8" t="s">
-        <v>1291</v>
+        <v>1823</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>1289</v>
+        <v>1820</v>
       </c>
       <c r="G8" t="s">
-        <v>1290</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -13182,25 +13965,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1269</v>
+        <v>1862</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>1268</v>
+        <v>1861</v>
       </c>
       <c r="D9" t="s">
-        <v>1267</v>
+        <v>1864</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>1266</v>
+        <v>1863</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
@@ -13208,25 +13991,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>1822</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>1818</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>1824</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>1819</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -13234,22 +14017,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>327</v>
+        <v>1877</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>1876</v>
       </c>
       <c r="D11" t="s">
-        <v>326</v>
+        <v>1878</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>1879</v>
       </c>
       <c r="G11" t="s">
         <v>325</v>
@@ -13260,22 +14043,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>194</v>
+        <v>1645</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -13286,25 +14069,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1488</v>
+        <v>1644</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>973</v>
+        <v>1579</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>974</v>
+        <v>1578</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -13312,22 +14095,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1489</v>
+        <v>1828</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>1491</v>
+        <v>1830</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F14" t="s">
-        <v>1490</v>
+        <v>1829</v>
       </c>
       <c r="G14" t="s">
         <v>325</v>
@@ -13338,22 +14121,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>786</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>787</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>785</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -13364,25 +14147,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>812</v>
+        <v>1873</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>786</v>
       </c>
       <c r="D16" t="s">
-        <v>813</v>
+        <v>1874</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>811</v>
+        <v>1875</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
@@ -13390,83 +14173,77 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>817</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>814</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>818</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E17" t="s">
-        <v>816</v>
+        <v>172</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>815</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>819</v>
-      </c>
-      <c r="H17" t="s">
-        <v>821</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1122</v>
+        <v>655</v>
       </c>
       <c r="B18" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>818</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1124</v>
+        <v>654</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>1125</v>
+        <v>653</v>
       </c>
       <c r="G18" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1116</v>
+        <v>325</v>
       </c>
       <c r="I18" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1255</v>
+        <v>655</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>1254</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>1257</v>
+        <v>1291</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>1256</v>
+        <v>1289</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>1290</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
@@ -13474,22 +14251,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>349</v>
+        <v>1269</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>348</v>
+        <v>1268</v>
       </c>
       <c r="D20" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -13500,25 +14277,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>419</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>418</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>1261</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>1260</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
@@ -13526,25 +14303,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>889</v>
+        <v>327</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>418</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>1446</v>
+        <v>326</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>890</v>
+        <v>324</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I22" t="s">
         <v>20</v>
@@ -13552,22 +14329,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
@@ -13578,25 +14355,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1093</v>
+        <v>1488</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>1094</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>1447</v>
+        <v>973</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>1095</v>
+        <v>974</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -13604,25 +14381,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>167</v>
+        <v>1489</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>1491</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>1490</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -13630,22 +14407,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1492</v>
+        <v>1884</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="D26" t="s">
-        <v>1493</v>
+        <v>1885</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>1494</v>
+        <v>1886</v>
       </c>
       <c r="G26" t="s">
         <v>325</v>
@@ -13656,25 +14433,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1132</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>1133</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s">
-        <v>1591</v>
+        <v>204</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>1590</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
@@ -13682,25 +14459,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1390</v>
+        <v>812</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>1133</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
-        <v>1391</v>
+        <v>813</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>1589</v>
+        <v>811</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
@@ -13708,77 +14485,83 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>170</v>
+        <v>817</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>814</v>
       </c>
       <c r="C29" t="s">
-        <v>280</v>
+        <v>818</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>1111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>816</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>815</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>819</v>
+      </c>
+      <c r="H29" t="s">
+        <v>821</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1601</v>
+        <v>1122</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C30" t="s">
-        <v>280</v>
+        <v>818</v>
       </c>
       <c r="D30" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>1123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1124</v>
       </c>
       <c r="F30" t="s">
-        <v>1602</v>
+        <v>1125</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>1118</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1116</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>121</v>
+        <v>1255</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>1254</v>
       </c>
       <c r="D31" t="s">
-        <v>542</v>
+        <v>1257</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>551</v>
+        <v>1256</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
         <v>20</v>
@@ -13786,25 +14569,25 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1119</v>
+        <v>349</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="D32" t="s">
-        <v>1120</v>
+        <v>1259</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>1121</v>
+        <v>1258</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
         <v>20</v>
@@ -13812,25 +14595,25 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1439</v>
+        <v>419</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>281</v>
+        <v>418</v>
       </c>
       <c r="D33" t="s">
-        <v>1441</v>
+        <v>1261</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>1440</v>
+        <v>1260</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I33" t="s">
         <v>20</v>
@@ -13838,51 +14621,48 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1151</v>
+        <v>889</v>
       </c>
       <c r="B34" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>1150</v>
+        <v>418</v>
       </c>
       <c r="D34" t="s">
-        <v>1152</v>
+        <v>1446</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1153</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>1154</v>
+        <v>890</v>
       </c>
       <c r="G34" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1116</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>158</v>
+      <c r="F35" t="s">
+        <v>195</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
@@ -13893,25 +14673,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>981</v>
+        <v>1093</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>982</v>
+        <v>1094</v>
       </c>
       <c r="D36" t="s">
-        <v>983</v>
+        <v>1447</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>985</v>
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1095</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
@@ -13919,54 +14699,51 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1146</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>1147</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1117</v>
+        <v>165</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>1149</v>
+        <v>164</v>
       </c>
       <c r="G37" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1116</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>1492</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>1493</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>1494</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
@@ -13974,22 +14751,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>1132</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>282</v>
+        <v>1133</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" t="s">
-        <v>70</v>
+        <v>1591</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>1590</v>
       </c>
       <c r="G39" t="s">
         <v>71</v>
@@ -14000,25 +14777,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1457</v>
+        <v>1390</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>282</v>
+        <v>1133</v>
       </c>
       <c r="D40" t="s">
-        <v>1455</v>
+        <v>1391</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>1456</v>
+        <v>1589</v>
       </c>
       <c r="G40" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -14026,25 +14803,25 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>549</v>
+        <v>280</v>
       </c>
       <c r="D41" t="s">
-        <v>553</v>
+        <v>169</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>552</v>
+        <v>168</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
         <v>20</v>
@@ -14052,59 +14829,377 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1112</v>
+        <v>1601</v>
       </c>
       <c r="B42" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>1110</v>
+        <v>280</v>
       </c>
       <c r="D42" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1117</v>
+        <v>1603</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>1115</v>
+        <v>1602</v>
       </c>
       <c r="G42" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1116</v>
+        <v>71</v>
       </c>
       <c r="I42" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="D43" t="s">
+        <v>542</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>551</v>
+      </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>1119</v>
+      </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I46" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>982</v>
+      </c>
+      <c r="D48" t="s">
+        <v>983</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="G48" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I49" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>282</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G52" t="s">
+        <v>325</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>549</v>
+      </c>
+      <c r="D53" t="s">
+        <v>553</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>552</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I54" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
         <v>90</v>
       </c>
-      <c r="G44" t="s">
+      <c r="E55" s="1"/>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" t="s">
         <v>325</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I56" t="s">
         <v>20</v>
       </c>
     </row>
@@ -14124,7 +15219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C302E28E-61B5-45F2-9EED-9E658F066E8B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -14782,11 +15877,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77DF9D1-733F-4622-A5B9-9F6937E4842B}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16195,6 +17290,35 @@
       </c>
       <c r="I48" t="s">
         <v>1364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H49" t="s">
+        <v>297</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1839</v>
       </c>
     </row>
   </sheetData>
@@ -16476,10 +17600,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC079E-4192-4042-9084-101DC20DC760}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17075,7 +18199,160 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D23" s="6"/>
+      <c r="A23" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G23" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G24" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G25" t="s">
+        <v>332</v>
+      </c>
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G26" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G27" t="s">
+        <v>332</v>
+      </c>
+      <c r="I27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G28" t="s">
+        <v>332</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A67BFA-F628-4378-A98F-41077D7C1322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC4B6F-5EB3-444A-A71A-09E6480AD7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="1926">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7487,6 +7487,17 @@
   </si>
   <si>
     <t>DFN1612-8L</t>
+  </si>
+  <si>
+    <t>1311225002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X5R;2.2μF;+/-20%;10V;0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0201MRX5R6BB225</t>
   </si>
 </sst>
 </file>
@@ -11216,7 +11227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -13729,11 +13740,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB78C2-2208-4DF0-8ABB-0CE48BD26296}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14855,25 +14866,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>121</v>
+        <v>1923</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D43" t="s">
-        <v>542</v>
+        <v>1924</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>551</v>
+        <v>1925</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="I43" t="s">
         <v>20</v>
@@ -14881,7 +14892,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1119</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
@@ -14890,16 +14901,16 @@
         <v>281</v>
       </c>
       <c r="D44" t="s">
-        <v>1120</v>
+        <v>542</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>1121</v>
+        <v>551</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="I44" t="s">
         <v>20</v>
@@ -14907,7 +14918,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1439</v>
+        <v>1119</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -14916,16 +14927,16 @@
         <v>281</v>
       </c>
       <c r="D45" t="s">
-        <v>1441</v>
+        <v>1120</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>1440</v>
+        <v>1121</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I45" t="s">
         <v>20</v>
@@ -14933,80 +14944,80 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1151</v>
+        <v>1439</v>
       </c>
       <c r="B46" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>1150</v>
+        <v>281</v>
       </c>
       <c r="D46" t="s">
-        <v>1152</v>
+        <v>1441</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1153</v>
+        <v>188</v>
       </c>
       <c r="F46" t="s">
-        <v>1154</v>
+        <v>1440</v>
       </c>
       <c r="G46" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1116</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>161</v>
+        <v>1151</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>1150</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>1152</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>158</v>
+        <v>1153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1154</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>1118</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1116</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>981</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>982</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>983</v>
+        <v>159</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>984</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>985</v>
+        <v>158</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s">
         <v>20</v>
@@ -15014,62 +15025,62 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1146</v>
+        <v>981</v>
       </c>
       <c r="B49" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>1147</v>
+        <v>982</v>
       </c>
       <c r="D49" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1149</v>
+        <v>983</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>985</v>
       </c>
       <c r="G49" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1116</v>
+        <v>120</v>
       </c>
       <c r="I49" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>1146</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C50" t="s">
-        <v>282</v>
+        <v>1147</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
+        <v>1148</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1117</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>1149</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>1118</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1116</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
@@ -15078,16 +15089,16 @@
         <v>282</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
         <v>20</v>
@@ -15095,7 +15106,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1457</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
@@ -15104,16 +15115,16 @@
         <v>282</v>
       </c>
       <c r="D52" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>188</v>
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
+        <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>1456</v>
+        <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="I52" t="s">
         <v>20</v>
@@ -15121,25 +15132,25 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>550</v>
+        <v>1457</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>549</v>
+        <v>282</v>
       </c>
       <c r="D53" t="s">
-        <v>553</v>
+        <v>1455</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>552</v>
+        <v>1456</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="I53" t="s">
         <v>20</v>
@@ -15147,46 +15158,57 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>549</v>
+      </c>
+      <c r="D54" t="s">
+        <v>553</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>552</v>
+      </c>
+      <c r="G54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>1114</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>1110</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>1113</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>1117</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>1115</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>1118</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>1116</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I55" t="s">
         <v>820</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -15196,10 +15218,25 @@
       <c r="C56" t="s">
         <v>90</v>
       </c>
+      <c r="E56" s="1"/>
       <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" t="s">
         <v>325</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I57" t="s">
         <v>20</v>
       </c>
     </row>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\SPB_Data\Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F6FF69-6FC8-4ED7-93D6-D31BEA9CCFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CABA2E-3A2B-49A5-B3B7-814D55F5E7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">其他芯片!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">贴片电容!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">贴片电阻!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">贴片结构料!$A$1:$J$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">贴片结构料!$A$1:$J$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">振荡晶体!$A$1:$J$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="2123">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7150,10 +7150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RF母座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RF-SLOT-3PIN</t>
   </si>
   <si>
@@ -7709,6 +7705,544 @@
   </si>
   <si>
     <t>2041100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2051000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTL8221B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REALTEK(瑞昱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTL8221B(I)-VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfn48_EP4_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integrated 10/100/1000M/2.5G Ethernet Transceiver;SGMII/HiSGMII/2500 BASE-X;QFN-48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2051000016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2051000017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT7531AE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-port 10/100/1000Mbps UTP + 7-port MAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT7531AE_LQ128_final</t>
+  </si>
+  <si>
+    <t>14x14mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lqfp128-14x14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111151000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;150Ω;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-07150RL</t>
+  </si>
+  <si>
+    <t>1241121003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片磁珠;120Ω@100MHz;±25%;1.3A;90mΩ;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPZ1005D121-1R3TF</t>
+  </si>
+  <si>
+    <t>2041025003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311102002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3015130003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231224001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDC连接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6611600008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-JN254-2-05-W</t>
+  </si>
+  <si>
+    <t>HCTL(华灿天禄)</t>
+  </si>
+  <si>
+    <t>简牛座;2.54mm;2x5P;3A;弯插;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONN SOCKET 5x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.66*20.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDC-TH_10P-P2_54</t>
+  </si>
+  <si>
+    <t>6611600009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-JN254-2-10-W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简牛座;2.54mm;2x10P;3A;弯插;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONN SOCKET 10x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDC-Socket-Male-20pin-Angled</t>
+  </si>
+  <si>
+    <t>3015170003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS36CA-0.6 250gf 031</t>
+  </si>
+  <si>
+    <t>轻触按键;4pin;侧卧;3.55*7.7*H3.5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOU HAN(首韩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tact_switchside_sticker3x6x3_5</t>
+  </si>
+  <si>
+    <t>3.55*7.7*H3.5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCIE母座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.2; hight=3mm;B-Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS0BC21-S30BB-7H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOXCONN(富士康)</t>
+  </si>
+  <si>
+    <t>21.9*7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.2-BKey</t>
+  </si>
+  <si>
+    <t>3015900003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS0BC21-S30BB-7H</t>
+  </si>
+  <si>
+    <t>1311390000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402JRNPO9BN390</t>
+  </si>
+  <si>
+    <t>CAP CER NOP;39pF;+/-5%;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1511100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESD5451N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVS二极管;Vrwm=±5V;Vbr=5.1V;Cj=17.5pF;DFN1006-2L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESD5451N-2/TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311227001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP T-ELE;220uF;+/-20%;6.3V;3.5x2.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLJB227M006R0500</t>
+  </si>
+  <si>
+    <t>case-b-3528</t>
+  </si>
+  <si>
+    <t>1311107002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126RV0055</t>
+  </si>
+  <si>
+    <t>CAP ELE;100uF;+/-20%;16V;6.3x4.5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP6345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311227002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP ELE;220uF;+/-20%;6.3V;6.3x4.5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189RV184</t>
+  </si>
+  <si>
+    <t>6.3x4.5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402FRNPO9BN180</t>
+  </si>
+  <si>
+    <t>CAP CER NPO;18pF;+/-1%;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311180000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402CRNPO9BN8R2</t>
+  </si>
+  <si>
+    <t>1311082000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER NP0;8.2pF;+/-0.25pF;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402CRNPO9BN6R8</t>
+  </si>
+  <si>
+    <t>6.8pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER NP0;6.8pF;+/-0.25pF;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311068000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402CRNPO9BN3R3</t>
+  </si>
+  <si>
+    <t>CAP CER NP0;3.3pF;+/-0.25pF;50V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311033000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6611600010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6611600011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6611600012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-RJ45-5JA-1-5-L</t>
+  </si>
+  <si>
+    <t>HC-RJ45-5JA-2-5-Y</t>
+  </si>
+  <si>
+    <t>RJ45-Portx2</t>
+  </si>
+  <si>
+    <t>RJ45-Portx4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-RJ45-5JA-4-5</t>
+  </si>
+  <si>
+    <t>网口母座;安装方式:弯插;屏蔽:无;LED:有端口数量:4;63.4*15.1*13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网口母座;安装方式:弯插;屏蔽:无;LED:有端口数量:2;31.6*15.1*13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网口母座;安装方式:弯插;屏蔽:无;LED:有端口数量:1;15.9*15.1*13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rj45-portx2</t>
+  </si>
+  <si>
+    <t>rj45-portx4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.6*15.1*13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTL8226B/8221B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2083000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QG4850S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 BASE-T MAGNETICS MODULES;双口;27.8*15.24*7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkTransformer-x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2083000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4801S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5G BASE-T MAGNETICS MODULES;双口;27.8*15.24*7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2083000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2406S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 BASE-T MAGNETICS MODULES;单口;15*10*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkTransformer-x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311102003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X7R;1nF;+/-10%;2KV;1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC1206KKX7RDBB102</t>
+  </si>
+  <si>
+    <t>C1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6611600013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-ST-003-01-J</t>
+  </si>
+  <si>
+    <t>USB插件母座;Type-A;USB 3.0;弯插;1.5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB30-10PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6611600014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB插件母座;Type-A;USB 2.0;弯插;1.5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOU HAN(首韩)</t>
+  </si>
+  <si>
+    <t>USB20-6PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF 90° WJDG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF-90-WJDG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-ST-003-01-J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3015180003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-USB30-C34-P</t>
+  </si>
+  <si>
+    <t>HC-USB30-C34-P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-USB3.0-C34-P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC(虹成电子)</t>
+  </si>
+  <si>
+    <t>USB30-13PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB-A连接器;13pin;pitch 1mm;14.2*15.5*5.7mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.2*15.5*5.7mm</t>
+  </si>
+  <si>
+    <t>U-A-24DS-W-1</t>
+  </si>
+  <si>
+    <t>3015180004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-A-24DS-W-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB-A连接器;8pin;pitch 2.5mm;14.2*15.5*5.7mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国韩荣</t>
+  </si>
+  <si>
+    <t>USB20-8PIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7719,7 +8253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7749,14 +8283,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF4E4E4E"/>
       <name val="Arial"/>
@@ -7783,7 +8309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7796,12 +8322,152 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8077,11 +8743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8565,22 +9231,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>332</v>
@@ -8851,22 +9517,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>332</v>
@@ -9033,22 +9699,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>1901</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1902</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G37" t="s">
         <v>332</v>
@@ -9189,22 +9855,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G43" t="s">
         <v>91</v>
@@ -9241,22 +9907,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1164</v>
+        <v>1994</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1163</v>
+        <v>1993</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1170</v>
+        <v>1995</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1165</v>
+        <v>1996</v>
       </c>
       <c r="G45" t="s">
         <v>91</v>
@@ -9267,22 +9933,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1317</v>
+        <v>1164</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1315</v>
+        <v>1163</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1316</v>
+        <v>1170</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1318</v>
+        <v>1165</v>
       </c>
       <c r="G46" t="s">
         <v>91</v>
@@ -9293,22 +9959,22 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1400</v>
+        <v>1317</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1399</v>
+        <v>1315</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1401</v>
+        <v>1316</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1402</v>
+        <v>1318</v>
       </c>
       <c r="G47" t="s">
         <v>91</v>
@@ -9319,25 +9985,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>411</v>
+        <v>1400</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>407</v>
+        <v>1399</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>409</v>
+        <v>1401</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>413</v>
+        <v>1402</v>
       </c>
       <c r="G48" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>339</v>
@@ -9345,25 +10011,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1596</v>
+        <v>411</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1595</v>
+        <v>407</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1597</v>
+        <v>409</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>1599</v>
+        <v>413</v>
+      </c>
+      <c r="G49" t="s">
+        <v>332</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>339</v>
@@ -9371,25 +10037,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>294</v>
+        <v>1596</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>292</v>
+        <v>1595</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>362</v>
+        <v>1597</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G50" t="s">
-        <v>91</v>
+        <v>1598</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1599</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>339</v>
@@ -9397,25 +10063,25 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>645</v>
+        <v>294</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>644</v>
+        <v>292</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>643</v>
+        <v>362</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>642</v>
+        <v>293</v>
       </c>
       <c r="G51" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>339</v>
@@ -9423,7 +10089,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1645</v>
+        <v>645</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
@@ -9432,16 +10098,16 @@
         <v>644</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1096</v>
+        <v>643</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1097</v>
+        <v>642</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>339</v>
@@ -9449,22 +10115,22 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1697</v>
+        <v>1645</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1698</v>
+        <v>644</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1699</v>
+        <v>1096</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1700</v>
+        <v>1097</v>
       </c>
       <c r="G53" t="s">
         <v>91</v>
@@ -9475,25 +10141,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1866</v>
+        <v>1697</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1867</v>
+        <v>1698</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1868</v>
+        <v>1699</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1869</v>
+        <v>1700</v>
       </c>
       <c r="G54" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>339</v>
@@ -9501,25 +10167,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1346</v>
+        <v>1865</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1345</v>
+        <v>1866</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1347</v>
+        <v>1867</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1344</v>
+        <v>1868</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>339</v>
@@ -9527,22 +10193,22 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>357</v>
+        <v>1346</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>356</v>
+        <v>1345</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>359</v>
+        <v>1347</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>355</v>
+        <v>1344</v>
       </c>
       <c r="G56" t="s">
         <v>19</v>
@@ -9553,7 +10219,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
@@ -9562,16 +10228,16 @@
         <v>356</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>332</v>
+        <v>355</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>339</v>
@@ -9579,25 +10245,25 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>901</v>
+        <v>361</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>902</v>
+        <v>360</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
+        <v>358</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>339</v>
@@ -9605,22 +10271,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1689</v>
+        <v>901</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1690</v>
+        <v>353</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1691</v>
+        <v>902</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1692</v>
+        <v>900</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -9631,25 +10297,25 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>414</v>
+        <v>1689</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>415</v>
+        <v>1690</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>417</v>
+        <v>1691</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>416</v>
+        <v>1692</v>
       </c>
       <c r="G60" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>339</v>
@@ -9657,25 +10323,25 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>1030</v>
+        <v>414</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>646</v>
+        <v>415</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1029</v>
+        <v>417</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1028</v>
+        <v>416</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>339</v>
@@ -9683,7 +10349,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1466</v>
+        <v>1030</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
@@ -9692,16 +10358,16 @@
         <v>646</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1467</v>
+        <v>1029</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>332</v>
+        <v>1028</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>339</v>
@@ -9709,25 +10375,25 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>180</v>
+        <v>1466</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>277</v>
+        <v>646</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>179</v>
+        <v>1467</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G63" t="s">
-        <v>91</v>
+        <v>1468</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>339</v>
@@ -9735,22 +10401,22 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>1297</v>
+        <v>180</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1295</v>
+        <v>277</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1296</v>
+        <v>179</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1294</v>
+        <v>178</v>
       </c>
       <c r="G64" t="s">
         <v>91</v>
@@ -9761,22 +10427,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1167</v>
+        <v>1297</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1166</v>
+        <v>1295</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1168</v>
+        <v>1296</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1169</v>
+        <v>1294</v>
       </c>
       <c r="G65" t="s">
         <v>91</v>
@@ -9787,25 +10453,25 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>482</v>
+        <v>1167</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>481</v>
+        <v>1166</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>799</v>
+        <v>1168</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>483</v>
+        <v>1169</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>339</v>
@@ -9813,22 +10479,22 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1536</v>
+        <v>482</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1533</v>
+        <v>481</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1534</v>
+        <v>799</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1535</v>
+        <v>483</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -9839,22 +10505,22 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>960</v>
+        <v>1536</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>961</v>
+        <v>1533</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>962</v>
+        <v>1534</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>959</v>
+        <v>1535</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
@@ -9865,22 +10531,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>1702</v>
+        <v>960</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1701</v>
+        <v>961</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1704</v>
+        <v>962</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1705</v>
+        <v>959</v>
       </c>
       <c r="G69" t="s">
         <v>19</v>
@@ -9891,22 +10557,22 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1386</v>
+        <v>1701</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1387</v>
+        <v>1704</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1388</v>
+        <v>1705</v>
       </c>
       <c r="G70" t="s">
         <v>19</v>
@@ -9917,22 +10583,22 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>791</v>
+        <v>1703</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>789</v>
+        <v>1386</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>790</v>
+        <v>1387</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>779</v>
+        <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>788</v>
+        <v>1388</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -9943,7 +10609,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1947</v>
+        <v>791</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
@@ -9952,16 +10618,16 @@
         <v>789</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1946</v>
+        <v>790</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1945</v>
+        <v>788</v>
       </c>
       <c r="G72" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>339</v>
@@ -9969,24 +10635,24 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1907</v>
+        <v>1946</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1905</v>
+        <v>789</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1908</v>
+        <v>1945</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1906</v>
-      </c>
-      <c r="G73" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G73" t="s">
         <v>332</v>
       </c>
       <c r="I73" s="1" t="s">
@@ -9995,25 +10661,25 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1942</v>
+        <v>1906</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1943</v>
+        <v>1907</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1944</v>
+        <v>1905</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>339</v>
@@ -10021,24 +10687,24 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1721</v>
+        <v>1941</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1719</v>
+        <v>1904</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1720</v>
+        <v>1942</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="G75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -10047,25 +10713,25 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1525</v>
+        <v>1721</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1524</v>
+        <v>1719</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1526</v>
+        <v>1720</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1523</v>
+        <v>1722</v>
       </c>
       <c r="G76" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>339</v>
@@ -10073,25 +10739,25 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>1525</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>272</v>
+        <v>1524</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>834</v>
+        <v>1526</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>701</v>
+        <v>1523</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>339</v>
@@ -10099,7 +10765,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>699</v>
+        <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
@@ -10108,16 +10774,16 @@
         <v>272</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G78" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>339</v>
@@ -10125,25 +10791,25 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1078</v>
+        <v>699</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1079</v>
+        <v>272</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1173</v>
+        <v>835</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1080</v>
+        <v>700</v>
       </c>
       <c r="G79" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>339</v>
@@ -10151,22 +10817,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>1530</v>
+        <v>1078</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1529</v>
+        <v>1079</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1531</v>
+        <v>1173</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1532</v>
+        <v>1080</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -10177,22 +10843,22 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1172</v>
+        <v>1530</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1171</v>
+        <v>1529</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1174</v>
+        <v>1531</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1175</v>
+        <v>1532</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
@@ -10203,22 +10869,22 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>1056</v>
+        <v>1172</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1052</v>
+        <v>1171</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1053</v>
+        <v>1174</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1054</v>
+        <v>1175</v>
       </c>
       <c r="G82" t="s">
         <v>19</v>
@@ -10229,22 +10895,22 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>1546</v>
+        <v>1056</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1545</v>
+        <v>1052</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1547</v>
+        <v>1053</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1548</v>
+        <v>1054</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -10255,25 +10921,25 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>410</v>
+        <v>1546</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>406</v>
+        <v>1545</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>408</v>
+        <v>1547</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>412</v>
+        <v>1548</v>
       </c>
       <c r="G84" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>339</v>
@@ -10281,22 +10947,22 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>471</v>
+        <v>408</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="G85" t="s">
         <v>332</v>
@@ -10307,7 +10973,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
@@ -10316,16 +10982,16 @@
         <v>470</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>339</v>
@@ -10333,25 +10999,25 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="G87" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>339</v>
@@ -10359,25 +11025,25 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>1089</v>
+        <v>430</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1090</v>
+        <v>432</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1091</v>
+        <v>433</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1092</v>
+        <v>434</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>339</v>
@@ -10385,22 +11051,22 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>1443</v>
+        <v>1089</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1441</v>
+        <v>1090</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1444</v>
+        <v>1091</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1442</v>
+        <v>1092</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
@@ -10411,22 +11077,22 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>163</v>
+        <v>1443</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>273</v>
+        <v>1441</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>133</v>
+        <v>1444</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>162</v>
+        <v>1442</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
@@ -10437,22 +11103,22 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>363</v>
+        <v>162</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -10463,7 +11129,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
@@ -10472,16 +11138,16 @@
         <v>364</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>332</v>
+        <v>363</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>339</v>
@@ -10489,7 +11155,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>1098</v>
+        <v>368</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
@@ -10498,16 +11164,16 @@
         <v>364</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1099</v>
+        <v>365</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
+        <v>366</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>339</v>
@@ -10515,22 +11181,22 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>1098</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>154</v>
+        <v>1099</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>152</v>
+        <v>1100</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
@@ -10541,22 +11207,22 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -10567,7 +11233,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>452</v>
+        <v>157</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
@@ -10576,16 +11242,16 @@
         <v>275</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>453</v>
+        <v>156</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
       <c r="G96" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>339</v>
@@ -10593,25 +11259,25 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>1032</v>
+        <v>452</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1031</v>
+        <v>275</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1046</v>
+        <v>453</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1033</v>
+        <v>454</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>339</v>
@@ -10619,7 +11285,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1457</v>
+        <v>1032</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
@@ -10628,16 +11294,16 @@
         <v>1031</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1458</v>
+        <v>1046</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1459</v>
+        <v>1033</v>
       </c>
       <c r="G98" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>339</v>
@@ -10645,25 +11311,25 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1044</v>
+        <v>1457</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1045</v>
+        <v>1458</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1042</v>
+        <v>1459</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>339</v>
@@ -10671,7 +11337,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>1460</v>
+        <v>1044</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
@@ -10680,16 +11346,16 @@
         <v>1043</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1461</v>
+        <v>1045</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1462</v>
+        <v>1042</v>
       </c>
       <c r="G100" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>339</v>
@@ -10697,22 +11363,22 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>946</v>
+        <v>1460</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>947</v>
+        <v>1043</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>948</v>
+        <v>1461</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>949</v>
+        <v>1462</v>
       </c>
       <c r="G101" t="s">
         <v>332</v>
@@ -10723,25 +11389,25 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>1291</v>
+        <v>946</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1292</v>
+        <v>947</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1293</v>
+        <v>948</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>19</v>
+        <v>949</v>
+      </c>
+      <c r="G102" t="s">
+        <v>332</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>339</v>
@@ -10749,24 +11415,24 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>1160</v>
+        <v>1291</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1159</v>
+        <v>1292</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1162</v>
+        <v>1293</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G103" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I103" s="1" t="s">
@@ -10775,22 +11441,22 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1584</v>
+        <v>1160</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1585</v>
+        <v>1159</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1586</v>
+        <v>1162</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1587</v>
+        <v>1161</v>
       </c>
       <c r="G104" t="s">
         <v>19</v>
@@ -10801,22 +11467,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1693</v>
+        <v>1584</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1694</v>
+        <v>1585</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1695</v>
+        <v>1586</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1696</v>
+        <v>1587</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
@@ -10827,22 +11493,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1479</v>
+        <v>1693</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1478</v>
+        <v>1694</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1480</v>
+        <v>1695</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1481</v>
+        <v>1696</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -10853,25 +11519,25 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>681</v>
+        <v>1479</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>680</v>
+        <v>1478</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>679</v>
+        <v>1480</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>678</v>
+        <v>1481</v>
       </c>
       <c r="G107" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>339</v>
@@ -10879,22 +11545,22 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="G108" t="s">
         <v>332</v>
@@ -10905,25 +11571,25 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>610</v>
+        <v>687</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="G109" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>339</v>
@@ -10931,25 +11597,25 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>402</v>
+        <v>608</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>401</v>
+        <v>609</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>404</v>
+        <v>610</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>403</v>
+        <v>611</v>
       </c>
       <c r="G110" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>339</v>
@@ -10957,24 +11623,24 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G111" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G111" t="s">
         <v>332</v>
       </c>
       <c r="I111" s="1" t="s">
@@ -10983,7 +11649,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
@@ -10992,16 +11658,16 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
+        <v>328</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>339</v>
@@ -11009,22 +11675,22 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>1156</v>
+        <v>338</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1155</v>
+        <v>330</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1158</v>
+        <v>337</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1157</v>
+        <v>1084</v>
       </c>
       <c r="G113" t="s">
         <v>19</v>
@@ -11035,22 +11701,22 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>1715</v>
+        <v>1156</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1716</v>
+        <v>1155</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1717</v>
+        <v>1158</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1718</v>
+        <v>1157</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -11061,25 +11727,25 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>1829</v>
+        <v>1715</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1828</v>
+        <v>1716</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1830</v>
+        <v>1717</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>332</v>
+        <v>1718</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>339</v>
@@ -11087,25 +11753,25 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>1081</v>
+        <v>1829</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1082</v>
+        <v>1828</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1083</v>
+        <v>1830</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
+        <v>1831</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>339</v>
@@ -11113,13 +11779,13 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>1687</v>
+        <v>1081</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1686</v>
+        <v>1082</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>1083</v>
@@ -11128,7 +11794,7 @@
         <v>12</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1688</v>
+        <v>1085</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -11139,25 +11805,25 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1898</v>
+        <v>1687</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1897</v>
+        <v>1686</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1899</v>
+        <v>1083</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1900</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>332</v>
+        <v>1688</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>339</v>
@@ -11165,25 +11831,25 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1276</v>
+        <v>1897</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1275</v>
+        <v>1896</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1277</v>
+        <v>1898</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
+        <v>1899</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>339</v>
@@ -11191,22 +11857,22 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1105</v>
+        <v>1276</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1106</v>
+        <v>1275</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1107</v>
+        <v>1277</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1108</v>
+        <v>1278</v>
       </c>
       <c r="G120" t="s">
         <v>19</v>
@@ -11217,22 +11883,22 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>830</v>
+        <v>1105</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>829</v>
+        <v>1106</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>831</v>
+        <v>1107</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>828</v>
+        <v>1108</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -11243,22 +11909,22 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>1934</v>
+        <v>830</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1933</v>
+        <v>829</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1935</v>
+        <v>831</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1936</v>
+        <v>828</v>
       </c>
       <c r="G122" t="s">
         <v>19</v>
@@ -11269,22 +11935,22 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>1307</v>
+        <v>1933</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1306</v>
+        <v>1932</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1308</v>
+        <v>1934</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1309</v>
+        <v>1935</v>
       </c>
       <c r="G123" t="s">
         <v>19</v>
@@ -11295,22 +11961,22 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>624</v>
+        <v>1307</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>623</v>
+        <v>1306</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>622</v>
+        <v>1308</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>621</v>
+        <v>1309</v>
       </c>
       <c r="G124" t="s">
         <v>19</v>
@@ -11321,22 +11987,22 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>1392</v>
+        <v>624</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1391</v>
+        <v>623</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1393</v>
+        <v>622</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1394</v>
+        <v>621</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -11347,22 +12013,22 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>1392</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>271</v>
+        <v>1391</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>133</v>
+        <v>1393</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>131</v>
+        <v>1394</v>
       </c>
       <c r="G126" t="s">
         <v>19</v>
@@ -11373,22 +12039,22 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>1542</v>
+        <v>134</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1541</v>
+        <v>271</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1543</v>
+        <v>133</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1544</v>
+        <v>131</v>
       </c>
       <c r="G127" t="s">
         <v>19</v>
@@ -11399,25 +12065,25 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>692</v>
+        <v>1542</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>691</v>
+        <v>1541</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>690</v>
+        <v>1543</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>697</v>
+        <v>1544</v>
       </c>
       <c r="G128" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>339</v>
@@ -11425,25 +12091,25 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>1055</v>
+        <v>692</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1057</v>
+        <v>691</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1058</v>
+        <v>690</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1059</v>
+        <v>697</v>
       </c>
       <c r="G129" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>339</v>
@@ -11451,25 +12117,25 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>400</v>
+        <v>1055</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>399</v>
+        <v>1057</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>405</v>
+        <v>1058</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>403</v>
+        <v>1059</v>
       </c>
       <c r="G130" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>339</v>
@@ -11477,22 +12143,22 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>696</v>
+        <v>400</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>695</v>
+        <v>399</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>694</v>
+        <v>405</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>693</v>
+        <v>403</v>
       </c>
       <c r="G131" t="s">
         <v>332</v>
@@ -11503,27 +12169,53 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G132" t="s">
+        <v>332</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="I133" s="1" t="s">
         <v>1665</v>
       </c>
     </row>
@@ -11534,6 +12226,9 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11544,7 +12239,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11850,7 +12545,7 @@
         <v>979</v>
       </c>
       <c r="I11" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -11907,22 +12602,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B14" t="s">
         <v>1744</v>
       </c>
       <c r="C14" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D14" t="s">
         <v>1910</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1911</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G14" t="s">
         <v>685</v>
@@ -11933,22 +12628,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B15" t="s">
         <v>1744</v>
       </c>
       <c r="C15" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D15" t="s">
         <v>1913</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1914</v>
       </c>
       <c r="E15" t="s">
         <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="G15" t="s">
         <v>685</v>
@@ -11959,28 +12654,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B16" t="s">
         <v>1744</v>
       </c>
       <c r="C16" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D16" t="s">
         <v>1917</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1918</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="G16" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="I16" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -12237,7 +12932,7 @@
         <v>515</v>
       </c>
       <c r="F26" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="G26" t="s">
         <v>1203</v>
@@ -12326,13 +13021,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B30" t="s">
         <v>1611</v>
       </c>
       <c r="C30" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D30" t="s">
         <v>1202</v>
@@ -12341,13 +13036,13 @@
         <v>515</v>
       </c>
       <c r="F30" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G30" t="s">
         <v>1925</v>
       </c>
-      <c r="G30" t="s">
-        <v>1926</v>
-      </c>
       <c r="I30" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -12461,6 +13156,9 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12468,10 +13166,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013733C5-3D86-4F9A-8E9B-0FC55B649E0F}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12625,32 +13323,61 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>1609</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>1603</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>1604</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>1608</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>1605</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>1604</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>1606</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>1607</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12659,8 +13386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15246D15-200D-4616-89B7-7BD049663799}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12971,7 +13698,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1512</v>
+        <v>2000</v>
       </c>
       <c r="B11" t="s">
         <v>376</v>
@@ -13000,7 +13727,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B12" t="s">
         <v>376</v>
@@ -13009,7 +13736,7 @@
         <v>1554</v>
       </c>
       <c r="D12" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E12" t="s">
         <v>1221</v>
@@ -13029,7 +13756,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B13" t="s">
         <v>376</v>
@@ -13038,13 +13765,13 @@
         <v>1549</v>
       </c>
       <c r="D13" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E13" t="s">
         <v>1221</v>
       </c>
       <c r="F13" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G13" t="s">
         <v>1223</v>
@@ -13179,6 +13906,10 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13186,10 +13917,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC4AD67-C776-4093-88E2-79BBC414D956}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13483,7 +14214,7 @@
       <c r="D11" t="s">
         <v>1724</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F11" t="s">
@@ -13940,160 +14671,238 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1773</v>
+        <v>2082</v>
       </c>
       <c r="B29" t="s">
-        <v>1772</v>
+        <v>1269</v>
       </c>
       <c r="C29" t="s">
-        <v>1775</v>
+        <v>2083</v>
       </c>
       <c r="D29" t="s">
-        <v>1785</v>
+        <v>2088</v>
       </c>
       <c r="E29" t="s">
-        <v>1776</v>
+        <v>1272</v>
       </c>
       <c r="F29" t="s">
-        <v>1783</v>
+        <v>2083</v>
       </c>
       <c r="G29" t="s">
-        <v>1778</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1786</v>
+        <v>2083</v>
       </c>
       <c r="I29" t="s">
-        <v>1779</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1774</v>
+        <v>2086</v>
       </c>
       <c r="B30" t="s">
-        <v>1772</v>
+        <v>1269</v>
       </c>
       <c r="C30" t="s">
-        <v>1781</v>
+        <v>2087</v>
       </c>
       <c r="D30" t="s">
-        <v>1784</v>
+        <v>2084</v>
       </c>
       <c r="E30" t="s">
-        <v>1776</v>
+        <v>1272</v>
       </c>
       <c r="F30" t="s">
-        <v>1782</v>
+        <v>2087</v>
       </c>
       <c r="G30" t="s">
-        <v>1777</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1786</v>
+        <v>2083</v>
       </c>
       <c r="I30" t="s">
-        <v>1780</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1788</v>
+        <v>2089</v>
       </c>
       <c r="B31" t="s">
-        <v>1787</v>
+        <v>1269</v>
       </c>
       <c r="C31" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>1795</v>
+        <v>2090</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2091</v>
       </c>
       <c r="E31" t="s">
-        <v>1794</v>
+        <v>1272</v>
       </c>
       <c r="F31" t="s">
-        <v>1790</v>
+        <v>2090</v>
       </c>
       <c r="G31" t="s">
-        <v>1793</v>
+        <v>2090</v>
       </c>
       <c r="I31" t="s">
-        <v>1792</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1789</v>
+        <v>1773</v>
       </c>
       <c r="B32" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
       <c r="C32" t="s">
-        <v>1796</v>
+        <v>1775</v>
       </c>
       <c r="D32" t="s">
-        <v>1797</v>
+        <v>1785</v>
       </c>
       <c r="E32" t="s">
-        <v>1794</v>
+        <v>1776</v>
       </c>
       <c r="F32" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="G32" t="s">
-        <v>1793</v>
+        <v>1778</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1786</v>
       </c>
       <c r="I32" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1799</v>
+        <v>1774</v>
       </c>
       <c r="B33" t="s">
-        <v>1798</v>
+        <v>1772</v>
       </c>
       <c r="C33" t="s">
-        <v>1800</v>
+        <v>1781</v>
       </c>
       <c r="D33" t="s">
-        <v>1803</v>
+        <v>1784</v>
       </c>
       <c r="E33" t="s">
-        <v>1801</v>
+        <v>1776</v>
       </c>
       <c r="F33" t="s">
-        <v>1802</v>
+        <v>1782</v>
       </c>
       <c r="G33" t="s">
-        <v>1804</v>
+        <v>1777</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1786</v>
       </c>
       <c r="I33" t="s">
-        <v>1802</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1885</v>
+        <v>1788</v>
       </c>
       <c r="B34" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1791</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B36" t="s">
         <v>1798</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1804</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="E34" t="s">
+      <c r="B37" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E37" t="s">
         <v>1801</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F37" t="s">
         <v>1802</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G37" t="s">
         <v>1804</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I37" t="s">
         <v>1802</v>
       </c>
     </row>
@@ -14104,6 +14913,9 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14111,11 +14923,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB78C2-2208-4DF0-8ABB-0CE48BD26296}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14165,22 +14977,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D2" t="s">
         <v>1892</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1893</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="G2" t="s">
         <v>325</v>
@@ -14200,7 +15012,7 @@
         <v>1823</v>
       </c>
       <c r="D3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>188</v>
@@ -14269,22 +15081,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G6" t="s">
         <v>325</v>
@@ -14295,22 +15107,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D7" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G7" t="s">
         <v>325</v>
@@ -14347,22 +15159,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D9" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G9" t="s">
         <v>325</v>
@@ -14399,25 +15211,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1874</v>
+        <v>2066</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>1873</v>
+        <v>2065</v>
       </c>
       <c r="D11" t="s">
-        <v>1875</v>
+        <v>2064</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>1876</v>
+        <v>2063</v>
       </c>
       <c r="G11" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -14425,25 +15237,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1644</v>
+        <v>1873</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>1872</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>1874</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>1875</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
@@ -14451,22 +15263,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1643</v>
+        <v>2062</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>2060</v>
       </c>
       <c r="D13" t="s">
-        <v>1578</v>
+        <v>2061</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>1577</v>
+        <v>2059</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -14477,25 +15289,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1825</v>
+        <v>2057</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>2055</v>
       </c>
       <c r="D14" t="s">
-        <v>1827</v>
+        <v>2058</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>1826</v>
+        <v>2056</v>
       </c>
       <c r="G14" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
@@ -14503,22 +15315,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>1644</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>786</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>787</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>785</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -14529,25 +15341,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1870</v>
+        <v>1643</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>786</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>1871</v>
+        <v>1578</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>1872</v>
+        <v>1577</v>
       </c>
       <c r="G16" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
@@ -14555,25 +15367,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>174</v>
+        <v>1825</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>1827</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>1826</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
@@ -14581,25 +15393,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>655</v>
+        <v>2031</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>2032</v>
       </c>
       <c r="D18" t="s">
-        <v>654</v>
+        <v>2034</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>653</v>
+        <v>2033</v>
       </c>
       <c r="G18" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
@@ -14607,25 +15419,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>655</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>786</v>
       </c>
       <c r="D19" t="s">
-        <v>1290</v>
+        <v>787</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>1288</v>
+        <v>785</v>
       </c>
       <c r="G19" t="s">
-        <v>1289</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
@@ -14633,25 +15445,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1268</v>
+        <v>1869</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>1267</v>
+        <v>786</v>
       </c>
       <c r="D20" t="s">
-        <v>1266</v>
+        <v>1870</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>1265</v>
+        <v>1871</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -14659,22 +15471,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -14685,22 +15497,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>327</v>
+        <v>655</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>326</v>
+        <v>654</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>324</v>
+        <v>653</v>
       </c>
       <c r="G22" t="s">
         <v>325</v>
@@ -14711,25 +15523,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>194</v>
+        <v>2001</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>1290</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>1288</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>1289</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
@@ -14737,25 +15549,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1487</v>
+        <v>2093</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>973</v>
+        <v>2094</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>974</v>
+        <v>2095</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>2096</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -14763,25 +15575,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1488</v>
+        <v>1268</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>1267</v>
       </c>
       <c r="D25" t="s">
-        <v>1490</v>
+        <v>1266</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>1489</v>
+        <v>1265</v>
       </c>
       <c r="G25" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -14789,25 +15601,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1881</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>1882</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>1883</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
@@ -14815,25 +15627,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>324</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
@@ -14841,25 +15653,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>812</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s">
-        <v>813</v>
+        <v>193</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>811</v>
+        <v>192</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
@@ -14867,83 +15679,77 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>817</v>
+        <v>1487</v>
       </c>
       <c r="B29" t="s">
-        <v>814</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>818</v>
+        <v>279</v>
       </c>
       <c r="D29" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E29" t="s">
-        <v>816</v>
+        <v>973</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>815</v>
+        <v>974</v>
       </c>
       <c r="G29" t="s">
-        <v>819</v>
-      </c>
-      <c r="H29" t="s">
-        <v>821</v>
+        <v>120</v>
       </c>
       <c r="I29" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1122</v>
+        <v>1488</v>
       </c>
       <c r="B30" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>818</v>
+        <v>279</v>
       </c>
       <c r="D30" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1124</v>
+        <v>1490</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>1125</v>
+        <v>1489</v>
       </c>
       <c r="G30" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1116</v>
+        <v>325</v>
       </c>
       <c r="I30" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1254</v>
+        <v>1880</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>1253</v>
+        <v>279</v>
       </c>
       <c r="D31" t="s">
-        <v>1256</v>
+        <v>1881</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>1255</v>
+        <v>1882</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I31" t="s">
         <v>20</v>
@@ -14951,22 +15757,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>349</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="D32" t="s">
-        <v>1258</v>
+        <v>204</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>1257</v>
+        <v>203</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -14977,25 +15783,25 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>419</v>
+        <v>812</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>418</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>1260</v>
+        <v>813</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>1259</v>
+        <v>811</v>
       </c>
       <c r="G33" t="s">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="I33" t="s">
         <v>20</v>
@@ -15003,100 +15809,109 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>889</v>
+        <v>817</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>814</v>
       </c>
       <c r="C34" t="s">
-        <v>418</v>
+        <v>818</v>
       </c>
       <c r="D34" t="s">
-        <v>1445</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>1111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>816</v>
       </c>
       <c r="F34" t="s">
-        <v>890</v>
+        <v>815</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>819</v>
+      </c>
+      <c r="H34" t="s">
+        <v>821</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>197</v>
+        <v>1122</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>818</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>1123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1124</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>1125</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>1118</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1116</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1093</v>
+        <v>2043</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>814</v>
       </c>
       <c r="C36" t="s">
-        <v>1094</v>
+        <v>818</v>
       </c>
       <c r="D36" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
+        <v>2045</v>
+      </c>
+      <c r="E36" t="s">
+        <v>816</v>
       </c>
       <c r="F36" t="s">
-        <v>1095</v>
+        <v>2044</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>2046</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2050</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>167</v>
+        <v>1254</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>1253</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>1256</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>1255</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
@@ -15107,25 +15922,25 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1491</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>348</v>
       </c>
       <c r="D38" t="s">
-        <v>1492</v>
+        <v>1258</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>1493</v>
+        <v>1257</v>
       </c>
       <c r="G38" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
@@ -15133,25 +15948,25 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1132</v>
+        <v>2054</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>1133</v>
+        <v>2053</v>
       </c>
       <c r="D39" t="s">
-        <v>1590</v>
+        <v>2052</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>1589</v>
+        <v>2051</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
@@ -15159,25 +15974,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1389</v>
+        <v>419</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>1133</v>
+        <v>418</v>
       </c>
       <c r="D40" t="s">
-        <v>1390</v>
+        <v>1260</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>1588</v>
+        <v>1259</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -15185,22 +16000,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>170</v>
+        <v>889</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>280</v>
+        <v>418</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>1445</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>890</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
@@ -15211,25 +16026,25 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1600</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>1602</v>
+        <v>196</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>1601</v>
+        <v>195</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
@@ -15237,25 +16052,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1920</v>
+        <v>1093</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>1094</v>
       </c>
       <c r="D43" t="s">
-        <v>1921</v>
+        <v>1446</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>1922</v>
+        <v>1095</v>
       </c>
       <c r="G43" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
         <v>20</v>
@@ -15263,25 +16078,25 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>542</v>
+        <v>165</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>551</v>
+        <v>164</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I44" t="s">
         <v>20</v>
@@ -15289,25 +16104,25 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1119</v>
+        <v>1491</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>1120</v>
+        <v>1492</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>1121</v>
+        <v>1493</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="I45" t="s">
         <v>20</v>
@@ -15315,25 +16130,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1438</v>
+        <v>1132</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>281</v>
+        <v>1133</v>
       </c>
       <c r="D46" t="s">
-        <v>1440</v>
+        <v>1590</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>1439</v>
+        <v>1589</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I46" t="s">
         <v>20</v>
@@ -15341,51 +16156,48 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1151</v>
+        <v>1389</v>
       </c>
       <c r="B47" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="D47" t="s">
-        <v>1152</v>
+        <v>1390</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1153</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>1154</v>
+        <v>1588</v>
       </c>
       <c r="G47" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1116</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>158</v>
+      <c r="F48" t="s">
+        <v>168</v>
       </c>
       <c r="G48" t="s">
         <v>18</v>
@@ -15396,25 +16208,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>981</v>
+        <v>1600</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>982</v>
+        <v>280</v>
       </c>
       <c r="D49" t="s">
-        <v>983</v>
+        <v>1602</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>985</v>
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1601</v>
       </c>
       <c r="G49" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s">
         <v>20</v>
@@ -15422,54 +16234,51 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1146</v>
+        <v>1919</v>
       </c>
       <c r="B50" t="s">
-        <v>1114</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>1147</v>
+        <v>280</v>
       </c>
       <c r="D50" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1117</v>
+        <v>1920</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>1149</v>
+        <v>1921</v>
       </c>
       <c r="G50" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1116</v>
+        <v>325</v>
       </c>
       <c r="I50" t="s">
-        <v>820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>542</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>551</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I51" t="s">
         <v>20</v>
@@ -15477,22 +16286,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>1119</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" t="s">
-        <v>70</v>
+        <v>1120</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>1121</v>
       </c>
       <c r="G52" t="s">
         <v>71</v>
@@ -15503,25 +16312,25 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1456</v>
+        <v>1438</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>1454</v>
+        <v>1440</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="G53" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
         <v>20</v>
@@ -15529,85 +16338,328 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>550</v>
+        <v>1151</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>1114</v>
       </c>
       <c r="C54" t="s">
-        <v>549</v>
+        <v>1150</v>
       </c>
       <c r="D54" t="s">
-        <v>553</v>
+        <v>1152</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>12</v>
+        <v>1153</v>
       </c>
       <c r="F54" t="s">
-        <v>552</v>
+        <v>1154</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>1118</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1116</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1112</v>
+        <v>2039</v>
       </c>
       <c r="B55" t="s">
         <v>1114</v>
       </c>
       <c r="C55" t="s">
-        <v>1110</v>
+        <v>1150</v>
       </c>
       <c r="D55" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1117</v>
+        <v>2040</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1153</v>
       </c>
       <c r="F55" t="s">
-        <v>1115</v>
+        <v>2041</v>
       </c>
       <c r="G55" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1116</v>
+        <v>2042</v>
       </c>
       <c r="I55" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>2047</v>
+      </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>814</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>1150</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E56" t="s">
+        <v>816</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2049</v>
+      </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>2046</v>
+      </c>
+      <c r="H56" t="s">
+        <v>2050</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B57" t="s">
         <v>17</v>
       </c>
       <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>982</v>
+      </c>
+      <c r="D58" t="s">
+        <v>983</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="G58" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I59" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>282</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G62" t="s">
+        <v>325</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>549</v>
+      </c>
+      <c r="D63" t="s">
+        <v>553</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>552</v>
+      </c>
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I64" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
         <v>90</v>
       </c>
-      <c r="G57" t="s">
+      <c r="E65" s="1"/>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
         <v>325</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I66" t="s">
         <v>20</v>
       </c>
     </row>
@@ -15618,6 +16670,9 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15625,10 +16680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C302E28E-61B5-45F2-9EED-9E658F066E8B}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15638,7 +16693,7 @@
     <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="133.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
@@ -15957,7 +17012,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1229</v>
+        <v>1980</v>
       </c>
       <c r="B12" t="s">
         <v>1227</v>
@@ -15986,136 +17041,197 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1242</v>
+        <v>1986</v>
       </c>
       <c r="B13" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="C13" t="s">
-        <v>1241</v>
+        <v>1981</v>
       </c>
       <c r="D13" t="s">
-        <v>1240</v>
+        <v>1985</v>
       </c>
       <c r="E13" t="s">
-        <v>1243</v>
+        <v>1982</v>
       </c>
       <c r="F13" t="s">
-        <v>1244</v>
+        <v>1983</v>
       </c>
       <c r="G13" t="s">
-        <v>1299</v>
+        <v>1984</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1199</v>
       </c>
       <c r="I13" t="s">
-        <v>1298</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1469</v>
+        <v>1987</v>
       </c>
       <c r="B14" t="s">
-        <v>1068</v>
+        <v>1227</v>
       </c>
       <c r="C14" t="s">
-        <v>1470</v>
+        <v>1988</v>
       </c>
       <c r="D14" t="s">
-        <v>1471</v>
+        <v>1989</v>
       </c>
       <c r="E14" t="s">
-        <v>1472</v>
+        <v>1734</v>
       </c>
       <c r="F14" t="s">
-        <v>1473</v>
+        <v>1988</v>
       </c>
       <c r="G14" t="s">
-        <v>1232</v>
+        <v>1992</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1991</v>
       </c>
       <c r="I14" t="s">
-        <v>1474</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1729</v>
+        <v>1242</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>1239</v>
       </c>
       <c r="C15" t="s">
-        <v>1730</v>
+        <v>1241</v>
       </c>
       <c r="D15" t="s">
-        <v>1742</v>
+        <v>1240</v>
       </c>
       <c r="E15" t="s">
-        <v>1734</v>
+        <v>1243</v>
       </c>
       <c r="F15" t="s">
-        <v>1730</v>
+        <v>1244</v>
       </c>
       <c r="G15" t="s">
-        <v>1754</v>
+        <v>1299</v>
       </c>
       <c r="I15" t="s">
-        <v>1735</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1732</v>
+        <v>1469</v>
       </c>
       <c r="B16" t="s">
-        <v>1731</v>
+        <v>1068</v>
       </c>
       <c r="C16" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1740</v>
+        <v>1470</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1471</v>
       </c>
       <c r="E16" t="s">
-        <v>1734</v>
+        <v>1472</v>
       </c>
       <c r="F16" t="s">
-        <v>1736</v>
+        <v>1473</v>
       </c>
       <c r="G16" t="s">
-        <v>1749</v>
+        <v>1232</v>
       </c>
       <c r="I16" t="s">
-        <v>1737</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="B17" t="s">
-        <v>1731</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>1739</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1741</v>
+        <v>1730</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1742</v>
       </c>
       <c r="E17" t="s">
         <v>1734</v>
       </c>
       <c r="F17" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C19" t="s">
         <v>1739</v>
       </c>
-      <c r="G17" t="s">
+      <c r="D19" s="6" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G19" t="s">
         <v>1749</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I19" t="s">
         <v>1738</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16126,7 +17242,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16278,6 +17394,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16285,11 +17404,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77DF9D1-733F-4622-A5B9-9F6937E4842B}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16301,7 +17420,7 @@
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17151,60 +18270,60 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C30" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G30" t="s">
         <v>1929</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>1953</v>
       </c>
-      <c r="E30" t="s">
-        <v>1932</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1929</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>1930</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1954</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C31" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D31" t="s">
         <v>1949</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I31" t="s">
         <v>1950</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1932</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1949</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1952</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -17586,214 +18705,330 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>219</v>
+        <v>2017</v>
+      </c>
+      <c r="B45" t="s">
+        <v>487</v>
       </c>
       <c r="C45" t="s">
-        <v>222</v>
+        <v>2018</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>2019</v>
       </c>
       <c r="E45" t="s">
-        <v>221</v>
+        <v>2020</v>
       </c>
       <c r="F45" t="s">
-        <v>222</v>
+        <v>2018</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>2021</v>
       </c>
       <c r="H45" t="s">
-        <v>224</v>
+        <v>2022</v>
       </c>
       <c r="I45" t="s">
-        <v>225</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>878</v>
+        <v>220</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>879</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>880</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
-        <v>881</v>
+        <v>221</v>
       </c>
       <c r="F46" t="s">
-        <v>879</v>
+        <v>222</v>
       </c>
       <c r="G46" t="s">
-        <v>879</v>
+        <v>222</v>
       </c>
       <c r="H46" t="s">
-        <v>882</v>
+        <v>224</v>
       </c>
       <c r="I46" t="s">
-        <v>879</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1300</v>
+        <v>878</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C47" t="s">
-        <v>1303</v>
+        <v>879</v>
       </c>
       <c r="D47" t="s">
-        <v>1302</v>
+        <v>880</v>
       </c>
       <c r="E47" t="s">
-        <v>940</v>
+        <v>881</v>
       </c>
       <c r="F47" t="s">
-        <v>1301</v>
+        <v>879</v>
       </c>
       <c r="G47" t="s">
-        <v>1303</v>
+        <v>879</v>
       </c>
       <c r="H47" t="s">
-        <v>1304</v>
+        <v>882</v>
       </c>
       <c r="I47" t="s">
-        <v>1305</v>
+        <v>879</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B48" t="s">
-        <v>945</v>
+        <v>1300</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C48" t="s">
-        <v>943</v>
+        <v>1303</v>
       </c>
       <c r="D48" t="s">
-        <v>941</v>
+        <v>1302</v>
       </c>
       <c r="E48" t="s">
         <v>940</v>
       </c>
       <c r="F48" t="s">
-        <v>939</v>
+        <v>1301</v>
       </c>
       <c r="G48" t="s">
-        <v>944</v>
+        <v>1303</v>
       </c>
       <c r="H48" t="s">
-        <v>942</v>
+        <v>1304</v>
       </c>
       <c r="I48" t="s">
-        <v>943</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1245</v>
+        <v>2109</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C49" t="s">
-        <v>1249</v>
+        <v>2111</v>
       </c>
       <c r="D49" t="s">
-        <v>1248</v>
+        <v>2115</v>
       </c>
       <c r="E49" t="s">
-        <v>1247</v>
+        <v>2113</v>
       </c>
       <c r="F49" t="s">
-        <v>1249</v>
+        <v>2112</v>
       </c>
       <c r="G49" t="s">
-        <v>1251</v>
+        <v>2110</v>
       </c>
       <c r="H49" t="s">
-        <v>1252</v>
+        <v>2116</v>
       </c>
       <c r="I49" t="s">
-        <v>1250</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1365</v>
+        <v>2118</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1704320001</v>
+        <v>219</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2117</v>
       </c>
       <c r="D50" t="s">
-        <v>1367</v>
+        <v>2120</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>2121</v>
       </c>
       <c r="F50" t="s">
-        <v>1366</v>
+        <v>2117</v>
       </c>
       <c r="G50" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1368</v>
+        <v>2119</v>
       </c>
       <c r="I50" t="s">
-        <v>1363</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B51" t="s">
+        <v>945</v>
+      </c>
+      <c r="C51" t="s">
+        <v>943</v>
+      </c>
+      <c r="D51" t="s">
+        <v>941</v>
+      </c>
+      <c r="E51" t="s">
+        <v>940</v>
+      </c>
+      <c r="F51" t="s">
+        <v>939</v>
+      </c>
+      <c r="G51" t="s">
+        <v>944</v>
+      </c>
+      <c r="H51" t="s">
+        <v>942</v>
+      </c>
+      <c r="I51" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1704320001</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H54" t="s">
+        <v>297</v>
+      </c>
+      <c r="I54" t="s">
         <v>1835</v>
       </c>
-      <c r="C51" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1839</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1840</v>
-      </c>
-      <c r="H51" t="s">
-        <v>297</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1836</v>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H55" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J45" xr:uid="{F77DF9D1-733F-4622-A5B9-9F6937E4842B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J45">
-      <sortCondition ref="A1:A45"/>
+  <autoFilter ref="A1:J46" xr:uid="{F77DF9D1-733F-4622-A5B9-9F6937E4842B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J46">
+      <sortCondition ref="A1:A46"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17801,10 +19036,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61606E71-114A-4060-B4DA-26AC2BA8C44E}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17815,7 +19050,7 @@
     <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18056,38 +19291,232 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B9" t="s">
         <v>258</v>
       </c>
       <c r="C9" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E9" t="s">
         <v>1971</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H9" t="s">
         <v>1974</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>1972</v>
       </c>
-      <c r="F9" t="s">
-        <v>1970</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1975</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1973</v>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2010</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="7"/>
+      <c r="A11" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2010</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2080</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2079</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2107</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2105</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -18098,7 +19527,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18617,7 +20046,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1142</v>
+        <v>2003</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>78</v>
@@ -18747,22 +20176,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="C25" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D25" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E25" t="s">
         <v>188</v>
       </c>
       <c r="F25" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G25" t="s">
         <v>332</v>
@@ -18773,22 +20202,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="C26" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D26" t="s">
         <v>1877</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1878</v>
       </c>
       <c r="E26" t="s">
         <v>188</v>
       </c>
       <c r="F26" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G26" t="s">
         <v>332</v>
@@ -18799,22 +20228,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="C27" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D27" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E27" t="s">
         <v>188</v>
       </c>
       <c r="F27" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G27" t="s">
         <v>332</v>
@@ -18825,22 +20254,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="C28" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D28" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E28" t="s">
         <v>188</v>
       </c>
       <c r="F28" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G28" t="s">
         <v>332</v>
@@ -18851,6 +20280,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -18858,10 +20290,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0F2426-BE64-4140-89D3-828BC4EE93FD}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18871,7 +20303,7 @@
     <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
@@ -19094,22 +20526,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>652</v>
+        <v>1997</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>646</v>
+        <v>373</v>
       </c>
       <c r="D9" t="s">
-        <v>647</v>
+        <v>1998</v>
       </c>
       <c r="E9" t="s">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>649</v>
+        <v>1999</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -19120,25 +20552,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>951</v>
+        <v>652</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>950</v>
+        <v>646</v>
       </c>
       <c r="D10" t="s">
-        <v>952</v>
+        <v>647</v>
       </c>
       <c r="E10" t="s">
-        <v>953</v>
+        <v>648</v>
       </c>
       <c r="F10" t="s">
-        <v>954</v>
+        <v>649</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
         <v>352</v>
@@ -19146,7 +20578,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>997</v>
+        <v>951</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>190</v>
@@ -19155,39 +20587,39 @@
         <v>950</v>
       </c>
       <c r="D11" t="s">
-        <v>996</v>
+        <v>952</v>
       </c>
       <c r="E11" t="s">
         <v>953</v>
       </c>
       <c r="F11" t="s">
-        <v>994</v>
+        <v>954</v>
       </c>
       <c r="G11" t="s">
-        <v>995</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>1241700000</v>
+      <c r="A12" s="2" t="s">
+        <v>997</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>1183</v>
+        <v>950</v>
       </c>
       <c r="D12" t="s">
-        <v>1187</v>
+        <v>996</v>
       </c>
       <c r="E12" t="s">
         <v>953</v>
       </c>
       <c r="F12" t="s">
-        <v>1182</v>
+        <v>994</v>
       </c>
       <c r="G12" t="s">
         <v>995</v>
@@ -19196,8 +20628,37 @@
         <v>352</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1241700000</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E13" t="s">
+        <v>953</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G13" t="s">
+        <v>995</v>
+      </c>
+      <c r="I13" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19209,7 +20670,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19414,28 +20875,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B8" t="s">
         <v>765</v>
       </c>
       <c r="C8" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F8" t="s">
         <v>1963</v>
       </c>
-      <c r="D8" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1966</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>1964</v>
       </c>
-      <c r="G8" t="s">
-        <v>1965</v>
-      </c>
       <c r="I8" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -19729,7 +21190,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B20" t="s">
         <v>533</v>
@@ -19738,19 +21199,19 @@
         <v>534</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I20" t="s">
         <v>1960</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1957</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1958</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1959</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -20020,6 +21481,9 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\SPB_Data\Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CABA2E-3A2B-49A5-B3B7-814D55F5E7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52682144-1DE7-4546-999B-4EC2CA468A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="贴片电阻" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="2123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="2128">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8244,6 +8244,24 @@
   <si>
     <t>USB20-8PIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1251000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模滤波器;DC-Res=4Ω;Imax=100mA;DC=5V;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDMM0806H-2-900T</t>
+  </si>
+  <si>
+    <t>CommonModeFilter</t>
   </si>
 </sst>
 </file>
@@ -17406,7 +17424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77DF9D1-733F-4622-A5B9-9F6937E4842B}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
@@ -19524,23 +19542,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC079E-4192-4042-9084-101DC20DC760}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="90.25" customWidth="1"/>
     <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20124,48 +20142,48 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1811</v>
+        <v>2123</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1805</v>
+        <v>1420</v>
       </c>
       <c r="C23" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1808</v>
+        <v>2124</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>2125</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>1806</v>
+        <v>2126</v>
       </c>
       <c r="G23" t="s">
-        <v>332</v>
+        <v>2126</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="C24" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="D24" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="E24" t="s">
         <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="G24" t="s">
         <v>332</v>
@@ -20176,22 +20194,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1842</v>
+        <v>1812</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="C25" t="s">
-        <v>1841</v>
+        <v>1810</v>
       </c>
       <c r="D25" t="s">
-        <v>1843</v>
+        <v>1813</v>
       </c>
       <c r="E25" t="s">
         <v>188</v>
       </c>
       <c r="F25" t="s">
-        <v>1840</v>
+        <v>1809</v>
       </c>
       <c r="G25" t="s">
         <v>332</v>
@@ -20202,22 +20220,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1879</v>
+        <v>1842</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="C26" t="s">
-        <v>1876</v>
+        <v>1841</v>
       </c>
       <c r="D26" t="s">
-        <v>1877</v>
+        <v>1843</v>
       </c>
       <c r="E26" t="s">
         <v>188</v>
       </c>
       <c r="F26" t="s">
-        <v>1878</v>
+        <v>1840</v>
       </c>
       <c r="G26" t="s">
         <v>332</v>
@@ -20228,22 +20246,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="C27" t="s">
-        <v>1886</v>
+        <v>1876</v>
       </c>
       <c r="D27" t="s">
-        <v>1888</v>
+        <v>1877</v>
       </c>
       <c r="E27" t="s">
         <v>188</v>
       </c>
       <c r="F27" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
       <c r="G27" t="s">
         <v>332</v>
@@ -20254,13 +20272,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1895</v>
+        <v>1887</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="C28" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="D28" t="s">
         <v>1888</v>
@@ -20269,12 +20287,38 @@
         <v>188</v>
       </c>
       <c r="F28" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
       <c r="G28" t="s">
         <v>332</v>
       </c>
       <c r="I28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G29" t="s">
+        <v>332</v>
+      </c>
+      <c r="I29" t="s">
         <v>76</v>
       </c>
     </row>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\SPB_Data\Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52682144-1DE7-4546-999B-4EC2CA468A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D82A311-4D39-45E1-8CA5-B306560C11E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,12 @@
     <sheet name="其他芯片" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">晶体管!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">其他芯片!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">贴片电容!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">贴片电阻!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">贴片结构料!$A$1:$J$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">贴片结构料!$A$1:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">振荡晶体!$A$1:$J$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="2162">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6143,10 +6143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IND POWER Coil;2.2uH;+/-20%;DRC=80mΩ;1.A;2.05*2.0.*1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WPN252010U2R2MT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8262,6 +8258,139 @@
   </si>
   <si>
     <t>CommonModeFilter</t>
+  </si>
+  <si>
+    <t>弹簧顶针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6611600015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZP0347-20125-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧顶针(POGO PIN);全长/全高=12.5mm;工作高度=10.5mm;接触电阻=50mΩ;12V1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xinyangze(鑫扬泽)</t>
+  </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3015150016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF40C-90DP-0.4V(51)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTB 连接器;Header;90PIN;pitch 0.4mm;19.52*2.97mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.52*2.97mm</t>
+  </si>
+  <si>
+    <t>BTB-90PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3015150017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAM-40-020-S-10-2-A-K-TR</t>
+  </si>
+  <si>
+    <t>SEAM-40-02.0-S-10-2-A-K-TR</t>
+  </si>
+  <si>
+    <t>BTB 连接器;Male Connector;400PIN;pitch 4.6mm;55.78*14.68mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6mm;55.78*14.68mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF40C-90DP-0.4V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF40C-90DP-0_4V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031200015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS54227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC降压;输入4.5-18v;开关频率=700KHz;VSON-10 3mm x 3mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS54227DRCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-07124KL</t>
+  </si>
+  <si>
+    <t>124K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111124400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;124KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0722K1L</t>
+  </si>
+  <si>
+    <t>RES FILM;22.1KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.1K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111221400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7uH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND POWER Coil;2.2uH;+/-20%;DRC=80mΩ;1.A;2.50*2.0.*1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231475000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MWTC252010S4R7MT</t>
+  </si>
+  <si>
+    <t>IND POWER Coil;4.7uH;+/-20%;DRC=165mΩ;1.9A;2.5*2.0*1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8761,11 +8890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8963,7 +9092,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -8989,7 +9118,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -9015,28 +9144,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1669</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1670</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>1667</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -9249,22 +9378,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>332</v>
@@ -9535,22 +9664,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>332</v>
@@ -9596,7 +9725,7 @@
         <v>474</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
@@ -9613,28 +9742,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>1683</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -9654,7 +9783,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
@@ -9717,25 +9846,25 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1903</v>
+        <v>2151</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1900</v>
+        <v>2150</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1901</v>
+        <v>2152</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1902</v>
+        <v>2149</v>
       </c>
       <c r="G37" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>339</v>
@@ -9743,25 +9872,25 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1102</v>
+        <v>1902</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1101</v>
+        <v>1899</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1103</v>
+        <v>1900</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1104</v>
+        <v>1901</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>339</v>
@@ -9769,22 +9898,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1209</v>
+        <v>1102</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1208</v>
+        <v>1101</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1210</v>
+        <v>1103</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1211</v>
+        <v>1104</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -9795,25 +9924,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>778</v>
+        <v>1209</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>777</v>
+        <v>1208</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>798</v>
+        <v>1210</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>779</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>781</v>
+        <v>1211</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>339</v>
@@ -9821,25 +9950,25 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>955</v>
+        <v>778</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>956</v>
+        <v>777</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>957</v>
+        <v>798</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="G41" t="s">
-        <v>91</v>
+        <v>780</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>781</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>339</v>
@@ -9847,7 +9976,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1477</v>
+        <v>955</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
@@ -9856,13 +9985,13 @@
         <v>956</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1475</v>
+        <v>957</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1476</v>
+        <v>958</v>
       </c>
       <c r="G42" t="s">
         <v>91</v>
@@ -9873,22 +10002,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1937</v>
+        <v>1477</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1936</v>
+        <v>956</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1938</v>
+        <v>1475</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1939</v>
+        <v>1476</v>
       </c>
       <c r="G43" t="s">
         <v>91</v>
@@ -9899,22 +10028,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1620</v>
+        <v>1936</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1619</v>
+        <v>1935</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1621</v>
+        <v>1937</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1622</v>
+        <v>1938</v>
       </c>
       <c r="G44" t="s">
         <v>91</v>
@@ -9925,22 +10054,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1994</v>
+        <v>1619</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1993</v>
+        <v>1618</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1995</v>
+        <v>1620</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1996</v>
+        <v>1621</v>
       </c>
       <c r="G45" t="s">
         <v>91</v>
@@ -9951,22 +10080,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1164</v>
+        <v>1993</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1163</v>
+        <v>1992</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1170</v>
+        <v>1994</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1165</v>
+        <v>1995</v>
       </c>
       <c r="G46" t="s">
         <v>91</v>
@@ -9977,22 +10106,22 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1317</v>
+        <v>1164</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1315</v>
+        <v>1163</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1316</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1318</v>
+        <v>1165</v>
       </c>
       <c r="G47" t="s">
         <v>91</v>
@@ -10003,22 +10132,22 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1400</v>
+        <v>1317</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1399</v>
+        <v>1315</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1401</v>
+        <v>1316</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1402</v>
+        <v>1318</v>
       </c>
       <c r="G48" t="s">
         <v>91</v>
@@ -10029,25 +10158,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>411</v>
+        <v>1400</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>407</v>
+        <v>1399</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>409</v>
+        <v>1401</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>413</v>
+        <v>1402</v>
       </c>
       <c r="G49" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>339</v>
@@ -10055,25 +10184,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1596</v>
+        <v>411</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1595</v>
+        <v>407</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1597</v>
+        <v>409</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>1599</v>
+        <v>413</v>
+      </c>
+      <c r="G50" t="s">
+        <v>332</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>339</v>
@@ -10081,25 +10210,25 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>294</v>
+        <v>1595</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>292</v>
+        <v>1594</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>362</v>
+        <v>1596</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G51" t="s">
-        <v>91</v>
+        <v>1597</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1598</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>339</v>
@@ -10107,25 +10236,25 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>645</v>
+        <v>294</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>644</v>
+        <v>292</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>643</v>
+        <v>362</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>642</v>
+        <v>293</v>
       </c>
       <c r="G52" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>339</v>
@@ -10133,7 +10262,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1645</v>
+        <v>645</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
@@ -10142,16 +10271,16 @@
         <v>644</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1096</v>
+        <v>643</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1097</v>
+        <v>642</v>
       </c>
       <c r="G53" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>339</v>
@@ -10159,22 +10288,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1697</v>
+        <v>1644</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1698</v>
+        <v>644</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1699</v>
+        <v>1096</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1700</v>
+        <v>1097</v>
       </c>
       <c r="G54" t="s">
         <v>91</v>
@@ -10185,25 +10314,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1865</v>
+        <v>1696</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1866</v>
+        <v>1697</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1867</v>
+        <v>1698</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1868</v>
+        <v>1699</v>
       </c>
       <c r="G55" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>339</v>
@@ -10211,25 +10340,25 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1346</v>
+        <v>1864</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1345</v>
+        <v>1865</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1347</v>
+        <v>1866</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1344</v>
+        <v>1867</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>339</v>
@@ -10237,22 +10366,22 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>357</v>
+        <v>1346</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>356</v>
+        <v>1345</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>359</v>
+        <v>1347</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>355</v>
+        <v>1344</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
@@ -10263,7 +10392,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
@@ -10272,16 +10401,16 @@
         <v>356</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>332</v>
+        <v>355</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>339</v>
@@ -10289,25 +10418,25 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>901</v>
+        <v>361</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>902</v>
+        <v>360</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
+        <v>358</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>339</v>
@@ -10315,22 +10444,22 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1689</v>
+        <v>901</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1690</v>
+        <v>353</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1691</v>
+        <v>902</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1692</v>
+        <v>900</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
@@ -10341,25 +10470,25 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>414</v>
+        <v>1688</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>415</v>
+        <v>1689</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>417</v>
+        <v>1690</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>416</v>
+        <v>1691</v>
       </c>
       <c r="G61" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>339</v>
@@ -10367,25 +10496,25 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1030</v>
+        <v>414</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>646</v>
+        <v>415</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1029</v>
+        <v>417</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1028</v>
+        <v>416</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>339</v>
@@ -10393,25 +10522,25 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>1466</v>
+        <v>2156</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>646</v>
+        <v>2155</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1467</v>
+        <v>2154</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>332</v>
+        <v>2153</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>339</v>
@@ -10419,25 +10548,25 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>180</v>
+        <v>1030</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>277</v>
+        <v>646</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>179</v>
+        <v>1029</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>178</v>
+        <v>1028</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>339</v>
@@ -10445,25 +10574,25 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1297</v>
+        <v>1466</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1295</v>
+        <v>646</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1296</v>
+        <v>1467</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G65" t="s">
-        <v>91</v>
+        <v>1468</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>339</v>
@@ -10471,22 +10600,22 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1167</v>
+        <v>180</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1166</v>
+        <v>277</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1168</v>
+        <v>179</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1169</v>
+        <v>178</v>
       </c>
       <c r="G66" t="s">
         <v>91</v>
@@ -10497,25 +10626,25 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>482</v>
+        <v>1297</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>481</v>
+        <v>1295</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>799</v>
+        <v>1296</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>483</v>
+        <v>1294</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>339</v>
@@ -10523,25 +10652,25 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1536</v>
+        <v>1167</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1533</v>
+        <v>1166</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1534</v>
+        <v>1168</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1535</v>
+        <v>1169</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>339</v>
@@ -10549,22 +10678,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>960</v>
+        <v>482</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>961</v>
+        <v>481</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>962</v>
+        <v>799</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>959</v>
+        <v>483</v>
       </c>
       <c r="G69" t="s">
         <v>19</v>
@@ -10575,22 +10704,22 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1702</v>
+        <v>1536</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1701</v>
+        <v>1533</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1704</v>
+        <v>1534</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1705</v>
+        <v>1535</v>
       </c>
       <c r="G70" t="s">
         <v>19</v>
@@ -10601,22 +10730,22 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1703</v>
+        <v>960</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1386</v>
+        <v>961</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1387</v>
+        <v>962</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1388</v>
+        <v>959</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -10627,22 +10756,22 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>791</v>
+        <v>1701</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>789</v>
+        <v>1700</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>790</v>
+        <v>1703</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>779</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>788</v>
+        <v>1704</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
@@ -10653,25 +10782,25 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1946</v>
+        <v>1702</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>789</v>
+        <v>1386</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1945</v>
+        <v>1387</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1944</v>
+        <v>1388</v>
       </c>
       <c r="G73" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>339</v>
@@ -10679,25 +10808,25 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1906</v>
+        <v>791</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1904</v>
+        <v>789</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1907</v>
+        <v>790</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1905</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>332</v>
+        <v>788</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>339</v>
@@ -10705,16 +10834,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1904</v>
+        <v>789</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
@@ -10722,8 +10851,8 @@
       <c r="F75" s="1" t="s">
         <v>1943</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>19</v>
+      <c r="G75" t="s">
+        <v>332</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>339</v>
@@ -10731,25 +10860,25 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1721</v>
+        <v>1905</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1719</v>
+        <v>1903</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1720</v>
+        <v>1906</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
+        <v>1904</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>339</v>
@@ -10757,25 +10886,25 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>1525</v>
+        <v>1940</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1524</v>
+        <v>1903</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1526</v>
+        <v>1941</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G77" t="s">
-        <v>332</v>
+        <v>1942</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>339</v>
@@ -10783,22 +10912,22 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>1720</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>272</v>
+        <v>1718</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>834</v>
+        <v>1719</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>701</v>
+        <v>1721</v>
       </c>
       <c r="G78" t="s">
         <v>19</v>
@@ -10809,22 +10938,22 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>699</v>
+        <v>1525</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>272</v>
+        <v>1524</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>835</v>
+        <v>1526</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>700</v>
+        <v>1523</v>
       </c>
       <c r="G79" t="s">
         <v>332</v>
@@ -10835,22 +10964,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>1078</v>
+        <v>130</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1079</v>
+        <v>272</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1173</v>
+        <v>834</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1080</v>
+        <v>701</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -10861,25 +10990,25 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1530</v>
+        <v>699</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1529</v>
+        <v>272</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1531</v>
+        <v>835</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1532</v>
+        <v>700</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>339</v>
@@ -10887,22 +11016,22 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>1172</v>
+        <v>1078</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1171</v>
+        <v>1079</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1175</v>
+        <v>1080</v>
       </c>
       <c r="G82" t="s">
         <v>19</v>
@@ -10913,22 +11042,22 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>1056</v>
+        <v>1530</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1052</v>
+        <v>1529</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1053</v>
+        <v>1531</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1054</v>
+        <v>1532</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -10939,22 +11068,22 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>1546</v>
+        <v>1172</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1545</v>
+        <v>1171</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1547</v>
+        <v>1174</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1548</v>
+        <v>1175</v>
       </c>
       <c r="G84" t="s">
         <v>19</v>
@@ -10965,25 +11094,25 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>410</v>
+        <v>1056</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>406</v>
+        <v>1052</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>408</v>
+        <v>1053</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>412</v>
+        <v>1054</v>
       </c>
       <c r="G85" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>339</v>
@@ -10991,25 +11120,25 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>472</v>
+        <v>1546</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>470</v>
+        <v>1545</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>471</v>
+        <v>1547</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>469</v>
+        <v>1548</v>
       </c>
       <c r="G86" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>339</v>
@@ -11017,25 +11146,25 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>486</v>
+        <v>408</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>485</v>
+        <v>412</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>339</v>
@@ -11043,22 +11172,22 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="G88" t="s">
         <v>332</v>
@@ -11069,22 +11198,22 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>1089</v>
+        <v>484</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1090</v>
+        <v>470</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1091</v>
+        <v>486</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1092</v>
+        <v>485</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
@@ -11095,25 +11224,25 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>1443</v>
+        <v>430</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1441</v>
+        <v>432</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1444</v>
+        <v>433</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1442</v>
+        <v>434</v>
       </c>
       <c r="G90" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>339</v>
@@ -11121,22 +11250,22 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>163</v>
+        <v>1089</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>273</v>
+        <v>1090</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>133</v>
+        <v>1091</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>162</v>
+        <v>1092</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -11147,22 +11276,22 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>367</v>
+        <v>1443</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>364</v>
+        <v>1441</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>372</v>
+        <v>1444</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>363</v>
+        <v>1442</v>
       </c>
       <c r="G92" t="s">
         <v>19</v>
@@ -11173,25 +11302,25 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>365</v>
+        <v>133</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>332</v>
+        <v>162</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>339</v>
@@ -11199,7 +11328,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>1098</v>
+        <v>367</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
@@ -11208,13 +11337,13 @@
         <v>364</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1099</v>
+        <v>372</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1100</v>
+        <v>363</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
@@ -11225,25 +11354,25 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>368</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>154</v>
+        <v>365</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
+        <v>366</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>339</v>
@@ -11251,22 +11380,22 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>1098</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>156</v>
+        <v>1099</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>155</v>
+        <v>1100</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
@@ -11277,25 +11406,25 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>452</v>
+        <v>153</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>453</v>
+        <v>154</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>454</v>
+        <v>152</v>
       </c>
       <c r="G97" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>339</v>
@@ -11303,22 +11432,22 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1032</v>
+        <v>157</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1031</v>
+        <v>275</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1046</v>
+        <v>156</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1033</v>
+        <v>155</v>
       </c>
       <c r="G98" t="s">
         <v>19</v>
@@ -11329,22 +11458,22 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1457</v>
+        <v>452</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1031</v>
+        <v>275</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1458</v>
+        <v>453</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1459</v>
+        <v>454</v>
       </c>
       <c r="G99" t="s">
         <v>332</v>
@@ -11355,22 +11484,22 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
@@ -11381,22 +11510,22 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="G101" t="s">
         <v>332</v>
@@ -11407,25 +11536,25 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>946</v>
+        <v>1044</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>947</v>
+        <v>1043</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>948</v>
+        <v>1045</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>949</v>
+        <v>1042</v>
       </c>
       <c r="G102" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>339</v>
@@ -11433,25 +11562,25 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>1291</v>
+        <v>1460</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1292</v>
+        <v>1043</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1293</v>
+        <v>1461</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>19</v>
+        <v>1462</v>
+      </c>
+      <c r="G103" t="s">
+        <v>332</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>339</v>
@@ -11459,25 +11588,25 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1160</v>
+        <v>946</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1159</v>
+        <v>947</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1162</v>
+        <v>948</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1161</v>
+        <v>949</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>339</v>
@@ -11485,24 +11614,24 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1584</v>
+        <v>1291</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1585</v>
+        <v>1292</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1586</v>
+        <v>1293</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="G105" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I105" s="1" t="s">
@@ -11511,22 +11640,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1693</v>
+        <v>1160</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1694</v>
+        <v>1159</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1695</v>
+        <v>1162</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1696</v>
+        <v>1161</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -11537,22 +11666,22 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1479</v>
+        <v>1583</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1478</v>
+        <v>1584</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1480</v>
+        <v>1585</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1481</v>
+        <v>1586</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -11563,25 +11692,25 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>681</v>
+        <v>1692</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>680</v>
+        <v>1693</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>679</v>
+        <v>1694</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>678</v>
+        <v>1695</v>
       </c>
       <c r="G108" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>339</v>
@@ -11589,25 +11718,25 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>689</v>
+        <v>1479</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>688</v>
+        <v>1478</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>687</v>
+        <v>1480</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>698</v>
+        <v>1481</v>
       </c>
       <c r="G109" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>339</v>
@@ -11615,25 +11744,25 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="G110" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>339</v>
@@ -11641,22 +11770,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>402</v>
+        <v>689</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>401</v>
+        <v>688</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>404</v>
+        <v>687</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>403</v>
+        <v>698</v>
       </c>
       <c r="G111" t="s">
         <v>332</v>
@@ -11667,25 +11796,25 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>331</v>
+        <v>608</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>330</v>
+        <v>609</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>329</v>
+        <v>610</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>332</v>
+        <v>611</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>339</v>
@@ -11693,25 +11822,25 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1084</v>
+        <v>403</v>
       </c>
       <c r="G113" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>339</v>
@@ -11719,25 +11848,25 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>1156</v>
+        <v>331</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1155</v>
+        <v>330</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1158</v>
+        <v>329</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
+        <v>328</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>339</v>
@@ -11745,22 +11874,22 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>1715</v>
+        <v>338</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1716</v>
+        <v>330</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1717</v>
+        <v>337</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1718</v>
+        <v>1084</v>
       </c>
       <c r="G115" t="s">
         <v>19</v>
@@ -11771,25 +11900,25 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>1829</v>
+        <v>1156</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1828</v>
+        <v>1155</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1830</v>
+        <v>1158</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>332</v>
+        <v>1157</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>339</v>
@@ -11797,22 +11926,22 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>1081</v>
+        <v>1714</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1082</v>
+        <v>1715</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1083</v>
+        <v>1716</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1085</v>
+        <v>1717</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -11823,25 +11952,25 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1687</v>
+        <v>1828</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1686</v>
+        <v>1827</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1083</v>
+        <v>1829</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
+        <v>1830</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>339</v>
@@ -11849,25 +11978,25 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1897</v>
+        <v>1081</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1896</v>
+        <v>1082</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1898</v>
+        <v>1083</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1899</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>332</v>
+        <v>1085</v>
+      </c>
+      <c r="G119" t="s">
+        <v>19</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>339</v>
@@ -11875,22 +12004,22 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1276</v>
+        <v>1686</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1275</v>
+        <v>1685</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1277</v>
+        <v>1083</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1278</v>
+        <v>1687</v>
       </c>
       <c r="G120" t="s">
         <v>19</v>
@@ -11901,25 +12030,25 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>1105</v>
+        <v>1896</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1106</v>
+        <v>1895</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1107</v>
+        <v>1897</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
+        <v>1898</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>339</v>
@@ -11927,22 +12056,22 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>830</v>
+        <v>1276</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>829</v>
+        <v>1275</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>831</v>
+        <v>1277</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>828</v>
+        <v>1278</v>
       </c>
       <c r="G122" t="s">
         <v>19</v>
@@ -11953,22 +12082,22 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>1933</v>
+        <v>1105</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1932</v>
+        <v>1106</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1934</v>
+        <v>1107</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1935</v>
+        <v>1108</v>
       </c>
       <c r="G123" t="s">
         <v>19</v>
@@ -11979,22 +12108,22 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1307</v>
+        <v>830</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1306</v>
+        <v>829</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1308</v>
+        <v>831</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1309</v>
+        <v>828</v>
       </c>
       <c r="G124" t="s">
         <v>19</v>
@@ -12005,22 +12134,22 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>624</v>
+        <v>1932</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>623</v>
+        <v>1931</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>622</v>
+        <v>1933</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>621</v>
+        <v>1934</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -12031,22 +12160,22 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>1392</v>
+        <v>1307</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1391</v>
+        <v>1306</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1393</v>
+        <v>1308</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1394</v>
+        <v>1309</v>
       </c>
       <c r="G126" t="s">
         <v>19</v>
@@ -12057,22 +12186,22 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>624</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>271</v>
+        <v>623</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>133</v>
+        <v>622</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>131</v>
+        <v>621</v>
       </c>
       <c r="G127" t="s">
         <v>19</v>
@@ -12083,22 +12212,22 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>1542</v>
+        <v>1392</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1541</v>
+        <v>1391</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1543</v>
+        <v>1393</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1544</v>
+        <v>1394</v>
       </c>
       <c r="G128" t="s">
         <v>19</v>
@@ -12109,25 +12238,25 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>692</v>
+        <v>134</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>691</v>
+        <v>271</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>690</v>
+        <v>133</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>697</v>
+        <v>131</v>
       </c>
       <c r="G129" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>339</v>
@@ -12135,22 +12264,22 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>1055</v>
+        <v>1542</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1057</v>
+        <v>1541</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1058</v>
+        <v>1543</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1059</v>
+        <v>1544</v>
       </c>
       <c r="G130" t="s">
         <v>19</v>
@@ -12161,22 +12290,22 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>400</v>
+        <v>692</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>399</v>
+        <v>691</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>405</v>
+        <v>690</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>403</v>
+        <v>697</v>
       </c>
       <c r="G131" t="s">
         <v>332</v>
@@ -12187,25 +12316,25 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>696</v>
+        <v>1055</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>695</v>
+        <v>1057</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>694</v>
+        <v>1058</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>693</v>
+        <v>1059</v>
       </c>
       <c r="G132" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>339</v>
@@ -12213,28 +12342,80 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G133" t="s">
+        <v>332</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G134" t="s">
+        <v>332</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>1664</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>1665</v>
       </c>
     </row>
   </sheetData>
@@ -12254,10 +12435,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12563,12 +12744,12 @@
         <v>979</v>
       </c>
       <c r="I11" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -12594,48 +12775,48 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B13" t="s">
         <v>1743</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1744</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1745</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1746</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G13" t="s">
         <v>1747</v>
       </c>
-      <c r="F13" t="s">
-        <v>1745</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1748</v>
-      </c>
       <c r="I13" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C14" t="s">
         <v>1908</v>
       </c>
-      <c r="B14" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1909</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1910</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G14" t="s">
         <v>685</v>
@@ -12646,22 +12827,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C15" t="s">
         <v>1911</v>
       </c>
-      <c r="B15" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>1912</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1913</v>
       </c>
       <c r="E15" t="s">
         <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="G15" t="s">
         <v>685</v>
@@ -12672,28 +12853,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B16" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C16" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D16" t="s">
         <v>1916</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1917</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="I16" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -12927,7 +13108,7 @@
         <v>1076</v>
       </c>
       <c r="H25" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I25" t="s">
         <v>1077</v>
@@ -12950,7 +13131,7 @@
         <v>515</v>
       </c>
       <c r="F26" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="G26" t="s">
         <v>1203</v>
@@ -12987,7 +13168,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B28" t="s">
         <v>390</v>
@@ -13013,39 +13194,39 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B29" t="s">
         <v>1610</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>1611</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>1612</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>1613</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>1614</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>1615</v>
       </c>
-      <c r="G29" t="s">
-        <v>1616</v>
-      </c>
       <c r="I29" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B30" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C30" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D30" t="s">
         <v>1202</v>
@@ -13054,123 +13235,149 @@
         <v>515</v>
       </c>
       <c r="F30" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G30" t="s">
         <v>1924</v>
       </c>
-      <c r="G30" t="s">
-        <v>1925</v>
-      </c>
       <c r="I30" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1672</v>
+        <v>2145</v>
       </c>
       <c r="B31" t="s">
-        <v>1671</v>
+        <v>1610</v>
       </c>
       <c r="C31" t="s">
-        <v>1673</v>
+        <v>2146</v>
       </c>
       <c r="D31" t="s">
-        <v>1674</v>
+        <v>2147</v>
       </c>
       <c r="E31" t="s">
-        <v>1676</v>
+        <v>846</v>
       </c>
       <c r="F31" t="s">
-        <v>1673</v>
+        <v>2148</v>
       </c>
       <c r="G31" t="s">
-        <v>1675</v>
+        <v>1041</v>
       </c>
       <c r="I31" t="s">
-        <v>1673</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>723</v>
+        <v>1671</v>
       </c>
       <c r="B32" t="s">
-        <v>718</v>
+        <v>1670</v>
       </c>
       <c r="C32" t="s">
-        <v>719</v>
+        <v>1672</v>
       </c>
       <c r="D32" t="s">
-        <v>721</v>
+        <v>1673</v>
       </c>
       <c r="E32" t="s">
-        <v>515</v>
+        <v>1675</v>
       </c>
       <c r="F32" t="s">
-        <v>720</v>
+        <v>1672</v>
       </c>
       <c r="G32" t="s">
-        <v>1594</v>
+        <v>1674</v>
       </c>
       <c r="I32" t="s">
-        <v>722</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1631</v>
+        <v>723</v>
       </c>
       <c r="B33" t="s">
         <v>718</v>
       </c>
       <c r="C33" t="s">
-        <v>1311</v>
+        <v>719</v>
       </c>
       <c r="D33" t="s">
-        <v>1312</v>
+        <v>721</v>
       </c>
       <c r="E33" t="s">
-        <v>846</v>
+        <v>515</v>
       </c>
       <c r="F33" t="s">
-        <v>1310</v>
+        <v>720</v>
       </c>
       <c r="G33" t="s">
-        <v>1313</v>
+        <v>1593</v>
       </c>
       <c r="I33" t="s">
-        <v>1314</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B34" t="s">
+        <v>718</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E34" t="s">
+        <v>846</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C35" t="s">
         <v>1655</v>
       </c>
-      <c r="B34" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D35" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E35" t="s">
         <v>1656</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1656</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1653</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1656</v>
+      <c r="F35" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1655</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J34" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J33">
-      <sortCondition ref="A1:A33"/>
+  <autoFilter ref="A1:J35" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J34">
+      <sortCondition ref="A1:A34"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13341,22 +13548,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B6" t="s">
         <v>1263</v>
       </c>
       <c r="C6" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D6" t="s">
         <v>2036</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2037</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="G6" t="s">
         <v>123</v>
@@ -13367,28 +13574,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C7" t="s">
         <v>1603</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E7" t="s">
         <v>1604</v>
       </c>
-      <c r="D7" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G7" t="s">
         <v>1605</v>
       </c>
-      <c r="F7" t="s">
-        <v>1604</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>1606</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1607</v>
       </c>
     </row>
   </sheetData>
@@ -13455,7 +13662,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B2" t="s">
         <v>375</v>
@@ -13629,7 +13836,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B8" t="s">
         <v>375</v>
@@ -13644,7 +13851,7 @@
         <v>1221</v>
       </c>
       <c r="F8" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G8" t="s">
         <v>1223</v>
@@ -13673,7 +13880,7 @@
         <v>1221</v>
       </c>
       <c r="F9" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G9" t="s">
         <v>1223</v>
@@ -13687,22 +13894,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B10" t="s">
         <v>375</v>
       </c>
       <c r="C10" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D10" t="s">
         <v>1762</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>1763</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>1764</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1765</v>
       </c>
       <c r="G10" t="s">
         <v>1223</v>
@@ -13716,7 +13923,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B11" t="s">
         <v>376</v>
@@ -13731,7 +13938,7 @@
         <v>1221</v>
       </c>
       <c r="F11" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G11" t="s">
         <v>1223</v>
@@ -13745,7 +13952,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B12" t="s">
         <v>376</v>
@@ -13754,13 +13961,13 @@
         <v>1554</v>
       </c>
       <c r="D12" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E12" t="s">
         <v>1221</v>
       </c>
       <c r="F12" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G12" t="s">
         <v>1223</v>
@@ -13774,7 +13981,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B13" t="s">
         <v>376</v>
@@ -13783,13 +13990,13 @@
         <v>1549</v>
       </c>
       <c r="D13" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E13" t="s">
         <v>1221</v>
       </c>
       <c r="F13" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="G13" t="s">
         <v>1223</v>
@@ -13803,7 +14010,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B14" t="s">
         <v>376</v>
@@ -13818,7 +14025,7 @@
         <v>1221</v>
       </c>
       <c r="F14" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G14" t="s">
         <v>1222</v>
@@ -13832,7 +14039,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B15" t="s">
         <v>376</v>
@@ -13847,7 +14054,7 @@
         <v>1221</v>
       </c>
       <c r="F15" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G15" t="s">
         <v>1223</v>
@@ -13861,7 +14068,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B16" t="s">
         <v>376</v>
@@ -13876,7 +14083,7 @@
         <v>1221</v>
       </c>
       <c r="F16" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G16" t="s">
         <v>1222</v>
@@ -13890,7 +14097,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B17" t="s">
         <v>376</v>
@@ -13905,7 +14112,7 @@
         <v>1221</v>
       </c>
       <c r="F17" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G17" t="s">
         <v>1222</v>
@@ -14221,22 +14428,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B11" t="s">
         <v>383</v>
       </c>
       <c r="C11" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D11" t="s">
         <v>1723</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="7" t="s">
         <v>1724</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>1725</v>
-      </c>
       <c r="F11" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G11" t="s">
         <v>1019</v>
@@ -14247,28 +14454,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B12" t="s">
         <v>383</v>
       </c>
       <c r="C12" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D12" t="s">
         <v>1768</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1769</v>
       </c>
       <c r="E12" t="s">
         <v>1011</v>
       </c>
       <c r="F12" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G12" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="I12" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -14325,7 +14532,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B15" t="s">
         <v>303</v>
@@ -14351,7 +14558,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B16" t="s">
         <v>435</v>
@@ -14377,7 +14584,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B17" t="s">
         <v>435</v>
@@ -14403,7 +14610,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B18" t="s">
         <v>931</v>
@@ -14429,7 +14636,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B19" t="s">
         <v>931</v>
@@ -14663,7 +14870,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B28" t="s">
         <v>1269</v>
@@ -14689,239 +14896,239 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B29" t="s">
         <v>1269</v>
       </c>
       <c r="C29" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D29" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E29" t="s">
         <v>1272</v>
       </c>
       <c r="F29" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G29" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="I29" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B30" t="s">
         <v>1269</v>
       </c>
       <c r="C30" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D30" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E30" t="s">
         <v>1272</v>
       </c>
       <c r="F30" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G30" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="I30" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B31" t="s">
         <v>1269</v>
       </c>
       <c r="C31" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D31" t="s">
         <v>2090</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2091</v>
       </c>
       <c r="E31" t="s">
         <v>1272</v>
       </c>
       <c r="F31" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G31" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I31" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B32" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C32" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E32" t="s">
         <v>1775</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H32" t="s">
         <v>1785</v>
       </c>
-      <c r="E32" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1783</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>1778</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1786</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B33" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C33" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F33" t="s">
         <v>1781</v>
       </c>
-      <c r="D33" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>1776</v>
       </c>
-      <c r="F33" t="s">
-        <v>1782</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1777</v>
-      </c>
       <c r="H33" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="I33" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B34" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C34" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E34" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F34" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G34" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I34" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B35" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C35" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D35" t="s">
         <v>1796</v>
       </c>
-      <c r="D35" t="s">
-        <v>1797</v>
-      </c>
       <c r="E35" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F35" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I35" t="s">
         <v>1791</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1793</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C36" t="s">
         <v>1799</v>
       </c>
-      <c r="B36" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E36" t="s">
         <v>1800</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G36" t="s">
         <v>1803</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
         <v>1801</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1802</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1804</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B37" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C37" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E37" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F37" t="s">
         <v>1801</v>
       </c>
-      <c r="F37" t="s">
-        <v>1802</v>
-      </c>
       <c r="G37" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="I37" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
   </sheetData>
@@ -14944,8 +15151,8 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14995,22 +15202,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D2" t="s">
         <v>1891</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1892</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G2" t="s">
         <v>325</v>
@@ -15021,22 +15228,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G3" t="s">
         <v>325</v>
@@ -15047,22 +15254,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D4" t="s">
         <v>1751</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1752</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -15073,22 +15280,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D5" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G5" t="s">
         <v>325</v>
@@ -15099,22 +15306,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D6" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G6" t="s">
         <v>325</v>
@@ -15125,22 +15332,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D7" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G7" t="s">
         <v>325</v>
@@ -15151,22 +15358,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D8" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G8" t="s">
         <v>325</v>
@@ -15177,22 +15384,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D9" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G9" t="s">
         <v>325</v>
@@ -15203,22 +15410,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D10" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G10" t="s">
         <v>325</v>
@@ -15229,22 +15436,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
@@ -15255,22 +15462,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D12" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G12" t="s">
         <v>325</v>
@@ -15281,22 +15488,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D13" t="s">
         <v>2060</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2061</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -15307,22 +15514,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D14" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -15333,7 +15540,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -15359,7 +15566,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -15368,13 +15575,13 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -15385,7 +15592,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -15394,13 +15601,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G17" t="s">
         <v>325</v>
@@ -15411,22 +15618,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D18" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
@@ -15463,7 +15670,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -15472,13 +15679,13 @@
         <v>786</v>
       </c>
       <c r="D20" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="G20" t="s">
         <v>325</v>
@@ -15541,7 +15748,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -15567,7 +15774,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -15576,16 +15783,16 @@
         <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G24" t="s">
         <v>2095</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2096</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -15749,7 +15956,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -15758,13 +15965,13 @@
         <v>279</v>
       </c>
       <c r="D31" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G31" t="s">
         <v>325</v>
@@ -15885,7 +16092,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B36" t="s">
         <v>814</v>
@@ -15894,19 +16101,19 @@
         <v>818</v>
       </c>
       <c r="D36" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="E36" t="s">
         <v>816</v>
       </c>
       <c r="F36" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="G36" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="H36" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="I36" t="s">
         <v>820</v>
@@ -15966,22 +16173,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D39" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
@@ -16157,13 +16364,13 @@
         <v>1133</v>
       </c>
       <c r="D46" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G46" t="s">
         <v>71</v>
@@ -16189,7 +16396,7 @@
         <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
@@ -16226,7 +16433,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
@@ -16235,13 +16442,13 @@
         <v>280</v>
       </c>
       <c r="D49" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G49" t="s">
         <v>71</v>
@@ -16252,7 +16459,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -16261,13 +16468,13 @@
         <v>280</v>
       </c>
       <c r="D50" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="G50" t="s">
         <v>325</v>
@@ -16385,7 +16592,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B55" t="s">
         <v>1114</v>
@@ -16394,16 +16601,16 @@
         <v>1150</v>
       </c>
       <c r="D55" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="F55" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G55" t="s">
         <v>2041</v>
-      </c>
-      <c r="G55" t="s">
-        <v>2042</v>
       </c>
       <c r="I55" t="s">
         <v>820</v>
@@ -16411,7 +16618,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B56" t="s">
         <v>814</v>
@@ -16420,19 +16627,19 @@
         <v>1150</v>
       </c>
       <c r="D56" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="E56" t="s">
         <v>816</v>
       </c>
       <c r="F56" t="s">
+        <v>2048</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H56" t="s">
         <v>2049</v>
-      </c>
-      <c r="G56" t="s">
-        <v>2046</v>
-      </c>
-      <c r="H56" t="s">
-        <v>2050</v>
       </c>
       <c r="I56" t="s">
         <v>820</v>
@@ -17030,7 +17237,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B12" t="s">
         <v>1227</v>
@@ -17059,60 +17266,60 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B13" t="s">
         <v>1227</v>
       </c>
       <c r="C13" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E13" t="s">
         <v>1981</v>
       </c>
-      <c r="D13" t="s">
-        <v>1985</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>1982</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>1983</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1984</v>
       </c>
       <c r="H13" t="s">
         <v>1199</v>
       </c>
       <c r="I13" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B14" t="s">
         <v>1227</v>
       </c>
       <c r="C14" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D14" t="s">
         <v>1988</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1991</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1990</v>
+      </c>
+      <c r="I14" t="s">
         <v>1989</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1988</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1992</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1991</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -17169,80 +17376,80 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D17" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E17" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I17" t="s">
         <v>1734</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1730</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1754</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B18" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C18" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I18" t="s">
         <v>1736</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1736</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1749</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E19" t="s">
         <v>1733</v>
       </c>
-      <c r="B19" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1739</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1734</v>
-      </c>
       <c r="F19" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G19" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="I19" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
   </sheetData>
@@ -17375,7 +17582,7 @@
         <v>806</v>
       </c>
       <c r="F4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G4" t="s">
         <v>1510</v>
@@ -17422,24 +17629,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77DF9D1-733F-4622-A5B9-9F6937E4842B}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.125" customWidth="1"/>
     <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -18288,144 +18495,144 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C30" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G30" t="s">
         <v>1928</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>1952</v>
       </c>
-      <c r="E30" t="s">
-        <v>1931</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1928</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>1929</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1953</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C31" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D31" t="s">
         <v>1948</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I31" t="s">
         <v>1949</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1931</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1948</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1951</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B32" t="s">
-        <v>284</v>
+        <v>2133</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>2143</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>2135</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>2134</v>
       </c>
       <c r="G32" t="s">
-        <v>243</v>
+        <v>2144</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>2136</v>
       </c>
       <c r="I32" t="s">
-        <v>247</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33" t="s">
-        <v>284</v>
+        <v>2138</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>2140</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>2141</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>970</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>2140</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>2139</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>2142</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="D34" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E34" t="s">
         <v>245</v>
       </c>
       <c r="F34" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I34" t="s">
         <v>247</v>
@@ -18433,614 +18640,672 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>499</v>
+        <v>254</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="C35" t="s">
-        <v>500</v>
+        <v>248</v>
       </c>
       <c r="D35" t="s">
-        <v>501</v>
+        <v>250</v>
       </c>
       <c r="E35" t="s">
         <v>245</v>
       </c>
       <c r="F35" t="s">
-        <v>500</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>500</v>
+        <v>248</v>
       </c>
       <c r="H35" t="s">
-        <v>502</v>
+        <v>251</v>
       </c>
       <c r="I35" t="s">
-        <v>503</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>494</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s">
         <v>244</v>
       </c>
       <c r="C36" t="s">
-        <v>495</v>
+        <v>319</v>
       </c>
       <c r="D36" t="s">
-        <v>496</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="F36" t="s">
-        <v>495</v>
+        <v>319</v>
       </c>
       <c r="G36" t="s">
-        <v>498</v>
+        <v>319</v>
       </c>
       <c r="H36" t="s">
-        <v>497</v>
+        <v>251</v>
       </c>
       <c r="I36" t="s">
-        <v>498</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>284</v>
+        <v>499</v>
+      </c>
+      <c r="B37" t="s">
+        <v>244</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="D37" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="F37" t="s">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>502</v>
       </c>
       <c r="I37" t="s">
-        <v>202</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>284</v>
+        <v>494</v>
+      </c>
+      <c r="B38" t="s">
+        <v>244</v>
       </c>
       <c r="C38" t="s">
-        <v>558</v>
+        <v>495</v>
       </c>
       <c r="D38" t="s">
-        <v>556</v>
+        <v>496</v>
       </c>
       <c r="E38" t="s">
         <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="G38" t="s">
-        <v>558</v>
+        <v>498</v>
       </c>
       <c r="H38" t="s">
-        <v>559</v>
+        <v>497</v>
       </c>
       <c r="I38" t="s">
-        <v>558</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>590</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>592</v>
+        <v>516</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="F39" t="s">
-        <v>590</v>
+        <v>201</v>
       </c>
       <c r="G39" t="s">
-        <v>590</v>
+        <v>201</v>
       </c>
       <c r="H39" t="s">
-        <v>593</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s">
-        <v>607</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>859</v>
+        <v>555</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C40" t="s">
-        <v>860</v>
+        <v>558</v>
       </c>
       <c r="D40" t="s">
-        <v>861</v>
+        <v>556</v>
       </c>
       <c r="E40" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="F40" t="s">
-        <v>860</v>
+        <v>557</v>
       </c>
       <c r="G40" t="s">
-        <v>860</v>
+        <v>558</v>
       </c>
       <c r="H40" t="s">
-        <v>862</v>
+        <v>559</v>
       </c>
       <c r="I40" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>863</v>
+        <v>591</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C41" t="s">
-        <v>864</v>
+        <v>590</v>
       </c>
       <c r="D41" t="s">
-        <v>865</v>
+        <v>592</v>
       </c>
       <c r="E41" t="s">
-        <v>866</v>
+        <v>245</v>
       </c>
       <c r="F41" t="s">
-        <v>864</v>
+        <v>590</v>
       </c>
       <c r="G41" t="s">
-        <v>864</v>
+        <v>590</v>
       </c>
       <c r="H41" t="s">
-        <v>867</v>
+        <v>593</v>
       </c>
       <c r="I41" t="s">
-        <v>503</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B42" t="s">
-        <v>487</v>
+        <v>859</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="C42" t="s">
-        <v>490</v>
+        <v>860</v>
       </c>
       <c r="D42" t="s">
-        <v>491</v>
+        <v>861</v>
       </c>
       <c r="E42" t="s">
-        <v>492</v>
+        <v>245</v>
       </c>
       <c r="F42" t="s">
-        <v>490</v>
+        <v>860</v>
       </c>
       <c r="G42" t="s">
-        <v>489</v>
+        <v>860</v>
       </c>
       <c r="H42" t="s">
-        <v>493</v>
+        <v>862</v>
       </c>
       <c r="I42" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B43" t="s">
-        <v>487</v>
+        <v>863</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="C43" t="s">
-        <v>505</v>
+        <v>864</v>
       </c>
       <c r="D43" t="s">
-        <v>506</v>
+        <v>865</v>
       </c>
       <c r="E43" t="s">
-        <v>260</v>
+        <v>866</v>
       </c>
       <c r="F43" t="s">
-        <v>505</v>
+        <v>864</v>
       </c>
       <c r="G43" t="s">
-        <v>505</v>
+        <v>864</v>
       </c>
       <c r="H43" t="s">
-        <v>507</v>
+        <v>867</v>
       </c>
       <c r="I43" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="B44" t="s">
         <v>487</v>
       </c>
       <c r="C44" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="D44" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="E44" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="F44" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="G44" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="H44" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
       <c r="I44" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>2017</v>
+        <v>504</v>
       </c>
       <c r="B45" t="s">
         <v>487</v>
       </c>
       <c r="C45" t="s">
-        <v>2018</v>
+        <v>505</v>
       </c>
       <c r="D45" t="s">
-        <v>2019</v>
+        <v>506</v>
       </c>
       <c r="E45" t="s">
-        <v>2020</v>
+        <v>260</v>
       </c>
       <c r="F45" t="s">
-        <v>2018</v>
+        <v>505</v>
       </c>
       <c r="G45" t="s">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="H45" t="s">
-        <v>2022</v>
+        <v>507</v>
       </c>
       <c r="I45" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>219</v>
+        <v>527</v>
+      </c>
+      <c r="B46" t="s">
+        <v>487</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>528</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>529</v>
       </c>
       <c r="E46" t="s">
-        <v>221</v>
+        <v>531</v>
       </c>
       <c r="F46" t="s">
-        <v>222</v>
+        <v>528</v>
       </c>
       <c r="G46" t="s">
-        <v>222</v>
+        <v>528</v>
       </c>
       <c r="H46" t="s">
-        <v>224</v>
+        <v>530</v>
       </c>
       <c r="I46" t="s">
-        <v>225</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>219</v>
+        <v>2016</v>
+      </c>
+      <c r="B47" t="s">
+        <v>487</v>
       </c>
       <c r="C47" t="s">
-        <v>879</v>
+        <v>2017</v>
       </c>
       <c r="D47" t="s">
-        <v>880</v>
+        <v>2018</v>
       </c>
       <c r="E47" t="s">
-        <v>881</v>
+        <v>2019</v>
       </c>
       <c r="F47" t="s">
-        <v>879</v>
+        <v>2017</v>
       </c>
       <c r="G47" t="s">
-        <v>879</v>
+        <v>2020</v>
       </c>
       <c r="H47" t="s">
-        <v>882</v>
+        <v>2021</v>
       </c>
       <c r="I47" t="s">
-        <v>879</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1300</v>
+        <v>220</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C48" t="s">
-        <v>1303</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>1302</v>
+        <v>223</v>
       </c>
       <c r="E48" t="s">
-        <v>940</v>
+        <v>221</v>
       </c>
       <c r="F48" t="s">
-        <v>1301</v>
+        <v>222</v>
       </c>
       <c r="G48" t="s">
-        <v>1303</v>
+        <v>222</v>
       </c>
       <c r="H48" t="s">
-        <v>1304</v>
+        <v>224</v>
       </c>
       <c r="I48" t="s">
-        <v>1305</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>2109</v>
+        <v>878</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C49" t="s">
-        <v>2111</v>
+        <v>879</v>
       </c>
       <c r="D49" t="s">
-        <v>2115</v>
+        <v>880</v>
       </c>
       <c r="E49" t="s">
-        <v>2113</v>
+        <v>881</v>
       </c>
       <c r="F49" t="s">
-        <v>2112</v>
+        <v>879</v>
       </c>
       <c r="G49" t="s">
-        <v>2110</v>
+        <v>879</v>
       </c>
       <c r="H49" t="s">
-        <v>2116</v>
+        <v>882</v>
       </c>
       <c r="I49" t="s">
-        <v>2114</v>
+        <v>879</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>2118</v>
+        <v>1300</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C50" t="s">
-        <v>2117</v>
+        <v>1303</v>
       </c>
       <c r="D50" t="s">
-        <v>2120</v>
+        <v>1302</v>
       </c>
       <c r="E50" t="s">
-        <v>2121</v>
+        <v>940</v>
       </c>
       <c r="F50" t="s">
-        <v>2117</v>
+        <v>1301</v>
       </c>
       <c r="G50" t="s">
-        <v>2119</v>
+        <v>1303</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1304</v>
       </c>
       <c r="I50" t="s">
-        <v>2122</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B51" t="s">
-        <v>945</v>
+        <v>2108</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C51" t="s">
-        <v>943</v>
+        <v>2110</v>
       </c>
       <c r="D51" t="s">
-        <v>941</v>
+        <v>2114</v>
       </c>
       <c r="E51" t="s">
-        <v>940</v>
+        <v>2112</v>
       </c>
       <c r="F51" t="s">
-        <v>939</v>
+        <v>2111</v>
       </c>
       <c r="G51" t="s">
-        <v>944</v>
+        <v>2109</v>
       </c>
       <c r="H51" t="s">
-        <v>942</v>
+        <v>2115</v>
       </c>
       <c r="I51" t="s">
-        <v>943</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1245</v>
+        <v>2117</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>1249</v>
+        <v>2116</v>
       </c>
       <c r="D52" t="s">
-        <v>1248</v>
+        <v>2119</v>
       </c>
       <c r="E52" t="s">
-        <v>1247</v>
+        <v>2120</v>
       </c>
       <c r="F52" t="s">
-        <v>1249</v>
+        <v>2116</v>
       </c>
       <c r="G52" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1252</v>
+        <v>2118</v>
       </c>
       <c r="I52" t="s">
-        <v>1250</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1704320001</v>
+        <v>938</v>
+      </c>
+      <c r="B53" t="s">
+        <v>945</v>
+      </c>
+      <c r="C53" t="s">
+        <v>943</v>
       </c>
       <c r="D53" t="s">
-        <v>1367</v>
+        <v>941</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>940</v>
       </c>
       <c r="F53" t="s">
-        <v>1366</v>
+        <v>939</v>
       </c>
       <c r="G53" t="s">
-        <v>1369</v>
+        <v>944</v>
       </c>
       <c r="H53" t="s">
-        <v>1368</v>
+        <v>942</v>
       </c>
       <c r="I53" t="s">
-        <v>1363</v>
+        <v>943</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>92</v>
+        <v>1246</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1245</v>
       </c>
       <c r="C54" t="s">
-        <v>1837</v>
+        <v>1249</v>
       </c>
       <c r="D54" t="s">
-        <v>1836</v>
+        <v>1248</v>
       </c>
       <c r="E54" t="s">
-        <v>1838</v>
+        <v>1247</v>
       </c>
       <c r="F54" t="s">
-        <v>1837</v>
+        <v>1249</v>
       </c>
       <c r="G54" t="s">
-        <v>1839</v>
+        <v>1251</v>
       </c>
       <c r="H54" t="s">
-        <v>297</v>
+        <v>1252</v>
       </c>
       <c r="I54" t="s">
-        <v>1835</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1704320001</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H56" t="s">
+        <v>297</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G57" t="s">
         <v>2029</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>2023</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2025</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2024</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="H57" t="s">
         <v>2026</v>
       </c>
-      <c r="F55" t="s">
-        <v>2025</v>
-      </c>
-      <c r="G55" t="s">
-        <v>2030</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="I57" t="s">
         <v>2027</v>
       </c>
-      <c r="I55" t="s">
-        <v>2028</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J46" xr:uid="{F77DF9D1-733F-4622-A5B9-9F6937E4842B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J46">
-      <sortCondition ref="A1:A46"/>
+  <autoFilter ref="A1:J48" xr:uid="{F77DF9D1-733F-4622-A5B9-9F6937E4842B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J48">
+      <sortCondition ref="A1:A48"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19054,10 +19319,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61606E71-114A-4060-B4DA-26AC2BA8C44E}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19280,138 +19545,138 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B8" t="s">
         <v>258</v>
       </c>
       <c r="C8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D8" t="s">
         <v>1627</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1628</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H8" t="s">
         <v>1629</v>
       </c>
-      <c r="F8" t="s">
-        <v>1627</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1627</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1630</v>
-      </c>
       <c r="I8" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B9" t="s">
         <v>258</v>
       </c>
       <c r="C9" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E9" t="s">
         <v>1970</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>1968</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H9" t="s">
         <v>1973</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>1971</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1969</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1972</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1972</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C10" t="s">
         <v>2005</v>
       </c>
-      <c r="B10" t="s">
-        <v>2004</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E10" t="s">
         <v>2006</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I10" t="s">
         <v>2008</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2007</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2006</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2011</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2010</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2009</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C11" t="s">
         <v>2012</v>
       </c>
-      <c r="B11" t="s">
-        <v>2004</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>2013</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I11" t="s">
         <v>2014</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2007</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2013</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2016</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2010</v>
-      </c>
-      <c r="I11" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B12" t="s">
         <v>1279</v>
       </c>
       <c r="C12" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E12" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F12" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="G12" t="s">
         <v>1287</v>
@@ -19425,109 +19690,135 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B13" t="s">
         <v>1279</v>
       </c>
       <c r="C13" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2079</v>
+      </c>
+      <c r="I13" t="s">
         <v>2071</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2007</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2071</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2078</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2080</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2072</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B14" t="s">
         <v>1279</v>
       </c>
       <c r="C14" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>2074</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>2075</v>
-      </c>
       <c r="E14" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F14" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G14" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="I14" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F15" t="s">
         <v>2098</v>
       </c>
-      <c r="B15" t="s">
-        <v>2097</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2108</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="G15" t="s">
+        <v>2098</v>
+      </c>
+      <c r="I15" t="s">
         <v>2100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2007</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2099</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2099</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2101</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>2102</v>
       </c>
-      <c r="B16" t="s">
-        <v>2097</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2107</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" t="s">
         <v>2103</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2106</v>
+      </c>
+      <c r="I16" t="s">
         <v>2104</v>
       </c>
-      <c r="F16" t="s">
-        <v>2106</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2107</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2105</v>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2132</v>
       </c>
     </row>
   </sheetData>
@@ -19542,10 +19833,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC079E-4192-4042-9084-101DC20DC760}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19683,13 +19974,13 @@
         <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>1575</v>
+        <v>2158</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G5" t="s">
         <v>1339</v>
@@ -19700,7 +19991,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>78</v>
@@ -19709,13 +20000,13 @@
         <v>395</v>
       </c>
       <c r="D6" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E6" t="s">
         <v>953</v>
       </c>
       <c r="F6" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G6" t="s">
         <v>1339</v>
@@ -19960,7 +20251,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>78</v>
@@ -19969,16 +20260,16 @@
         <v>823</v>
       </c>
       <c r="D16" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E16" t="s">
         <v>79</v>
       </c>
       <c r="F16" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G16" t="s">
         <v>1712</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1713</v>
       </c>
       <c r="I16" t="s">
         <v>76</v>
@@ -20064,7 +20355,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>78</v>
@@ -20116,100 +20407,100 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1425</v>
+        <v>2159</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1420</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>1421</v>
+        <v>2157</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2161</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>1422</v>
+        <v>2160</v>
       </c>
       <c r="G22" t="s">
-        <v>1423</v>
+        <v>1437</v>
       </c>
       <c r="I22" t="s">
-        <v>1424</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>2123</v>
+        <v>1425</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1420</v>
       </c>
       <c r="C23" t="s">
-        <v>2124</v>
+        <v>1422</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>2125</v>
+        <v>1421</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="F23" t="s">
-        <v>2126</v>
+        <v>1422</v>
       </c>
       <c r="G23" t="s">
-        <v>2126</v>
+        <v>1423</v>
       </c>
       <c r="I23" t="s">
-        <v>2127</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1811</v>
+        <v>2122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1805</v>
+        <v>1420</v>
       </c>
       <c r="C24" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1808</v>
+        <v>2123</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>2124</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>1806</v>
+        <v>2125</v>
       </c>
       <c r="G24" t="s">
-        <v>332</v>
+        <v>2125</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C25" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="D25" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="E25" t="s">
         <v>188</v>
       </c>
       <c r="F25" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="G25" t="s">
         <v>332</v>
@@ -20220,22 +20511,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1842</v>
+        <v>1811</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C26" t="s">
-        <v>1841</v>
+        <v>1809</v>
       </c>
       <c r="D26" t="s">
-        <v>1843</v>
+        <v>1812</v>
       </c>
       <c r="E26" t="s">
         <v>188</v>
       </c>
       <c r="F26" t="s">
-        <v>1840</v>
+        <v>1808</v>
       </c>
       <c r="G26" t="s">
         <v>332</v>
@@ -20246,22 +20537,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1879</v>
+        <v>1841</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C27" t="s">
-        <v>1876</v>
+        <v>1840</v>
       </c>
       <c r="D27" t="s">
-        <v>1877</v>
+        <v>1842</v>
       </c>
       <c r="E27" t="s">
         <v>188</v>
       </c>
       <c r="F27" t="s">
-        <v>1878</v>
+        <v>1839</v>
       </c>
       <c r="G27" t="s">
         <v>332</v>
@@ -20272,22 +20563,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C28" t="s">
-        <v>1886</v>
+        <v>1875</v>
       </c>
       <c r="D28" t="s">
-        <v>1888</v>
+        <v>1876</v>
       </c>
       <c r="E28" t="s">
         <v>188</v>
       </c>
       <c r="F28" t="s">
-        <v>1885</v>
+        <v>1877</v>
       </c>
       <c r="G28" t="s">
         <v>332</v>
@@ -20298,27 +20589,53 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1895</v>
+        <v>1886</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C29" t="s">
-        <v>1893</v>
+        <v>1885</v>
       </c>
       <c r="D29" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E29" t="s">
         <v>188</v>
       </c>
       <c r="F29" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="G29" t="s">
         <v>332</v>
       </c>
       <c r="I29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G30" t="s">
+        <v>332</v>
+      </c>
+      <c r="I30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -20570,7 +20887,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>190</v>
@@ -20579,13 +20896,13 @@
         <v>373</v>
       </c>
       <c r="D9" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -20867,22 +21184,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
       </c>
       <c r="C6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D6" t="s">
         <v>1580</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1581</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>1582</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1583</v>
       </c>
       <c r="G6" t="s">
         <v>85</v>
@@ -20919,28 +21236,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B8" t="s">
         <v>765</v>
       </c>
       <c r="C8" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F8" t="s">
         <v>1962</v>
       </c>
-      <c r="D8" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1965</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>1963</v>
       </c>
-      <c r="G8" t="s">
-        <v>1964</v>
-      </c>
       <c r="I8" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -21234,7 +21551,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B20" t="s">
         <v>533</v>
@@ -21243,19 +21560,19 @@
         <v>534</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I20" t="s">
         <v>1959</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1956</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1957</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1958</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -21448,10 +21765,10 @@
         <v>213</v>
       </c>
       <c r="C28" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D28" t="s">
         <v>1592</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1593</v>
       </c>
       <c r="E28" t="s">
         <v>769</v>
@@ -21468,48 +21785,48 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B29" t="s">
         <v>207</v>
       </c>
       <c r="C29" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E29" t="s">
         <v>1707</v>
       </c>
-      <c r="D29" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1708</v>
-      </c>
       <c r="F29" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G29" t="s">
         <v>1419</v>
       </c>
       <c r="I29" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B30" t="s">
         <v>1061</v>
       </c>
       <c r="C30" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D30" t="s">
         <v>1067</v>
       </c>
       <c r="E30" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F30" t="s">
         <v>1727</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1728</v>
       </c>
       <c r="G30" t="s">
         <v>1066</v>

--- a/WyyComponentDatabase.xlsx
+++ b/WyyComponentDatabase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadence\SPB_Data\Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C125D1-2C6C-4E67-B750-D90CC399ABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8176F50E-585B-4776-9A22-E457338E714F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <sheet name="其他芯片" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">电源IC!$A$1:$J$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">晶体管!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">其他芯片!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">贴片电容!$A$1:$J$1</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="2231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="2247">
   <si>
     <t>Part Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8650,6 +8650,64 @@
   </si>
   <si>
     <t>CL10A226MQ8NRNC</t>
+  </si>
+  <si>
+    <t>2031200017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS562207</t>
+  </si>
+  <si>
+    <t>DC-DC降压;输入4.3-17v;开关频率=580KHz;FCCM;SOT563;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS562207DRLR</t>
+  </si>
+  <si>
+    <t>SOT563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDC6PINSOT563</t>
+  </si>
+  <si>
+    <t>1311106002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X5R;10μF;+/-20%;25V;0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL10A106MA8NRNC</t>
+  </si>
+  <si>
+    <t>1111523400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.3K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES FILM;52.3KΩ;+/-1%;1/16W;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0752K3L</t>
+  </si>
+  <si>
+    <t>1311334001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP CER X7R;330nF;+/-10%;25V;0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL05A334KA5NNNC</t>
   </si>
 </sst>
 </file>
@@ -9149,11 +9207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12029,22 +12087,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>1476</v>
+        <v>2240</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1475</v>
+        <v>2241</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1477</v>
+        <v>2242</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1478</v>
+        <v>2243</v>
       </c>
       <c r="G111" t="s">
         <v>19</v>
@@ -12055,25 +12113,25 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>680</v>
+        <v>1476</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>679</v>
+        <v>1475</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>678</v>
+        <v>1477</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>677</v>
+        <v>1478</v>
       </c>
       <c r="G112" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>339</v>
@@ -12081,22 +12139,22 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="G113" t="s">
         <v>332</v>
@@ -12107,25 +12165,25 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>608</v>
+        <v>687</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>610</v>
+        <v>697</v>
       </c>
       <c r="G114" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>339</v>
@@ -12133,25 +12191,25 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>401</v>
+        <v>607</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>400</v>
+        <v>608</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>403</v>
+        <v>609</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>402</v>
+        <v>610</v>
       </c>
       <c r="G115" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>339</v>
@@ -12159,24 +12217,24 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>331</v>
+        <v>401</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G116" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G116" t="s">
         <v>332</v>
       </c>
       <c r="I116" s="1" t="s">
@@ -12185,7 +12243,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>10</v>
@@ -12194,16 +12252,16 @@
         <v>330</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
+        <v>328</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>339</v>
@@ -12211,22 +12269,22 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1155</v>
+        <v>338</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1154</v>
+        <v>330</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1157</v>
+        <v>337</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1156</v>
+        <v>1083</v>
       </c>
       <c r="G118" t="s">
         <v>19</v>
@@ -12237,22 +12295,22 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1704</v>
+        <v>1155</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1705</v>
+        <v>1154</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1706</v>
+        <v>1157</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1707</v>
+        <v>1156</v>
       </c>
       <c r="G119" t="s">
         <v>19</v>
@@ -12263,25 +12321,25 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1818</v>
+        <v>1704</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1817</v>
+        <v>1705</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1819</v>
+        <v>1706</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>332</v>
+        <v>1707</v>
+      </c>
+      <c r="G120" t="s">
+        <v>19</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>339</v>
@@ -12289,25 +12347,25 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>1080</v>
+        <v>1818</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1081</v>
+        <v>1817</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1082</v>
+        <v>1819</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
+        <v>1820</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>339</v>
@@ -12315,13 +12373,13 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>1676</v>
+        <v>1080</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1675</v>
+        <v>1081</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>1082</v>
@@ -12330,7 +12388,7 @@
         <v>12</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1677</v>
+        <v>1084</v>
       </c>
       <c r="G122" t="s">
         <v>19</v>
@@ -12341,25 +12399,25 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>1885</v>
+        <v>1676</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1884</v>
+        <v>1675</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1886</v>
+        <v>1082</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1887</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>332</v>
+        <v>1677</v>
+      </c>
+      <c r="G123" t="s">
+        <v>19</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>339</v>
@@ -12367,25 +12425,25 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1273</v>
+        <v>1885</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1272</v>
+        <v>1884</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1274</v>
+        <v>1886</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
+        <v>1887</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>339</v>
@@ -12393,22 +12451,22 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>1104</v>
+        <v>1273</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1105</v>
+        <v>1272</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1106</v>
+        <v>1274</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -12419,22 +12477,22 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>829</v>
+        <v>1104</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>828</v>
+        <v>1105</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>830</v>
+        <v>1106</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>827</v>
+        <v>1107</v>
       </c>
       <c r="G126" t="s">
         <v>19</v>
@@ -12445,22 +12503,22 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>1921</v>
+        <v>829</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1920</v>
+        <v>828</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1922</v>
+        <v>830</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1923</v>
+        <v>827</v>
       </c>
       <c r="G127" t="s">
         <v>19</v>
@@ -12471,22 +12529,22 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>1304</v>
+        <v>1921</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1303</v>
+        <v>1920</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1305</v>
+        <v>1922</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1306</v>
+        <v>1923</v>
       </c>
       <c r="G128" t="s">
         <v>19</v>
@@ -12497,22 +12555,22 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>623</v>
+        <v>1304</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>622</v>
+        <v>1303</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>621</v>
+        <v>1305</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>620</v>
+        <v>1306</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -12523,22 +12581,22 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>1389</v>
+        <v>623</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1388</v>
+        <v>622</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1390</v>
+        <v>621</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1391</v>
+        <v>620</v>
       </c>
       <c r="G130" t="s">
         <v>19</v>
@@ -12549,22 +12607,22 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>1389</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>271</v>
+        <v>1388</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>133</v>
+        <v>1390</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>131</v>
+        <v>1391</v>
       </c>
       <c r="G131" t="s">
         <v>19</v>
@@ -12575,22 +12633,22 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>1539</v>
+        <v>134</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1538</v>
+        <v>271</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1540</v>
+        <v>133</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1541</v>
+        <v>131</v>
       </c>
       <c r="G132" t="s">
         <v>19</v>
@@ -12601,25 +12659,25 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>691</v>
+        <v>1539</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>690</v>
+        <v>1538</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>689</v>
+        <v>1540</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>696</v>
+        <v>1541</v>
       </c>
       <c r="G133" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>339</v>
@@ -12627,25 +12685,25 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>1054</v>
+        <v>691</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1056</v>
+        <v>690</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1057</v>
+        <v>689</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1058</v>
+        <v>696</v>
       </c>
       <c r="G134" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>339</v>
@@ -12653,25 +12711,25 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>399</v>
+        <v>1054</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>398</v>
+        <v>1056</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>404</v>
+        <v>1057</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>402</v>
+        <v>1058</v>
       </c>
       <c r="G135" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>339</v>
@@ -12679,22 +12737,22 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>695</v>
+        <v>399</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>694</v>
+        <v>398</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>693</v>
+        <v>404</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>692</v>
+        <v>402</v>
       </c>
       <c r="G136" t="s">
         <v>332</v>
@@ -12705,27 +12763,53 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G137" t="s">
+        <v>332</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>1650</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="I138" s="1" t="s">
         <v>1654</v>
       </c>
     </row>
@@ -12746,10 +12830,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13609,138 +13693,164 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1661</v>
+        <v>2231</v>
       </c>
       <c r="B33" t="s">
-        <v>1660</v>
+        <v>389</v>
       </c>
       <c r="C33" t="s">
-        <v>1662</v>
+        <v>2232</v>
       </c>
       <c r="D33" t="s">
-        <v>1663</v>
+        <v>2233</v>
       </c>
       <c r="E33" t="s">
-        <v>1665</v>
+        <v>845</v>
       </c>
       <c r="F33" t="s">
-        <v>1662</v>
+        <v>2234</v>
       </c>
       <c r="G33" t="s">
-        <v>1664</v>
+        <v>2235</v>
       </c>
       <c r="I33" t="s">
-        <v>1662</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>2188</v>
+        <v>1661</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>1660</v>
       </c>
       <c r="C34" t="s">
-        <v>2193</v>
+        <v>1662</v>
       </c>
       <c r="D34" t="s">
-        <v>2190</v>
+        <v>1663</v>
       </c>
       <c r="E34" t="s">
-        <v>2191</v>
+        <v>1665</v>
       </c>
       <c r="F34" t="s">
-        <v>2189</v>
+        <v>1662</v>
       </c>
       <c r="G34" t="s">
-        <v>2192</v>
+        <v>1664</v>
       </c>
       <c r="I34" t="s">
-        <v>2193</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>722</v>
+        <v>2188</v>
       </c>
       <c r="B35" t="s">
-        <v>717</v>
+        <v>389</v>
       </c>
       <c r="C35" t="s">
-        <v>718</v>
+        <v>2193</v>
       </c>
       <c r="D35" t="s">
-        <v>720</v>
+        <v>2190</v>
       </c>
       <c r="E35" t="s">
-        <v>514</v>
+        <v>2191</v>
       </c>
       <c r="F35" t="s">
-        <v>719</v>
+        <v>2189</v>
       </c>
       <c r="G35" t="s">
-        <v>1586</v>
+        <v>2192</v>
       </c>
       <c r="I35" t="s">
-        <v>721</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1620</v>
+        <v>722</v>
       </c>
       <c r="B36" t="s">
         <v>717</v>
       </c>
       <c r="C36" t="s">
-        <v>1308</v>
+        <v>718</v>
       </c>
       <c r="D36" t="s">
-        <v>1309</v>
+        <v>720</v>
       </c>
       <c r="E36" t="s">
-        <v>845</v>
+        <v>514</v>
       </c>
       <c r="F36" t="s">
-        <v>1307</v>
+        <v>719</v>
       </c>
       <c r="G36" t="s">
-        <v>1310</v>
+        <v>1586</v>
       </c>
       <c r="I36" t="s">
-        <v>1311</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B37" t="s">
+        <v>717</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E37" t="s">
+        <v>845</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>1643</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>1645</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>1647</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>1646</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>1645</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>1642</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>1645</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J37" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J36">
-      <sortCondition ref="A1:A36"/>
+  <autoFilter ref="A1:J38" xr:uid="{47A56977-BF1C-4909-8B1B-32F3873FBB32}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J37">
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15595,11 +15705,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB78C2-2208-4DF0-8ABB-0CE48BD26296}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16507,57 +16617,54 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>816</v>
+        <v>2237</v>
       </c>
       <c r="B35" t="s">
-        <v>813</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>817</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E35" t="s">
-        <v>815</v>
+        <v>2238</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>814</v>
+        <v>2239</v>
       </c>
       <c r="G35" t="s">
-        <v>818</v>
-      </c>
-      <c r="H35" t="s">
-        <v>820</v>
+        <v>120</v>
       </c>
       <c r="I35" t="s">
-        <v>819</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1121</v>
+        <v>816</v>
       </c>
       <c r="B36" t="s">
-        <v>1113</v>
+        <v>813</v>
       </c>
       <c r="C36" t="s">
         <v>817</v>
       </c>
       <c r="D36" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="E36" t="s">
-        <v>1123</v>
+        <v>815</v>
       </c>
       <c r="F36" t="s">
-        <v>1124</v>
+        <v>814</v>
       </c>
       <c r="G36" t="s">
-        <v>1117</v>
+        <v>818</v>
       </c>
       <c r="H36" t="s">
-        <v>1115</v>
+        <v>820</v>
       </c>
       <c r="I36" t="s">
         <v>819</v>
@@ -16565,28 +16672,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>2029</v>
+        <v>1121</v>
       </c>
       <c r="B37" t="s">
-        <v>813</v>
+        <v>1113</v>
       </c>
       <c r="C37" t="s">
         <v>817</v>
       </c>
       <c r="D37" t="s">
-        <v>2031</v>
+        <v>1122</v>
       </c>
       <c r="E37" t="s">
-        <v>815</v>
+        <v>1123</v>
       </c>
       <c r="F37" t="s">
-        <v>2030</v>
+        <v>1124</v>
       </c>
       <c r="G37" t="s">
-        <v>2032</v>
+        <v>1117</v>
       </c>
       <c r="H37" t="s">
-        <v>2036</v>
+        <v>1115</v>
       </c>
       <c r="I37" t="s">
         <v>819</v>
@@ -16594,48 +16701,51 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1251</v>
+        <v>2029</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>813</v>
       </c>
       <c r="C38" t="s">
-        <v>1250</v>
+        <v>817</v>
       </c>
       <c r="D38" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>2031</v>
+      </c>
+      <c r="E38" t="s">
+        <v>815</v>
       </c>
       <c r="F38" t="s">
-        <v>1252</v>
+        <v>2030</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>2032</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2036</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>819</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>349</v>
+        <v>1251</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>348</v>
+        <v>1250</v>
       </c>
       <c r="D39" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
@@ -16646,22 +16756,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>2040</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>2039</v>
+        <v>348</v>
       </c>
       <c r="D40" t="s">
-        <v>2038</v>
+        <v>1255</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>2037</v>
+        <v>1254</v>
       </c>
       <c r="G40" t="s">
         <v>18</v>
@@ -16672,25 +16782,25 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>418</v>
+        <v>2040</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>417</v>
+        <v>2039</v>
       </c>
       <c r="D41" t="s">
-        <v>1257</v>
+        <v>2038</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>1256</v>
+        <v>2037</v>
       </c>
       <c r="G41" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
         <v>20</v>
@@ -16698,7 +16808,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>888</v>
+        <v>418</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -16707,16 +16817,16 @@
         <v>417</v>
       </c>
       <c r="D42" t="s">
-        <v>1442</v>
+        <v>1257</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>889</v>
+        <v>1256</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
@@ -16724,22 +16834,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>197</v>
+        <v>888</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>417</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>1442</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>195</v>
+        <v>889</v>
       </c>
       <c r="G43" t="s">
         <v>18</v>
@@ -16750,22 +16860,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1092</v>
+        <v>197</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>1093</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>1443</v>
+        <v>196</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>1094</v>
+        <v>195</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
@@ -16776,22 +16886,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>167</v>
+        <v>1092</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>1093</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>1443</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>1094</v>
       </c>
       <c r="G45" t="s">
         <v>18</v>
@@ -16802,7 +16912,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1488</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -16811,16 +16921,16 @@
         <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>1489</v>
+        <v>165</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>1490</v>
+        <v>164</v>
       </c>
       <c r="G46" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
         <v>20</v>
@@ -16828,25 +16938,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1131</v>
+        <v>1488</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>1132</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>1582</v>
+        <v>1489</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>1581</v>
+        <v>1490</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="I47" t="s">
         <v>20</v>
@@ -16854,7 +16964,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1386</v>
+        <v>1131</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
@@ -16863,16 +16973,16 @@
         <v>1132</v>
       </c>
       <c r="D48" t="s">
-        <v>1387</v>
+        <v>1582</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
         <v>20</v>
@@ -16880,22 +16990,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>170</v>
+        <v>1386</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>1132</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>1387</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>168</v>
+        <v>1580</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
@@ -16906,7 +17016,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1592</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -16915,16 +17025,16 @@
         <v>280</v>
       </c>
       <c r="D50" t="s">
-        <v>1594</v>
+        <v>169</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>1593</v>
+        <v>168</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
         <v>20</v>
@@ -16932,7 +17042,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1907</v>
+        <v>1592</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
@@ -16941,16 +17051,16 @@
         <v>280</v>
       </c>
       <c r="D51" t="s">
-        <v>1908</v>
+        <v>1594</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>1909</v>
+        <v>1593</v>
       </c>
       <c r="G51" t="s">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s">
         <v>20</v>
@@ -16958,25 +17068,25 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>121</v>
+        <v>1907</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D52" t="s">
-        <v>541</v>
+        <v>1908</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>550</v>
+        <v>1909</v>
       </c>
       <c r="G52" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="I52" t="s">
         <v>20</v>
@@ -16984,7 +17094,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1118</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
@@ -16993,16 +17103,16 @@
         <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>1119</v>
+        <v>541</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>1120</v>
+        <v>550</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="I53" t="s">
         <v>20</v>
@@ -17010,7 +17120,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1435</v>
+        <v>1118</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -17019,16 +17129,16 @@
         <v>281</v>
       </c>
       <c r="D54" t="s">
-        <v>1437</v>
+        <v>1119</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>1436</v>
+        <v>1120</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I54" t="s">
         <v>20</v>
@@ -17036,7 +17146,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>2224</v>
+        <v>1435</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
@@ -17045,16 +17155,16 @@
         <v>281</v>
       </c>
       <c r="D55" t="s">
-        <v>1119</v>
+        <v>1437</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="F55" t="s">
-        <v>2223</v>
+        <v>1436</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
         <v>20</v>
@@ -17062,7 +17172,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
@@ -17071,16 +17181,16 @@
         <v>281</v>
       </c>
       <c r="D56" t="s">
-        <v>2229</v>
+        <v>1119</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>2230</v>
+        <v>2223</v>
       </c>
       <c r="G56" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="I56" t="s">
         <v>20</v>
@@ -17088,36 +17198,33 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1150</v>
+        <v>2228</v>
       </c>
       <c r="B57" t="s">
-        <v>1113</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>1149</v>
+        <v>281</v>
       </c>
       <c r="D57" t="s">
-        <v>1151</v>
+        <v>2229</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1152</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>1153</v>
+        <v>2230</v>
       </c>
       <c r="G57" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1115</v>
+        <v>120</v>
       </c>
       <c r="I57" t="s">
-        <v>819</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>2025</v>
+        <v>1150</v>
       </c>
       <c r="B58" t="s">
         <v>1113</v>
@@ -17126,16 +17233,19 @@
         <v>1149</v>
       </c>
       <c r="D58" t="s">
-        <v>2026</v>
+        <v>1151</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>1152</v>
       </c>
       <c r="F58" t="s">
-        <v>2027</v>
+        <v>1153</v>
       </c>
       <c r="G58" t="s">
-        <v>2028</v>
+        <v>1117</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1115</v>
       </c>
       <c r="I58" t="s">
         <v>819</v>
@@ -17143,28 +17253,25 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="B59" t="s">
-        <v>813</v>
+        <v>1113</v>
       </c>
       <c r="C59" t="s">
         <v>1149</v>
       </c>
       <c r="D59" t="s">
-        <v>2034</v>
-      </c>
-      <c r="E59" t="s">
-        <v>815</v>
+        <v>2026</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1152</v>
       </c>
       <c r="F59" t="s">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="G59" t="s">
-        <v>2032</v>
-      </c>
-      <c r="H59" t="s">
-        <v>2036</v>
+        <v>2028</v>
       </c>
       <c r="I59" t="s">
         <v>819</v>
@@ -17172,51 +17279,54 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>161</v>
+        <v>2033</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>813</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>1149</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>158</v>
+        <v>2034</v>
+      </c>
+      <c r="E60" t="s">
+        <v>815</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2035</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>2032</v>
+      </c>
+      <c r="H60" t="s">
+        <v>2036</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>980</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>981</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>982</v>
+        <v>159</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>983</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>984</v>
+        <v>158</v>
       </c>
       <c r="G61" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I61" t="s">
         <v>20</v>
@@ -17224,51 +17334,48 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1145</v>
+        <v>980</v>
       </c>
       <c r="B62" t="s">
-        <v>1113</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>1146</v>
+        <v>981</v>
       </c>
       <c r="D62" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1148</v>
+        <v>982</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>984</v>
       </c>
       <c r="G62" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H62" t="s">
-        <v>1115</v>
+        <v>120</v>
       </c>
       <c r="I62" t="s">
-        <v>819</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>58</v>
+        <v>2244</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>282</v>
+        <v>981</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>2245</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" t="s">
-        <v>60</v>
+        <v>1010</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2246</v>
       </c>
       <c r="G63" t="s">
         <v>18</v>
@@ -17279,33 +17386,36 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>1145</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>1113</v>
       </c>
       <c r="C64" t="s">
-        <v>282</v>
+        <v>1146</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>1147</v>
       </c>
       <c r="E64" t="s">
-        <v>70</v>
+        <v>1116</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>1148</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>1117</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1115</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>819</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1453</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
@@ -17314,16 +17424,16 @@
         <v>282</v>
       </c>
       <c r="D65" t="s">
-        <v>1451</v>
+        <v>59</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>1452</v>
+        <v>60</v>
       </c>
       <c r="G65" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="I65" t="s">
         <v>20</v>
@@ -17331,22 +17441,22 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>549</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>548</v>
+        <v>282</v>
       </c>
       <c r="D66" t="s">
-        <v>552</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
       </c>
       <c r="F66" t="s">
-        <v>551</v>
+        <v>69</v>
       </c>
       <c r="G66" t="s">
         <v>71</v>
@@ -17357,59 +17467,111 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1111</v>
+        <v>1453</v>
       </c>
       <c r="B67" t="s">
-        <v>1113</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>1109</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1116</v>
+        <v>1451</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="F67" t="s">
-        <v>1114</v>
+        <v>1452</v>
       </c>
       <c r="G67" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H67" t="s">
-        <v>1115</v>
+        <v>325</v>
       </c>
       <c r="I67" t="s">
-        <v>819</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>549</v>
+      </c>
       <c r="B68" t="s">
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="1"/>
+        <v>548</v>
+      </c>
+      <c r="D68" t="s">
+        <v>552</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>551</v>
+      </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I68" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>1111</v>
+      </c>
       <c r="B69" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I69" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>17</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>90</v>
       </c>
-      <c r="G69" t="s">
+      <c r="E70" s="1"/>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
         <v>325</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I71" t="s">
         <v>20</v>
       </c>
     </row>
